--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Wales Welsh Premier League</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Newtown</t>
+  </si>
+  <si>
+    <t>Aberystwyth Town</t>
+  </si>
+  <si>
+    <t>['50', '68', '70', '77']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +809,212 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7469187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45513.65625</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <v>1.83</v>
+      </c>
+      <c r="R2">
+        <v>2.5</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>1.29</v>
+      </c>
+      <c r="U2">
+        <v>3.5</v>
+      </c>
+      <c r="V2">
+        <v>2.25</v>
+      </c>
+      <c r="W2">
+        <v>1.57</v>
+      </c>
+      <c r="X2">
+        <v>4.5</v>
+      </c>
+      <c r="Y2">
+        <v>1.17</v>
+      </c>
+      <c r="Z2">
+        <v>1.47</v>
+      </c>
+      <c r="AA2">
+        <v>4.17</v>
+      </c>
+      <c r="AB2">
+        <v>5.36</v>
+      </c>
+      <c r="AC2">
+        <v>1.02</v>
+      </c>
+      <c r="AD2">
+        <v>10</v>
+      </c>
+      <c r="AE2">
+        <v>1.13</v>
+      </c>
+      <c r="AF2">
+        <v>4.8</v>
+      </c>
+      <c r="AG2">
+        <v>1.55</v>
+      </c>
+      <c r="AH2">
+        <v>2.15</v>
+      </c>
+      <c r="AI2">
+        <v>1.8</v>
+      </c>
+      <c r="AJ2">
+        <v>1.91</v>
+      </c>
+      <c r="AK2">
+        <v>1.07</v>
+      </c>
+      <c r="AL2">
+        <v>1.15</v>
+      </c>
+      <c r="AM2">
+        <v>2.8</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>3</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>7</v>
+      </c>
+      <c r="AV2">
+        <v>2</v>
+      </c>
+      <c r="AW2">
+        <v>10</v>
+      </c>
+      <c r="AX2">
+        <v>6</v>
+      </c>
+      <c r="AY2">
+        <v>17</v>
+      </c>
+      <c r="AZ2">
+        <v>8</v>
+      </c>
+      <c r="BA2">
+        <v>12</v>
+      </c>
+      <c r="BB2">
+        <v>6</v>
+      </c>
+      <c r="BC2">
+        <v>18</v>
+      </c>
+      <c r="BD2">
+        <v>1.36</v>
+      </c>
+      <c r="BE2">
+        <v>7.2</v>
+      </c>
+      <c r="BF2">
+        <v>4.1</v>
+      </c>
+      <c r="BG2">
+        <v>1.3</v>
+      </c>
+      <c r="BH2">
+        <v>3.2</v>
+      </c>
+      <c r="BI2">
+        <v>1.46</v>
+      </c>
+      <c r="BJ2">
+        <v>2.45</v>
+      </c>
+      <c r="BK2">
+        <v>1.81</v>
+      </c>
+      <c r="BL2">
+        <v>1.85</v>
+      </c>
+      <c r="BM2">
+        <v>2.32</v>
+      </c>
+      <c r="BN2">
+        <v>1.51</v>
+      </c>
+      <c r="BO2">
+        <v>3</v>
+      </c>
+      <c r="BP2">
+        <v>1.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,13 +229,37 @@
     <t>Newtown</t>
   </si>
   <si>
+    <t>Barry Town United</t>
+  </si>
+  <si>
+    <t>Flint Town United</t>
+  </si>
+  <si>
     <t>Aberystwyth Town</t>
   </si>
   <si>
+    <t>Bala Town</t>
+  </si>
+  <si>
+    <t>Cardiff MU</t>
+  </si>
+  <si>
     <t>['50', '68', '70', '77']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['21', '56']</t>
   </si>
 </sst>
 </file>
@@ -597,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +856,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -853,10 +877,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1013,6 +1037,418 @@
       </c>
       <c r="BP2">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7469188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45514.4375</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3">
+        <v>3.75</v>
+      </c>
+      <c r="R3">
+        <v>2.3</v>
+      </c>
+      <c r="S3">
+        <v>2.4</v>
+      </c>
+      <c r="T3">
+        <v>1.3</v>
+      </c>
+      <c r="U3">
+        <v>3.4</v>
+      </c>
+      <c r="V3">
+        <v>2.5</v>
+      </c>
+      <c r="W3">
+        <v>1.5</v>
+      </c>
+      <c r="X3">
+        <v>5.5</v>
+      </c>
+      <c r="Y3">
+        <v>1.13</v>
+      </c>
+      <c r="Z3">
+        <v>3.6</v>
+      </c>
+      <c r="AA3">
+        <v>3.6</v>
+      </c>
+      <c r="AB3">
+        <v>1.8</v>
+      </c>
+      <c r="AC3">
+        <v>1.01</v>
+      </c>
+      <c r="AD3">
+        <v>11</v>
+      </c>
+      <c r="AE3">
+        <v>1.17</v>
+      </c>
+      <c r="AF3">
+        <v>4.2</v>
+      </c>
+      <c r="AG3">
+        <v>1.61</v>
+      </c>
+      <c r="AH3">
+        <v>2.15</v>
+      </c>
+      <c r="AI3">
+        <v>1.57</v>
+      </c>
+      <c r="AJ3">
+        <v>2.25</v>
+      </c>
+      <c r="AK3">
+        <v>1.8</v>
+      </c>
+      <c r="AL3">
+        <v>1.26</v>
+      </c>
+      <c r="AM3">
+        <v>1.23</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>-1</v>
+      </c>
+      <c r="AV3">
+        <v>-1</v>
+      </c>
+      <c r="AW3">
+        <v>-1</v>
+      </c>
+      <c r="AX3">
+        <v>-1</v>
+      </c>
+      <c r="AY3">
+        <v>-1</v>
+      </c>
+      <c r="AZ3">
+        <v>-1</v>
+      </c>
+      <c r="BA3">
+        <v>-1</v>
+      </c>
+      <c r="BB3">
+        <v>-1</v>
+      </c>
+      <c r="BC3">
+        <v>-1</v>
+      </c>
+      <c r="BD3">
+        <v>2.11</v>
+      </c>
+      <c r="BE3">
+        <v>6.2</v>
+      </c>
+      <c r="BF3">
+        <v>2.07</v>
+      </c>
+      <c r="BG3">
+        <v>1.29</v>
+      </c>
+      <c r="BH3">
+        <v>3.4</v>
+      </c>
+      <c r="BI3">
+        <v>1.45</v>
+      </c>
+      <c r="BJ3">
+        <v>2.51</v>
+      </c>
+      <c r="BK3">
+        <v>1.98</v>
+      </c>
+      <c r="BL3">
+        <v>1.82</v>
+      </c>
+      <c r="BM3">
+        <v>2.19</v>
+      </c>
+      <c r="BN3">
+        <v>1.6</v>
+      </c>
+      <c r="BO3">
+        <v>2.8</v>
+      </c>
+      <c r="BP3">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7469189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45514.4375</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4">
+        <v>3.6</v>
+      </c>
+      <c r="R4">
+        <v>2.3</v>
+      </c>
+      <c r="S4">
+        <v>2.5</v>
+      </c>
+      <c r="T4">
+        <v>1.3</v>
+      </c>
+      <c r="U4">
+        <v>3.4</v>
+      </c>
+      <c r="V4">
+        <v>2.5</v>
+      </c>
+      <c r="W4">
+        <v>1.5</v>
+      </c>
+      <c r="X4">
+        <v>5.5</v>
+      </c>
+      <c r="Y4">
+        <v>1.13</v>
+      </c>
+      <c r="Z4">
+        <v>2.8</v>
+      </c>
+      <c r="AA4">
+        <v>3.5</v>
+      </c>
+      <c r="AB4">
+        <v>2.1</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>1.6</v>
+      </c>
+      <c r="AH4">
+        <v>2.2</v>
+      </c>
+      <c r="AI4">
+        <v>1.62</v>
+      </c>
+      <c r="AJ4">
+        <v>2.2</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>-1</v>
+      </c>
+      <c r="AV4">
+        <v>-1</v>
+      </c>
+      <c r="AW4">
+        <v>-1</v>
+      </c>
+      <c r="AX4">
+        <v>-1</v>
+      </c>
+      <c r="AY4">
+        <v>-1</v>
+      </c>
+      <c r="AZ4">
+        <v>-1</v>
+      </c>
+      <c r="BA4">
+        <v>-1</v>
+      </c>
+      <c r="BB4">
+        <v>-1</v>
+      </c>
+      <c r="BC4">
+        <v>-1</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -235,6 +235,12 @@
     <t>Flint Town United</t>
   </si>
   <si>
+    <t>Connah's Quay</t>
+  </si>
+  <si>
+    <t>Briton Ferry</t>
+  </si>
+  <si>
     <t>Aberystwyth Town</t>
   </si>
   <si>
@@ -244,6 +250,12 @@
     <t>Cardiff MU</t>
   </si>
   <si>
+    <t>Haverfordwest County</t>
+  </si>
+  <si>
+    <t>Penybont</t>
+  </si>
+  <si>
     <t>['50', '68', '70', '77']</t>
   </si>
   <si>
@@ -253,6 +265,9 @@
     <t>['9']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -260,6 +275,12 @@
   </si>
   <si>
     <t>['21', '56']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['41', '45+3']</t>
   </si>
 </sst>
 </file>
@@ -621,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP4"/>
+  <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -856,7 +877,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -877,10 +898,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1062,7 +1083,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1083,10 +1104,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1179,31 +1200,31 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX3">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ3">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB3">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BC3">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD3">
         <v>2.11</v>
@@ -1268,7 +1289,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1289,10 +1310,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1385,31 +1406,31 @@
         <v>0</v>
       </c>
       <c r="AU4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ4">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BB4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC4">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD4">
         <v>0</v>
@@ -1449,6 +1470,418 @@
       </c>
       <c r="BP4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7469191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45515.4375</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q5">
+        <v>1.73</v>
+      </c>
+      <c r="R5">
+        <v>2.75</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>1.2</v>
+      </c>
+      <c r="U5">
+        <v>4.33</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>1.73</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>1.22</v>
+      </c>
+      <c r="Z5">
+        <v>1.37</v>
+      </c>
+      <c r="AA5">
+        <v>5.2</v>
+      </c>
+      <c r="AB5">
+        <v>6.2</v>
+      </c>
+      <c r="AC5">
+        <v>1.01</v>
+      </c>
+      <c r="AD5">
+        <v>19</v>
+      </c>
+      <c r="AE5">
+        <v>1.08</v>
+      </c>
+      <c r="AF5">
+        <v>6.1</v>
+      </c>
+      <c r="AG5">
+        <v>1.34</v>
+      </c>
+      <c r="AH5">
+        <v>2.99</v>
+      </c>
+      <c r="AI5">
+        <v>1.62</v>
+      </c>
+      <c r="AJ5">
+        <v>2.2</v>
+      </c>
+      <c r="AK5">
+        <v>1.08</v>
+      </c>
+      <c r="AL5">
+        <v>1.13</v>
+      </c>
+      <c r="AM5">
+        <v>2.78</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>3</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>6</v>
+      </c>
+      <c r="AV5">
+        <v>4</v>
+      </c>
+      <c r="AW5">
+        <v>2</v>
+      </c>
+      <c r="AX5">
+        <v>5</v>
+      </c>
+      <c r="AY5">
+        <v>8</v>
+      </c>
+      <c r="AZ5">
+        <v>9</v>
+      </c>
+      <c r="BA5">
+        <v>4</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>5</v>
+      </c>
+      <c r="BD5">
+        <v>1.41</v>
+      </c>
+      <c r="BE5">
+        <v>8.5</v>
+      </c>
+      <c r="BF5">
+        <v>3.44</v>
+      </c>
+      <c r="BG5">
+        <v>1.31</v>
+      </c>
+      <c r="BH5">
+        <v>3.1</v>
+      </c>
+      <c r="BI5">
+        <v>1.53</v>
+      </c>
+      <c r="BJ5">
+        <v>2.3</v>
+      </c>
+      <c r="BK5">
+        <v>1.95</v>
+      </c>
+      <c r="BL5">
+        <v>1.85</v>
+      </c>
+      <c r="BM5">
+        <v>2.43</v>
+      </c>
+      <c r="BN5">
+        <v>1.48</v>
+      </c>
+      <c r="BO5">
+        <v>3.2</v>
+      </c>
+      <c r="BP5">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7469190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45515.54861111111</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>2.5</v>
+      </c>
+      <c r="S6">
+        <v>2.2</v>
+      </c>
+      <c r="T6">
+        <v>1.25</v>
+      </c>
+      <c r="U6">
+        <v>3.75</v>
+      </c>
+      <c r="V6">
+        <v>2.2</v>
+      </c>
+      <c r="W6">
+        <v>1.62</v>
+      </c>
+      <c r="X6">
+        <v>4.5</v>
+      </c>
+      <c r="Y6">
+        <v>1.17</v>
+      </c>
+      <c r="Z6">
+        <v>3.9</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>1.63</v>
+      </c>
+      <c r="AC6">
+        <v>1.02</v>
+      </c>
+      <c r="AD6">
+        <v>10</v>
+      </c>
+      <c r="AE6">
+        <v>1.12</v>
+      </c>
+      <c r="AF6">
+        <v>5.05</v>
+      </c>
+      <c r="AG6">
+        <v>1.48</v>
+      </c>
+      <c r="AH6">
+        <v>2.47</v>
+      </c>
+      <c r="AI6">
+        <v>1.5</v>
+      </c>
+      <c r="AJ6">
+        <v>2.5</v>
+      </c>
+      <c r="AK6">
+        <v>2.08</v>
+      </c>
+      <c r="AL6">
+        <v>1.19</v>
+      </c>
+      <c r="AM6">
+        <v>1.18</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>3</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>2</v>
+      </c>
+      <c r="AV6">
+        <v>12</v>
+      </c>
+      <c r="AW6">
+        <v>2</v>
+      </c>
+      <c r="AX6">
+        <v>8</v>
+      </c>
+      <c r="AY6">
+        <v>4</v>
+      </c>
+      <c r="AZ6">
+        <v>20</v>
+      </c>
+      <c r="BA6">
+        <v>6</v>
+      </c>
+      <c r="BB6">
+        <v>4</v>
+      </c>
+      <c r="BC6">
+        <v>10</v>
+      </c>
+      <c r="BD6">
+        <v>3.78</v>
+      </c>
+      <c r="BE6">
+        <v>8.9</v>
+      </c>
+      <c r="BF6">
+        <v>1.35</v>
+      </c>
+      <c r="BG6">
+        <v>1.26</v>
+      </c>
+      <c r="BH6">
+        <v>3.5</v>
+      </c>
+      <c r="BI6">
+        <v>1.46</v>
+      </c>
+      <c r="BJ6">
+        <v>2.45</v>
+      </c>
+      <c r="BK6">
+        <v>1.85</v>
+      </c>
+      <c r="BL6">
+        <v>1.95</v>
+      </c>
+      <c r="BM6">
+        <v>2.2</v>
+      </c>
+      <c r="BN6">
+        <v>1.57</v>
+      </c>
+      <c r="BO6">
+        <v>2.85</v>
+      </c>
+      <c r="BP6">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,19 +241,22 @@
     <t>Briton Ferry</t>
   </si>
   <si>
+    <t>Bala Town</t>
+  </si>
+  <si>
+    <t>Cardiff MU</t>
+  </si>
+  <si>
+    <t>Penybont</t>
+  </si>
+  <si>
     <t>Aberystwyth Town</t>
   </si>
   <si>
-    <t>Bala Town</t>
-  </si>
-  <si>
-    <t>Cardiff MU</t>
-  </si>
-  <si>
     <t>Haverfordwest County</t>
   </si>
   <si>
-    <t>Penybont</t>
+    <t>The New Saints</t>
   </si>
   <si>
     <t>['50', '68', '70', '77']</t>
@@ -268,6 +271,18 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['16', '50']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -281,6 +296,15 @@
   </si>
   <si>
     <t>['41', '45+3']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['23', '30', '59', '69']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
 </sst>
 </file>
@@ -642,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP6"/>
+  <dimension ref="A1:BP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -877,7 +901,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -898,10 +922,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1083,7 +1107,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1104,10 +1128,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1289,7 +1313,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1310,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1495,7 +1519,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1516,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1701,7 +1725,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1722,10 +1746,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1882,6 +1906,1036 @@
       </c>
       <c r="BP6">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7469193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45520.65625</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7">
+        <v>1.67</v>
+      </c>
+      <c r="R7">
+        <v>2.63</v>
+      </c>
+      <c r="S7">
+        <v>7.5</v>
+      </c>
+      <c r="T7">
+        <v>1.25</v>
+      </c>
+      <c r="U7">
+        <v>3.75</v>
+      </c>
+      <c r="V7">
+        <v>2.2</v>
+      </c>
+      <c r="W7">
+        <v>1.62</v>
+      </c>
+      <c r="X7">
+        <v>4.5</v>
+      </c>
+      <c r="Y7">
+        <v>1.17</v>
+      </c>
+      <c r="Z7">
+        <v>1.19</v>
+      </c>
+      <c r="AA7">
+        <v>4.75</v>
+      </c>
+      <c r="AB7">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AC7">
+        <v>1.01</v>
+      </c>
+      <c r="AD7">
+        <v>2.5</v>
+      </c>
+      <c r="AE7">
+        <v>1.13</v>
+      </c>
+      <c r="AF7">
+        <v>4.85</v>
+      </c>
+      <c r="AG7">
+        <v>1.45</v>
+      </c>
+      <c r="AH7">
+        <v>2.56</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AJ7">
+        <v>1.73</v>
+      </c>
+      <c r="AK7">
+        <v>1.07</v>
+      </c>
+      <c r="AL7">
+        <v>1.1</v>
+      </c>
+      <c r="AM7">
+        <v>3.2</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>3</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>7</v>
+      </c>
+      <c r="AV7">
+        <v>3</v>
+      </c>
+      <c r="AW7">
+        <v>8</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <v>15</v>
+      </c>
+      <c r="AZ7">
+        <v>8</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7">
+        <v>4</v>
+      </c>
+      <c r="BC7">
+        <v>7</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7469194</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45520.65625</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8">
+        <v>2.7</v>
+      </c>
+      <c r="R8">
+        <v>2.15</v>
+      </c>
+      <c r="S8">
+        <v>3.3</v>
+      </c>
+      <c r="T8">
+        <v>1.37</v>
+      </c>
+      <c r="U8">
+        <v>2.75</v>
+      </c>
+      <c r="V8">
+        <v>2.75</v>
+      </c>
+      <c r="W8">
+        <v>1.37</v>
+      </c>
+      <c r="X8">
+        <v>6.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.07</v>
+      </c>
+      <c r="Z8">
+        <v>2.19</v>
+      </c>
+      <c r="AA8">
+        <v>3.13</v>
+      </c>
+      <c r="AB8">
+        <v>3.05</v>
+      </c>
+      <c r="AC8">
+        <v>1.06</v>
+      </c>
+      <c r="AD8">
+        <v>7.2</v>
+      </c>
+      <c r="AE8">
+        <v>1.3</v>
+      </c>
+      <c r="AF8">
+        <v>3.2</v>
+      </c>
+      <c r="AG8">
+        <v>1.98</v>
+      </c>
+      <c r="AH8">
+        <v>1.76</v>
+      </c>
+      <c r="AI8">
+        <v>1.72</v>
+      </c>
+      <c r="AJ8">
+        <v>1.93</v>
+      </c>
+      <c r="AK8">
+        <v>1.35</v>
+      </c>
+      <c r="AL8">
+        <v>1.3</v>
+      </c>
+      <c r="AM8">
+        <v>1.58</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>4</v>
+      </c>
+      <c r="AV8">
+        <v>7</v>
+      </c>
+      <c r="AW8">
+        <v>7</v>
+      </c>
+      <c r="AX8">
+        <v>9</v>
+      </c>
+      <c r="AY8">
+        <v>11</v>
+      </c>
+      <c r="AZ8">
+        <v>16</v>
+      </c>
+      <c r="BA8">
+        <v>5</v>
+      </c>
+      <c r="BB8">
+        <v>3</v>
+      </c>
+      <c r="BC8">
+        <v>8</v>
+      </c>
+      <c r="BD8">
+        <v>1.64</v>
+      </c>
+      <c r="BE8">
+        <v>6.45</v>
+      </c>
+      <c r="BF8">
+        <v>2.83</v>
+      </c>
+      <c r="BG8">
+        <v>1.33</v>
+      </c>
+      <c r="BH8">
+        <v>3</v>
+      </c>
+      <c r="BI8">
+        <v>1.56</v>
+      </c>
+      <c r="BJ8">
+        <v>2.24</v>
+      </c>
+      <c r="BK8">
+        <v>1.97</v>
+      </c>
+      <c r="BL8">
+        <v>1.79</v>
+      </c>
+      <c r="BM8">
+        <v>2.48</v>
+      </c>
+      <c r="BN8">
+        <v>1.46</v>
+      </c>
+      <c r="BO8">
+        <v>3.2</v>
+      </c>
+      <c r="BP8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7469195</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45520.65625</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9">
+        <v>11</v>
+      </c>
+      <c r="R9">
+        <v>3.4</v>
+      </c>
+      <c r="S9">
+        <v>1.36</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>19</v>
+      </c>
+      <c r="AA9">
+        <v>9</v>
+      </c>
+      <c r="AB9">
+        <v>1.1</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1.25</v>
+      </c>
+      <c r="AH9">
+        <v>3.75</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>3</v>
+      </c>
+      <c r="AR9">
+        <v>1.59</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>1.59</v>
+      </c>
+      <c r="AU9">
+        <v>5</v>
+      </c>
+      <c r="AV9">
+        <v>11</v>
+      </c>
+      <c r="AW9">
+        <v>3</v>
+      </c>
+      <c r="AX9">
+        <v>9</v>
+      </c>
+      <c r="AY9">
+        <v>8</v>
+      </c>
+      <c r="AZ9">
+        <v>20</v>
+      </c>
+      <c r="BA9">
+        <v>6</v>
+      </c>
+      <c r="BB9">
+        <v>3</v>
+      </c>
+      <c r="BC9">
+        <v>9</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7469196</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45520.65625</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10">
+        <v>1.93</v>
+      </c>
+      <c r="R10">
+        <v>1.81</v>
+      </c>
+      <c r="S10">
+        <v>3.15</v>
+      </c>
+      <c r="T10">
+        <v>1.34</v>
+      </c>
+      <c r="U10">
+        <v>2.7</v>
+      </c>
+      <c r="V10">
+        <v>2.2</v>
+      </c>
+      <c r="W10">
+        <v>1.04</v>
+      </c>
+      <c r="X10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>1.11</v>
+      </c>
+      <c r="Z10">
+        <v>1.88</v>
+      </c>
+      <c r="AA10">
+        <v>3.31</v>
+      </c>
+      <c r="AB10">
+        <v>3.16</v>
+      </c>
+      <c r="AC10">
+        <v>1.02</v>
+      </c>
+      <c r="AD10">
+        <v>2.74</v>
+      </c>
+      <c r="AE10">
+        <v>1.23</v>
+      </c>
+      <c r="AF10">
+        <v>2.88</v>
+      </c>
+      <c r="AG10">
+        <v>1.73</v>
+      </c>
+      <c r="AH10">
+        <v>1.99</v>
+      </c>
+      <c r="AI10">
+        <v>1.65</v>
+      </c>
+      <c r="AJ10">
+        <v>2.1</v>
+      </c>
+      <c r="AK10">
+        <v>1.28</v>
+      </c>
+      <c r="AL10">
+        <v>1.27</v>
+      </c>
+      <c r="AM10">
+        <v>1.7</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>6</v>
+      </c>
+      <c r="AV10">
+        <v>5</v>
+      </c>
+      <c r="AW10">
+        <v>7</v>
+      </c>
+      <c r="AX10">
+        <v>6</v>
+      </c>
+      <c r="AY10">
+        <v>13</v>
+      </c>
+      <c r="AZ10">
+        <v>11</v>
+      </c>
+      <c r="BA10">
+        <v>5</v>
+      </c>
+      <c r="BB10">
+        <v>2</v>
+      </c>
+      <c r="BC10">
+        <v>7</v>
+      </c>
+      <c r="BD10">
+        <v>1.45</v>
+      </c>
+      <c r="BE10">
+        <v>7</v>
+      </c>
+      <c r="BF10">
+        <v>3.5</v>
+      </c>
+      <c r="BG10">
+        <v>1.29</v>
+      </c>
+      <c r="BH10">
+        <v>3.3</v>
+      </c>
+      <c r="BI10">
+        <v>1.45</v>
+      </c>
+      <c r="BJ10">
+        <v>2.51</v>
+      </c>
+      <c r="BK10">
+        <v>1.8</v>
+      </c>
+      <c r="BL10">
+        <v>1.96</v>
+      </c>
+      <c r="BM10">
+        <v>2.23</v>
+      </c>
+      <c r="BN10">
+        <v>1.57</v>
+      </c>
+      <c r="BO10">
+        <v>2.88</v>
+      </c>
+      <c r="BP10">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7469197</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45520.66666666666</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11">
+        <v>3.6</v>
+      </c>
+      <c r="R11">
+        <v>1.9</v>
+      </c>
+      <c r="S11">
+        <v>1.65</v>
+      </c>
+      <c r="T11">
+        <v>1.33</v>
+      </c>
+      <c r="U11">
+        <v>3.25</v>
+      </c>
+      <c r="V11">
+        <v>2.65</v>
+      </c>
+      <c r="W11">
+        <v>1.43</v>
+      </c>
+      <c r="X11">
+        <v>5.5</v>
+      </c>
+      <c r="Y11">
+        <v>1.13</v>
+      </c>
+      <c r="Z11">
+        <v>5.2</v>
+      </c>
+      <c r="AA11">
+        <v>3.79</v>
+      </c>
+      <c r="AB11">
+        <v>1.44</v>
+      </c>
+      <c r="AC11">
+        <v>1.01</v>
+      </c>
+      <c r="AD11">
+        <v>3.6</v>
+      </c>
+      <c r="AE11">
+        <v>1.01</v>
+      </c>
+      <c r="AF11">
+        <v>2</v>
+      </c>
+      <c r="AG11">
+        <v>1.73</v>
+      </c>
+      <c r="AH11">
+        <v>1.78</v>
+      </c>
+      <c r="AI11">
+        <v>1.83</v>
+      </c>
+      <c r="AJ11">
+        <v>1.83</v>
+      </c>
+      <c r="AK11">
+        <v>2.02</v>
+      </c>
+      <c r="AL11">
+        <v>1.02</v>
+      </c>
+      <c r="AM11">
+        <v>1.01</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>3</v>
+      </c>
+      <c r="AV11">
+        <v>5</v>
+      </c>
+      <c r="AW11">
+        <v>2</v>
+      </c>
+      <c r="AX11">
+        <v>11</v>
+      </c>
+      <c r="AY11">
+        <v>5</v>
+      </c>
+      <c r="AZ11">
+        <v>16</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>14</v>
+      </c>
+      <c r="BC11">
+        <v>15</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -253,6 +253,9 @@
     <t>Aberystwyth Town</t>
   </si>
   <si>
+    <t>Caernarfon Town</t>
+  </si>
+  <si>
     <t>Haverfordwest County</t>
   </si>
   <si>
@@ -283,6 +286,9 @@
     <t>['76']</t>
   </si>
   <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -305,6 +311,9 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['73', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -666,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP11"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1128,10 +1137,10 @@
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1334,10 +1343,10 @@
         <v>3</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1519,7 +1528,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1540,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1746,10 +1755,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1952,10 +1961,10 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s">
         <v>85</v>
-      </c>
-      <c r="P7" t="s">
-        <v>84</v>
       </c>
       <c r="Q7">
         <v>1.67</v>
@@ -2158,10 +2167,10 @@
         <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2343,7 +2352,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2364,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2570,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q10">
         <v>1.93</v>
@@ -2776,10 +2785,10 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -2935,6 +2944,212 @@
         <v>0</v>
       </c>
       <c r="BP11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7469198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45521.55208333334</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>90</v>
+      </c>
+      <c r="P12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12">
+        <v>2.9</v>
+      </c>
+      <c r="R12">
+        <v>2.25</v>
+      </c>
+      <c r="S12">
+        <v>3.3</v>
+      </c>
+      <c r="T12">
+        <v>1.33</v>
+      </c>
+      <c r="U12">
+        <v>3.25</v>
+      </c>
+      <c r="V12">
+        <v>2.5</v>
+      </c>
+      <c r="W12">
+        <v>1.5</v>
+      </c>
+      <c r="X12">
+        <v>5.5</v>
+      </c>
+      <c r="Y12">
+        <v>1.13</v>
+      </c>
+      <c r="Z12">
+        <v>2.45</v>
+      </c>
+      <c r="AA12">
+        <v>3.25</v>
+      </c>
+      <c r="AB12">
+        <v>2.45</v>
+      </c>
+      <c r="AC12">
+        <v>1.02</v>
+      </c>
+      <c r="AD12">
+        <v>10.25</v>
+      </c>
+      <c r="AE12">
+        <v>1.22</v>
+      </c>
+      <c r="AF12">
+        <v>3.65</v>
+      </c>
+      <c r="AG12">
+        <v>1.73</v>
+      </c>
+      <c r="AH12">
+        <v>1.91</v>
+      </c>
+      <c r="AI12">
+        <v>1.62</v>
+      </c>
+      <c r="AJ12">
+        <v>2.2</v>
+      </c>
+      <c r="AK12">
+        <v>1.44</v>
+      </c>
+      <c r="AL12">
+        <v>1.33</v>
+      </c>
+      <c r="AM12">
+        <v>1.5</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>3</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>1.23</v>
+      </c>
+      <c r="AT12">
+        <v>1.23</v>
+      </c>
+      <c r="AU12">
+        <v>4</v>
+      </c>
+      <c r="AV12">
+        <v>3</v>
+      </c>
+      <c r="AW12">
+        <v>6</v>
+      </c>
+      <c r="AX12">
+        <v>3</v>
+      </c>
+      <c r="AY12">
+        <v>10</v>
+      </c>
+      <c r="AZ12">
+        <v>6</v>
+      </c>
+      <c r="BA12">
+        <v>3</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <v>4</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -289,6 +289,15 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['39', '83']</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -314,6 +323,12 @@
   </si>
   <si>
     <t>['73', '90+1']</t>
+  </si>
+  <si>
+    <t>['6', '69', '89', '90+4']</t>
+  </si>
+  <si>
+    <t>['43', '45+2', '61', '67', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -675,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,7 +949,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1012,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1140,7 +1155,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1346,7 +1361,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1552,7 +1567,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1758,7 +1773,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1839,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2170,7 +2185,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2251,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2376,7 +2391,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2788,7 +2803,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -2866,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -2994,7 +3009,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3151,6 +3166,1036 @@
       </c>
       <c r="BP12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7469202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45527.65625</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13">
+        <v>3.4</v>
+      </c>
+      <c r="R13">
+        <v>2.05</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>1.44</v>
+      </c>
+      <c r="U13">
+        <v>2.63</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>1.36</v>
+      </c>
+      <c r="X13">
+        <v>7.5</v>
+      </c>
+      <c r="Y13">
+        <v>1.07</v>
+      </c>
+      <c r="Z13">
+        <v>2.67</v>
+      </c>
+      <c r="AA13">
+        <v>3.35</v>
+      </c>
+      <c r="AB13">
+        <v>2.29</v>
+      </c>
+      <c r="AC13">
+        <v>1.06</v>
+      </c>
+      <c r="AD13">
+        <v>6.7</v>
+      </c>
+      <c r="AE13">
+        <v>1.44</v>
+      </c>
+      <c r="AF13">
+        <v>2.51</v>
+      </c>
+      <c r="AG13">
+        <v>2.22</v>
+      </c>
+      <c r="AH13">
+        <v>1.59</v>
+      </c>
+      <c r="AI13">
+        <v>1.83</v>
+      </c>
+      <c r="AJ13">
+        <v>1.83</v>
+      </c>
+      <c r="AK13">
+        <v>1.48</v>
+      </c>
+      <c r="AL13">
+        <v>1.33</v>
+      </c>
+      <c r="AM13">
+        <v>1.37</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>3</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
+      </c>
+      <c r="AQ13">
+        <v>2</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>2.73</v>
+      </c>
+      <c r="AT13">
+        <v>2.73</v>
+      </c>
+      <c r="AU13">
+        <v>5</v>
+      </c>
+      <c r="AV13">
+        <v>4</v>
+      </c>
+      <c r="AW13">
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <v>8</v>
+      </c>
+      <c r="AZ13">
+        <v>5</v>
+      </c>
+      <c r="BA13">
+        <v>4</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>5</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7469203</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45527.65625</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14">
+        <v>2.63</v>
+      </c>
+      <c r="R14">
+        <v>2.38</v>
+      </c>
+      <c r="S14">
+        <v>3.25</v>
+      </c>
+      <c r="T14">
+        <v>1.29</v>
+      </c>
+      <c r="U14">
+        <v>3.5</v>
+      </c>
+      <c r="V14">
+        <v>2.25</v>
+      </c>
+      <c r="W14">
+        <v>1.57</v>
+      </c>
+      <c r="X14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>1.14</v>
+      </c>
+      <c r="Z14">
+        <v>2.25</v>
+      </c>
+      <c r="AA14">
+        <v>3.53</v>
+      </c>
+      <c r="AB14">
+        <v>2.61</v>
+      </c>
+      <c r="AC14">
+        <v>1.03</v>
+      </c>
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14">
+        <v>1.15</v>
+      </c>
+      <c r="AF14">
+        <v>4.5</v>
+      </c>
+      <c r="AG14">
+        <v>1.56</v>
+      </c>
+      <c r="AH14">
+        <v>2.28</v>
+      </c>
+      <c r="AI14">
+        <v>1.53</v>
+      </c>
+      <c r="AJ14">
+        <v>2.38</v>
+      </c>
+      <c r="AK14">
+        <v>1.37</v>
+      </c>
+      <c r="AL14">
+        <v>1.24</v>
+      </c>
+      <c r="AM14">
+        <v>1.6</v>
+      </c>
+      <c r="AN14">
+        <v>3</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>1.5</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>2.12</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>2.12</v>
+      </c>
+      <c r="AU14">
+        <v>8</v>
+      </c>
+      <c r="AV14">
+        <v>7</v>
+      </c>
+      <c r="AW14">
+        <v>4</v>
+      </c>
+      <c r="AX14">
+        <v>8</v>
+      </c>
+      <c r="AY14">
+        <v>12</v>
+      </c>
+      <c r="AZ14">
+        <v>15</v>
+      </c>
+      <c r="BA14">
+        <v>5</v>
+      </c>
+      <c r="BB14">
+        <v>10</v>
+      </c>
+      <c r="BC14">
+        <v>15</v>
+      </c>
+      <c r="BD14">
+        <v>1.54</v>
+      </c>
+      <c r="BE14">
+        <v>8.4</v>
+      </c>
+      <c r="BF14">
+        <v>3.1</v>
+      </c>
+      <c r="BG14">
+        <v>1.15</v>
+      </c>
+      <c r="BH14">
+        <v>4.7</v>
+      </c>
+      <c r="BI14">
+        <v>1.31</v>
+      </c>
+      <c r="BJ14">
+        <v>3.2</v>
+      </c>
+      <c r="BK14">
+        <v>1.52</v>
+      </c>
+      <c r="BL14">
+        <v>2.36</v>
+      </c>
+      <c r="BM14">
+        <v>1.92</v>
+      </c>
+      <c r="BN14">
+        <v>1.83</v>
+      </c>
+      <c r="BO14">
+        <v>2.3</v>
+      </c>
+      <c r="BP14">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7469199</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45527.65625</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15">
+        <v>1.91</v>
+      </c>
+      <c r="R15">
+        <v>2.4</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>1.3</v>
+      </c>
+      <c r="U15">
+        <v>3.4</v>
+      </c>
+      <c r="V15">
+        <v>2.5</v>
+      </c>
+      <c r="W15">
+        <v>1.5</v>
+      </c>
+      <c r="X15">
+        <v>5.5</v>
+      </c>
+      <c r="Y15">
+        <v>1.13</v>
+      </c>
+      <c r="Z15">
+        <v>1.41</v>
+      </c>
+      <c r="AA15">
+        <v>4.25</v>
+      </c>
+      <c r="AB15">
+        <v>6.05</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>1.65</v>
+      </c>
+      <c r="AH15">
+        <v>2.11</v>
+      </c>
+      <c r="AI15">
+        <v>1.91</v>
+      </c>
+      <c r="AJ15">
+        <v>1.8</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>3</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>1.91</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>1.91</v>
+      </c>
+      <c r="AU15">
+        <v>6</v>
+      </c>
+      <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <v>7</v>
+      </c>
+      <c r="AX15">
+        <v>6</v>
+      </c>
+      <c r="AY15">
+        <v>13</v>
+      </c>
+      <c r="AZ15">
+        <v>8</v>
+      </c>
+      <c r="BA15">
+        <v>6</v>
+      </c>
+      <c r="BB15">
+        <v>2</v>
+      </c>
+      <c r="BC15">
+        <v>8</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7469200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45527.65625</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16">
+        <v>4.33</v>
+      </c>
+      <c r="R16">
+        <v>2.25</v>
+      </c>
+      <c r="S16">
+        <v>2.3</v>
+      </c>
+      <c r="T16">
+        <v>1.33</v>
+      </c>
+      <c r="U16">
+        <v>3.25</v>
+      </c>
+      <c r="V16">
+        <v>2.5</v>
+      </c>
+      <c r="W16">
+        <v>1.5</v>
+      </c>
+      <c r="X16">
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <v>1.11</v>
+      </c>
+      <c r="Z16">
+        <v>4.22</v>
+      </c>
+      <c r="AA16">
+        <v>3.73</v>
+      </c>
+      <c r="AB16">
+        <v>1.65</v>
+      </c>
+      <c r="AC16">
+        <v>1.04</v>
+      </c>
+      <c r="AD16">
+        <v>11</v>
+      </c>
+      <c r="AE16">
+        <v>1.2</v>
+      </c>
+      <c r="AF16">
+        <v>3.88</v>
+      </c>
+      <c r="AG16">
+        <v>1.7</v>
+      </c>
+      <c r="AH16">
+        <v>2.04</v>
+      </c>
+      <c r="AI16">
+        <v>1.73</v>
+      </c>
+      <c r="AJ16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <v>2.01</v>
+      </c>
+      <c r="AL16">
+        <v>1.22</v>
+      </c>
+      <c r="AM16">
+        <v>1.18</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>3</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>0.82</v>
+      </c>
+      <c r="AS16">
+        <v>1.68</v>
+      </c>
+      <c r="AT16">
+        <v>2.5</v>
+      </c>
+      <c r="AU16">
+        <v>3</v>
+      </c>
+      <c r="AV16">
+        <v>8</v>
+      </c>
+      <c r="AW16">
+        <v>4</v>
+      </c>
+      <c r="AX16">
+        <v>10</v>
+      </c>
+      <c r="AY16">
+        <v>7</v>
+      </c>
+      <c r="AZ16">
+        <v>18</v>
+      </c>
+      <c r="BA16">
+        <v>5</v>
+      </c>
+      <c r="BB16">
+        <v>3</v>
+      </c>
+      <c r="BC16">
+        <v>8</v>
+      </c>
+      <c r="BD16">
+        <v>3.76</v>
+      </c>
+      <c r="BE16">
+        <v>6.75</v>
+      </c>
+      <c r="BF16">
+        <v>1.42</v>
+      </c>
+      <c r="BG16">
+        <v>1.45</v>
+      </c>
+      <c r="BH16">
+        <v>2.55</v>
+      </c>
+      <c r="BI16">
+        <v>1.82</v>
+      </c>
+      <c r="BJ16">
+        <v>1.98</v>
+      </c>
+      <c r="BK16">
+        <v>2.26</v>
+      </c>
+      <c r="BL16">
+        <v>1.56</v>
+      </c>
+      <c r="BM16">
+        <v>3</v>
+      </c>
+      <c r="BN16">
+        <v>1.35</v>
+      </c>
+      <c r="BO16">
+        <v>4.1</v>
+      </c>
+      <c r="BP16">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7469204</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45527.66666666666</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>2.2</v>
+      </c>
+      <c r="S17">
+        <v>2.5</v>
+      </c>
+      <c r="T17">
+        <v>1.36</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>2.63</v>
+      </c>
+      <c r="W17">
+        <v>1.44</v>
+      </c>
+      <c r="X17">
+        <v>6.5</v>
+      </c>
+      <c r="Y17">
+        <v>1.1</v>
+      </c>
+      <c r="Z17">
+        <v>3.38</v>
+      </c>
+      <c r="AA17">
+        <v>3.45</v>
+      </c>
+      <c r="AB17">
+        <v>1.91</v>
+      </c>
+      <c r="AC17">
+        <v>1.01</v>
+      </c>
+      <c r="AD17">
+        <v>10</v>
+      </c>
+      <c r="AE17">
+        <v>1.22</v>
+      </c>
+      <c r="AF17">
+        <v>3.64</v>
+      </c>
+      <c r="AG17">
+        <v>1.76</v>
+      </c>
+      <c r="AH17">
+        <v>1.95</v>
+      </c>
+      <c r="AI17">
+        <v>1.73</v>
+      </c>
+      <c r="AJ17">
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <v>1.76</v>
+      </c>
+      <c r="AL17">
+        <v>1.25</v>
+      </c>
+      <c r="AM17">
+        <v>1.26</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>2</v>
+      </c>
+      <c r="AQ17">
+        <v>0.5</v>
+      </c>
+      <c r="AR17">
+        <v>0.68</v>
+      </c>
+      <c r="AS17">
+        <v>1.94</v>
+      </c>
+      <c r="AT17">
+        <v>2.62</v>
+      </c>
+      <c r="AU17">
+        <v>3</v>
+      </c>
+      <c r="AV17">
+        <v>4</v>
+      </c>
+      <c r="AW17">
+        <v>4</v>
+      </c>
+      <c r="AX17">
+        <v>10</v>
+      </c>
+      <c r="AY17">
+        <v>7</v>
+      </c>
+      <c r="AZ17">
+        <v>14</v>
+      </c>
+      <c r="BA17">
+        <v>3</v>
+      </c>
+      <c r="BB17">
+        <v>5</v>
+      </c>
+      <c r="BC17">
+        <v>8</v>
+      </c>
+      <c r="BD17">
+        <v>2.44</v>
+      </c>
+      <c r="BE17">
+        <v>6.45</v>
+      </c>
+      <c r="BF17">
+        <v>1.81</v>
+      </c>
+      <c r="BG17">
+        <v>1.25</v>
+      </c>
+      <c r="BH17">
+        <v>3.6</v>
+      </c>
+      <c r="BI17">
+        <v>1.42</v>
+      </c>
+      <c r="BJ17">
+        <v>2.62</v>
+      </c>
+      <c r="BK17">
+        <v>1.67</v>
+      </c>
+      <c r="BL17">
+        <v>2.1</v>
+      </c>
+      <c r="BM17">
+        <v>2.1</v>
+      </c>
+      <c r="BN17">
+        <v>1.67</v>
+      </c>
+      <c r="BO17">
+        <v>2.62</v>
+      </c>
+      <c r="BP17">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -298,6 +298,12 @@
     <t>['33']</t>
   </si>
   <si>
+    <t>['13', '42', '61', '83', '87']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -329,6 +335,15 @@
   </si>
   <si>
     <t>['43', '45+2', '61', '67', '90+3']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['10', '49']</t>
+  </si>
+  <si>
+    <t>['64']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +964,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1155,7 +1170,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1233,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1361,7 +1376,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1567,7 +1582,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1648,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1773,7 +1788,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2185,7 +2200,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2391,7 +2406,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2675,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2803,7 +2818,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -2884,7 +2899,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3009,7 +3024,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3087,10 +3102,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3421,7 +3436,7 @@
         <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3833,7 +3848,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4196,6 +4211,1036 @@
       </c>
       <c r="BP17">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7469208</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45530.4375</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>2.38</v>
+      </c>
+      <c r="S18">
+        <v>5.5</v>
+      </c>
+      <c r="T18">
+        <v>1.33</v>
+      </c>
+      <c r="U18">
+        <v>3.25</v>
+      </c>
+      <c r="V18">
+        <v>2.5</v>
+      </c>
+      <c r="W18">
+        <v>1.5</v>
+      </c>
+      <c r="X18">
+        <v>5.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.13</v>
+      </c>
+      <c r="Z18">
+        <v>1.5</v>
+      </c>
+      <c r="AA18">
+        <v>4</v>
+      </c>
+      <c r="AB18">
+        <v>5.5</v>
+      </c>
+      <c r="AC18">
+        <v>1.02</v>
+      </c>
+      <c r="AD18">
+        <v>13</v>
+      </c>
+      <c r="AE18">
+        <v>1.2</v>
+      </c>
+      <c r="AF18">
+        <v>4.2</v>
+      </c>
+      <c r="AG18">
+        <v>1.72</v>
+      </c>
+      <c r="AH18">
+        <v>2.05</v>
+      </c>
+      <c r="AI18">
+        <v>1.8</v>
+      </c>
+      <c r="AJ18">
+        <v>1.91</v>
+      </c>
+      <c r="AK18">
+        <v>1.11</v>
+      </c>
+      <c r="AL18">
+        <v>1.18</v>
+      </c>
+      <c r="AM18">
+        <v>2.35</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>2</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>1.58</v>
+      </c>
+      <c r="AS18">
+        <v>1.03</v>
+      </c>
+      <c r="AT18">
+        <v>2.61</v>
+      </c>
+      <c r="AU18">
+        <v>10</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
+        <v>14</v>
+      </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18">
+        <v>24</v>
+      </c>
+      <c r="AZ18">
+        <v>6</v>
+      </c>
+      <c r="BA18">
+        <v>8</v>
+      </c>
+      <c r="BB18">
+        <v>3</v>
+      </c>
+      <c r="BC18">
+        <v>11</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7469210</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45530.4375</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>2.3</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>1.3</v>
+      </c>
+      <c r="U19">
+        <v>3.4</v>
+      </c>
+      <c r="V19">
+        <v>2.5</v>
+      </c>
+      <c r="W19">
+        <v>1.5</v>
+      </c>
+      <c r="X19">
+        <v>5.5</v>
+      </c>
+      <c r="Y19">
+        <v>1.13</v>
+      </c>
+      <c r="Z19">
+        <v>2.45</v>
+      </c>
+      <c r="AA19">
+        <v>3.5</v>
+      </c>
+      <c r="AB19">
+        <v>2.45</v>
+      </c>
+      <c r="AC19">
+        <v>1.02</v>
+      </c>
+      <c r="AD19">
+        <v>13</v>
+      </c>
+      <c r="AE19">
+        <v>1.2</v>
+      </c>
+      <c r="AF19">
+        <v>4.2</v>
+      </c>
+      <c r="AG19">
+        <v>1.69</v>
+      </c>
+      <c r="AH19">
+        <v>2.09</v>
+      </c>
+      <c r="AI19">
+        <v>1.57</v>
+      </c>
+      <c r="AJ19">
+        <v>2.25</v>
+      </c>
+      <c r="AK19">
+        <v>1.44</v>
+      </c>
+      <c r="AL19">
+        <v>1.22</v>
+      </c>
+      <c r="AM19">
+        <v>1.5</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0.5</v>
+      </c>
+      <c r="AQ19">
+        <v>2</v>
+      </c>
+      <c r="AR19">
+        <v>1.28</v>
+      </c>
+      <c r="AS19">
+        <v>1.29</v>
+      </c>
+      <c r="AT19">
+        <v>2.57</v>
+      </c>
+      <c r="AU19">
+        <v>11</v>
+      </c>
+      <c r="AV19">
+        <v>6</v>
+      </c>
+      <c r="AW19">
+        <v>6</v>
+      </c>
+      <c r="AX19">
+        <v>2</v>
+      </c>
+      <c r="AY19">
+        <v>17</v>
+      </c>
+      <c r="AZ19">
+        <v>8</v>
+      </c>
+      <c r="BA19">
+        <v>6</v>
+      </c>
+      <c r="BB19">
+        <v>8</v>
+      </c>
+      <c r="BC19">
+        <v>14</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>0</v>
+      </c>
+      <c r="BK19">
+        <v>0</v>
+      </c>
+      <c r="BL19">
+        <v>0</v>
+      </c>
+      <c r="BM19">
+        <v>0</v>
+      </c>
+      <c r="BN19">
+        <v>0</v>
+      </c>
+      <c r="BO19">
+        <v>0</v>
+      </c>
+      <c r="BP19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7469206</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45530.4375</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q20">
+        <v>2.6</v>
+      </c>
+      <c r="R20">
+        <v>2.2</v>
+      </c>
+      <c r="S20">
+        <v>3.75</v>
+      </c>
+      <c r="T20">
+        <v>1.36</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>2.63</v>
+      </c>
+      <c r="W20">
+        <v>1.44</v>
+      </c>
+      <c r="X20">
+        <v>6.5</v>
+      </c>
+      <c r="Y20">
+        <v>1.1</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+      <c r="AA20">
+        <v>3.4</v>
+      </c>
+      <c r="AB20">
+        <v>3.25</v>
+      </c>
+      <c r="AC20">
+        <v>1.04</v>
+      </c>
+      <c r="AD20">
+        <v>11</v>
+      </c>
+      <c r="AE20">
+        <v>1.25</v>
+      </c>
+      <c r="AF20">
+        <v>3.7</v>
+      </c>
+      <c r="AG20">
+        <v>1.93</v>
+      </c>
+      <c r="AH20">
+        <v>1.88</v>
+      </c>
+      <c r="AI20">
+        <v>1.73</v>
+      </c>
+      <c r="AJ20">
+        <v>2</v>
+      </c>
+      <c r="AK20">
+        <v>1.25</v>
+      </c>
+      <c r="AL20">
+        <v>1.22</v>
+      </c>
+      <c r="AM20">
+        <v>1.77</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>3</v>
+      </c>
+      <c r="AP20">
+        <v>1</v>
+      </c>
+      <c r="AQ20">
+        <v>2.33</v>
+      </c>
+      <c r="AR20">
+        <v>1.34</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>2.34</v>
+      </c>
+      <c r="AU20">
+        <v>3</v>
+      </c>
+      <c r="AV20">
+        <v>3</v>
+      </c>
+      <c r="AW20">
+        <v>2</v>
+      </c>
+      <c r="AX20">
+        <v>6</v>
+      </c>
+      <c r="AY20">
+        <v>5</v>
+      </c>
+      <c r="AZ20">
+        <v>9</v>
+      </c>
+      <c r="BA20">
+        <v>2</v>
+      </c>
+      <c r="BB20">
+        <v>2</v>
+      </c>
+      <c r="BC20">
+        <v>4</v>
+      </c>
+      <c r="BD20">
+        <v>1.86</v>
+      </c>
+      <c r="BE20">
+        <v>5.8</v>
+      </c>
+      <c r="BF20">
+        <v>2.45</v>
+      </c>
+      <c r="BG20">
+        <v>1.67</v>
+      </c>
+      <c r="BH20">
+        <v>2.1</v>
+      </c>
+      <c r="BI20">
+        <v>2.1</v>
+      </c>
+      <c r="BJ20">
+        <v>1.65</v>
+      </c>
+      <c r="BK20">
+        <v>2.8</v>
+      </c>
+      <c r="BL20">
+        <v>1.38</v>
+      </c>
+      <c r="BM20">
+        <v>3.6</v>
+      </c>
+      <c r="BN20">
+        <v>1.25</v>
+      </c>
+      <c r="BO20">
+        <v>5.25</v>
+      </c>
+      <c r="BP20">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7469205</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45530.4375</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q21">
+        <v>3.25</v>
+      </c>
+      <c r="R21">
+        <v>2.25</v>
+      </c>
+      <c r="S21">
+        <v>2.88</v>
+      </c>
+      <c r="T21">
+        <v>1.33</v>
+      </c>
+      <c r="U21">
+        <v>3.25</v>
+      </c>
+      <c r="V21">
+        <v>2.63</v>
+      </c>
+      <c r="W21">
+        <v>1.44</v>
+      </c>
+      <c r="X21">
+        <v>6</v>
+      </c>
+      <c r="Y21">
+        <v>1.11</v>
+      </c>
+      <c r="Z21">
+        <v>2.75</v>
+      </c>
+      <c r="AA21">
+        <v>3.5</v>
+      </c>
+      <c r="AB21">
+        <v>2.2</v>
+      </c>
+      <c r="AC21">
+        <v>1.03</v>
+      </c>
+      <c r="AD21">
+        <v>12</v>
+      </c>
+      <c r="AE21">
+        <v>1.22</v>
+      </c>
+      <c r="AF21">
+        <v>3.95</v>
+      </c>
+      <c r="AG21">
+        <v>1.77</v>
+      </c>
+      <c r="AH21">
+        <v>1.98</v>
+      </c>
+      <c r="AI21">
+        <v>1.62</v>
+      </c>
+      <c r="AJ21">
+        <v>2.2</v>
+      </c>
+      <c r="AK21">
+        <v>1.48</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.42</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>1.22</v>
+      </c>
+      <c r="AS21">
+        <v>1.43</v>
+      </c>
+      <c r="AT21">
+        <v>2.65</v>
+      </c>
+      <c r="AU21">
+        <v>4</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21">
+        <v>2</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>6</v>
+      </c>
+      <c r="AZ21">
+        <v>5</v>
+      </c>
+      <c r="BA21">
+        <v>6</v>
+      </c>
+      <c r="BB21">
+        <v>3</v>
+      </c>
+      <c r="BC21">
+        <v>9</v>
+      </c>
+      <c r="BD21">
+        <v>1.98</v>
+      </c>
+      <c r="BE21">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF21">
+        <v>2.03</v>
+      </c>
+      <c r="BG21">
+        <v>1.22</v>
+      </c>
+      <c r="BH21">
+        <v>3.8</v>
+      </c>
+      <c r="BI21">
+        <v>1.38</v>
+      </c>
+      <c r="BJ21">
+        <v>2.8</v>
+      </c>
+      <c r="BK21">
+        <v>1.65</v>
+      </c>
+      <c r="BL21">
+        <v>2.1</v>
+      </c>
+      <c r="BM21">
+        <v>2</v>
+      </c>
+      <c r="BN21">
+        <v>1.73</v>
+      </c>
+      <c r="BO21">
+        <v>2.5</v>
+      </c>
+      <c r="BP21">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7469207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45530.4375</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P22" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q22">
+        <v>4.75</v>
+      </c>
+      <c r="R22">
+        <v>2.5</v>
+      </c>
+      <c r="S22">
+        <v>2.05</v>
+      </c>
+      <c r="T22">
+        <v>1.25</v>
+      </c>
+      <c r="U22">
+        <v>3.75</v>
+      </c>
+      <c r="V22">
+        <v>2.2</v>
+      </c>
+      <c r="W22">
+        <v>1.62</v>
+      </c>
+      <c r="X22">
+        <v>4.5</v>
+      </c>
+      <c r="Y22">
+        <v>1.17</v>
+      </c>
+      <c r="Z22">
+        <v>4.6</v>
+      </c>
+      <c r="AA22">
+        <v>4.2</v>
+      </c>
+      <c r="AB22">
+        <v>1.55</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1.57</v>
+      </c>
+      <c r="AH22">
+        <v>2.19</v>
+      </c>
+      <c r="AI22">
+        <v>1.62</v>
+      </c>
+      <c r="AJ22">
+        <v>2.2</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>2</v>
+      </c>
+      <c r="AR22">
+        <v>1.46</v>
+      </c>
+      <c r="AS22">
+        <v>2.03</v>
+      </c>
+      <c r="AT22">
+        <v>3.49</v>
+      </c>
+      <c r="AU22">
+        <v>9</v>
+      </c>
+      <c r="AV22">
+        <v>11</v>
+      </c>
+      <c r="AW22">
+        <v>9</v>
+      </c>
+      <c r="AX22">
+        <v>7</v>
+      </c>
+      <c r="AY22">
+        <v>18</v>
+      </c>
+      <c r="AZ22">
+        <v>18</v>
+      </c>
+      <c r="BA22">
+        <v>6</v>
+      </c>
+      <c r="BB22">
+        <v>3</v>
+      </c>
+      <c r="BC22">
+        <v>9</v>
+      </c>
+      <c r="BD22">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>0</v>
+      </c>
+      <c r="BF22">
+        <v>0</v>
+      </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
+      <c r="BH22">
+        <v>0</v>
+      </c>
+      <c r="BI22">
+        <v>0</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>0</v>
+      </c>
+      <c r="BM22">
+        <v>0</v>
+      </c>
+      <c r="BN22">
+        <v>0</v>
+      </c>
+      <c r="BO22">
+        <v>0</v>
+      </c>
+      <c r="BP22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="111">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['33', '52', '58']</t>
   </si>
   <si>
     <t>['45+2']</t>
@@ -705,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -964,7 +967,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1170,7 +1173,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1376,7 +1379,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1582,7 +1585,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1788,7 +1791,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2200,7 +2203,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2406,7 +2409,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2693,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2818,7 +2821,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3024,7 +3027,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3308,7 +3311,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3436,7 +3439,7 @@
         <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3848,7 +3851,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4260,7 +4263,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4466,7 +4469,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4547,7 +4550,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>1.28</v>
@@ -5084,7 +5087,7 @@
         <v>85</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5241,6 +5244,212 @@
       </c>
       <c r="BP22">
         <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7469212</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45534.65625</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q23">
+        <v>2.75</v>
+      </c>
+      <c r="R23">
+        <v>2.25</v>
+      </c>
+      <c r="S23">
+        <v>3.25</v>
+      </c>
+      <c r="T23">
+        <v>1.33</v>
+      </c>
+      <c r="U23">
+        <v>3.25</v>
+      </c>
+      <c r="V23">
+        <v>2.5</v>
+      </c>
+      <c r="W23">
+        <v>1.5</v>
+      </c>
+      <c r="X23">
+        <v>5.5</v>
+      </c>
+      <c r="Y23">
+        <v>1.13</v>
+      </c>
+      <c r="Z23">
+        <v>2.25</v>
+      </c>
+      <c r="AA23">
+        <v>3.15</v>
+      </c>
+      <c r="AB23">
+        <v>2.9</v>
+      </c>
+      <c r="AC23">
+        <v>1.01</v>
+      </c>
+      <c r="AD23">
+        <v>11</v>
+      </c>
+      <c r="AE23">
+        <v>1.2</v>
+      </c>
+      <c r="AF23">
+        <v>3.9</v>
+      </c>
+      <c r="AG23">
+        <v>1.83</v>
+      </c>
+      <c r="AH23">
+        <v>1.9</v>
+      </c>
+      <c r="AI23">
+        <v>1.57</v>
+      </c>
+      <c r="AJ23">
+        <v>2.25</v>
+      </c>
+      <c r="AK23">
+        <v>1.38</v>
+      </c>
+      <c r="AL23">
+        <v>1.26</v>
+      </c>
+      <c r="AM23">
+        <v>1.57</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>2</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+      <c r="AQ23">
+        <v>1.33</v>
+      </c>
+      <c r="AR23">
+        <v>1.19</v>
+      </c>
+      <c r="AS23">
+        <v>1.24</v>
+      </c>
+      <c r="AT23">
+        <v>2.43</v>
+      </c>
+      <c r="AU23">
+        <v>7</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>4</v>
+      </c>
+      <c r="AX23">
+        <v>2</v>
+      </c>
+      <c r="AY23">
+        <v>11</v>
+      </c>
+      <c r="AZ23">
+        <v>2</v>
+      </c>
+      <c r="BA23">
+        <v>8</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>9</v>
+      </c>
+      <c r="BD23">
+        <v>1.65</v>
+      </c>
+      <c r="BE23">
+        <v>6.85</v>
+      </c>
+      <c r="BF23">
+        <v>2.73</v>
+      </c>
+      <c r="BG23">
+        <v>1.36</v>
+      </c>
+      <c r="BH23">
+        <v>2.88</v>
+      </c>
+      <c r="BI23">
+        <v>1.57</v>
+      </c>
+      <c r="BJ23">
+        <v>2.19</v>
+      </c>
+      <c r="BK23">
+        <v>1.95</v>
+      </c>
+      <c r="BL23">
+        <v>1.77</v>
+      </c>
+      <c r="BM23">
+        <v>2.64</v>
+      </c>
+      <c r="BN23">
+        <v>1.4</v>
+      </c>
+      <c r="BO23">
+        <v>3.3</v>
+      </c>
+      <c r="BP23">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="119">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,18 @@
     <t>['33', '52', '58']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['48', '57', '66']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -347,6 +359,18 @@
   </si>
   <si>
     <t>['64']</t>
+  </si>
+  <si>
+    <t>['51', '66']</t>
+  </si>
+  <si>
+    <t>['20', '39']</t>
+  </si>
+  <si>
+    <t>['14', '50', '51', '72', '89']</t>
+  </si>
+  <si>
+    <t>['6', '42']</t>
   </si>
 </sst>
 </file>
@@ -708,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +991,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1173,7 +1197,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1251,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1379,7 +1403,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1585,7 +1609,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1791,7 +1815,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1872,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2075,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2203,7 +2227,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2409,7 +2433,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2821,7 +2845,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -2902,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3027,7 +3051,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3105,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ12">
         <v>2.33</v>
@@ -3314,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3439,7 +3463,7 @@
         <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3723,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3851,7 +3875,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4263,7 +4287,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4469,7 +4493,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4547,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19">
         <v>1.33</v>
@@ -4959,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5087,7 +5111,7 @@
         <v>85</v>
       </c>
       <c r="P22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5168,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>1.46</v>
@@ -5450,6 +5474,830 @@
       </c>
       <c r="BP23">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7469213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>97</v>
+      </c>
+      <c r="P24" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q24">
+        <v>3.2</v>
+      </c>
+      <c r="R24">
+        <v>1.95</v>
+      </c>
+      <c r="S24">
+        <v>3.5</v>
+      </c>
+      <c r="T24">
+        <v>1.5</v>
+      </c>
+      <c r="U24">
+        <v>2.5</v>
+      </c>
+      <c r="V24">
+        <v>3.5</v>
+      </c>
+      <c r="W24">
+        <v>1.29</v>
+      </c>
+      <c r="X24">
+        <v>8</v>
+      </c>
+      <c r="Y24">
+        <v>1.06</v>
+      </c>
+      <c r="Z24">
+        <v>2.5</v>
+      </c>
+      <c r="AA24">
+        <v>2.9</v>
+      </c>
+      <c r="AB24">
+        <v>2.65</v>
+      </c>
+      <c r="AC24">
+        <v>1.06</v>
+      </c>
+      <c r="AD24">
+        <v>6.85</v>
+      </c>
+      <c r="AE24">
+        <v>1.43</v>
+      </c>
+      <c r="AF24">
+        <v>2.54</v>
+      </c>
+      <c r="AG24">
+        <v>2.28</v>
+      </c>
+      <c r="AH24">
+        <v>1.58</v>
+      </c>
+      <c r="AI24">
+        <v>2</v>
+      </c>
+      <c r="AJ24">
+        <v>1.73</v>
+      </c>
+      <c r="AK24">
+        <v>1.4</v>
+      </c>
+      <c r="AL24">
+        <v>1.31</v>
+      </c>
+      <c r="AM24">
+        <v>1.46</v>
+      </c>
+      <c r="AN24">
+        <v>3</v>
+      </c>
+      <c r="AO24">
+        <v>2</v>
+      </c>
+      <c r="AP24">
+        <v>2</v>
+      </c>
+      <c r="AQ24">
+        <v>2.33</v>
+      </c>
+      <c r="AR24">
+        <v>1.81</v>
+      </c>
+      <c r="AS24">
+        <v>1.82</v>
+      </c>
+      <c r="AT24">
+        <v>3.63</v>
+      </c>
+      <c r="AU24">
+        <v>3</v>
+      </c>
+      <c r="AV24">
+        <v>4</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>8</v>
+      </c>
+      <c r="AY24">
+        <v>4</v>
+      </c>
+      <c r="AZ24">
+        <v>12</v>
+      </c>
+      <c r="BA24">
+        <v>2</v>
+      </c>
+      <c r="BB24">
+        <v>9</v>
+      </c>
+      <c r="BC24">
+        <v>11</v>
+      </c>
+      <c r="BD24">
+        <v>2.08</v>
+      </c>
+      <c r="BE24">
+        <v>6.05</v>
+      </c>
+      <c r="BF24">
+        <v>2.12</v>
+      </c>
+      <c r="BG24">
+        <v>1.36</v>
+      </c>
+      <c r="BH24">
+        <v>2.9</v>
+      </c>
+      <c r="BI24">
+        <v>1.62</v>
+      </c>
+      <c r="BJ24">
+        <v>2.2</v>
+      </c>
+      <c r="BK24">
+        <v>2</v>
+      </c>
+      <c r="BL24">
+        <v>1.73</v>
+      </c>
+      <c r="BM24">
+        <v>2.5</v>
+      </c>
+      <c r="BN24">
+        <v>1.48</v>
+      </c>
+      <c r="BO24">
+        <v>3.3</v>
+      </c>
+      <c r="BP24">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7469214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25">
+        <v>2.38</v>
+      </c>
+      <c r="R25">
+        <v>2.3</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>1.3</v>
+      </c>
+      <c r="U25">
+        <v>3.4</v>
+      </c>
+      <c r="V25">
+        <v>2.38</v>
+      </c>
+      <c r="W25">
+        <v>1.53</v>
+      </c>
+      <c r="X25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>1.14</v>
+      </c>
+      <c r="Z25">
+        <v>1.72</v>
+      </c>
+      <c r="AA25">
+        <v>3.7</v>
+      </c>
+      <c r="AB25">
+        <v>3.75</v>
+      </c>
+      <c r="AC25">
+        <v>1.03</v>
+      </c>
+      <c r="AD25">
+        <v>9</v>
+      </c>
+      <c r="AE25">
+        <v>1.16</v>
+      </c>
+      <c r="AF25">
+        <v>4.3</v>
+      </c>
+      <c r="AG25">
+        <v>1.57</v>
+      </c>
+      <c r="AH25">
+        <v>2.3</v>
+      </c>
+      <c r="AI25">
+        <v>1.57</v>
+      </c>
+      <c r="AJ25">
+        <v>2.25</v>
+      </c>
+      <c r="AK25">
+        <v>1.21</v>
+      </c>
+      <c r="AL25">
+        <v>1.22</v>
+      </c>
+      <c r="AM25">
+        <v>1.95</v>
+      </c>
+      <c r="AN25">
+        <v>0.5</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>1.33</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>1.77</v>
+      </c>
+      <c r="AS25">
+        <v>0.91</v>
+      </c>
+      <c r="AT25">
+        <v>2.68</v>
+      </c>
+      <c r="AU25">
+        <v>6</v>
+      </c>
+      <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>6</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>12</v>
+      </c>
+      <c r="AZ25">
+        <v>8</v>
+      </c>
+      <c r="BA25">
+        <v>8</v>
+      </c>
+      <c r="BB25">
+        <v>9</v>
+      </c>
+      <c r="BC25">
+        <v>17</v>
+      </c>
+      <c r="BD25">
+        <v>1.49</v>
+      </c>
+      <c r="BE25">
+        <v>6.8</v>
+      </c>
+      <c r="BF25">
+        <v>3.34</v>
+      </c>
+      <c r="BG25">
+        <v>1.25</v>
+      </c>
+      <c r="BH25">
+        <v>3.5</v>
+      </c>
+      <c r="BI25">
+        <v>1.43</v>
+      </c>
+      <c r="BJ25">
+        <v>2.51</v>
+      </c>
+      <c r="BK25">
+        <v>1.79</v>
+      </c>
+      <c r="BL25">
+        <v>1.97</v>
+      </c>
+      <c r="BM25">
+        <v>2.2</v>
+      </c>
+      <c r="BN25">
+        <v>1.57</v>
+      </c>
+      <c r="BO25">
+        <v>2.85</v>
+      </c>
+      <c r="BP25">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7469215</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26">
+        <v>5.5</v>
+      </c>
+      <c r="R26">
+        <v>2.5</v>
+      </c>
+      <c r="S26">
+        <v>1.91</v>
+      </c>
+      <c r="T26">
+        <v>1.29</v>
+      </c>
+      <c r="U26">
+        <v>3.5</v>
+      </c>
+      <c r="V26">
+        <v>2.25</v>
+      </c>
+      <c r="W26">
+        <v>1.57</v>
+      </c>
+      <c r="X26">
+        <v>4.5</v>
+      </c>
+      <c r="Y26">
+        <v>1.17</v>
+      </c>
+      <c r="Z26">
+        <v>8.75</v>
+      </c>
+      <c r="AA26">
+        <v>5.5</v>
+      </c>
+      <c r="AB26">
+        <v>1.24</v>
+      </c>
+      <c r="AC26">
+        <v>1.01</v>
+      </c>
+      <c r="AD26">
+        <v>17</v>
+      </c>
+      <c r="AE26">
+        <v>1.13</v>
+      </c>
+      <c r="AF26">
+        <v>4.85</v>
+      </c>
+      <c r="AG26">
+        <v>1.53</v>
+      </c>
+      <c r="AH26">
+        <v>2.35</v>
+      </c>
+      <c r="AI26">
+        <v>1.73</v>
+      </c>
+      <c r="AJ26">
+        <v>2</v>
+      </c>
+      <c r="AK26">
+        <v>3.52</v>
+      </c>
+      <c r="AL26">
+        <v>1.1</v>
+      </c>
+      <c r="AM26">
+        <v>1.02</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>2</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>2.33</v>
+      </c>
+      <c r="AR26">
+        <v>0.89</v>
+      </c>
+      <c r="AS26">
+        <v>2.25</v>
+      </c>
+      <c r="AT26">
+        <v>3.14</v>
+      </c>
+      <c r="AU26">
+        <v>2</v>
+      </c>
+      <c r="AV26">
+        <v>6</v>
+      </c>
+      <c r="AW26">
+        <v>2</v>
+      </c>
+      <c r="AX26">
+        <v>8</v>
+      </c>
+      <c r="AY26">
+        <v>4</v>
+      </c>
+      <c r="AZ26">
+        <v>14</v>
+      </c>
+      <c r="BA26">
+        <v>2</v>
+      </c>
+      <c r="BB26">
+        <v>3</v>
+      </c>
+      <c r="BC26">
+        <v>5</v>
+      </c>
+      <c r="BD26">
+        <v>11.75</v>
+      </c>
+      <c r="BE26">
+        <v>12.75</v>
+      </c>
+      <c r="BF26">
+        <v>1.05</v>
+      </c>
+      <c r="BG26">
+        <v>1.26</v>
+      </c>
+      <c r="BH26">
+        <v>3.5</v>
+      </c>
+      <c r="BI26">
+        <v>1.48</v>
+      </c>
+      <c r="BJ26">
+        <v>2.4</v>
+      </c>
+      <c r="BK26">
+        <v>1.82</v>
+      </c>
+      <c r="BL26">
+        <v>1.94</v>
+      </c>
+      <c r="BM26">
+        <v>2.2</v>
+      </c>
+      <c r="BN26">
+        <v>1.57</v>
+      </c>
+      <c r="BO26">
+        <v>2.9</v>
+      </c>
+      <c r="BP26">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7469216</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45535.4375</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q27">
+        <v>2.75</v>
+      </c>
+      <c r="R27">
+        <v>2.38</v>
+      </c>
+      <c r="S27">
+        <v>3.1</v>
+      </c>
+      <c r="T27">
+        <v>1.29</v>
+      </c>
+      <c r="U27">
+        <v>3.5</v>
+      </c>
+      <c r="V27">
+        <v>2.25</v>
+      </c>
+      <c r="W27">
+        <v>1.57</v>
+      </c>
+      <c r="X27">
+        <v>5</v>
+      </c>
+      <c r="Y27">
+        <v>1.14</v>
+      </c>
+      <c r="Z27">
+        <v>2.25</v>
+      </c>
+      <c r="AA27">
+        <v>3.5</v>
+      </c>
+      <c r="AB27">
+        <v>2.55</v>
+      </c>
+      <c r="AC27">
+        <v>1.02</v>
+      </c>
+      <c r="AD27">
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>1.13</v>
+      </c>
+      <c r="AF27">
+        <v>4.85</v>
+      </c>
+      <c r="AG27">
+        <v>1.64</v>
+      </c>
+      <c r="AH27">
+        <v>2.16</v>
+      </c>
+      <c r="AI27">
+        <v>1.5</v>
+      </c>
+      <c r="AJ27">
+        <v>2.5</v>
+      </c>
+      <c r="AK27">
+        <v>1.42</v>
+      </c>
+      <c r="AL27">
+        <v>1.23</v>
+      </c>
+      <c r="AM27">
+        <v>1.55</v>
+      </c>
+      <c r="AN27">
+        <v>0.5</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <v>0.33</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>1.08</v>
+      </c>
+      <c r="AS27">
+        <v>1.84</v>
+      </c>
+      <c r="AT27">
+        <v>2.92</v>
+      </c>
+      <c r="AU27">
+        <v>4</v>
+      </c>
+      <c r="AV27">
+        <v>4</v>
+      </c>
+      <c r="AW27">
+        <v>3</v>
+      </c>
+      <c r="AX27">
+        <v>6</v>
+      </c>
+      <c r="AY27">
+        <v>7</v>
+      </c>
+      <c r="AZ27">
+        <v>10</v>
+      </c>
+      <c r="BA27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <v>2</v>
+      </c>
+      <c r="BC27">
+        <v>8</v>
+      </c>
+      <c r="BD27">
+        <v>1.66</v>
+      </c>
+      <c r="BE27">
+        <v>6.4</v>
+      </c>
+      <c r="BF27">
+        <v>2.78</v>
+      </c>
+      <c r="BG27">
+        <v>1.3</v>
+      </c>
+      <c r="BH27">
+        <v>3.2</v>
+      </c>
+      <c r="BI27">
+        <v>1.55</v>
+      </c>
+      <c r="BJ27">
+        <v>2.3</v>
+      </c>
+      <c r="BK27">
+        <v>1.91</v>
+      </c>
+      <c r="BL27">
+        <v>1.8</v>
+      </c>
+      <c r="BM27">
+        <v>2.38</v>
+      </c>
+      <c r="BN27">
+        <v>1.53</v>
+      </c>
+      <c r="BO27">
+        <v>3</v>
+      </c>
+      <c r="BP27">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>['19']</t>
+  </si>
+  <si>
+    <t>['59', '90+1']</t>
   </si>
   <si>
     <t>['45+2']</t>
@@ -732,7 +735,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -991,7 +994,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1197,7 +1200,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1403,7 +1406,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1609,7 +1612,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1815,7 +1818,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2227,7 +2230,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2433,7 +2436,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2845,7 +2848,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3051,7 +3054,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3463,7 +3466,7 @@
         <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3875,7 +3878,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4287,7 +4290,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4493,7 +4496,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5111,7 +5114,7 @@
         <v>85</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5523,7 +5526,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5729,7 +5732,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -5935,7 +5938,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6141,7 +6144,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6298,6 +6301,212 @@
       </c>
       <c r="BP27">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7469211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45538.65625</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28">
+        <v>1.2</v>
+      </c>
+      <c r="R28">
+        <v>4.4</v>
+      </c>
+      <c r="S28">
+        <v>17.5</v>
+      </c>
+      <c r="T28">
+        <v>1.11</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>1.65</v>
+      </c>
+      <c r="W28">
+        <v>2.16</v>
+      </c>
+      <c r="X28">
+        <v>2.63</v>
+      </c>
+      <c r="Y28">
+        <v>1.44</v>
+      </c>
+      <c r="Z28">
+        <v>1.03</v>
+      </c>
+      <c r="AA28">
+        <v>20.14</v>
+      </c>
+      <c r="AB28">
+        <v>29.15</v>
+      </c>
+      <c r="AC28">
+        <v>1.01</v>
+      </c>
+      <c r="AD28">
+        <v>13</v>
+      </c>
+      <c r="AE28">
+        <v>1.01</v>
+      </c>
+      <c r="AF28">
+        <v>9.5</v>
+      </c>
+      <c r="AG28">
+        <v>1.15</v>
+      </c>
+      <c r="AH28">
+        <v>4.45</v>
+      </c>
+      <c r="AI28">
+        <v>2.54</v>
+      </c>
+      <c r="AJ28">
+        <v>1.43</v>
+      </c>
+      <c r="AK28">
+        <v>1.01</v>
+      </c>
+      <c r="AL28">
+        <v>1.01</v>
+      </c>
+      <c r="AM28">
+        <v>19</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>3</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0.89</v>
+      </c>
+      <c r="AT28">
+        <v>0.89</v>
+      </c>
+      <c r="AU28">
+        <v>4</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>26</v>
+      </c>
+      <c r="AX28">
+        <v>1</v>
+      </c>
+      <c r="AY28">
+        <v>30</v>
+      </c>
+      <c r="AZ28">
+        <v>3</v>
+      </c>
+      <c r="BA28">
+        <v>12</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>12</v>
+      </c>
+      <c r="BD28">
+        <v>1.08</v>
+      </c>
+      <c r="BE28">
+        <v>43</v>
+      </c>
+      <c r="BF28">
+        <v>7.12</v>
+      </c>
+      <c r="BG28">
+        <v>1.13</v>
+      </c>
+      <c r="BH28">
+        <v>5</v>
+      </c>
+      <c r="BI28">
+        <v>1.23</v>
+      </c>
+      <c r="BJ28">
+        <v>3.7</v>
+      </c>
+      <c r="BK28">
+        <v>1.42</v>
+      </c>
+      <c r="BL28">
+        <v>2.65</v>
+      </c>
+      <c r="BM28">
+        <v>1.7</v>
+      </c>
+      <c r="BN28">
+        <v>2.05</v>
+      </c>
+      <c r="BO28">
+        <v>1.95</v>
+      </c>
+      <c r="BP28">
+        <v>1.77</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -322,6 +322,15 @@
     <t>['59', '90+1']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['40', '87']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -374,6 +383,18 @@
   </si>
   <si>
     <t>['6', '42']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['54', '89']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['35', '51']</t>
   </si>
 </sst>
 </file>
@@ -735,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP28"/>
+  <dimension ref="A1:BP34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,7 +1015,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1072,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1200,7 +1221,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1406,7 +1427,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1612,7 +1633,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1818,7 +1839,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2102,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2230,7 +2251,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2311,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2436,7 +2457,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2720,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -2848,7 +2869,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -2926,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>2.33</v>
@@ -3054,7 +3075,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3338,7 +3359,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>2.33</v>
@@ -3466,7 +3487,7 @@
         <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3544,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
         <v>1.5</v>
-      </c>
-      <c r="AQ14">
-        <v>3</v>
       </c>
       <c r="AR14">
         <v>2.12</v>
@@ -3750,10 +3771,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.91</v>
@@ -3878,7 +3899,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -4162,10 +4183,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0.68</v>
@@ -4290,7 +4311,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4368,7 +4389,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -4496,7 +4517,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5114,7 +5135,7 @@
         <v>85</v>
       </c>
       <c r="P22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5398,7 +5419,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -5526,7 +5547,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5604,7 +5625,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>2.33</v>
@@ -5732,7 +5753,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -5813,7 +5834,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.77</v>
@@ -5938,7 +5959,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6144,7 +6165,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6507,6 +6528,1242 @@
       </c>
       <c r="BP28">
         <v>1.77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7469221</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45542.4375</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q29">
+        <v>1.67</v>
+      </c>
+      <c r="R29">
+        <v>2.75</v>
+      </c>
+      <c r="S29">
+        <v>6.5</v>
+      </c>
+      <c r="T29">
+        <v>1.22</v>
+      </c>
+      <c r="U29">
+        <v>4</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29">
+        <v>1.73</v>
+      </c>
+      <c r="X29">
+        <v>4.33</v>
+      </c>
+      <c r="Y29">
+        <v>1.2</v>
+      </c>
+      <c r="Z29">
+        <v>1.32</v>
+      </c>
+      <c r="AA29">
+        <v>5.3</v>
+      </c>
+      <c r="AB29">
+        <v>7.55</v>
+      </c>
+      <c r="AC29">
+        <v>1.01</v>
+      </c>
+      <c r="AD29">
+        <v>17</v>
+      </c>
+      <c r="AE29">
+        <v>1.08</v>
+      </c>
+      <c r="AF29">
+        <v>6.5</v>
+      </c>
+      <c r="AG29">
+        <v>1.36</v>
+      </c>
+      <c r="AH29">
+        <v>2.89</v>
+      </c>
+      <c r="AI29">
+        <v>1.73</v>
+      </c>
+      <c r="AJ29">
+        <v>2</v>
+      </c>
+      <c r="AK29">
+        <v>1.05</v>
+      </c>
+      <c r="AL29">
+        <v>1.12</v>
+      </c>
+      <c r="AM29">
+        <v>3.12</v>
+      </c>
+      <c r="AN29">
+        <v>1.5</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>2</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>1.93</v>
+      </c>
+      <c r="AS29">
+        <v>1.08</v>
+      </c>
+      <c r="AT29">
+        <v>3.01</v>
+      </c>
+      <c r="AU29">
+        <v>5</v>
+      </c>
+      <c r="AV29">
+        <v>3</v>
+      </c>
+      <c r="AW29">
+        <v>12</v>
+      </c>
+      <c r="AX29">
+        <v>4</v>
+      </c>
+      <c r="AY29">
+        <v>17</v>
+      </c>
+      <c r="AZ29">
+        <v>7</v>
+      </c>
+      <c r="BA29">
+        <v>4</v>
+      </c>
+      <c r="BB29">
+        <v>4</v>
+      </c>
+      <c r="BC29">
+        <v>8</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BG29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>0</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7469222</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45542.4375</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>103</v>
+      </c>
+      <c r="P30" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q30">
+        <v>2.2</v>
+      </c>
+      <c r="R30">
+        <v>2.3</v>
+      </c>
+      <c r="S30">
+        <v>4.33</v>
+      </c>
+      <c r="T30">
+        <v>1.3</v>
+      </c>
+      <c r="U30">
+        <v>3.4</v>
+      </c>
+      <c r="V30">
+        <v>2.5</v>
+      </c>
+      <c r="W30">
+        <v>1.5</v>
+      </c>
+      <c r="X30">
+        <v>5.5</v>
+      </c>
+      <c r="Y30">
+        <v>1.13</v>
+      </c>
+      <c r="Z30">
+        <v>1.6</v>
+      </c>
+      <c r="AA30">
+        <v>3.8</v>
+      </c>
+      <c r="AB30">
+        <v>4.75</v>
+      </c>
+      <c r="AC30">
+        <v>1.01</v>
+      </c>
+      <c r="AD30">
+        <v>11</v>
+      </c>
+      <c r="AE30">
+        <v>1.14</v>
+      </c>
+      <c r="AF30">
+        <v>4.8</v>
+      </c>
+      <c r="AG30">
+        <v>1.6</v>
+      </c>
+      <c r="AH30">
+        <v>2.2</v>
+      </c>
+      <c r="AI30">
+        <v>1.67</v>
+      </c>
+      <c r="AJ30">
+        <v>2.1</v>
+      </c>
+      <c r="AK30">
+        <v>1.16</v>
+      </c>
+      <c r="AL30">
+        <v>1.21</v>
+      </c>
+      <c r="AM30">
+        <v>2.1</v>
+      </c>
+      <c r="AN30">
+        <v>2</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>2.33</v>
+      </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
+      <c r="AR30">
+        <v>2.16</v>
+      </c>
+      <c r="AS30">
+        <v>1.69</v>
+      </c>
+      <c r="AT30">
+        <v>3.85</v>
+      </c>
+      <c r="AU30">
+        <v>17</v>
+      </c>
+      <c r="AV30">
+        <v>2</v>
+      </c>
+      <c r="AW30">
+        <v>7</v>
+      </c>
+      <c r="AX30">
+        <v>1</v>
+      </c>
+      <c r="AY30">
+        <v>24</v>
+      </c>
+      <c r="AZ30">
+        <v>3</v>
+      </c>
+      <c r="BA30">
+        <v>8</v>
+      </c>
+      <c r="BB30">
+        <v>6</v>
+      </c>
+      <c r="BC30">
+        <v>14</v>
+      </c>
+      <c r="BD30">
+        <v>1.44</v>
+      </c>
+      <c r="BE30">
+        <v>9</v>
+      </c>
+      <c r="BF30">
+        <v>3.2</v>
+      </c>
+      <c r="BG30">
+        <v>1.25</v>
+      </c>
+      <c r="BH30">
+        <v>3.6</v>
+      </c>
+      <c r="BI30">
+        <v>1.42</v>
+      </c>
+      <c r="BJ30">
+        <v>2.62</v>
+      </c>
+      <c r="BK30">
+        <v>1.65</v>
+      </c>
+      <c r="BL30">
+        <v>2.13</v>
+      </c>
+      <c r="BM30">
+        <v>2.06</v>
+      </c>
+      <c r="BN30">
+        <v>1.7</v>
+      </c>
+      <c r="BO30">
+        <v>2.6</v>
+      </c>
+      <c r="BP30">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7469220</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45542.4375</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>85</v>
+      </c>
+      <c r="P31" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q31">
+        <v>13</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>1.44</v>
+      </c>
+      <c r="T31">
+        <v>1.22</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>2.1</v>
+      </c>
+      <c r="W31">
+        <v>1.67</v>
+      </c>
+      <c r="X31">
+        <v>4.33</v>
+      </c>
+      <c r="Y31">
+        <v>1.2</v>
+      </c>
+      <c r="Z31">
+        <v>19</v>
+      </c>
+      <c r="AA31">
+        <v>8</v>
+      </c>
+      <c r="AB31">
+        <v>1.13</v>
+      </c>
+      <c r="AC31">
+        <v>1.01</v>
+      </c>
+      <c r="AD31">
+        <v>14.9</v>
+      </c>
+      <c r="AE31">
+        <v>1.1</v>
+      </c>
+      <c r="AF31">
+        <v>5.3</v>
+      </c>
+      <c r="AG31">
+        <v>1.44</v>
+      </c>
+      <c r="AH31">
+        <v>2.63</v>
+      </c>
+      <c r="AI31">
+        <v>2.5</v>
+      </c>
+      <c r="AJ31">
+        <v>1.5</v>
+      </c>
+      <c r="AK31">
+        <v>6.6</v>
+      </c>
+      <c r="AL31">
+        <v>1.02</v>
+      </c>
+      <c r="AM31">
+        <v>1.01</v>
+      </c>
+      <c r="AN31">
+        <v>2</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>1.33</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>1.46</v>
+      </c>
+      <c r="AS31">
+        <v>2.52</v>
+      </c>
+      <c r="AT31">
+        <v>3.98</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>4</v>
+      </c>
+      <c r="AW31">
+        <v>7</v>
+      </c>
+      <c r="AX31">
+        <v>11</v>
+      </c>
+      <c r="AY31">
+        <v>7</v>
+      </c>
+      <c r="AZ31">
+        <v>15</v>
+      </c>
+      <c r="BA31">
+        <v>3</v>
+      </c>
+      <c r="BB31">
+        <v>7</v>
+      </c>
+      <c r="BC31">
+        <v>10</v>
+      </c>
+      <c r="BD31">
+        <v>7.6</v>
+      </c>
+      <c r="BE31">
+        <v>12.75</v>
+      </c>
+      <c r="BF31">
+        <v>1.1</v>
+      </c>
+      <c r="BG31">
+        <v>1.33</v>
+      </c>
+      <c r="BH31">
+        <v>3</v>
+      </c>
+      <c r="BI31">
+        <v>1.54</v>
+      </c>
+      <c r="BJ31">
+        <v>2.26</v>
+      </c>
+      <c r="BK31">
+        <v>1.92</v>
+      </c>
+      <c r="BL31">
+        <v>1.84</v>
+      </c>
+      <c r="BM31">
+        <v>2.34</v>
+      </c>
+      <c r="BN31">
+        <v>1.5</v>
+      </c>
+      <c r="BO31">
+        <v>3.2</v>
+      </c>
+      <c r="BP31">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7469219</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45542.4375</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32">
+        <v>1.83</v>
+      </c>
+      <c r="R32">
+        <v>2.5</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>1.29</v>
+      </c>
+      <c r="U32">
+        <v>3.5</v>
+      </c>
+      <c r="V32">
+        <v>2.38</v>
+      </c>
+      <c r="W32">
+        <v>1.53</v>
+      </c>
+      <c r="X32">
+        <v>5</v>
+      </c>
+      <c r="Y32">
+        <v>1.14</v>
+      </c>
+      <c r="Z32">
+        <v>1.5</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AB32">
+        <v>5.5</v>
+      </c>
+      <c r="AC32">
+        <v>1.01</v>
+      </c>
+      <c r="AD32">
+        <v>13</v>
+      </c>
+      <c r="AE32">
+        <v>1.14</v>
+      </c>
+      <c r="AF32">
+        <v>4.8</v>
+      </c>
+      <c r="AG32">
+        <v>1.7</v>
+      </c>
+      <c r="AH32">
+        <v>2.05</v>
+      </c>
+      <c r="AI32">
+        <v>1.83</v>
+      </c>
+      <c r="AJ32">
+        <v>1.83</v>
+      </c>
+      <c r="AK32">
+        <v>1.08</v>
+      </c>
+      <c r="AL32">
+        <v>1.16</v>
+      </c>
+      <c r="AM32">
+        <v>2.67</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0.5</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>1.33</v>
+      </c>
+      <c r="AR32">
+        <v>1.41</v>
+      </c>
+      <c r="AS32">
+        <v>1.87</v>
+      </c>
+      <c r="AT32">
+        <v>3.28</v>
+      </c>
+      <c r="AU32">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>8</v>
+      </c>
+      <c r="AY32">
+        <v>9</v>
+      </c>
+      <c r="AZ32">
+        <v>12</v>
+      </c>
+      <c r="BA32">
+        <v>8</v>
+      </c>
+      <c r="BB32">
+        <v>10</v>
+      </c>
+      <c r="BC32">
+        <v>18</v>
+      </c>
+      <c r="BD32">
+        <v>1.27</v>
+      </c>
+      <c r="BE32">
+        <v>10</v>
+      </c>
+      <c r="BF32">
+        <v>4.33</v>
+      </c>
+      <c r="BG32">
+        <v>1.22</v>
+      </c>
+      <c r="BH32">
+        <v>3.8</v>
+      </c>
+      <c r="BI32">
+        <v>1.38</v>
+      </c>
+      <c r="BJ32">
+        <v>2.8</v>
+      </c>
+      <c r="BK32">
+        <v>1.61</v>
+      </c>
+      <c r="BL32">
+        <v>2.21</v>
+      </c>
+      <c r="BM32">
+        <v>2</v>
+      </c>
+      <c r="BN32">
+        <v>1.75</v>
+      </c>
+      <c r="BO32">
+        <v>2.5</v>
+      </c>
+      <c r="BP32">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7469218</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45542.4375</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q33">
+        <v>2.5</v>
+      </c>
+      <c r="R33">
+        <v>2.05</v>
+      </c>
+      <c r="S33">
+        <v>4.5</v>
+      </c>
+      <c r="T33">
+        <v>1.44</v>
+      </c>
+      <c r="U33">
+        <v>2.63</v>
+      </c>
+      <c r="V33">
+        <v>3.25</v>
+      </c>
+      <c r="W33">
+        <v>1.33</v>
+      </c>
+      <c r="X33">
+        <v>7.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.07</v>
+      </c>
+      <c r="Z33">
+        <v>1.83</v>
+      </c>
+      <c r="AA33">
+        <v>3.4</v>
+      </c>
+      <c r="AB33">
+        <v>3.8</v>
+      </c>
+      <c r="AC33">
+        <v>1.05</v>
+      </c>
+      <c r="AD33">
+        <v>8</v>
+      </c>
+      <c r="AE33">
+        <v>1.3</v>
+      </c>
+      <c r="AF33">
+        <v>3.2</v>
+      </c>
+      <c r="AG33">
+        <v>1.91</v>
+      </c>
+      <c r="AH33">
+        <v>1.8</v>
+      </c>
+      <c r="AI33">
+        <v>2</v>
+      </c>
+      <c r="AJ33">
+        <v>1.73</v>
+      </c>
+      <c r="AK33">
+        <v>1.19</v>
+      </c>
+      <c r="AL33">
+        <v>1.27</v>
+      </c>
+      <c r="AM33">
+        <v>1.87</v>
+      </c>
+      <c r="AN33">
+        <v>2</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
+      <c r="AR33">
+        <v>1.47</v>
+      </c>
+      <c r="AS33">
+        <v>1.58</v>
+      </c>
+      <c r="AT33">
+        <v>3.05</v>
+      </c>
+      <c r="AU33">
+        <v>3</v>
+      </c>
+      <c r="AV33">
+        <v>3</v>
+      </c>
+      <c r="AW33">
+        <v>4</v>
+      </c>
+      <c r="AX33">
+        <v>4</v>
+      </c>
+      <c r="AY33">
+        <v>7</v>
+      </c>
+      <c r="AZ33">
+        <v>7</v>
+      </c>
+      <c r="BA33">
+        <v>5</v>
+      </c>
+      <c r="BB33">
+        <v>0</v>
+      </c>
+      <c r="BC33">
+        <v>5</v>
+      </c>
+      <c r="BD33">
+        <v>1.51</v>
+      </c>
+      <c r="BE33">
+        <v>8</v>
+      </c>
+      <c r="BF33">
+        <v>3.02</v>
+      </c>
+      <c r="BG33">
+        <v>1.43</v>
+      </c>
+      <c r="BH33">
+        <v>2.54</v>
+      </c>
+      <c r="BI33">
+        <v>1.8</v>
+      </c>
+      <c r="BJ33">
+        <v>1.96</v>
+      </c>
+      <c r="BK33">
+        <v>2.26</v>
+      </c>
+      <c r="BL33">
+        <v>1.56</v>
+      </c>
+      <c r="BM33">
+        <v>2.9</v>
+      </c>
+      <c r="BN33">
+        <v>1.36</v>
+      </c>
+      <c r="BO33">
+        <v>3.8</v>
+      </c>
+      <c r="BP33">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7469217</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45542.55208333334</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>85</v>
+      </c>
+      <c r="P34" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>2.2</v>
+      </c>
+      <c r="S34">
+        <v>3.1</v>
+      </c>
+      <c r="T34">
+        <v>1.33</v>
+      </c>
+      <c r="U34">
+        <v>3.25</v>
+      </c>
+      <c r="V34">
+        <v>2.63</v>
+      </c>
+      <c r="W34">
+        <v>1.44</v>
+      </c>
+      <c r="X34">
+        <v>6</v>
+      </c>
+      <c r="Y34">
+        <v>1.11</v>
+      </c>
+      <c r="Z34">
+        <v>2.8</v>
+      </c>
+      <c r="AA34">
+        <v>3.35</v>
+      </c>
+      <c r="AB34">
+        <v>2.25</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>11</v>
+      </c>
+      <c r="AE34">
+        <v>1.2</v>
+      </c>
+      <c r="AF34">
+        <v>4</v>
+      </c>
+      <c r="AG34">
+        <v>1.83</v>
+      </c>
+      <c r="AH34">
+        <v>1.9</v>
+      </c>
+      <c r="AI34">
+        <v>1.67</v>
+      </c>
+      <c r="AJ34">
+        <v>2.1</v>
+      </c>
+      <c r="AK34">
+        <v>1.46</v>
+      </c>
+      <c r="AL34">
+        <v>1.26</v>
+      </c>
+      <c r="AM34">
+        <v>1.46</v>
+      </c>
+      <c r="AN34">
+        <v>2</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>1.33</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>0.86</v>
+      </c>
+      <c r="AS34">
+        <v>1.06</v>
+      </c>
+      <c r="AT34">
+        <v>1.92</v>
+      </c>
+      <c r="AU34">
+        <v>4</v>
+      </c>
+      <c r="AV34">
+        <v>8</v>
+      </c>
+      <c r="AW34">
+        <v>5</v>
+      </c>
+      <c r="AX34">
+        <v>12</v>
+      </c>
+      <c r="AY34">
+        <v>9</v>
+      </c>
+      <c r="AZ34">
+        <v>20</v>
+      </c>
+      <c r="BA34">
+        <v>3</v>
+      </c>
+      <c r="BB34">
+        <v>7</v>
+      </c>
+      <c r="BC34">
+        <v>10</v>
+      </c>
+      <c r="BD34">
+        <v>2.05</v>
+      </c>
+      <c r="BE34">
+        <v>6.3</v>
+      </c>
+      <c r="BF34">
+        <v>2.12</v>
+      </c>
+      <c r="BG34">
+        <v>1.25</v>
+      </c>
+      <c r="BH34">
+        <v>3.6</v>
+      </c>
+      <c r="BI34">
+        <v>1.42</v>
+      </c>
+      <c r="BJ34">
+        <v>2.62</v>
+      </c>
+      <c r="BK34">
+        <v>1.72</v>
+      </c>
+      <c r="BL34">
+        <v>2.02</v>
+      </c>
+      <c r="BM34">
+        <v>2.14</v>
+      </c>
+      <c r="BN34">
+        <v>1.64</v>
+      </c>
+      <c r="BO34">
+        <v>2.62</v>
+      </c>
+      <c r="BP34">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,12 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['22', '27', '38']</t>
+  </si>
+  <si>
+    <t>['27', '75']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -395,6 +401,9 @@
   </si>
   <si>
     <t>['35', '51']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP34"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1015,7 +1024,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1093,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1221,7 +1230,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1427,7 +1436,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1508,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1633,7 +1642,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1839,7 +1848,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2123,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2251,7 +2260,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2457,7 +2466,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2869,7 +2878,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3075,7 +3084,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3487,7 +3496,7 @@
         <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14">
         <v>2.63</v>
@@ -3565,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3771,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -3899,7 +3908,7 @@
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>4.33</v>
@@ -3980,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR16">
         <v>0.82</v>
@@ -4311,7 +4320,7 @@
         <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>2</v>
@@ -4517,7 +4526,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -5135,7 +5144,7 @@
         <v>85</v>
       </c>
       <c r="P22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>4.75</v>
@@ -5547,7 +5556,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q24">
         <v>3.2</v>
@@ -5625,7 +5634,7 @@
         <v>2</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
         <v>2.33</v>
@@ -5753,7 +5762,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q25">
         <v>2.38</v>
@@ -5959,7 +5968,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q26">
         <v>5.5</v>
@@ -6165,7 +6174,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6246,7 +6255,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR27">
         <v>1.08</v>
@@ -6655,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6989,7 +6998,7 @@
         <v>85</v>
       </c>
       <c r="P31" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q31">
         <v>13</v>
@@ -7195,7 +7204,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q32">
         <v>1.83</v>
@@ -7401,7 +7410,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7479,10 +7488,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ33">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR33">
         <v>1.47</v>
@@ -7607,7 +7616,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7764,6 +7773,418 @@
       </c>
       <c r="BP34">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7469223</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45548.65625</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+      <c r="G35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>105</v>
+      </c>
+      <c r="P35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35">
+        <v>1.8</v>
+      </c>
+      <c r="R35">
+        <v>2.5</v>
+      </c>
+      <c r="S35">
+        <v>7</v>
+      </c>
+      <c r="T35">
+        <v>1.3</v>
+      </c>
+      <c r="U35">
+        <v>3.4</v>
+      </c>
+      <c r="V35">
+        <v>2.38</v>
+      </c>
+      <c r="W35">
+        <v>1.53</v>
+      </c>
+      <c r="X35">
+        <v>5.5</v>
+      </c>
+      <c r="Y35">
+        <v>1.13</v>
+      </c>
+      <c r="Z35">
+        <v>1.37</v>
+      </c>
+      <c r="AA35">
+        <v>4.6</v>
+      </c>
+      <c r="AB35">
+        <v>7</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>13</v>
+      </c>
+      <c r="AE35">
+        <v>1.18</v>
+      </c>
+      <c r="AF35">
+        <v>4.15</v>
+      </c>
+      <c r="AG35">
+        <v>1.61</v>
+      </c>
+      <c r="AH35">
+        <v>2.17</v>
+      </c>
+      <c r="AI35">
+        <v>2</v>
+      </c>
+      <c r="AJ35">
+        <v>1.73</v>
+      </c>
+      <c r="AK35">
+        <v>1.02</v>
+      </c>
+      <c r="AL35">
+        <v>1.11</v>
+      </c>
+      <c r="AM35">
+        <v>3.52</v>
+      </c>
+      <c r="AN35">
+        <v>1.5</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>1.8</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>1.37</v>
+      </c>
+      <c r="AS35">
+        <v>0.77</v>
+      </c>
+      <c r="AT35">
+        <v>2.14</v>
+      </c>
+      <c r="AU35">
+        <v>6</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>13</v>
+      </c>
+      <c r="AX35">
+        <v>4</v>
+      </c>
+      <c r="AY35">
+        <v>19</v>
+      </c>
+      <c r="AZ35">
+        <v>4</v>
+      </c>
+      <c r="BA35">
+        <v>5</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>5</v>
+      </c>
+      <c r="BD35">
+        <v>1.18</v>
+      </c>
+      <c r="BE35">
+        <v>11.25</v>
+      </c>
+      <c r="BF35">
+        <v>5.65</v>
+      </c>
+      <c r="BG35">
+        <v>1.25</v>
+      </c>
+      <c r="BH35">
+        <v>3.6</v>
+      </c>
+      <c r="BI35">
+        <v>1.42</v>
+      </c>
+      <c r="BJ35">
+        <v>2.62</v>
+      </c>
+      <c r="BK35">
+        <v>1.73</v>
+      </c>
+      <c r="BL35">
+        <v>2</v>
+      </c>
+      <c r="BM35">
+        <v>2.1</v>
+      </c>
+      <c r="BN35">
+        <v>1.65</v>
+      </c>
+      <c r="BO35">
+        <v>2.62</v>
+      </c>
+      <c r="BP35">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7469224</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45548.65625</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q36">
+        <v>2.63</v>
+      </c>
+      <c r="R36">
+        <v>2.38</v>
+      </c>
+      <c r="S36">
+        <v>3.25</v>
+      </c>
+      <c r="T36">
+        <v>1.29</v>
+      </c>
+      <c r="U36">
+        <v>3.5</v>
+      </c>
+      <c r="V36">
+        <v>2.25</v>
+      </c>
+      <c r="W36">
+        <v>1.57</v>
+      </c>
+      <c r="X36">
+        <v>5</v>
+      </c>
+      <c r="Y36">
+        <v>1.14</v>
+      </c>
+      <c r="Z36">
+        <v>2.6</v>
+      </c>
+      <c r="AA36">
+        <v>3.45</v>
+      </c>
+      <c r="AB36">
+        <v>2.4</v>
+      </c>
+      <c r="AC36">
+        <v>1.01</v>
+      </c>
+      <c r="AD36">
+        <v>13</v>
+      </c>
+      <c r="AE36">
+        <v>1.13</v>
+      </c>
+      <c r="AF36">
+        <v>5.2</v>
+      </c>
+      <c r="AG36">
+        <v>1.57</v>
+      </c>
+      <c r="AH36">
+        <v>2.25</v>
+      </c>
+      <c r="AI36">
+        <v>1.53</v>
+      </c>
+      <c r="AJ36">
+        <v>2.38</v>
+      </c>
+      <c r="AK36">
+        <v>1.36</v>
+      </c>
+      <c r="AL36">
+        <v>1.24</v>
+      </c>
+      <c r="AM36">
+        <v>1.63</v>
+      </c>
+      <c r="AN36">
+        <v>2</v>
+      </c>
+      <c r="AO36">
+        <v>3</v>
+      </c>
+      <c r="AP36">
+        <v>2.25</v>
+      </c>
+      <c r="AQ36">
+        <v>2.4</v>
+      </c>
+      <c r="AR36">
+        <v>1.94</v>
+      </c>
+      <c r="AS36">
+        <v>1.44</v>
+      </c>
+      <c r="AT36">
+        <v>3.38</v>
+      </c>
+      <c r="AU36">
+        <v>6</v>
+      </c>
+      <c r="AV36">
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
+        <v>5</v>
+      </c>
+      <c r="AY36">
+        <v>10</v>
+      </c>
+      <c r="AZ36">
+        <v>9</v>
+      </c>
+      <c r="BA36">
+        <v>4</v>
+      </c>
+      <c r="BB36">
+        <v>7</v>
+      </c>
+      <c r="BC36">
+        <v>11</v>
+      </c>
+      <c r="BD36">
+        <v>2</v>
+      </c>
+      <c r="BE36">
+        <v>5.95</v>
+      </c>
+      <c r="BF36">
+        <v>2.22</v>
+      </c>
+      <c r="BG36">
+        <v>1.5</v>
+      </c>
+      <c r="BH36">
+        <v>2.4</v>
+      </c>
+      <c r="BI36">
+        <v>1.8</v>
+      </c>
+      <c r="BJ36">
+        <v>1.91</v>
+      </c>
+      <c r="BK36">
+        <v>2.25</v>
+      </c>
+      <c r="BL36">
+        <v>1.57</v>
+      </c>
+      <c r="BM36">
+        <v>3</v>
+      </c>
+      <c r="BN36">
+        <v>1.33</v>
+      </c>
+      <c r="BO36">
+        <v>3.8</v>
+      </c>
+      <c r="BP36">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -289,12 +289,12 @@
     <t>['75']</t>
   </si>
   <si>
+    <t>['83']</t>
+  </si>
+  <si>
     <t>['39', '83']</t>
   </si>
   <si>
-    <t>['83']</t>
-  </si>
-  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -307,36 +307,45 @@
     <t>['33', '52', '58']</t>
   </si>
   <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
     <t>['18']</t>
   </si>
   <si>
     <t>['48', '57', '66']</t>
   </si>
   <si>
-    <t>['5']</t>
-  </si>
-  <si>
-    <t>['19']</t>
-  </si>
-  <si>
     <t>['59', '90+1']</t>
   </si>
   <si>
     <t>['61']</t>
   </si>
   <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['40', '87']</t>
   </si>
   <si>
-    <t>['40']</t>
-  </si>
-  <si>
     <t>['22', '27', '38']</t>
   </si>
   <si>
     <t>['27', '75']</t>
   </si>
   <si>
+    <t>['12', '16', '83']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['25', '53', '84', '85']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -370,13 +379,19 @@
     <t>['43', '45+2', '61', '67', '90+3']</t>
   </si>
   <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
     <t>['10', '49']</t>
   </si>
   <si>
-    <t>['64']</t>
+    <t>['6', '42']</t>
+  </si>
+  <si>
+    <t>['14', '50', '51', '72', '89']</t>
   </si>
   <si>
     <t>['51', '66']</t>
@@ -385,12 +400,6 @@
     <t>['20', '39']</t>
   </si>
   <si>
-    <t>['14', '50', '51', '72', '89']</t>
-  </si>
-  <si>
-    <t>['6', '42']</t>
-  </si>
-  <si>
     <t>['21']</t>
   </si>
   <si>
@@ -404,6 +413,9 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['38', '89']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1036,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1230,7 +1242,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1436,7 +1448,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1514,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ4">
         <v>2.4</v>
@@ -1642,7 +1654,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1723,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1848,7 +1860,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2260,7 +2272,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2341,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2466,7 +2478,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2544,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AQ9">
         <v>3</v>
@@ -2878,7 +2890,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3084,7 +3096,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3162,10 +3174,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3248,7 +3260,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7469202</v>
+        <v>7469203</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3263,190 +3275,190 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" t="s">
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="Q13">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R13">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T13">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="U13">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="W13">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="X13">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Y13">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="Z13">
-        <v>2.67</v>
+        <v>2.25</v>
       </c>
       <c r="AA13">
-        <v>3.35</v>
+        <v>3.53</v>
       </c>
       <c r="AB13">
-        <v>2.29</v>
+        <v>2.61</v>
       </c>
       <c r="AC13">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD13">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="AE13">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="AF13">
-        <v>2.51</v>
+        <v>4.5</v>
       </c>
       <c r="AG13">
-        <v>2.22</v>
+        <v>1.56</v>
       </c>
       <c r="AH13">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
       <c r="AI13">
+        <v>1.53</v>
+      </c>
+      <c r="AJ13">
+        <v>2.38</v>
+      </c>
+      <c r="AK13">
+        <v>1.37</v>
+      </c>
+      <c r="AL13">
+        <v>1.24</v>
+      </c>
+      <c r="AM13">
+        <v>1.6</v>
+      </c>
+      <c r="AN13">
+        <v>3</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>2.25</v>
+      </c>
+      <c r="AQ13">
+        <v>1.5</v>
+      </c>
+      <c r="AR13">
+        <v>2.12</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>2.12</v>
+      </c>
+      <c r="AU13">
+        <v>8</v>
+      </c>
+      <c r="AV13">
+        <v>7</v>
+      </c>
+      <c r="AW13">
+        <v>4</v>
+      </c>
+      <c r="AX13">
+        <v>8</v>
+      </c>
+      <c r="AY13">
+        <v>12</v>
+      </c>
+      <c r="AZ13">
+        <v>15</v>
+      </c>
+      <c r="BA13">
+        <v>5</v>
+      </c>
+      <c r="BB13">
+        <v>10</v>
+      </c>
+      <c r="BC13">
+        <v>15</v>
+      </c>
+      <c r="BD13">
+        <v>1.54</v>
+      </c>
+      <c r="BE13">
+        <v>8.4</v>
+      </c>
+      <c r="BF13">
+        <v>3.1</v>
+      </c>
+      <c r="BG13">
+        <v>1.15</v>
+      </c>
+      <c r="BH13">
+        <v>4.7</v>
+      </c>
+      <c r="BI13">
+        <v>1.31</v>
+      </c>
+      <c r="BJ13">
+        <v>3.2</v>
+      </c>
+      <c r="BK13">
+        <v>1.52</v>
+      </c>
+      <c r="BL13">
+        <v>2.36</v>
+      </c>
+      <c r="BM13">
+        <v>1.92</v>
+      </c>
+      <c r="BN13">
         <v>1.83</v>
       </c>
-      <c r="AJ13">
-        <v>1.83</v>
-      </c>
-      <c r="AK13">
-        <v>1.48</v>
-      </c>
-      <c r="AL13">
-        <v>1.33</v>
-      </c>
-      <c r="AM13">
-        <v>1.37</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>3</v>
-      </c>
-      <c r="AP13">
-        <v>1.33</v>
-      </c>
-      <c r="AQ13">
-        <v>2.33</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>2.73</v>
-      </c>
-      <c r="AT13">
-        <v>2.73</v>
-      </c>
-      <c r="AU13">
-        <v>5</v>
-      </c>
-      <c r="AV13">
-        <v>4</v>
-      </c>
-      <c r="AW13">
-        <v>3</v>
-      </c>
-      <c r="AX13">
-        <v>1</v>
-      </c>
-      <c r="AY13">
-        <v>8</v>
-      </c>
-      <c r="AZ13">
-        <v>5</v>
-      </c>
-      <c r="BA13">
-        <v>4</v>
-      </c>
-      <c r="BB13">
-        <v>1</v>
-      </c>
-      <c r="BC13">
-        <v>5</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
       <c r="BO13">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BP13">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3454,7 +3466,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7469203</v>
+        <v>7469200</v>
       </c>
       <c r="C14" t="s">
         <v>68</v>
@@ -3469,190 +3481,190 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q14">
-        <v>2.63</v>
+        <v>4.33</v>
       </c>
       <c r="R14">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S14">
+        <v>2.3</v>
+      </c>
+      <c r="T14">
+        <v>1.33</v>
+      </c>
+      <c r="U14">
         <v>3.25</v>
       </c>
-      <c r="T14">
-        <v>1.29</v>
-      </c>
-      <c r="U14">
-        <v>3.5</v>
-      </c>
       <c r="V14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W14">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y14">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z14">
-        <v>2.25</v>
+        <v>4.22</v>
       </c>
       <c r="AA14">
-        <v>3.53</v>
+        <v>3.73</v>
       </c>
       <c r="AB14">
-        <v>2.61</v>
+        <v>1.65</v>
       </c>
       <c r="AC14">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE14">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="AF14">
-        <v>4.5</v>
+        <v>3.88</v>
       </c>
       <c r="AG14">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AH14">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="AI14">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="AJ14">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="AK14">
-        <v>1.37</v>
+        <v>2.01</v>
       </c>
       <c r="AL14">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AM14">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP14">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AR14">
-        <v>2.12</v>
+        <v>0.82</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AT14">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="AU14">
+        <v>3</v>
+      </c>
+      <c r="AV14">
         <v>8</v>
-      </c>
-      <c r="AV14">
-        <v>7</v>
       </c>
       <c r="AW14">
         <v>4</v>
       </c>
       <c r="AX14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY14">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AZ14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA14">
         <v>5</v>
       </c>
       <c r="BB14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BC14">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BD14">
-        <v>1.54</v>
+        <v>3.76</v>
       </c>
       <c r="BE14">
-        <v>8.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF14">
-        <v>3.1</v>
+        <v>1.42</v>
       </c>
       <c r="BG14">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="BH14">
-        <v>4.7</v>
+        <v>2.55</v>
       </c>
       <c r="BI14">
-        <v>1.31</v>
+        <v>1.82</v>
       </c>
       <c r="BJ14">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="BK14">
-        <v>1.52</v>
+        <v>2.26</v>
       </c>
       <c r="BL14">
-        <v>2.36</v>
+        <v>1.56</v>
       </c>
       <c r="BM14">
-        <v>1.92</v>
+        <v>3</v>
       </c>
       <c r="BN14">
-        <v>1.83</v>
+        <v>1.35</v>
       </c>
       <c r="BO14">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="BP14">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3660,7 +3672,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7469199</v>
+        <v>7469202</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
@@ -3675,151 +3687,151 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
         <v>85</v>
       </c>
       <c r="Q15">
-        <v>1.91</v>
+        <v>3.4</v>
       </c>
       <c r="R15">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="U15">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="V15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W15">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X15">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y15">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="Z15">
-        <v>1.41</v>
+        <v>2.67</v>
       </c>
       <c r="AA15">
-        <v>4.25</v>
+        <v>3.35</v>
       </c>
       <c r="AB15">
-        <v>6.05</v>
+        <v>2.29</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AG15">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="AH15">
-        <v>2.11</v>
+        <v>1.59</v>
       </c>
       <c r="AI15">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ15">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AN15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AR15">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AT15">
-        <v>1.91</v>
+        <v>2.73</v>
       </c>
       <c r="AU15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY15">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AZ15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BD15">
         <v>0</v>
@@ -3866,7 +3878,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7469200</v>
+        <v>7469199</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3881,49 +3893,49 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O16" t="s">
         <v>92</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="Q16">
-        <v>4.33</v>
+        <v>1.91</v>
       </c>
       <c r="R16">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S16">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="T16">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U16">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V16">
         <v>2.5</v>
@@ -3932,139 +3944,139 @@
         <v>1.5</v>
       </c>
       <c r="X16">
+        <v>5.5</v>
+      </c>
+      <c r="Y16">
+        <v>1.13</v>
+      </c>
+      <c r="Z16">
+        <v>1.41</v>
+      </c>
+      <c r="AA16">
+        <v>4.25</v>
+      </c>
+      <c r="AB16">
+        <v>6.05</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>1.65</v>
+      </c>
+      <c r="AH16">
+        <v>2.11</v>
+      </c>
+      <c r="AI16">
+        <v>1.91</v>
+      </c>
+      <c r="AJ16">
+        <v>1.8</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>3</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>1.8</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>1.91</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>1.91</v>
+      </c>
+      <c r="AU16">
         <v>6</v>
       </c>
-      <c r="Y16">
-        <v>1.11</v>
-      </c>
-      <c r="Z16">
-        <v>4.22</v>
-      </c>
-      <c r="AA16">
-        <v>3.73</v>
-      </c>
-      <c r="AB16">
-        <v>1.65</v>
-      </c>
-      <c r="AC16">
-        <v>1.04</v>
-      </c>
-      <c r="AD16">
-        <v>11</v>
-      </c>
-      <c r="AE16">
-        <v>1.2</v>
-      </c>
-      <c r="AF16">
-        <v>3.88</v>
-      </c>
-      <c r="AG16">
-        <v>1.7</v>
-      </c>
-      <c r="AH16">
-        <v>2.04</v>
-      </c>
-      <c r="AI16">
-        <v>1.73</v>
-      </c>
-      <c r="AJ16">
-        <v>2</v>
-      </c>
-      <c r="AK16">
-        <v>2.01</v>
-      </c>
-      <c r="AL16">
-        <v>1.22</v>
-      </c>
-      <c r="AM16">
-        <v>1.18</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>3</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>2.4</v>
-      </c>
-      <c r="AR16">
-        <v>0.82</v>
-      </c>
-      <c r="AS16">
-        <v>1.68</v>
-      </c>
-      <c r="AT16">
-        <v>2.5</v>
-      </c>
-      <c r="AU16">
-        <v>3</v>
-      </c>
       <c r="AV16">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>7</v>
+      </c>
+      <c r="AX16">
+        <v>6</v>
+      </c>
+      <c r="AY16">
+        <v>13</v>
+      </c>
+      <c r="AZ16">
         <v>8</v>
       </c>
-      <c r="AW16">
-        <v>4</v>
-      </c>
-      <c r="AX16">
-        <v>10</v>
-      </c>
-      <c r="AY16">
-        <v>7</v>
-      </c>
-      <c r="AZ16">
-        <v>18</v>
-      </c>
       <c r="BA16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC16">
         <v>8</v>
       </c>
       <c r="BD16">
-        <v>3.76</v>
+        <v>0</v>
       </c>
       <c r="BE16">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="BF16">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="BG16">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="BH16">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BI16">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="BJ16">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BK16">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="BL16">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="BM16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN16">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="BO16">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BP16">
-        <v>1.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4195,7 +4207,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0.68</v>
@@ -4278,7 +4290,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7469208</v>
+        <v>7469205</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4293,43 +4305,43 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="R18">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S18">
-        <v>5.5</v>
+        <v>2.88</v>
       </c>
       <c r="T18">
         <v>1.33</v>
@@ -4338,145 +4350,145 @@
         <v>3.25</v>
       </c>
       <c r="V18">
+        <v>2.63</v>
+      </c>
+      <c r="W18">
+        <v>1.44</v>
+      </c>
+      <c r="X18">
+        <v>6</v>
+      </c>
+      <c r="Y18">
+        <v>1.11</v>
+      </c>
+      <c r="Z18">
+        <v>2.75</v>
+      </c>
+      <c r="AA18">
+        <v>3.5</v>
+      </c>
+      <c r="AB18">
+        <v>2.2</v>
+      </c>
+      <c r="AC18">
+        <v>1.03</v>
+      </c>
+      <c r="AD18">
+        <v>12</v>
+      </c>
+      <c r="AE18">
+        <v>1.22</v>
+      </c>
+      <c r="AF18">
+        <v>3.95</v>
+      </c>
+      <c r="AG18">
+        <v>1.77</v>
+      </c>
+      <c r="AH18">
+        <v>1.98</v>
+      </c>
+      <c r="AI18">
+        <v>1.62</v>
+      </c>
+      <c r="AJ18">
+        <v>2.2</v>
+      </c>
+      <c r="AK18">
+        <v>1.48</v>
+      </c>
+      <c r="AL18">
+        <v>1.25</v>
+      </c>
+      <c r="AM18">
+        <v>1.42</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1.22</v>
+      </c>
+      <c r="AS18">
+        <v>1.43</v>
+      </c>
+      <c r="AT18">
+        <v>2.65</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
+        <v>2</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+      <c r="AY18">
+        <v>6</v>
+      </c>
+      <c r="AZ18">
+        <v>5</v>
+      </c>
+      <c r="BA18">
+        <v>6</v>
+      </c>
+      <c r="BB18">
+        <v>3</v>
+      </c>
+      <c r="BC18">
+        <v>9</v>
+      </c>
+      <c r="BD18">
+        <v>1.98</v>
+      </c>
+      <c r="BE18">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF18">
+        <v>2.03</v>
+      </c>
+      <c r="BG18">
+        <v>1.22</v>
+      </c>
+      <c r="BH18">
+        <v>3.8</v>
+      </c>
+      <c r="BI18">
+        <v>1.38</v>
+      </c>
+      <c r="BJ18">
+        <v>2.8</v>
+      </c>
+      <c r="BK18">
+        <v>1.65</v>
+      </c>
+      <c r="BL18">
+        <v>2.1</v>
+      </c>
+      <c r="BM18">
+        <v>2</v>
+      </c>
+      <c r="BN18">
+        <v>1.73</v>
+      </c>
+      <c r="BO18">
         <v>2.5</v>
       </c>
-      <c r="W18">
-        <v>1.5</v>
-      </c>
-      <c r="X18">
-        <v>5.5</v>
-      </c>
-      <c r="Y18">
-        <v>1.13</v>
-      </c>
-      <c r="Z18">
-        <v>1.5</v>
-      </c>
-      <c r="AA18">
-        <v>4</v>
-      </c>
-      <c r="AB18">
-        <v>5.5</v>
-      </c>
-      <c r="AC18">
-        <v>1.02</v>
-      </c>
-      <c r="AD18">
-        <v>13</v>
-      </c>
-      <c r="AE18">
-        <v>1.2</v>
-      </c>
-      <c r="AF18">
-        <v>4.2</v>
-      </c>
-      <c r="AG18">
-        <v>1.72</v>
-      </c>
-      <c r="AH18">
-        <v>2.05</v>
-      </c>
-      <c r="AI18">
-        <v>1.8</v>
-      </c>
-      <c r="AJ18">
-        <v>1.91</v>
-      </c>
-      <c r="AK18">
-        <v>1.11</v>
-      </c>
-      <c r="AL18">
-        <v>1.18</v>
-      </c>
-      <c r="AM18">
-        <v>2.35</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>2.33</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>1.58</v>
-      </c>
-      <c r="AS18">
-        <v>1.03</v>
-      </c>
-      <c r="AT18">
-        <v>2.61</v>
-      </c>
-      <c r="AU18">
-        <v>10</v>
-      </c>
-      <c r="AV18">
-        <v>3</v>
-      </c>
-      <c r="AW18">
-        <v>14</v>
-      </c>
-      <c r="AX18">
-        <v>3</v>
-      </c>
-      <c r="AY18">
-        <v>24</v>
-      </c>
-      <c r="AZ18">
-        <v>6</v>
-      </c>
-      <c r="BA18">
-        <v>8</v>
-      </c>
-      <c r="BB18">
-        <v>3</v>
-      </c>
-      <c r="BC18">
-        <v>11</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>0</v>
-      </c>
-      <c r="BI18">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18">
-        <v>0</v>
-      </c>
       <c r="BP18">
-        <v>0</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4484,7 +4496,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7469210</v>
+        <v>7469206</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4499,190 +4511,190 @@
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="R19">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T19">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U19">
+        <v>3</v>
+      </c>
+      <c r="V19">
+        <v>2.63</v>
+      </c>
+      <c r="W19">
+        <v>1.44</v>
+      </c>
+      <c r="X19">
+        <v>6.5</v>
+      </c>
+      <c r="Y19">
+        <v>1.1</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
         <v>3.4</v>
       </c>
-      <c r="V19">
-        <v>2.5</v>
-      </c>
-      <c r="W19">
-        <v>1.5</v>
-      </c>
-      <c r="X19">
-        <v>5.5</v>
-      </c>
-      <c r="Y19">
-        <v>1.13</v>
-      </c>
-      <c r="Z19">
-        <v>2.45</v>
-      </c>
-      <c r="AA19">
-        <v>3.5</v>
-      </c>
       <c r="AB19">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="AC19">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD19">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE19">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF19">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AG19">
-        <v>1.69</v>
+        <v>1.93</v>
       </c>
       <c r="AH19">
-        <v>2.09</v>
+        <v>1.88</v>
       </c>
       <c r="AI19">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AJ19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK19">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="AL19">
         <v>1.22</v>
       </c>
       <c r="AM19">
-        <v>1.5</v>
+        <v>1.77</v>
       </c>
       <c r="AN19">
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AS19">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AT19">
-        <v>2.57</v>
+        <v>2.34</v>
       </c>
       <c r="AU19">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AV19">
+        <v>3</v>
+      </c>
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19">
         <v>6</v>
       </c>
-      <c r="AW19">
-        <v>6</v>
-      </c>
-      <c r="AX19">
-        <v>2</v>
-      </c>
       <c r="AY19">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AZ19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BD19">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="BE19">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BF19">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BG19">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BH19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BI19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BJ19">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BK19">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="BL19">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BM19">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="BN19">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BO19">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="BP19">
-        <v>0</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -4690,7 +4702,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7469206</v>
+        <v>7469207</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -4705,10 +4717,10 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4723,172 +4735,172 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="Q20">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="R20">
+        <v>2.5</v>
+      </c>
+      <c r="S20">
+        <v>2.05</v>
+      </c>
+      <c r="T20">
+        <v>1.25</v>
+      </c>
+      <c r="U20">
+        <v>3.75</v>
+      </c>
+      <c r="V20">
         <v>2.2</v>
       </c>
-      <c r="S20">
-        <v>3.75</v>
-      </c>
-      <c r="T20">
-        <v>1.36</v>
-      </c>
-      <c r="U20">
-        <v>3</v>
-      </c>
-      <c r="V20">
-        <v>2.63</v>
-      </c>
       <c r="W20">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X20">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y20">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="AA20">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AB20">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="AC20">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="AH20">
-        <v>1.88</v>
+        <v>2.19</v>
       </c>
       <c r="AI20">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AJ20">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK20">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ20">
         <v>2.33</v>
       </c>
       <c r="AR20">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>2.03</v>
       </c>
       <c r="AT20">
-        <v>2.34</v>
+        <v>3.49</v>
       </c>
       <c r="AU20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV20">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AW20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AX20">
+        <v>7</v>
+      </c>
+      <c r="AY20">
+        <v>18</v>
+      </c>
+      <c r="AZ20">
+        <v>18</v>
+      </c>
+      <c r="BA20">
         <v>6</v>
       </c>
-      <c r="AY20">
-        <v>5</v>
-      </c>
-      <c r="AZ20">
+      <c r="BB20">
+        <v>3</v>
+      </c>
+      <c r="BC20">
         <v>9</v>
       </c>
-      <c r="BA20">
-        <v>2</v>
-      </c>
-      <c r="BB20">
-        <v>2</v>
-      </c>
-      <c r="BC20">
-        <v>4</v>
-      </c>
       <c r="BD20">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="BE20">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="BF20">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="BG20">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="BH20">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BI20">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BJ20">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BK20">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BL20">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BM20">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="BN20">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="BO20">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="BP20">
-        <v>1.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -4896,7 +4908,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7469205</v>
+        <v>7469208</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -4911,43 +4923,43 @@
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="Q21">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S21">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="T21">
         <v>1.33</v>
@@ -4956,145 +4968,145 @@
         <v>3.25</v>
       </c>
       <c r="V21">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W21">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X21">
+        <v>5.5</v>
+      </c>
+      <c r="Y21">
+        <v>1.13</v>
+      </c>
+      <c r="Z21">
+        <v>1.5</v>
+      </c>
+      <c r="AA21">
+        <v>4</v>
+      </c>
+      <c r="AB21">
+        <v>5.5</v>
+      </c>
+      <c r="AC21">
+        <v>1.02</v>
+      </c>
+      <c r="AD21">
+        <v>13</v>
+      </c>
+      <c r="AE21">
+        <v>1.2</v>
+      </c>
+      <c r="AF21">
+        <v>4.2</v>
+      </c>
+      <c r="AG21">
+        <v>1.72</v>
+      </c>
+      <c r="AH21">
+        <v>2.05</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
+        <v>1.91</v>
+      </c>
+      <c r="AK21">
+        <v>1.11</v>
+      </c>
+      <c r="AL21">
+        <v>1.18</v>
+      </c>
+      <c r="AM21">
+        <v>2.35</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>2.33</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>1.58</v>
+      </c>
+      <c r="AS21">
+        <v>1.03</v>
+      </c>
+      <c r="AT21">
+        <v>2.61</v>
+      </c>
+      <c r="AU21">
+        <v>10</v>
+      </c>
+      <c r="AV21">
+        <v>3</v>
+      </c>
+      <c r="AW21">
+        <v>14</v>
+      </c>
+      <c r="AX21">
+        <v>3</v>
+      </c>
+      <c r="AY21">
+        <v>24</v>
+      </c>
+      <c r="AZ21">
         <v>6</v>
       </c>
-      <c r="Y21">
-        <v>1.11</v>
-      </c>
-      <c r="Z21">
-        <v>2.75</v>
-      </c>
-      <c r="AA21">
-        <v>3.5</v>
-      </c>
-      <c r="AB21">
-        <v>2.2</v>
-      </c>
-      <c r="AC21">
-        <v>1.03</v>
-      </c>
-      <c r="AD21">
-        <v>12</v>
-      </c>
-      <c r="AE21">
-        <v>1.22</v>
-      </c>
-      <c r="AF21">
-        <v>3.95</v>
-      </c>
-      <c r="AG21">
-        <v>1.77</v>
-      </c>
-      <c r="AH21">
-        <v>1.98</v>
-      </c>
-      <c r="AI21">
-        <v>1.62</v>
-      </c>
-      <c r="AJ21">
-        <v>2.2</v>
-      </c>
-      <c r="AK21">
-        <v>1.48</v>
-      </c>
-      <c r="AL21">
-        <v>1.25</v>
-      </c>
-      <c r="AM21">
-        <v>1.42</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>1</v>
-      </c>
-      <c r="AP21">
-        <v>0.33</v>
-      </c>
-      <c r="AQ21">
-        <v>1</v>
-      </c>
-      <c r="AR21">
-        <v>1.22</v>
-      </c>
-      <c r="AS21">
-        <v>1.43</v>
-      </c>
-      <c r="AT21">
-        <v>2.65</v>
-      </c>
-      <c r="AU21">
-        <v>4</v>
-      </c>
-      <c r="AV21">
-        <v>3</v>
-      </c>
-      <c r="AW21">
-        <v>2</v>
-      </c>
-      <c r="AX21">
-        <v>2</v>
-      </c>
-      <c r="AY21">
-        <v>6</v>
-      </c>
-      <c r="AZ21">
-        <v>5</v>
-      </c>
       <c r="BA21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB21">
         <v>3</v>
       </c>
       <c r="BC21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD21">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BE21">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF21">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="BG21">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="BH21">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="BI21">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="BJ21">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="BK21">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BL21">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BM21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BN21">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BO21">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="BP21">
-        <v>1.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5102,7 +5114,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7469207</v>
+        <v>7469210</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5117,151 +5129,151 @@
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q22">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="R22">
+        <v>2.3</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>1.3</v>
+      </c>
+      <c r="U22">
+        <v>3.4</v>
+      </c>
+      <c r="V22">
         <v>2.5</v>
       </c>
-      <c r="S22">
-        <v>2.05</v>
-      </c>
-      <c r="T22">
-        <v>1.25</v>
-      </c>
-      <c r="U22">
-        <v>3.75</v>
-      </c>
-      <c r="V22">
-        <v>2.2</v>
-      </c>
       <c r="W22">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="X22">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y22">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="Z22">
-        <v>4.6</v>
+        <v>2.45</v>
       </c>
       <c r="AA22">
+        <v>3.5</v>
+      </c>
+      <c r="AB22">
+        <v>2.45</v>
+      </c>
+      <c r="AC22">
+        <v>1.02</v>
+      </c>
+      <c r="AD22">
+        <v>13</v>
+      </c>
+      <c r="AE22">
+        <v>1.2</v>
+      </c>
+      <c r="AF22">
         <v>4.2</v>
       </c>
-      <c r="AB22">
-        <v>1.55</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
       <c r="AG22">
+        <v>1.69</v>
+      </c>
+      <c r="AH22">
+        <v>2.09</v>
+      </c>
+      <c r="AI22">
         <v>1.57</v>
       </c>
-      <c r="AH22">
-        <v>2.19</v>
-      </c>
-      <c r="AI22">
-        <v>1.62</v>
-      </c>
       <c r="AJ22">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO22">
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AS22">
-        <v>2.03</v>
+        <v>1.29</v>
       </c>
       <c r="AT22">
-        <v>3.49</v>
+        <v>2.57</v>
       </c>
       <c r="AU22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AW22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX22">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ22">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BA22">
         <v>6</v>
       </c>
       <c r="BB22">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC22">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD22">
         <v>0</v>
@@ -5514,7 +5526,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7469213</v>
+        <v>7469216</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5529,19 +5541,19 @@
         <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -5556,163 +5568,163 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q24">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="S24">
+        <v>3.1</v>
+      </c>
+      <c r="T24">
+        <v>1.29</v>
+      </c>
+      <c r="U24">
         <v>3.5</v>
       </c>
-      <c r="T24">
+      <c r="V24">
+        <v>2.25</v>
+      </c>
+      <c r="W24">
+        <v>1.57</v>
+      </c>
+      <c r="X24">
+        <v>5</v>
+      </c>
+      <c r="Y24">
+        <v>1.14</v>
+      </c>
+      <c r="Z24">
+        <v>2.25</v>
+      </c>
+      <c r="AA24">
+        <v>3.5</v>
+      </c>
+      <c r="AB24">
+        <v>2.55</v>
+      </c>
+      <c r="AC24">
+        <v>1.02</v>
+      </c>
+      <c r="AD24">
+        <v>10</v>
+      </c>
+      <c r="AE24">
+        <v>1.13</v>
+      </c>
+      <c r="AF24">
+        <v>4.85</v>
+      </c>
+      <c r="AG24">
+        <v>1.64</v>
+      </c>
+      <c r="AH24">
+        <v>2.16</v>
+      </c>
+      <c r="AI24">
         <v>1.5</v>
       </c>
-      <c r="U24">
+      <c r="AJ24">
         <v>2.5</v>
       </c>
-      <c r="V24">
-        <v>3.5</v>
-      </c>
-      <c r="W24">
-        <v>1.29</v>
-      </c>
-      <c r="X24">
-        <v>8</v>
-      </c>
-      <c r="Y24">
-        <v>1.06</v>
-      </c>
-      <c r="Z24">
-        <v>2.5</v>
-      </c>
-      <c r="AA24">
-        <v>2.9</v>
-      </c>
-      <c r="AB24">
-        <v>2.65</v>
-      </c>
-      <c r="AC24">
-        <v>1.06</v>
-      </c>
-      <c r="AD24">
-        <v>6.85</v>
-      </c>
-      <c r="AE24">
-        <v>1.43</v>
-      </c>
-      <c r="AF24">
-        <v>2.54</v>
-      </c>
-      <c r="AG24">
-        <v>2.28</v>
-      </c>
-      <c r="AH24">
-        <v>1.58</v>
-      </c>
-      <c r="AI24">
-        <v>2</v>
-      </c>
-      <c r="AJ24">
-        <v>1.73</v>
-      </c>
       <c r="AK24">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AL24">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="AM24">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR24">
-        <v>1.81</v>
+        <v>1.08</v>
       </c>
       <c r="AS24">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="AT24">
-        <v>3.63</v>
+        <v>2.92</v>
       </c>
       <c r="AU24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV24">
         <v>4</v>
       </c>
       <c r="AW24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX24">
+        <v>6</v>
+      </c>
+      <c r="AY24">
+        <v>7</v>
+      </c>
+      <c r="AZ24">
+        <v>10</v>
+      </c>
+      <c r="BA24">
+        <v>6</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24">
         <v>8</v>
       </c>
-      <c r="AY24">
-        <v>4</v>
-      </c>
-      <c r="AZ24">
-        <v>12</v>
-      </c>
-      <c r="BA24">
-        <v>2</v>
-      </c>
-      <c r="BB24">
-        <v>9</v>
-      </c>
-      <c r="BC24">
-        <v>11</v>
-      </c>
       <c r="BD24">
-        <v>2.08</v>
+        <v>1.66</v>
       </c>
       <c r="BE24">
-        <v>6.05</v>
+        <v>6.4</v>
       </c>
       <c r="BF24">
-        <v>2.12</v>
+        <v>2.78</v>
       </c>
       <c r="BG24">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BH24">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="BI24">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="BJ24">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BK24">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="BL24">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="BM24">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="BN24">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="BO24">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="BP24">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -5720,7 +5732,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7469214</v>
+        <v>7469215</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -5735,178 +5747,178 @@
         <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O25" t="s">
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q25">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="R25">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S25">
+        <v>1.91</v>
+      </c>
+      <c r="T25">
+        <v>1.29</v>
+      </c>
+      <c r="U25">
+        <v>3.5</v>
+      </c>
+      <c r="V25">
+        <v>2.25</v>
+      </c>
+      <c r="W25">
+        <v>1.57</v>
+      </c>
+      <c r="X25">
+        <v>4.5</v>
+      </c>
+      <c r="Y25">
+        <v>1.17</v>
+      </c>
+      <c r="Z25">
+        <v>8.75</v>
+      </c>
+      <c r="AA25">
+        <v>5.5</v>
+      </c>
+      <c r="AB25">
+        <v>1.24</v>
+      </c>
+      <c r="AC25">
+        <v>1.01</v>
+      </c>
+      <c r="AD25">
+        <v>17</v>
+      </c>
+      <c r="AE25">
+        <v>1.13</v>
+      </c>
+      <c r="AF25">
+        <v>4.85</v>
+      </c>
+      <c r="AG25">
+        <v>1.53</v>
+      </c>
+      <c r="AH25">
+        <v>2.35</v>
+      </c>
+      <c r="AI25">
+        <v>1.73</v>
+      </c>
+      <c r="AJ25">
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <v>3.52</v>
+      </c>
+      <c r="AL25">
+        <v>1.1</v>
+      </c>
+      <c r="AM25">
+        <v>1.02</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>2</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>2.33</v>
+      </c>
+      <c r="AR25">
+        <v>0.89</v>
+      </c>
+      <c r="AS25">
+        <v>2.25</v>
+      </c>
+      <c r="AT25">
+        <v>3.14</v>
+      </c>
+      <c r="AU25">
+        <v>2</v>
+      </c>
+      <c r="AV25">
+        <v>6</v>
+      </c>
+      <c r="AW25">
+        <v>2</v>
+      </c>
+      <c r="AX25">
+        <v>8</v>
+      </c>
+      <c r="AY25">
         <v>4</v>
       </c>
-      <c r="T25">
-        <v>1.3</v>
-      </c>
-      <c r="U25">
-        <v>3.4</v>
-      </c>
-      <c r="V25">
-        <v>2.38</v>
-      </c>
-      <c r="W25">
-        <v>1.53</v>
-      </c>
-      <c r="X25">
+      <c r="AZ25">
+        <v>14</v>
+      </c>
+      <c r="BA25">
+        <v>2</v>
+      </c>
+      <c r="BB25">
+        <v>3</v>
+      </c>
+      <c r="BC25">
         <v>5</v>
       </c>
-      <c r="Y25">
-        <v>1.14</v>
-      </c>
-      <c r="Z25">
-        <v>1.72</v>
-      </c>
-      <c r="AA25">
-        <v>3.7</v>
-      </c>
-      <c r="AB25">
-        <v>3.75</v>
-      </c>
-      <c r="AC25">
-        <v>1.03</v>
-      </c>
-      <c r="AD25">
-        <v>9</v>
-      </c>
-      <c r="AE25">
-        <v>1.16</v>
-      </c>
-      <c r="AF25">
-        <v>4.3</v>
-      </c>
-      <c r="AG25">
-        <v>1.57</v>
-      </c>
-      <c r="AH25">
-        <v>2.3</v>
-      </c>
-      <c r="AI25">
-        <v>1.57</v>
-      </c>
-      <c r="AJ25">
-        <v>2.25</v>
-      </c>
-      <c r="AK25">
-        <v>1.21</v>
-      </c>
-      <c r="AL25">
-        <v>1.22</v>
-      </c>
-      <c r="AM25">
-        <v>1.95</v>
-      </c>
-      <c r="AN25">
-        <v>0.5</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1.33</v>
-      </c>
-      <c r="AQ25">
-        <v>1</v>
-      </c>
-      <c r="AR25">
-        <v>1.77</v>
-      </c>
-      <c r="AS25">
-        <v>0.91</v>
-      </c>
-      <c r="AT25">
-        <v>2.68</v>
-      </c>
-      <c r="AU25">
-        <v>6</v>
-      </c>
-      <c r="AV25">
-        <v>4</v>
-      </c>
-      <c r="AW25">
-        <v>6</v>
-      </c>
-      <c r="AX25">
-        <v>4</v>
-      </c>
-      <c r="AY25">
-        <v>12</v>
-      </c>
-      <c r="AZ25">
-        <v>8</v>
-      </c>
-      <c r="BA25">
-        <v>8</v>
-      </c>
-      <c r="BB25">
-        <v>9</v>
-      </c>
-      <c r="BC25">
-        <v>17</v>
-      </c>
       <c r="BD25">
-        <v>1.49</v>
+        <v>11.75</v>
       </c>
       <c r="BE25">
-        <v>6.8</v>
+        <v>12.75</v>
       </c>
       <c r="BF25">
-        <v>3.34</v>
+        <v>1.05</v>
       </c>
       <c r="BG25">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH25">
         <v>3.5</v>
       </c>
       <c r="BI25">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="BJ25">
-        <v>2.51</v>
+        <v>2.4</v>
       </c>
       <c r="BK25">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="BL25">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="BM25">
         <v>2.2</v>
@@ -5915,10 +5927,10 @@
         <v>1.57</v>
       </c>
       <c r="BO25">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="BP25">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -5926,7 +5938,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>7469215</v>
+        <v>7469213</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
@@ -5941,133 +5953,133 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q26">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
+        <v>3.5</v>
+      </c>
+      <c r="T26">
+        <v>1.5</v>
+      </c>
+      <c r="U26">
         <v>2.5</v>
       </c>
-      <c r="S26">
-        <v>1.91</v>
-      </c>
-      <c r="T26">
+      <c r="V26">
+        <v>3.5</v>
+      </c>
+      <c r="W26">
         <v>1.29</v>
       </c>
-      <c r="U26">
-        <v>3.5</v>
-      </c>
-      <c r="V26">
-        <v>2.25</v>
-      </c>
-      <c r="W26">
-        <v>1.57</v>
-      </c>
       <c r="X26">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Y26">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="Z26">
-        <v>8.75</v>
+        <v>2.5</v>
       </c>
       <c r="AA26">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="AB26">
-        <v>1.24</v>
+        <v>2.65</v>
       </c>
       <c r="AC26">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD26">
-        <v>17</v>
+        <v>6.85</v>
       </c>
       <c r="AE26">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="AF26">
-        <v>4.85</v>
+        <v>2.54</v>
       </c>
       <c r="AG26">
-        <v>1.53</v>
+        <v>2.28</v>
       </c>
       <c r="AH26">
-        <v>2.35</v>
+        <v>1.58</v>
       </c>
       <c r="AI26">
+        <v>2</v>
+      </c>
+      <c r="AJ26">
         <v>1.73</v>
       </c>
-      <c r="AJ26">
-        <v>2</v>
-      </c>
       <c r="AK26">
-        <v>3.52</v>
+        <v>1.4</v>
       </c>
       <c r="AL26">
-        <v>1.1</v>
+        <v>1.31</v>
       </c>
       <c r="AM26">
-        <v>1.02</v>
+        <v>1.46</v>
       </c>
       <c r="AN26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO26">
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26">
         <v>2.33</v>
       </c>
       <c r="AR26">
-        <v>0.89</v>
+        <v>1.81</v>
       </c>
       <c r="AS26">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="AT26">
-        <v>3.14</v>
+        <v>3.63</v>
       </c>
       <c r="AU26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX26">
         <v>8</v>
@@ -6076,55 +6088,55 @@
         <v>4</v>
       </c>
       <c r="AZ26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA26">
         <v>2</v>
       </c>
       <c r="BB26">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD26">
-        <v>11.75</v>
+        <v>2.08</v>
       </c>
       <c r="BE26">
-        <v>12.75</v>
+        <v>6.05</v>
       </c>
       <c r="BF26">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="BG26">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="BH26">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="BI26">
+        <v>1.62</v>
+      </c>
+      <c r="BJ26">
+        <v>2.2</v>
+      </c>
+      <c r="BK26">
+        <v>2</v>
+      </c>
+      <c r="BL26">
+        <v>1.73</v>
+      </c>
+      <c r="BM26">
+        <v>2.5</v>
+      </c>
+      <c r="BN26">
         <v>1.48</v>
       </c>
-      <c r="BJ26">
-        <v>2.4</v>
-      </c>
-      <c r="BK26">
-        <v>1.82</v>
-      </c>
-      <c r="BL26">
-        <v>1.94</v>
-      </c>
-      <c r="BM26">
-        <v>2.2</v>
-      </c>
-      <c r="BN26">
-        <v>1.57</v>
-      </c>
       <c r="BO26">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP26">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="27" spans="1:68">
@@ -6132,7 +6144,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7469216</v>
+        <v>7469214</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6147,55 +6159,55 @@
         <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
         <v>2</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27" t="s">
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q27">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="R27">
+        <v>2.3</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>1.3</v>
+      </c>
+      <c r="U27">
+        <v>3.4</v>
+      </c>
+      <c r="V27">
         <v>2.38</v>
       </c>
-      <c r="S27">
-        <v>3.1</v>
-      </c>
-      <c r="T27">
-        <v>1.29</v>
-      </c>
-      <c r="U27">
-        <v>3.5</v>
-      </c>
-      <c r="V27">
-        <v>2.25</v>
-      </c>
       <c r="W27">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X27">
         <v>5</v>
@@ -6204,133 +6216,133 @@
         <v>1.14</v>
       </c>
       <c r="Z27">
+        <v>1.72</v>
+      </c>
+      <c r="AA27">
+        <v>3.7</v>
+      </c>
+      <c r="AB27">
+        <v>3.75</v>
+      </c>
+      <c r="AC27">
+        <v>1.03</v>
+      </c>
+      <c r="AD27">
+        <v>9</v>
+      </c>
+      <c r="AE27">
+        <v>1.16</v>
+      </c>
+      <c r="AF27">
+        <v>4.3</v>
+      </c>
+      <c r="AG27">
+        <v>1.57</v>
+      </c>
+      <c r="AH27">
+        <v>2.3</v>
+      </c>
+      <c r="AI27">
+        <v>1.57</v>
+      </c>
+      <c r="AJ27">
         <v>2.25</v>
       </c>
-      <c r="AA27">
-        <v>3.5</v>
-      </c>
-      <c r="AB27">
-        <v>2.55</v>
-      </c>
-      <c r="AC27">
-        <v>1.02</v>
-      </c>
-      <c r="AD27">
-        <v>10</v>
-      </c>
-      <c r="AE27">
-        <v>1.13</v>
-      </c>
-      <c r="AF27">
-        <v>4.85</v>
-      </c>
-      <c r="AG27">
-        <v>1.64</v>
-      </c>
-      <c r="AH27">
-        <v>2.16</v>
-      </c>
-      <c r="AI27">
-        <v>1.5</v>
-      </c>
-      <c r="AJ27">
-        <v>2.5</v>
-      </c>
       <c r="AK27">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="AL27">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="AM27">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="AN27">
         <v>0.5</v>
       </c>
       <c r="AO27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AR27">
-        <v>1.08</v>
+        <v>1.77</v>
       </c>
       <c r="AS27">
-        <v>1.84</v>
+        <v>0.91</v>
       </c>
       <c r="AT27">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="AU27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV27">
         <v>4</v>
       </c>
       <c r="AW27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY27">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC27">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BD27">
-        <v>1.66</v>
+        <v>1.49</v>
       </c>
       <c r="BE27">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="BF27">
-        <v>2.78</v>
+        <v>3.34</v>
       </c>
       <c r="BG27">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH27">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="BI27">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="BJ27">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="BK27">
-        <v>1.91</v>
+        <v>1.79</v>
       </c>
       <c r="BL27">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="BM27">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="BN27">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="BO27">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="BP27">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6750,7 +6762,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7469222</v>
+        <v>7469220</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6765,103 +6777,103 @@
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="Q30">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="R30">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="S30">
+        <v>1.44</v>
+      </c>
+      <c r="T30">
+        <v>1.22</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>2.1</v>
+      </c>
+      <c r="W30">
+        <v>1.67</v>
+      </c>
+      <c r="X30">
         <v>4.33</v>
       </c>
-      <c r="T30">
-        <v>1.3</v>
-      </c>
-      <c r="U30">
-        <v>3.4</v>
-      </c>
-      <c r="V30">
-        <v>2.5</v>
-      </c>
-      <c r="W30">
-        <v>1.5</v>
-      </c>
-      <c r="X30">
-        <v>5.5</v>
-      </c>
       <c r="Y30">
+        <v>1.2</v>
+      </c>
+      <c r="Z30">
+        <v>19</v>
+      </c>
+      <c r="AA30">
+        <v>8</v>
+      </c>
+      <c r="AB30">
         <v>1.13</v>
-      </c>
-      <c r="Z30">
-        <v>1.6</v>
-      </c>
-      <c r="AA30">
-        <v>3.8</v>
-      </c>
-      <c r="AB30">
-        <v>4.75</v>
       </c>
       <c r="AC30">
         <v>1.01</v>
       </c>
       <c r="AD30">
-        <v>11</v>
+        <v>14.9</v>
       </c>
       <c r="AE30">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AF30">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AG30">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AH30">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AI30">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="AJ30">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AK30">
-        <v>1.16</v>
+        <v>6.6</v>
       </c>
       <c r="AL30">
-        <v>1.21</v>
+        <v>1.02</v>
       </c>
       <c r="AM30">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="AN30">
         <v>2</v>
@@ -6870,85 +6882,85 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AR30">
-        <v>2.16</v>
+        <v>1.46</v>
       </c>
       <c r="AS30">
-        <v>1.69</v>
+        <v>2.52</v>
       </c>
       <c r="AT30">
-        <v>3.85</v>
+        <v>3.98</v>
       </c>
       <c r="AU30">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AV30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW30">
         <v>7</v>
       </c>
       <c r="AX30">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY30">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AZ30">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="BA30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD30">
-        <v>1.44</v>
+        <v>7.6</v>
       </c>
       <c r="BE30">
-        <v>9</v>
+        <v>12.75</v>
       </c>
       <c r="BF30">
+        <v>1.1</v>
+      </c>
+      <c r="BG30">
+        <v>1.33</v>
+      </c>
+      <c r="BH30">
+        <v>3</v>
+      </c>
+      <c r="BI30">
+        <v>1.54</v>
+      </c>
+      <c r="BJ30">
+        <v>2.26</v>
+      </c>
+      <c r="BK30">
+        <v>1.92</v>
+      </c>
+      <c r="BL30">
+        <v>1.84</v>
+      </c>
+      <c r="BM30">
+        <v>2.34</v>
+      </c>
+      <c r="BN30">
+        <v>1.5</v>
+      </c>
+      <c r="BO30">
         <v>3.2</v>
       </c>
-      <c r="BG30">
-        <v>1.25</v>
-      </c>
-      <c r="BH30">
-        <v>3.6</v>
-      </c>
-      <c r="BI30">
-        <v>1.42</v>
-      </c>
-      <c r="BJ30">
-        <v>2.62</v>
-      </c>
-      <c r="BK30">
-        <v>1.65</v>
-      </c>
-      <c r="BL30">
-        <v>2.13</v>
-      </c>
-      <c r="BM30">
-        <v>2.06</v>
-      </c>
-      <c r="BN30">
-        <v>1.7</v>
-      </c>
-      <c r="BO30">
-        <v>2.6</v>
-      </c>
       <c r="BP30">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:68">
@@ -6956,7 +6968,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7469220</v>
+        <v>7469219</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -6971,190 +6983,190 @@
         <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H31" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>1.83</v>
       </c>
       <c r="R31">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="S31">
-        <v>1.44</v>
+        <v>6</v>
       </c>
       <c r="T31">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U31">
+        <v>3.5</v>
+      </c>
+      <c r="V31">
+        <v>2.38</v>
+      </c>
+      <c r="W31">
+        <v>1.53</v>
+      </c>
+      <c r="X31">
+        <v>5</v>
+      </c>
+      <c r="Y31">
+        <v>1.14</v>
+      </c>
+      <c r="Z31">
+        <v>1.5</v>
+      </c>
+      <c r="AA31">
         <v>4</v>
       </c>
-      <c r="V31">
-        <v>2.1</v>
-      </c>
-      <c r="W31">
-        <v>1.67</v>
-      </c>
-      <c r="X31">
-        <v>4.33</v>
-      </c>
-      <c r="Y31">
-        <v>1.2</v>
-      </c>
-      <c r="Z31">
-        <v>19</v>
-      </c>
-      <c r="AA31">
-        <v>8</v>
-      </c>
       <c r="AB31">
-        <v>1.13</v>
+        <v>5.5</v>
       </c>
       <c r="AC31">
         <v>1.01</v>
       </c>
       <c r="AD31">
-        <v>14.9</v>
+        <v>13</v>
       </c>
       <c r="AE31">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AF31">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="AG31">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AH31">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="AI31">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="AJ31">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AK31">
-        <v>6.6</v>
+        <v>1.08</v>
       </c>
       <c r="AL31">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="AM31">
-        <v>1.01</v>
+        <v>2.67</v>
       </c>
       <c r="AN31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO31">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AQ31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="AS31">
-        <v>2.52</v>
+        <v>1.87</v>
       </c>
       <c r="AT31">
-        <v>3.98</v>
+        <v>3.28</v>
       </c>
       <c r="AU31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV31">
         <v>4</v>
       </c>
       <c r="AW31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ31">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BC31">
+        <v>18</v>
+      </c>
+      <c r="BD31">
+        <v>1.27</v>
+      </c>
+      <c r="BE31">
         <v>10</v>
       </c>
-      <c r="BD31">
-        <v>7.6</v>
-      </c>
-      <c r="BE31">
-        <v>12.75</v>
-      </c>
       <c r="BF31">
-        <v>1.1</v>
+        <v>4.33</v>
       </c>
       <c r="BG31">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="BH31">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="BI31">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="BJ31">
-        <v>2.26</v>
+        <v>2.8</v>
       </c>
       <c r="BK31">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="BL31">
-        <v>1.84</v>
+        <v>2.21</v>
       </c>
       <c r="BM31">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="BN31">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="BO31">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="BP31">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7162,7 +7174,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7469219</v>
+        <v>7469222</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7177,10 +7189,10 @@
         <v>6</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -7192,61 +7204,61 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" t="s">
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="Q32">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="R32">
+        <v>2.3</v>
+      </c>
+      <c r="S32">
+        <v>4.33</v>
+      </c>
+      <c r="T32">
+        <v>1.3</v>
+      </c>
+      <c r="U32">
+        <v>3.4</v>
+      </c>
+      <c r="V32">
         <v>2.5</v>
       </c>
-      <c r="S32">
-        <v>6</v>
-      </c>
-      <c r="T32">
-        <v>1.29</v>
-      </c>
-      <c r="U32">
-        <v>3.5</v>
-      </c>
-      <c r="V32">
-        <v>2.38</v>
-      </c>
       <c r="W32">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X32">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y32">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z32">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA32">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AB32">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AC32">
         <v>1.01</v>
       </c>
       <c r="AD32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE32">
         <v>1.14</v>
@@ -7255,112 +7267,112 @@
         <v>4.8</v>
       </c>
       <c r="AG32">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AH32">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AI32">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AJ32">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AK32">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AL32">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="AM32">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
-        <v>1.41</v>
+        <v>2.16</v>
       </c>
       <c r="AS32">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="AT32">
-        <v>3.28</v>
+        <v>3.85</v>
       </c>
       <c r="AU32">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="AV32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX32">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY32">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AZ32">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BA32">
         <v>8</v>
       </c>
       <c r="BB32">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC32">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BD32">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="BE32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF32">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="BG32">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BH32">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI32">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BJ32">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="BK32">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BL32">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="BM32">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="BN32">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="BO32">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BP32">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7410,7 +7422,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7616,7 +7628,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8028,7 +8040,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8185,6 +8197,624 @@
       </c>
       <c r="BP36">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7469225</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45549.4375</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q37">
+        <v>1.83</v>
+      </c>
+      <c r="R37">
+        <v>2.5</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <v>1.29</v>
+      </c>
+      <c r="U37">
+        <v>3.5</v>
+      </c>
+      <c r="V37">
+        <v>2.25</v>
+      </c>
+      <c r="W37">
+        <v>1.57</v>
+      </c>
+      <c r="X37">
+        <v>5</v>
+      </c>
+      <c r="Y37">
+        <v>1.14</v>
+      </c>
+      <c r="Z37">
+        <v>1.3</v>
+      </c>
+      <c r="AA37">
+        <v>5.5</v>
+      </c>
+      <c r="AB37">
+        <v>8</v>
+      </c>
+      <c r="AC37">
+        <v>1.01</v>
+      </c>
+      <c r="AD37">
+        <v>13</v>
+      </c>
+      <c r="AE37">
+        <v>1.15</v>
+      </c>
+      <c r="AF37">
+        <v>4.5</v>
+      </c>
+      <c r="AG37">
+        <v>1.44</v>
+      </c>
+      <c r="AH37">
+        <v>2.6</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1.91</v>
+      </c>
+      <c r="AK37">
+        <v>1.03</v>
+      </c>
+      <c r="AL37">
+        <v>1.12</v>
+      </c>
+      <c r="AM37">
+        <v>3.3</v>
+      </c>
+      <c r="AN37">
+        <v>0.33</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>1.1</v>
+      </c>
+      <c r="AS37">
+        <v>1.01</v>
+      </c>
+      <c r="AT37">
+        <v>2.11</v>
+      </c>
+      <c r="AU37">
+        <v>-1</v>
+      </c>
+      <c r="AV37">
+        <v>-1</v>
+      </c>
+      <c r="AW37">
+        <v>-1</v>
+      </c>
+      <c r="AX37">
+        <v>-1</v>
+      </c>
+      <c r="AY37">
+        <v>-1</v>
+      </c>
+      <c r="AZ37">
+        <v>-1</v>
+      </c>
+      <c r="BA37">
+        <v>-1</v>
+      </c>
+      <c r="BB37">
+        <v>-1</v>
+      </c>
+      <c r="BC37">
+        <v>-1</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <v>0</v>
+      </c>
+      <c r="BG37">
+        <v>0</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <v>0</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7469226</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45549.4375</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>108</v>
+      </c>
+      <c r="P38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q38">
+        <v>3.4</v>
+      </c>
+      <c r="R38">
+        <v>2.2</v>
+      </c>
+      <c r="S38">
+        <v>2.88</v>
+      </c>
+      <c r="T38">
+        <v>1.36</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2.75</v>
+      </c>
+      <c r="W38">
+        <v>1.4</v>
+      </c>
+      <c r="X38">
+        <v>6.5</v>
+      </c>
+      <c r="Y38">
+        <v>1.1</v>
+      </c>
+      <c r="Z38">
+        <v>3.85</v>
+      </c>
+      <c r="AA38">
+        <v>3.5</v>
+      </c>
+      <c r="AB38">
+        <v>1.83</v>
+      </c>
+      <c r="AC38">
+        <v>1.01</v>
+      </c>
+      <c r="AD38">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE38">
+        <v>1.26</v>
+      </c>
+      <c r="AF38">
+        <v>3.34</v>
+      </c>
+      <c r="AG38">
+        <v>1.76</v>
+      </c>
+      <c r="AH38">
+        <v>1.75</v>
+      </c>
+      <c r="AI38">
+        <v>1.73</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>1.58</v>
+      </c>
+      <c r="AL38">
+        <v>1.27</v>
+      </c>
+      <c r="AM38">
+        <v>1.34</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>2.33</v>
+      </c>
+      <c r="AP38">
+        <v>0.75</v>
+      </c>
+      <c r="AQ38">
+        <v>1.75</v>
+      </c>
+      <c r="AR38">
+        <v>1.69</v>
+      </c>
+      <c r="AS38">
+        <v>1.07</v>
+      </c>
+      <c r="AT38">
+        <v>2.76</v>
+      </c>
+      <c r="AU38">
+        <v>-1</v>
+      </c>
+      <c r="AV38">
+        <v>-1</v>
+      </c>
+      <c r="AW38">
+        <v>-1</v>
+      </c>
+      <c r="AX38">
+        <v>-1</v>
+      </c>
+      <c r="AY38">
+        <v>-1</v>
+      </c>
+      <c r="AZ38">
+        <v>-1</v>
+      </c>
+      <c r="BA38">
+        <v>-1</v>
+      </c>
+      <c r="BB38">
+        <v>-1</v>
+      </c>
+      <c r="BC38">
+        <v>-1</v>
+      </c>
+      <c r="BD38">
+        <v>2.33</v>
+      </c>
+      <c r="BE38">
+        <v>8.1</v>
+      </c>
+      <c r="BF38">
+        <v>1.77</v>
+      </c>
+      <c r="BG38">
+        <v>1.33</v>
+      </c>
+      <c r="BH38">
+        <v>3</v>
+      </c>
+      <c r="BI38">
+        <v>1.57</v>
+      </c>
+      <c r="BJ38">
+        <v>2.25</v>
+      </c>
+      <c r="BK38">
+        <v>1.91</v>
+      </c>
+      <c r="BL38">
+        <v>1.8</v>
+      </c>
+      <c r="BM38">
+        <v>2.4</v>
+      </c>
+      <c r="BN38">
+        <v>1.5</v>
+      </c>
+      <c r="BO38">
+        <v>3.2</v>
+      </c>
+      <c r="BP38">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7469227</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45549.4375</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>81</v>
+      </c>
+      <c r="H39" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>109</v>
+      </c>
+      <c r="P39" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q39">
+        <v>1.29</v>
+      </c>
+      <c r="R39">
+        <v>3.75</v>
+      </c>
+      <c r="S39">
+        <v>15</v>
+      </c>
+      <c r="T39">
+        <v>1.14</v>
+      </c>
+      <c r="U39">
+        <v>5</v>
+      </c>
+      <c r="V39">
+        <v>1.73</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+      <c r="X39">
+        <v>3.25</v>
+      </c>
+      <c r="Y39">
+        <v>1.33</v>
+      </c>
+      <c r="Z39">
+        <v>1.06</v>
+      </c>
+      <c r="AA39">
+        <v>11</v>
+      </c>
+      <c r="AB39">
+        <v>17</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>11</v>
+      </c>
+      <c r="AE39">
+        <v>1.03</v>
+      </c>
+      <c r="AF39">
+        <v>9</v>
+      </c>
+      <c r="AG39">
+        <v>1.22</v>
+      </c>
+      <c r="AH39">
+        <v>4</v>
+      </c>
+      <c r="AI39">
+        <v>2.38</v>
+      </c>
+      <c r="AJ39">
+        <v>1.53</v>
+      </c>
+      <c r="AK39">
+        <v>1.02</v>
+      </c>
+      <c r="AL39">
+        <v>1.02</v>
+      </c>
+      <c r="AM39">
+        <v>8</v>
+      </c>
+      <c r="AN39">
+        <v>3</v>
+      </c>
+      <c r="AO39">
+        <v>1.33</v>
+      </c>
+      <c r="AP39">
+        <v>3</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>3.26</v>
+      </c>
+      <c r="AS39">
+        <v>1.8</v>
+      </c>
+      <c r="AT39">
+        <v>5.06</v>
+      </c>
+      <c r="AU39">
+        <v>8</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>12</v>
+      </c>
+      <c r="AX39">
+        <v>3</v>
+      </c>
+      <c r="AY39">
+        <v>20</v>
+      </c>
+      <c r="AZ39">
+        <v>6</v>
+      </c>
+      <c r="BA39">
+        <v>11</v>
+      </c>
+      <c r="BB39">
+        <v>3</v>
+      </c>
+      <c r="BC39">
+        <v>14</v>
+      </c>
+      <c r="BD39">
+        <v>1.01</v>
+      </c>
+      <c r="BE39">
+        <v>19</v>
+      </c>
+      <c r="BF39">
+        <v>14</v>
+      </c>
+      <c r="BG39">
+        <v>1.13</v>
+      </c>
+      <c r="BH39">
+        <v>5</v>
+      </c>
+      <c r="BI39">
+        <v>1.25</v>
+      </c>
+      <c r="BJ39">
+        <v>3.6</v>
+      </c>
+      <c r="BK39">
+        <v>1.42</v>
+      </c>
+      <c r="BL39">
+        <v>2.62</v>
+      </c>
+      <c r="BM39">
+        <v>1.67</v>
+      </c>
+      <c r="BN39">
+        <v>2.1</v>
+      </c>
+      <c r="BO39">
+        <v>2.05</v>
+      </c>
+      <c r="BP39">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -777,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3795,7 +3795,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -6061,7 +6061,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ26">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -8339,31 +8339,31 @@
         <v>2.11</v>
       </c>
       <c r="AU37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV37">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW37">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ37">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD37">
         <v>0</v>
@@ -8545,31 +8545,31 @@
         <v>2.76</v>
       </c>
       <c r="AU38">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY38">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB38">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD38">
         <v>2.33</v>
@@ -8751,22 +8751,22 @@
         <v>5.06</v>
       </c>
       <c r="AU39">
+        <v>12</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>21</v>
+      </c>
+      <c r="AX39">
+        <v>4</v>
+      </c>
+      <c r="AY39">
+        <v>33</v>
+      </c>
+      <c r="AZ39">
         <v>8</v>
-      </c>
-      <c r="AV39">
-        <v>3</v>
-      </c>
-      <c r="AW39">
-        <v>12</v>
-      </c>
-      <c r="AX39">
-        <v>3</v>
-      </c>
-      <c r="AY39">
-        <v>20</v>
-      </c>
-      <c r="AZ39">
-        <v>6</v>
       </c>
       <c r="BA39">
         <v>11</v>
@@ -8815,6 +8815,212 @@
       </c>
       <c r="BP39">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7469228</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45550.4375</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q40">
+        <v>2.88</v>
+      </c>
+      <c r="R40">
+        <v>2.3</v>
+      </c>
+      <c r="S40">
+        <v>3.1</v>
+      </c>
+      <c r="T40">
+        <v>1.3</v>
+      </c>
+      <c r="U40">
+        <v>3.4</v>
+      </c>
+      <c r="V40">
+        <v>2.38</v>
+      </c>
+      <c r="W40">
+        <v>1.53</v>
+      </c>
+      <c r="X40">
+        <v>5</v>
+      </c>
+      <c r="Y40">
+        <v>1.14</v>
+      </c>
+      <c r="Z40">
+        <v>2.21</v>
+      </c>
+      <c r="AA40">
+        <v>3.2</v>
+      </c>
+      <c r="AB40">
+        <v>2.82</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>11</v>
+      </c>
+      <c r="AE40">
+        <v>1.18</v>
+      </c>
+      <c r="AF40">
+        <v>4.33</v>
+      </c>
+      <c r="AG40">
+        <v>1.88</v>
+      </c>
+      <c r="AH40">
+        <v>1.88</v>
+      </c>
+      <c r="AI40">
+        <v>1.53</v>
+      </c>
+      <c r="AJ40">
+        <v>2.38</v>
+      </c>
+      <c r="AK40">
+        <v>1.48</v>
+      </c>
+      <c r="AL40">
+        <v>1.3</v>
+      </c>
+      <c r="AM40">
+        <v>1.53</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>2.33</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>2.5</v>
+      </c>
+      <c r="AR40">
+        <v>1.48</v>
+      </c>
+      <c r="AS40">
+        <v>1.73</v>
+      </c>
+      <c r="AT40">
+        <v>3.21</v>
+      </c>
+      <c r="AU40">
+        <v>3</v>
+      </c>
+      <c r="AV40">
+        <v>6</v>
+      </c>
+      <c r="AW40">
+        <v>8</v>
+      </c>
+      <c r="AX40">
+        <v>8</v>
+      </c>
+      <c r="AY40">
+        <v>11</v>
+      </c>
+      <c r="AZ40">
+        <v>14</v>
+      </c>
+      <c r="BA40">
+        <v>6</v>
+      </c>
+      <c r="BB40">
+        <v>12</v>
+      </c>
+      <c r="BC40">
+        <v>18</v>
+      </c>
+      <c r="BD40">
+        <v>1.82</v>
+      </c>
+      <c r="BE40">
+        <v>6.35</v>
+      </c>
+      <c r="BF40">
+        <v>2.43</v>
+      </c>
+      <c r="BG40">
+        <v>1.27</v>
+      </c>
+      <c r="BH40">
+        <v>3.4</v>
+      </c>
+      <c r="BI40">
+        <v>1.47</v>
+      </c>
+      <c r="BJ40">
+        <v>2.41</v>
+      </c>
+      <c r="BK40">
+        <v>1.85</v>
+      </c>
+      <c r="BL40">
+        <v>1.92</v>
+      </c>
+      <c r="BM40">
+        <v>2.28</v>
+      </c>
+      <c r="BN40">
+        <v>1.53</v>
+      </c>
+      <c r="BO40">
+        <v>3</v>
+      </c>
+      <c r="BP40">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,12 @@
     <t>['25', '53', '84', '85']</t>
   </si>
   <si>
+    <t>['45+2', '80']</t>
+  </si>
+  <si>
+    <t>['13', '85']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -416,6 +422,15 @@
   </si>
   <si>
     <t>['38', '89']</t>
+  </si>
+  <si>
+    <t>['9', '19']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['52', '58', '70']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,7 +1051,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1242,7 +1257,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1448,7 +1463,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1654,7 +1669,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1735,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1860,7 +1875,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2144,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -2272,7 +2287,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2478,7 +2493,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2559,7 +2574,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>1.59</v>
@@ -2762,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2890,7 +2905,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -2968,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>2.33</v>
@@ -3096,7 +3111,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3177,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3302,7 +3317,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3508,7 +3523,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3998,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4204,7 +4219,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4619,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.34</v>
@@ -4744,7 +4759,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -4950,7 +4965,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5028,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5156,7 +5171,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5237,7 +5252,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5443,7 +5458,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -5568,7 +5583,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5774,7 +5789,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -5980,7 +5995,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6058,7 +6073,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>2.5</v>
@@ -6186,7 +6201,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6804,7 +6819,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6885,7 +6900,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7010,7 +7025,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7294,7 +7309,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -7422,7 +7437,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7500,7 +7515,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>2.4</v>
@@ -7628,7 +7643,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7706,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -7912,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
         <v>0</v>
@@ -8040,7 +8055,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8246,7 +8261,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8533,7 +8548,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -9021,6 +9036,624 @@
       </c>
       <c r="BP40">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7469229</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45555.65625</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>110</v>
+      </c>
+      <c r="P41" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q41">
+        <v>2.6</v>
+      </c>
+      <c r="R41">
+        <v>2.1</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>1.4</v>
+      </c>
+      <c r="U41">
+        <v>2.75</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>1.36</v>
+      </c>
+      <c r="X41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>1.08</v>
+      </c>
+      <c r="Z41">
+        <v>1.9</v>
+      </c>
+      <c r="AA41">
+        <v>3.3</v>
+      </c>
+      <c r="AB41">
+        <v>4.05</v>
+      </c>
+      <c r="AC41">
+        <v>1.01</v>
+      </c>
+      <c r="AD41">
+        <v>8</v>
+      </c>
+      <c r="AE41">
+        <v>1.24</v>
+      </c>
+      <c r="AF41">
+        <v>3.22</v>
+      </c>
+      <c r="AG41">
+        <v>2.15</v>
+      </c>
+      <c r="AH41">
+        <v>1.64</v>
+      </c>
+      <c r="AI41">
+        <v>1.83</v>
+      </c>
+      <c r="AJ41">
+        <v>1.83</v>
+      </c>
+      <c r="AK41">
+        <v>1.22</v>
+      </c>
+      <c r="AL41">
+        <v>1.25</v>
+      </c>
+      <c r="AM41">
+        <v>1.67</v>
+      </c>
+      <c r="AN41">
+        <v>1.8</v>
+      </c>
+      <c r="AO41">
+        <v>1.33</v>
+      </c>
+      <c r="AP41">
+        <v>1.67</v>
+      </c>
+      <c r="AQ41">
+        <v>1.25</v>
+      </c>
+      <c r="AR41">
+        <v>1.52</v>
+      </c>
+      <c r="AS41">
+        <v>0.95</v>
+      </c>
+      <c r="AT41">
+        <v>2.47</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>5</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
+        <v>3</v>
+      </c>
+      <c r="AY41">
+        <v>11</v>
+      </c>
+      <c r="AZ41">
+        <v>8</v>
+      </c>
+      <c r="BA41">
+        <v>8</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
+      <c r="BC41">
+        <v>10</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>1.33</v>
+      </c>
+      <c r="BH41">
+        <v>3</v>
+      </c>
+      <c r="BI41">
+        <v>1.57</v>
+      </c>
+      <c r="BJ41">
+        <v>2.25</v>
+      </c>
+      <c r="BK41">
+        <v>1.91</v>
+      </c>
+      <c r="BL41">
+        <v>1.8</v>
+      </c>
+      <c r="BM41">
+        <v>2.4</v>
+      </c>
+      <c r="BN41">
+        <v>1.5</v>
+      </c>
+      <c r="BO41">
+        <v>3.2</v>
+      </c>
+      <c r="BP41">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7469230</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45555.65625</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>111</v>
+      </c>
+      <c r="P42" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q42">
+        <v>7</v>
+      </c>
+      <c r="R42">
+        <v>2.63</v>
+      </c>
+      <c r="S42">
+        <v>1.73</v>
+      </c>
+      <c r="T42">
+        <v>1.22</v>
+      </c>
+      <c r="U42">
+        <v>4</v>
+      </c>
+      <c r="V42">
+        <v>2.1</v>
+      </c>
+      <c r="W42">
+        <v>1.67</v>
+      </c>
+      <c r="X42">
+        <v>4.33</v>
+      </c>
+      <c r="Y42">
+        <v>1.2</v>
+      </c>
+      <c r="Z42">
+        <v>6.5</v>
+      </c>
+      <c r="AA42">
+        <v>6</v>
+      </c>
+      <c r="AB42">
+        <v>1.29</v>
+      </c>
+      <c r="AC42">
+        <v>1.02</v>
+      </c>
+      <c r="AD42">
+        <v>12</v>
+      </c>
+      <c r="AE42">
+        <v>1.09</v>
+      </c>
+      <c r="AF42">
+        <v>4.9</v>
+      </c>
+      <c r="AG42">
+        <v>1.44</v>
+      </c>
+      <c r="AH42">
+        <v>2.63</v>
+      </c>
+      <c r="AI42">
+        <v>1.8</v>
+      </c>
+      <c r="AJ42">
+        <v>1.91</v>
+      </c>
+      <c r="AK42">
+        <v>2.65</v>
+      </c>
+      <c r="AL42">
+        <v>1.1</v>
+      </c>
+      <c r="AM42">
+        <v>1.09</v>
+      </c>
+      <c r="AN42">
+        <v>2.33</v>
+      </c>
+      <c r="AO42">
+        <v>3</v>
+      </c>
+      <c r="AP42">
+        <v>2.5</v>
+      </c>
+      <c r="AQ42">
+        <v>2</v>
+      </c>
+      <c r="AR42">
+        <v>2.47</v>
+      </c>
+      <c r="AS42">
+        <v>2.14</v>
+      </c>
+      <c r="AT42">
+        <v>4.61</v>
+      </c>
+      <c r="AU42">
+        <v>6</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>3</v>
+      </c>
+      <c r="AX42">
+        <v>4</v>
+      </c>
+      <c r="AY42">
+        <v>9</v>
+      </c>
+      <c r="AZ42">
+        <v>9</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>3</v>
+      </c>
+      <c r="BC42">
+        <v>8</v>
+      </c>
+      <c r="BD42">
+        <v>7.3</v>
+      </c>
+      <c r="BE42">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF42">
+        <v>1.14</v>
+      </c>
+      <c r="BG42">
+        <v>1.25</v>
+      </c>
+      <c r="BH42">
+        <v>3.6</v>
+      </c>
+      <c r="BI42">
+        <v>1.42</v>
+      </c>
+      <c r="BJ42">
+        <v>2.62</v>
+      </c>
+      <c r="BK42">
+        <v>1.67</v>
+      </c>
+      <c r="BL42">
+        <v>2.1</v>
+      </c>
+      <c r="BM42">
+        <v>2.1</v>
+      </c>
+      <c r="BN42">
+        <v>1.67</v>
+      </c>
+      <c r="BO42">
+        <v>2.62</v>
+      </c>
+      <c r="BP42">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7469231</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45555.66666666666</v>
+      </c>
+      <c r="F43">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>85</v>
+      </c>
+      <c r="P43" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q43">
+        <v>3.75</v>
+      </c>
+      <c r="R43">
+        <v>2.2</v>
+      </c>
+      <c r="S43">
+        <v>2.63</v>
+      </c>
+      <c r="T43">
+        <v>1.36</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43">
+        <v>2.75</v>
+      </c>
+      <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>6.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.1</v>
+      </c>
+      <c r="Z43">
+        <v>8</v>
+      </c>
+      <c r="AA43">
+        <v>4.4</v>
+      </c>
+      <c r="AB43">
+        <v>1.35</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>10.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.23</v>
+      </c>
+      <c r="AF43">
+        <v>3.28</v>
+      </c>
+      <c r="AG43">
+        <v>1.85</v>
+      </c>
+      <c r="AH43">
+        <v>1.95</v>
+      </c>
+      <c r="AI43">
+        <v>1.73</v>
+      </c>
+      <c r="AJ43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>1.67</v>
+      </c>
+      <c r="AL43">
+        <v>1.27</v>
+      </c>
+      <c r="AM43">
+        <v>1.28</v>
+      </c>
+      <c r="AN43">
+        <v>1.33</v>
+      </c>
+      <c r="AO43">
+        <v>1.75</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>0.99</v>
+      </c>
+      <c r="AS43">
+        <v>1.11</v>
+      </c>
+      <c r="AT43">
+        <v>2.1</v>
+      </c>
+      <c r="AU43">
+        <v>5</v>
+      </c>
+      <c r="AV43">
+        <v>8</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>7</v>
+      </c>
+      <c r="AY43">
+        <v>5</v>
+      </c>
+      <c r="AZ43">
+        <v>15</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>11</v>
+      </c>
+      <c r="BC43">
+        <v>11</v>
+      </c>
+      <c r="BD43">
+        <v>4.4</v>
+      </c>
+      <c r="BE43">
+        <v>7.6</v>
+      </c>
+      <c r="BF43">
+        <v>1.35</v>
+      </c>
+      <c r="BG43">
+        <v>1.33</v>
+      </c>
+      <c r="BH43">
+        <v>3</v>
+      </c>
+      <c r="BI43">
+        <v>1.54</v>
+      </c>
+      <c r="BJ43">
+        <v>2.26</v>
+      </c>
+      <c r="BK43">
+        <v>1.94</v>
+      </c>
+      <c r="BL43">
+        <v>1.82</v>
+      </c>
+      <c r="BM43">
+        <v>2.38</v>
+      </c>
+      <c r="BN43">
+        <v>1.49</v>
+      </c>
+      <c r="BO43">
+        <v>3.2</v>
+      </c>
+      <c r="BP43">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,15 @@
     <t>['13', '85']</t>
   </si>
   <si>
+    <t>['10', '54']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -431,6 +440,9 @@
   </si>
   <si>
     <t>['52', '58', '70']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1051,7 +1063,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1257,7 +1269,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1335,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1463,7 +1475,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1669,7 +1681,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1875,7 +1887,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1953,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ6">
         <v>2.5</v>
@@ -2287,7 +2299,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2365,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -2493,7 +2505,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2905,7 +2917,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -2986,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3111,7 +3123,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3317,7 +3329,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3398,7 +3410,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>2.12</v>
@@ -3523,7 +3535,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3601,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ14">
         <v>2.4</v>
@@ -4631,7 +4643,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -4759,7 +4771,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -4840,7 +4852,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ20">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -4965,7 +4977,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5171,7 +5183,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5249,7 +5261,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -5583,7 +5595,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5789,7 +5801,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -5867,10 +5879,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ25">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>0.89</v>
@@ -5995,7 +6007,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6201,7 +6213,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6279,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6819,7 +6831,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7025,7 +7037,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7312,7 +7324,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>2.16</v>
@@ -7437,7 +7449,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7643,7 +7655,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8055,7 +8067,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8261,7 +8273,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -9085,7 +9097,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9291,7 +9303,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9497,7 +9509,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9654,6 +9666,624 @@
       </c>
       <c r="BP43">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7469234</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45556.4375</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>112</v>
+      </c>
+      <c r="P44" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q44">
+        <v>2.88</v>
+      </c>
+      <c r="R44">
+        <v>2.2</v>
+      </c>
+      <c r="S44">
+        <v>3.25</v>
+      </c>
+      <c r="T44">
+        <v>1.36</v>
+      </c>
+      <c r="U44">
+        <v>3</v>
+      </c>
+      <c r="V44">
+        <v>2.63</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>6.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.1</v>
+      </c>
+      <c r="Z44">
+        <v>2.64</v>
+      </c>
+      <c r="AA44">
+        <v>3.3</v>
+      </c>
+      <c r="AB44">
+        <v>2.36</v>
+      </c>
+      <c r="AC44">
+        <v>1.03</v>
+      </c>
+      <c r="AD44">
+        <v>8.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.2</v>
+      </c>
+      <c r="AF44">
+        <v>3.52</v>
+      </c>
+      <c r="AG44">
+        <v>1.75</v>
+      </c>
+      <c r="AH44">
+        <v>1.96</v>
+      </c>
+      <c r="AI44">
+        <v>1.67</v>
+      </c>
+      <c r="AJ44">
+        <v>2.1</v>
+      </c>
+      <c r="AK44">
+        <v>1.35</v>
+      </c>
+      <c r="AL44">
+        <v>1.28</v>
+      </c>
+      <c r="AM44">
+        <v>1.45</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
+        <v>2.33</v>
+      </c>
+      <c r="AP44">
+        <v>1.67</v>
+      </c>
+      <c r="AQ44">
+        <v>1.75</v>
+      </c>
+      <c r="AR44">
+        <v>1.05</v>
+      </c>
+      <c r="AS44">
+        <v>2.09</v>
+      </c>
+      <c r="AT44">
+        <v>3.14</v>
+      </c>
+      <c r="AU44">
+        <v>5</v>
+      </c>
+      <c r="AV44">
+        <v>5</v>
+      </c>
+      <c r="AW44">
+        <v>7</v>
+      </c>
+      <c r="AX44">
+        <v>4</v>
+      </c>
+      <c r="AY44">
+        <v>12</v>
+      </c>
+      <c r="AZ44">
+        <v>9</v>
+      </c>
+      <c r="BA44">
+        <v>14</v>
+      </c>
+      <c r="BB44">
+        <v>8</v>
+      </c>
+      <c r="BC44">
+        <v>22</v>
+      </c>
+      <c r="BD44">
+        <v>2.44</v>
+      </c>
+      <c r="BE44">
+        <v>7.9</v>
+      </c>
+      <c r="BF44">
+        <v>1.72</v>
+      </c>
+      <c r="BG44">
+        <v>1.31</v>
+      </c>
+      <c r="BH44">
+        <v>3.15</v>
+      </c>
+      <c r="BI44">
+        <v>1.7</v>
+      </c>
+      <c r="BJ44">
+        <v>2.05</v>
+      </c>
+      <c r="BK44">
+        <v>2.07</v>
+      </c>
+      <c r="BL44">
+        <v>1.67</v>
+      </c>
+      <c r="BM44">
+        <v>2.75</v>
+      </c>
+      <c r="BN44">
+        <v>1.4</v>
+      </c>
+      <c r="BO44">
+        <v>3.6</v>
+      </c>
+      <c r="BP44">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7469232</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45556.4375</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>113</v>
+      </c>
+      <c r="P45" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q45">
+        <v>2.88</v>
+      </c>
+      <c r="R45">
+        <v>2.38</v>
+      </c>
+      <c r="S45">
+        <v>3</v>
+      </c>
+      <c r="T45">
+        <v>1.29</v>
+      </c>
+      <c r="U45">
+        <v>3.5</v>
+      </c>
+      <c r="V45">
+        <v>2.25</v>
+      </c>
+      <c r="W45">
+        <v>1.57</v>
+      </c>
+      <c r="X45">
+        <v>5</v>
+      </c>
+      <c r="Y45">
+        <v>1.14</v>
+      </c>
+      <c r="Z45">
+        <v>2.35</v>
+      </c>
+      <c r="AA45">
+        <v>3.6</v>
+      </c>
+      <c r="AB45">
+        <v>2.49</v>
+      </c>
+      <c r="AC45">
+        <v>1.03</v>
+      </c>
+      <c r="AD45">
+        <v>9</v>
+      </c>
+      <c r="AE45">
+        <v>1.13</v>
+      </c>
+      <c r="AF45">
+        <v>5.2</v>
+      </c>
+      <c r="AG45">
+        <v>1.55</v>
+      </c>
+      <c r="AH45">
+        <v>2.29</v>
+      </c>
+      <c r="AI45">
+        <v>1.5</v>
+      </c>
+      <c r="AJ45">
+        <v>2.5</v>
+      </c>
+      <c r="AK45">
+        <v>1.5</v>
+      </c>
+      <c r="AL45">
+        <v>1.22</v>
+      </c>
+      <c r="AM45">
+        <v>1.42</v>
+      </c>
+      <c r="AN45">
+        <v>1.33</v>
+      </c>
+      <c r="AO45">
+        <v>1.5</v>
+      </c>
+      <c r="AP45">
+        <v>1.25</v>
+      </c>
+      <c r="AQ45">
+        <v>1.33</v>
+      </c>
+      <c r="AR45">
+        <v>1.74</v>
+      </c>
+      <c r="AS45">
+        <v>1.14</v>
+      </c>
+      <c r="AT45">
+        <v>2.88</v>
+      </c>
+      <c r="AU45">
+        <v>5</v>
+      </c>
+      <c r="AV45">
+        <v>6</v>
+      </c>
+      <c r="AW45">
+        <v>6</v>
+      </c>
+      <c r="AX45">
+        <v>7</v>
+      </c>
+      <c r="AY45">
+        <v>11</v>
+      </c>
+      <c r="AZ45">
+        <v>13</v>
+      </c>
+      <c r="BA45">
+        <v>3</v>
+      </c>
+      <c r="BB45">
+        <v>6</v>
+      </c>
+      <c r="BC45">
+        <v>9</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+      <c r="BG45">
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
+      </c>
+      <c r="BI45">
+        <v>0</v>
+      </c>
+      <c r="BJ45">
+        <v>0</v>
+      </c>
+      <c r="BK45">
+        <v>1.5</v>
+      </c>
+      <c r="BL45">
+        <v>2.36</v>
+      </c>
+      <c r="BM45">
+        <v>1.89</v>
+      </c>
+      <c r="BN45">
+        <v>1.87</v>
+      </c>
+      <c r="BO45">
+        <v>2.28</v>
+      </c>
+      <c r="BP45">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7469233</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45556.4375</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>114</v>
+      </c>
+      <c r="P46" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q46">
+        <v>3.4</v>
+      </c>
+      <c r="R46">
+        <v>2.3</v>
+      </c>
+      <c r="S46">
+        <v>2.63</v>
+      </c>
+      <c r="T46">
+        <v>1.3</v>
+      </c>
+      <c r="U46">
+        <v>3.4</v>
+      </c>
+      <c r="V46">
+        <v>2.38</v>
+      </c>
+      <c r="W46">
+        <v>1.53</v>
+      </c>
+      <c r="X46">
+        <v>5.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.13</v>
+      </c>
+      <c r="Z46">
+        <v>3.84</v>
+      </c>
+      <c r="AA46">
+        <v>3.8</v>
+      </c>
+      <c r="AB46">
+        <v>1.72</v>
+      </c>
+      <c r="AC46">
+        <v>1.01</v>
+      </c>
+      <c r="AD46">
+        <v>11</v>
+      </c>
+      <c r="AE46">
+        <v>1.17</v>
+      </c>
+      <c r="AF46">
+        <v>4.5</v>
+      </c>
+      <c r="AG46">
+        <v>1.6</v>
+      </c>
+      <c r="AH46">
+        <v>2.19</v>
+      </c>
+      <c r="AI46">
+        <v>1.57</v>
+      </c>
+      <c r="AJ46">
+        <v>2.25</v>
+      </c>
+      <c r="AK46">
+        <v>1.72</v>
+      </c>
+      <c r="AL46">
+        <v>1.2</v>
+      </c>
+      <c r="AM46">
+        <v>1.35</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>0.25</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS46">
+        <v>1.43</v>
+      </c>
+      <c r="AT46">
+        <v>2.24</v>
+      </c>
+      <c r="AU46">
+        <v>7</v>
+      </c>
+      <c r="AV46">
+        <v>6</v>
+      </c>
+      <c r="AW46">
+        <v>3</v>
+      </c>
+      <c r="AX46">
+        <v>5</v>
+      </c>
+      <c r="AY46">
+        <v>10</v>
+      </c>
+      <c r="AZ46">
+        <v>11</v>
+      </c>
+      <c r="BA46">
+        <v>7</v>
+      </c>
+      <c r="BB46">
+        <v>2</v>
+      </c>
+      <c r="BC46">
+        <v>9</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,21 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['6', '87']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -397,9 +412,6 @@
     <t>['64']</t>
   </si>
   <si>
-    <t>['32']</t>
-  </si>
-  <si>
     <t>['10', '49']</t>
   </si>
   <si>
@@ -443,6 +455,21 @@
   </si>
   <si>
     <t>['22']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['12', '90+2', '90+8']</t>
+  </si>
+  <si>
+    <t>['22', '54']</t>
+  </si>
+  <si>
+    <t>['4', '86']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1090,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1269,7 +1296,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1350,7 +1377,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1475,7 +1502,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1553,10 +1580,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ4">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1681,7 +1708,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1759,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -1887,7 +1914,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2174,7 +2201,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2299,7 +2326,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2505,7 +2532,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2583,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -2789,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2917,7 +2944,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -2995,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11">
         <v>1.75</v>
@@ -3123,7 +3150,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3329,7 +3356,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3410,7 +3437,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>2.12</v>
@@ -3535,7 +3562,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3616,7 +3643,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ14">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR14">
         <v>0.82</v>
@@ -3819,7 +3846,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
         <v>2.5</v>
@@ -4231,7 +4258,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4440,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -4771,7 +4798,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -4849,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ20">
         <v>1.75</v>
@@ -4977,7 +5004,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5055,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5183,7 +5210,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5264,7 +5291,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5467,10 +5494,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ23">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -5595,7 +5622,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5676,7 +5703,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -5801,7 +5828,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6007,7 +6034,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6213,7 +6240,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6497,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6706,7 +6733,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>1.93</v>
@@ -6831,7 +6858,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6909,7 +6936,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ30">
         <v>2</v>
@@ -7037,7 +7064,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7115,7 +7142,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7321,10 +7348,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
         <v>2.16</v>
@@ -7449,7 +7476,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7530,7 +7557,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR33">
         <v>1.47</v>
@@ -7655,7 +7682,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7733,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8067,7 +8094,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8148,7 +8175,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8273,7 +8300,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8354,7 +8381,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.1</v>
@@ -8557,7 +8584,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8763,7 +8790,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8969,7 +8996,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ40">
         <v>2.5</v>
@@ -9097,7 +9124,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9178,7 +9205,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9303,7 +9330,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9381,7 +9408,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -9509,7 +9536,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9587,7 +9614,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -9715,7 +9742,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10002,7 +10029,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10127,7 +10154,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10284,6 +10311,1242 @@
       </c>
       <c r="BP46">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7469235</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45559.65625</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>115</v>
+      </c>
+      <c r="P47" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q47">
+        <v>2.25</v>
+      </c>
+      <c r="R47">
+        <v>2.2</v>
+      </c>
+      <c r="S47">
+        <v>4.5</v>
+      </c>
+      <c r="T47">
+        <v>1.33</v>
+      </c>
+      <c r="U47">
+        <v>3.25</v>
+      </c>
+      <c r="V47">
+        <v>2.52</v>
+      </c>
+      <c r="W47">
+        <v>1.5</v>
+      </c>
+      <c r="X47">
+        <v>6</v>
+      </c>
+      <c r="Y47">
+        <v>1.11</v>
+      </c>
+      <c r="Z47">
+        <v>1.7</v>
+      </c>
+      <c r="AA47">
+        <v>3.8</v>
+      </c>
+      <c r="AB47">
+        <v>4.2</v>
+      </c>
+      <c r="AC47">
+        <v>1.03</v>
+      </c>
+      <c r="AD47">
+        <v>12</v>
+      </c>
+      <c r="AE47">
+        <v>1.22</v>
+      </c>
+      <c r="AF47">
+        <v>4.33</v>
+      </c>
+      <c r="AG47">
+        <v>1.7</v>
+      </c>
+      <c r="AH47">
+        <v>2</v>
+      </c>
+      <c r="AI47">
+        <v>1.67</v>
+      </c>
+      <c r="AJ47">
+        <v>2.1</v>
+      </c>
+      <c r="AK47">
+        <v>1.18</v>
+      </c>
+      <c r="AL47">
+        <v>1.22</v>
+      </c>
+      <c r="AM47">
+        <v>1.97</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>1.25</v>
+      </c>
+      <c r="AP47">
+        <v>0.25</v>
+      </c>
+      <c r="AQ47">
+        <v>1.2</v>
+      </c>
+      <c r="AR47">
+        <v>1.34</v>
+      </c>
+      <c r="AS47">
+        <v>0.97</v>
+      </c>
+      <c r="AT47">
+        <v>2.31</v>
+      </c>
+      <c r="AU47">
+        <v>2</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>5</v>
+      </c>
+      <c r="AX47">
+        <v>4</v>
+      </c>
+      <c r="AY47">
+        <v>7</v>
+      </c>
+      <c r="AZ47">
+        <v>8</v>
+      </c>
+      <c r="BA47">
+        <v>7</v>
+      </c>
+      <c r="BB47">
+        <v>6</v>
+      </c>
+      <c r="BC47">
+        <v>13</v>
+      </c>
+      <c r="BD47">
+        <v>1.44</v>
+      </c>
+      <c r="BE47">
+        <v>7.5</v>
+      </c>
+      <c r="BF47">
+        <v>3.68</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>1.32</v>
+      </c>
+      <c r="BJ47">
+        <v>3.1</v>
+      </c>
+      <c r="BK47">
+        <v>1.55</v>
+      </c>
+      <c r="BL47">
+        <v>2.3</v>
+      </c>
+      <c r="BM47">
+        <v>2.05</v>
+      </c>
+      <c r="BN47">
+        <v>1.7</v>
+      </c>
+      <c r="BO47">
+        <v>2.6</v>
+      </c>
+      <c r="BP47">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7469236</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45559.65625</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>116</v>
+      </c>
+      <c r="P48" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q48">
+        <v>2.5</v>
+      </c>
+      <c r="R48">
+        <v>2.1</v>
+      </c>
+      <c r="S48">
+        <v>4.33</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48">
+        <v>2.6</v>
+      </c>
+      <c r="V48">
+        <v>2.8</v>
+      </c>
+      <c r="W48">
+        <v>1.35</v>
+      </c>
+      <c r="X48">
+        <v>6.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>1.75</v>
+      </c>
+      <c r="AA48">
+        <v>3.2</v>
+      </c>
+      <c r="AB48">
+        <v>4.5</v>
+      </c>
+      <c r="AC48">
+        <v>1.06</v>
+      </c>
+      <c r="AD48">
+        <v>8.5</v>
+      </c>
+      <c r="AE48">
+        <v>1.33</v>
+      </c>
+      <c r="AF48">
+        <v>3.25</v>
+      </c>
+      <c r="AG48">
+        <v>2</v>
+      </c>
+      <c r="AH48">
+        <v>1.7</v>
+      </c>
+      <c r="AI48">
+        <v>1.8</v>
+      </c>
+      <c r="AJ48">
+        <v>1.91</v>
+      </c>
+      <c r="AK48">
+        <v>1.16</v>
+      </c>
+      <c r="AL48">
+        <v>1.28</v>
+      </c>
+      <c r="AM48">
+        <v>1.77</v>
+      </c>
+      <c r="AN48">
+        <v>1.33</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>1.25</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1.21</v>
+      </c>
+      <c r="AS48">
+        <v>1.6</v>
+      </c>
+      <c r="AT48">
+        <v>2.81</v>
+      </c>
+      <c r="AU48">
+        <v>2</v>
+      </c>
+      <c r="AV48">
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>2</v>
+      </c>
+      <c r="AZ48">
+        <v>2</v>
+      </c>
+      <c r="BA48">
+        <v>12</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>12</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>1.29</v>
+      </c>
+      <c r="BH48">
+        <v>3.3</v>
+      </c>
+      <c r="BI48">
+        <v>1.5</v>
+      </c>
+      <c r="BJ48">
+        <v>2.4</v>
+      </c>
+      <c r="BK48">
+        <v>1.8</v>
+      </c>
+      <c r="BL48">
+        <v>1.91</v>
+      </c>
+      <c r="BM48">
+        <v>2.25</v>
+      </c>
+      <c r="BN48">
+        <v>1.57</v>
+      </c>
+      <c r="BO48">
+        <v>2.9</v>
+      </c>
+      <c r="BP48">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7469237</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45559.65625</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P49" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q49">
+        <v>1.44</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>11</v>
+      </c>
+      <c r="T49">
+        <v>1.22</v>
+      </c>
+      <c r="U49">
+        <v>3.7</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>1.67</v>
+      </c>
+      <c r="X49">
+        <v>4.1</v>
+      </c>
+      <c r="Y49">
+        <v>1.18</v>
+      </c>
+      <c r="Z49">
+        <v>1.12</v>
+      </c>
+      <c r="AA49">
+        <v>7.5</v>
+      </c>
+      <c r="AB49">
+        <v>13</v>
+      </c>
+      <c r="AC49">
+        <v>1.01</v>
+      </c>
+      <c r="AD49">
+        <v>11</v>
+      </c>
+      <c r="AE49">
+        <v>1.1</v>
+      </c>
+      <c r="AF49">
+        <v>6.5</v>
+      </c>
+      <c r="AG49">
+        <v>1.4</v>
+      </c>
+      <c r="AH49">
+        <v>2.75</v>
+      </c>
+      <c r="AI49">
+        <v>2.2</v>
+      </c>
+      <c r="AJ49">
+        <v>1.62</v>
+      </c>
+      <c r="AK49">
+        <v>1.03</v>
+      </c>
+      <c r="AL49">
+        <v>1.05</v>
+      </c>
+      <c r="AM49">
+        <v>6.2</v>
+      </c>
+      <c r="AN49">
+        <v>2.5</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>2</v>
+      </c>
+      <c r="AQ49">
+        <v>0.75</v>
+      </c>
+      <c r="AR49">
+        <v>2.19</v>
+      </c>
+      <c r="AS49">
+        <v>1.08</v>
+      </c>
+      <c r="AT49">
+        <v>3.27</v>
+      </c>
+      <c r="AU49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>3</v>
+      </c>
+      <c r="AX49">
+        <v>9</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>14</v>
+      </c>
+      <c r="BA49">
+        <v>10</v>
+      </c>
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>13</v>
+      </c>
+      <c r="BD49">
+        <v>1.06</v>
+      </c>
+      <c r="BE49">
+        <v>14</v>
+      </c>
+      <c r="BF49">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BG49">
+        <v>1.31</v>
+      </c>
+      <c r="BH49">
+        <v>3.1</v>
+      </c>
+      <c r="BI49">
+        <v>1.54</v>
+      </c>
+      <c r="BJ49">
+        <v>2.3</v>
+      </c>
+      <c r="BK49">
+        <v>1.9</v>
+      </c>
+      <c r="BL49">
+        <v>1.8</v>
+      </c>
+      <c r="BM49">
+        <v>2.4</v>
+      </c>
+      <c r="BN49">
+        <v>1.5</v>
+      </c>
+      <c r="BO49">
+        <v>3.2</v>
+      </c>
+      <c r="BP49">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7469238</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45559.65625</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q50">
+        <v>1.67</v>
+      </c>
+      <c r="R50">
+        <v>2.5</v>
+      </c>
+      <c r="S50">
+        <v>9</v>
+      </c>
+      <c r="T50">
+        <v>1.32</v>
+      </c>
+      <c r="U50">
+        <v>3.2</v>
+      </c>
+      <c r="V50">
+        <v>2.54</v>
+      </c>
+      <c r="W50">
+        <v>1.48</v>
+      </c>
+      <c r="X50">
+        <v>5.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>1.26</v>
+      </c>
+      <c r="AA50">
+        <v>5.49</v>
+      </c>
+      <c r="AB50">
+        <v>9.92</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>13</v>
+      </c>
+      <c r="AE50">
+        <v>1.22</v>
+      </c>
+      <c r="AF50">
+        <v>4.2</v>
+      </c>
+      <c r="AG50">
+        <v>1.67</v>
+      </c>
+      <c r="AH50">
+        <v>2.05</v>
+      </c>
+      <c r="AI50">
+        <v>2.25</v>
+      </c>
+      <c r="AJ50">
+        <v>1.57</v>
+      </c>
+      <c r="AK50">
+        <v>1.06</v>
+      </c>
+      <c r="AL50">
+        <v>1.07</v>
+      </c>
+      <c r="AM50">
+        <v>3.2</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>1.67</v>
+      </c>
+      <c r="AR50">
+        <v>3.27</v>
+      </c>
+      <c r="AS50">
+        <v>1.07</v>
+      </c>
+      <c r="AT50">
+        <v>4.34</v>
+      </c>
+      <c r="AU50">
+        <v>9</v>
+      </c>
+      <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>13</v>
+      </c>
+      <c r="AX50">
+        <v>4</v>
+      </c>
+      <c r="AY50">
+        <v>22</v>
+      </c>
+      <c r="AZ50">
+        <v>8</v>
+      </c>
+      <c r="BA50">
+        <v>8</v>
+      </c>
+      <c r="BB50">
+        <v>1</v>
+      </c>
+      <c r="BC50">
+        <v>9</v>
+      </c>
+      <c r="BD50">
+        <v>1.1</v>
+      </c>
+      <c r="BE50">
+        <v>12</v>
+      </c>
+      <c r="BF50">
+        <v>9.25</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>1.43</v>
+      </c>
+      <c r="BJ50">
+        <v>2.6</v>
+      </c>
+      <c r="BK50">
+        <v>1.72</v>
+      </c>
+      <c r="BL50">
+        <v>2</v>
+      </c>
+      <c r="BM50">
+        <v>2.15</v>
+      </c>
+      <c r="BN50">
+        <v>1.62</v>
+      </c>
+      <c r="BO50">
+        <v>2.7</v>
+      </c>
+      <c r="BP50">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7469239</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45559.66666666666</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="R51">
+        <v>2.1</v>
+      </c>
+      <c r="S51">
+        <v>2.1</v>
+      </c>
+      <c r="T51">
+        <v>1.37</v>
+      </c>
+      <c r="U51">
+        <v>2.75</v>
+      </c>
+      <c r="V51">
+        <v>2.75</v>
+      </c>
+      <c r="W51">
+        <v>1.37</v>
+      </c>
+      <c r="X51">
+        <v>6.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.07</v>
+      </c>
+      <c r="Z51">
+        <v>5.9</v>
+      </c>
+      <c r="AA51">
+        <v>3.9</v>
+      </c>
+      <c r="AB51">
+        <v>1.44</v>
+      </c>
+      <c r="AC51">
+        <v>1.05</v>
+      </c>
+      <c r="AD51">
+        <v>7.8</v>
+      </c>
+      <c r="AE51">
+        <v>1.28</v>
+      </c>
+      <c r="AF51">
+        <v>3.3</v>
+      </c>
+      <c r="AG51">
+        <v>1.9</v>
+      </c>
+      <c r="AH51">
+        <v>1.8</v>
+      </c>
+      <c r="AI51">
+        <v>2.1</v>
+      </c>
+      <c r="AJ51">
+        <v>1.67</v>
+      </c>
+      <c r="AK51">
+        <v>2.2</v>
+      </c>
+      <c r="AL51">
+        <v>1.22</v>
+      </c>
+      <c r="AM51">
+        <v>1.07</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>2.4</v>
+      </c>
+      <c r="AP51">
+        <v>0.8</v>
+      </c>
+      <c r="AQ51">
+        <v>2.5</v>
+      </c>
+      <c r="AR51">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS51">
+        <v>1.4</v>
+      </c>
+      <c r="AT51">
+        <v>2.34</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>9</v>
+      </c>
+      <c r="AW51">
+        <v>4</v>
+      </c>
+      <c r="AX51">
+        <v>4</v>
+      </c>
+      <c r="AY51">
+        <v>7</v>
+      </c>
+      <c r="AZ51">
+        <v>13</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>2</v>
+      </c>
+      <c r="BD51">
+        <v>3.9</v>
+      </c>
+      <c r="BE51">
+        <v>9.1</v>
+      </c>
+      <c r="BF51">
+        <v>1.33</v>
+      </c>
+      <c r="BG51">
+        <v>1.36</v>
+      </c>
+      <c r="BH51">
+        <v>2.88</v>
+      </c>
+      <c r="BI51">
+        <v>1.62</v>
+      </c>
+      <c r="BJ51">
+        <v>2.2</v>
+      </c>
+      <c r="BK51">
+        <v>2</v>
+      </c>
+      <c r="BL51">
+        <v>1.73</v>
+      </c>
+      <c r="BM51">
+        <v>2.5</v>
+      </c>
+      <c r="BN51">
+        <v>1.48</v>
+      </c>
+      <c r="BO51">
+        <v>3.3</v>
+      </c>
+      <c r="BP51">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7469240</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45560.65625</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>2.38</v>
+      </c>
+      <c r="S52">
+        <v>2.75</v>
+      </c>
+      <c r="T52">
+        <v>1.25</v>
+      </c>
+      <c r="U52">
+        <v>3.25</v>
+      </c>
+      <c r="V52">
+        <v>2.25</v>
+      </c>
+      <c r="W52">
+        <v>1.57</v>
+      </c>
+      <c r="X52">
+        <v>5.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.13</v>
+      </c>
+      <c r="Z52">
+        <v>2.75</v>
+      </c>
+      <c r="AA52">
+        <v>3.45</v>
+      </c>
+      <c r="AB52">
+        <v>2.2</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>15</v>
+      </c>
+      <c r="AE52">
+        <v>1.17</v>
+      </c>
+      <c r="AF52">
+        <v>5</v>
+      </c>
+      <c r="AG52">
+        <v>1.55</v>
+      </c>
+      <c r="AH52">
+        <v>2.2</v>
+      </c>
+      <c r="AI52">
+        <v>1.44</v>
+      </c>
+      <c r="AJ52">
+        <v>2.63</v>
+      </c>
+      <c r="AK52">
+        <v>1.57</v>
+      </c>
+      <c r="AL52">
+        <v>1.29</v>
+      </c>
+      <c r="AM52">
+        <v>1.4</v>
+      </c>
+      <c r="AN52">
+        <v>0.75</v>
+      </c>
+      <c r="AO52">
+        <v>1.33</v>
+      </c>
+      <c r="AP52">
+        <v>0.6</v>
+      </c>
+      <c r="AQ52">
+        <v>1.75</v>
+      </c>
+      <c r="AR52">
+        <v>1.62</v>
+      </c>
+      <c r="AS52">
+        <v>1.32</v>
+      </c>
+      <c r="AT52">
+        <v>2.94</v>
+      </c>
+      <c r="AU52">
+        <v>8</v>
+      </c>
+      <c r="AV52">
+        <v>7</v>
+      </c>
+      <c r="AW52">
+        <v>8</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>16</v>
+      </c>
+      <c r="AZ52">
+        <v>12</v>
+      </c>
+      <c r="BA52">
+        <v>10</v>
+      </c>
+      <c r="BB52">
+        <v>6</v>
+      </c>
+      <c r="BC52">
+        <v>16</v>
+      </c>
+      <c r="BD52">
+        <v>2.13</v>
+      </c>
+      <c r="BE52">
+        <v>6.8</v>
+      </c>
+      <c r="BF52">
+        <v>2.02</v>
+      </c>
+      <c r="BG52">
+        <v>1.22</v>
+      </c>
+      <c r="BH52">
+        <v>3.8</v>
+      </c>
+      <c r="BI52">
+        <v>1.38</v>
+      </c>
+      <c r="BJ52">
+        <v>2.8</v>
+      </c>
+      <c r="BK52">
+        <v>1.63</v>
+      </c>
+      <c r="BL52">
+        <v>2.16</v>
+      </c>
+      <c r="BM52">
+        <v>2.02</v>
+      </c>
+      <c r="BN52">
+        <v>1.74</v>
+      </c>
+      <c r="BO52">
+        <v>2.5</v>
+      </c>
+      <c r="BP52">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="154">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,12 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -391,9 +397,6 @@
     <t>['41', '45+3']</t>
   </si>
   <si>
-    <t>['55']</t>
-  </si>
-  <si>
     <t>['23', '30', '59', '69']</t>
   </si>
   <si>
@@ -470,6 +473,9 @@
   </si>
   <si>
     <t>['4', '86']</t>
+  </si>
+  <si>
+    <t>['10', '40', '63', '69', '80', '87']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1096,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1168,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1296,7 +1302,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1374,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3">
         <v>1.67</v>
@@ -1502,7 +1508,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1583,7 +1589,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ4">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1708,7 +1714,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1914,7 +1920,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2326,7 +2332,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>2.7</v>
@@ -2532,7 +2538,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2613,7 +2619,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR9">
         <v>1.59</v>
@@ -2944,7 +2950,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3150,7 +3156,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3356,7 +3362,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3434,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
         <v>1.75</v>
@@ -3562,7 +3568,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3643,7 +3649,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ14">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR14">
         <v>0.82</v>
@@ -3846,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
         <v>2.5</v>
@@ -4798,7 +4804,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5210,7 +5216,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5288,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
         <v>1.2</v>
@@ -5494,7 +5500,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23">
         <v>1.2</v>
@@ -5622,7 +5628,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5703,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -5828,7 +5834,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6034,7 +6040,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6240,7 +6246,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6318,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6730,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29">
         <v>0.75</v>
@@ -6858,7 +6864,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6936,10 +6942,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7064,7 +7070,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7476,7 +7482,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7557,7 +7563,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR33">
         <v>1.47</v>
@@ -7682,7 +7688,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8094,7 +8100,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8172,10 +8178,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8300,7 +8306,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -9124,7 +9130,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9330,7 +9336,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9411,7 +9417,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9536,7 +9542,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9742,7 +9748,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10026,7 +10032,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
         <v>1.75</v>
@@ -10154,7 +10160,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10360,7 +10366,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10566,7 +10572,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10644,7 +10650,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10978,7 +10984,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11184,7 +11190,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11265,7 +11271,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ51">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR51">
         <v>0.9399999999999999</v>
@@ -11390,7 +11396,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11547,6 +11553,624 @@
       </c>
       <c r="BP52">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7469244</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>120</v>
+      </c>
+      <c r="P53" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q53">
+        <v>2.75</v>
+      </c>
+      <c r="R53">
+        <v>2.05</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>1.5</v>
+      </c>
+      <c r="U53">
+        <v>2.5</v>
+      </c>
+      <c r="V53">
+        <v>3.2</v>
+      </c>
+      <c r="W53">
+        <v>1.3</v>
+      </c>
+      <c r="X53">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>1.06</v>
+      </c>
+      <c r="Z53">
+        <v>2.17</v>
+      </c>
+      <c r="AA53">
+        <v>3.2</v>
+      </c>
+      <c r="AB53">
+        <v>3.23</v>
+      </c>
+      <c r="AC53">
+        <v>1.02</v>
+      </c>
+      <c r="AD53">
+        <v>7.1</v>
+      </c>
+      <c r="AE53">
+        <v>1.38</v>
+      </c>
+      <c r="AF53">
+        <v>2.8</v>
+      </c>
+      <c r="AG53">
+        <v>2.19</v>
+      </c>
+      <c r="AH53">
+        <v>1.6</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.3</v>
+      </c>
+      <c r="AL53">
+        <v>1.3</v>
+      </c>
+      <c r="AM53">
+        <v>1.7</v>
+      </c>
+      <c r="AN53">
+        <v>1.25</v>
+      </c>
+      <c r="AO53">
+        <v>2.5</v>
+      </c>
+      <c r="AP53">
+        <v>1.6</v>
+      </c>
+      <c r="AQ53">
+        <v>2.14</v>
+      </c>
+      <c r="AR53">
+        <v>1.17</v>
+      </c>
+      <c r="AS53">
+        <v>1.49</v>
+      </c>
+      <c r="AT53">
+        <v>2.66</v>
+      </c>
+      <c r="AU53">
+        <v>6</v>
+      </c>
+      <c r="AV53">
+        <v>2</v>
+      </c>
+      <c r="AW53">
+        <v>6</v>
+      </c>
+      <c r="AX53">
+        <v>8</v>
+      </c>
+      <c r="AY53">
+        <v>12</v>
+      </c>
+      <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>4</v>
+      </c>
+      <c r="BC53">
+        <v>8</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>1.5</v>
+      </c>
+      <c r="BH53">
+        <v>2.4</v>
+      </c>
+      <c r="BI53">
+        <v>1.85</v>
+      </c>
+      <c r="BJ53">
+        <v>1.85</v>
+      </c>
+      <c r="BK53">
+        <v>2.3</v>
+      </c>
+      <c r="BL53">
+        <v>1.55</v>
+      </c>
+      <c r="BM53">
+        <v>3</v>
+      </c>
+      <c r="BN53">
+        <v>1.33</v>
+      </c>
+      <c r="BO53">
+        <v>4</v>
+      </c>
+      <c r="BP53">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7469241</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P54" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q54">
+        <v>1.95</v>
+      </c>
+      <c r="R54">
+        <v>2.31</v>
+      </c>
+      <c r="S54">
+        <v>6</v>
+      </c>
+      <c r="T54">
+        <v>1.33</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>2.57</v>
+      </c>
+      <c r="W54">
+        <v>1.47</v>
+      </c>
+      <c r="X54">
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>1.11</v>
+      </c>
+      <c r="Z54">
+        <v>1.48</v>
+      </c>
+      <c r="AA54">
+        <v>4.15</v>
+      </c>
+      <c r="AB54">
+        <v>6.04</v>
+      </c>
+      <c r="AC54">
+        <v>1.03</v>
+      </c>
+      <c r="AD54">
+        <v>9</v>
+      </c>
+      <c r="AE54">
+        <v>1.25</v>
+      </c>
+      <c r="AF54">
+        <v>3.8</v>
+      </c>
+      <c r="AG54">
+        <v>1.65</v>
+      </c>
+      <c r="AH54">
+        <v>2.11</v>
+      </c>
+      <c r="AI54">
+        <v>1.91</v>
+      </c>
+      <c r="AJ54">
+        <v>1.8</v>
+      </c>
+      <c r="AK54">
+        <v>1.14</v>
+      </c>
+      <c r="AL54">
+        <v>1.2</v>
+      </c>
+      <c r="AM54">
+        <v>2.25</v>
+      </c>
+      <c r="AN54">
+        <v>1.25</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1.6</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>1.67</v>
+      </c>
+      <c r="AS54">
+        <v>0.72</v>
+      </c>
+      <c r="AT54">
+        <v>2.39</v>
+      </c>
+      <c r="AU54">
+        <v>8</v>
+      </c>
+      <c r="AV54">
+        <v>3</v>
+      </c>
+      <c r="AW54">
+        <v>8</v>
+      </c>
+      <c r="AX54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>16</v>
+      </c>
+      <c r="AZ54">
+        <v>4</v>
+      </c>
+      <c r="BA54">
+        <v>11</v>
+      </c>
+      <c r="BB54">
+        <v>5</v>
+      </c>
+      <c r="BC54">
+        <v>16</v>
+      </c>
+      <c r="BD54">
+        <v>1.24</v>
+      </c>
+      <c r="BE54">
+        <v>8.9</v>
+      </c>
+      <c r="BF54">
+        <v>5.53</v>
+      </c>
+      <c r="BG54">
+        <v>1.2</v>
+      </c>
+      <c r="BH54">
+        <v>4</v>
+      </c>
+      <c r="BI54">
+        <v>1.33</v>
+      </c>
+      <c r="BJ54">
+        <v>3</v>
+      </c>
+      <c r="BK54">
+        <v>1.56</v>
+      </c>
+      <c r="BL54">
+        <v>2.26</v>
+      </c>
+      <c r="BM54">
+        <v>1.9</v>
+      </c>
+      <c r="BN54">
+        <v>1.79</v>
+      </c>
+      <c r="BO54">
+        <v>2.4</v>
+      </c>
+      <c r="BP54">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7469243</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>7</v>
+      </c>
+      <c r="O55" t="s">
+        <v>114</v>
+      </c>
+      <c r="P55" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q55">
+        <v>9.5</v>
+      </c>
+      <c r="R55">
+        <v>2.75</v>
+      </c>
+      <c r="S55">
+        <v>1.53</v>
+      </c>
+      <c r="T55">
+        <v>1.25</v>
+      </c>
+      <c r="U55">
+        <v>3.75</v>
+      </c>
+      <c r="V55">
+        <v>2.1</v>
+      </c>
+      <c r="W55">
+        <v>1.67</v>
+      </c>
+      <c r="X55">
+        <v>4.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.17</v>
+      </c>
+      <c r="Z55">
+        <v>11.49</v>
+      </c>
+      <c r="AA55">
+        <v>6.94</v>
+      </c>
+      <c r="AB55">
+        <v>1.18</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>17</v>
+      </c>
+      <c r="AE55">
+        <v>1.1</v>
+      </c>
+      <c r="AF55">
+        <v>5.7</v>
+      </c>
+      <c r="AG55">
+        <v>1.5</v>
+      </c>
+      <c r="AH55">
+        <v>2.5</v>
+      </c>
+      <c r="AI55">
+        <v>2.2</v>
+      </c>
+      <c r="AJ55">
+        <v>1.62</v>
+      </c>
+      <c r="AK55">
+        <v>3.7</v>
+      </c>
+      <c r="AL55">
+        <v>1.09</v>
+      </c>
+      <c r="AM55">
+        <v>1.02</v>
+      </c>
+      <c r="AN55">
+        <v>2.25</v>
+      </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
+      <c r="AP55">
+        <v>1.8</v>
+      </c>
+      <c r="AQ55">
+        <v>2.25</v>
+      </c>
+      <c r="AR55">
+        <v>1.83</v>
+      </c>
+      <c r="AS55">
+        <v>1.88</v>
+      </c>
+      <c r="AT55">
+        <v>3.71</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AV55">
+        <v>11</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>4</v>
+      </c>
+      <c r="AY55">
+        <v>8</v>
+      </c>
+      <c r="AZ55">
+        <v>15</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>6</v>
+      </c>
+      <c r="BC55">
+        <v>9</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>1.22</v>
+      </c>
+      <c r="BH55">
+        <v>3.8</v>
+      </c>
+      <c r="BI55">
+        <v>1.42</v>
+      </c>
+      <c r="BJ55">
+        <v>2.76</v>
+      </c>
+      <c r="BK55">
+        <v>1.63</v>
+      </c>
+      <c r="BL55">
+        <v>2.15</v>
+      </c>
+      <c r="BM55">
+        <v>1.98</v>
+      </c>
+      <c r="BN55">
+        <v>1.75</v>
+      </c>
+      <c r="BO55">
+        <v>2.86</v>
+      </c>
+      <c r="BP55">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,12 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['41', '45+2']</t>
+  </si>
+  <si>
+    <t>['18', '45+1', '56']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -476,6 +482,12 @@
   </si>
   <si>
     <t>['10', '40', '63', '69', '80', '87']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['3', '53']</t>
   </si>
 </sst>
 </file>
@@ -837,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1096,7 +1108,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1302,7 +1314,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1383,7 +1395,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ3">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1508,7 +1520,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1586,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>2.14</v>
@@ -1714,7 +1726,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1920,7 +1932,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1998,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ6">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2538,7 +2550,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2616,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>2.25</v>
@@ -2950,7 +2962,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3031,7 +3043,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3156,7 +3168,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3234,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3362,7 +3374,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3568,7 +3580,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3646,7 +3658,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ14">
         <v>2.14</v>
@@ -3855,7 +3867,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4470,10 +4482,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -4804,7 +4816,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -4882,10 +4894,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5216,7 +5228,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5628,7 +5640,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5706,7 +5718,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
         <v>2.14</v>
@@ -5834,7 +5846,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -5912,10 +5924,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.89</v>
@@ -6040,7 +6052,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6121,7 +6133,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ26">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6246,7 +6258,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6864,7 +6876,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7070,7 +7082,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7482,7 +7494,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7688,7 +7700,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8100,7 +8112,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8306,7 +8318,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8384,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
         <v>0.75</v>
@@ -8590,7 +8602,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -9005,7 +9017,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ40">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9130,7 +9142,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9336,7 +9348,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9542,7 +9554,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9748,7 +9760,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9829,7 +9841,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>1.05</v>
@@ -10160,7 +10172,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10238,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10366,7 +10378,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10572,7 +10584,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10984,7 +10996,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11065,7 +11077,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>3.27</v>
@@ -11190,7 +11202,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11396,7 +11408,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11474,7 +11486,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ52">
         <v>1.75</v>
@@ -12014,7 +12026,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12171,6 +12183,624 @@
       </c>
       <c r="BP55">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7469246</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45563.4375</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q56">
+        <v>6.5</v>
+      </c>
+      <c r="R56">
+        <v>2.38</v>
+      </c>
+      <c r="S56">
+        <v>1.91</v>
+      </c>
+      <c r="T56">
+        <v>1.33</v>
+      </c>
+      <c r="U56">
+        <v>3.25</v>
+      </c>
+      <c r="V56">
+        <v>2.63</v>
+      </c>
+      <c r="W56">
+        <v>1.44</v>
+      </c>
+      <c r="X56">
+        <v>6</v>
+      </c>
+      <c r="Y56">
+        <v>1.11</v>
+      </c>
+      <c r="Z56">
+        <v>5.07</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AB56">
+        <v>1.52</v>
+      </c>
+      <c r="AC56">
+        <v>1.02</v>
+      </c>
+      <c r="AD56">
+        <v>13</v>
+      </c>
+      <c r="AE56">
+        <v>1.2</v>
+      </c>
+      <c r="AF56">
+        <v>4.33</v>
+      </c>
+      <c r="AG56">
+        <v>1.76</v>
+      </c>
+      <c r="AH56">
+        <v>1.95</v>
+      </c>
+      <c r="AI56">
+        <v>2</v>
+      </c>
+      <c r="AJ56">
+        <v>1.73</v>
+      </c>
+      <c r="AK56">
+        <v>2.45</v>
+      </c>
+      <c r="AL56">
+        <v>1.19</v>
+      </c>
+      <c r="AM56">
+        <v>1.12</v>
+      </c>
+      <c r="AN56">
+        <v>0.6</v>
+      </c>
+      <c r="AO56">
+        <v>2.5</v>
+      </c>
+      <c r="AP56">
+        <v>0.5</v>
+      </c>
+      <c r="AQ56">
+        <v>2.6</v>
+      </c>
+      <c r="AR56">
+        <v>1.7</v>
+      </c>
+      <c r="AS56">
+        <v>1.68</v>
+      </c>
+      <c r="AT56">
+        <v>3.38</v>
+      </c>
+      <c r="AU56">
+        <v>2</v>
+      </c>
+      <c r="AV56">
+        <v>6</v>
+      </c>
+      <c r="AW56">
+        <v>5</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>7</v>
+      </c>
+      <c r="AZ56">
+        <v>12</v>
+      </c>
+      <c r="BA56">
+        <v>4</v>
+      </c>
+      <c r="BB56">
+        <v>6</v>
+      </c>
+      <c r="BC56">
+        <v>10</v>
+      </c>
+      <c r="BD56">
+        <v>4.1</v>
+      </c>
+      <c r="BE56">
+        <v>7.3</v>
+      </c>
+      <c r="BF56">
+        <v>1.39</v>
+      </c>
+      <c r="BG56">
+        <v>1.29</v>
+      </c>
+      <c r="BH56">
+        <v>3.3</v>
+      </c>
+      <c r="BI56">
+        <v>1.5</v>
+      </c>
+      <c r="BJ56">
+        <v>2.4</v>
+      </c>
+      <c r="BK56">
+        <v>1.8</v>
+      </c>
+      <c r="BL56">
+        <v>1.91</v>
+      </c>
+      <c r="BM56">
+        <v>2.25</v>
+      </c>
+      <c r="BN56">
+        <v>1.57</v>
+      </c>
+      <c r="BO56">
+        <v>2.9</v>
+      </c>
+      <c r="BP56">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7469245</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45563.4375</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>122</v>
+      </c>
+      <c r="P57" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q57">
+        <v>7</v>
+      </c>
+      <c r="R57">
+        <v>2.5</v>
+      </c>
+      <c r="S57">
+        <v>1.73</v>
+      </c>
+      <c r="T57">
+        <v>1.3</v>
+      </c>
+      <c r="U57">
+        <v>3.4</v>
+      </c>
+      <c r="V57">
+        <v>2.38</v>
+      </c>
+      <c r="W57">
+        <v>1.53</v>
+      </c>
+      <c r="X57">
+        <v>5</v>
+      </c>
+      <c r="Y57">
+        <v>1.14</v>
+      </c>
+      <c r="Z57">
+        <v>7.36</v>
+      </c>
+      <c r="AA57">
+        <v>5.5</v>
+      </c>
+      <c r="AB57">
+        <v>1.27</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>1.2</v>
+      </c>
+      <c r="AF57">
+        <v>4.33</v>
+      </c>
+      <c r="AG57">
+        <v>1.57</v>
+      </c>
+      <c r="AH57">
+        <v>2.25</v>
+      </c>
+      <c r="AI57">
+        <v>2</v>
+      </c>
+      <c r="AJ57">
+        <v>1.73</v>
+      </c>
+      <c r="AK57">
+        <v>3.15</v>
+      </c>
+      <c r="AL57">
+        <v>1.12</v>
+      </c>
+      <c r="AM57">
+        <v>1.06</v>
+      </c>
+      <c r="AN57">
+        <v>0.25</v>
+      </c>
+      <c r="AO57">
+        <v>1.67</v>
+      </c>
+      <c r="AP57">
+        <v>0.4</v>
+      </c>
+      <c r="AQ57">
+        <v>1.5</v>
+      </c>
+      <c r="AR57">
+        <v>1.02</v>
+      </c>
+      <c r="AS57">
+        <v>1.11</v>
+      </c>
+      <c r="AT57">
+        <v>2.13</v>
+      </c>
+      <c r="AU57">
+        <v>4</v>
+      </c>
+      <c r="AV57">
+        <v>7</v>
+      </c>
+      <c r="AW57">
+        <v>4</v>
+      </c>
+      <c r="AX57">
+        <v>2</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>7</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>1.47</v>
+      </c>
+      <c r="BH57">
+        <v>2.45</v>
+      </c>
+      <c r="BI57">
+        <v>1.7</v>
+      </c>
+      <c r="BJ57">
+        <v>2.04</v>
+      </c>
+      <c r="BK57">
+        <v>2.05</v>
+      </c>
+      <c r="BL57">
+        <v>1.7</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7469242</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45563.55208333334</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>123</v>
+      </c>
+      <c r="P58" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q58">
+        <v>3.5</v>
+      </c>
+      <c r="R58">
+        <v>2.38</v>
+      </c>
+      <c r="S58">
+        <v>2.5</v>
+      </c>
+      <c r="T58">
+        <v>1.29</v>
+      </c>
+      <c r="U58">
+        <v>3.5</v>
+      </c>
+      <c r="V58">
+        <v>2.38</v>
+      </c>
+      <c r="W58">
+        <v>1.53</v>
+      </c>
+      <c r="X58">
+        <v>5</v>
+      </c>
+      <c r="Y58">
+        <v>1.14</v>
+      </c>
+      <c r="Z58">
+        <v>2.95</v>
+      </c>
+      <c r="AA58">
+        <v>3.5</v>
+      </c>
+      <c r="AB58">
+        <v>2.08</v>
+      </c>
+      <c r="AC58">
+        <v>1.03</v>
+      </c>
+      <c r="AD58">
+        <v>9</v>
+      </c>
+      <c r="AE58">
+        <v>1.18</v>
+      </c>
+      <c r="AF58">
+        <v>4.5</v>
+      </c>
+      <c r="AG58">
+        <v>1.58</v>
+      </c>
+      <c r="AH58">
+        <v>2.23</v>
+      </c>
+      <c r="AI58">
+        <v>1.53</v>
+      </c>
+      <c r="AJ58">
+        <v>2.38</v>
+      </c>
+      <c r="AK58">
+        <v>1.62</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.35</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1.75</v>
+      </c>
+      <c r="AP58">
+        <v>1.4</v>
+      </c>
+      <c r="AQ58">
+        <v>1.4</v>
+      </c>
+      <c r="AR58">
+        <v>1.13</v>
+      </c>
+      <c r="AS58">
+        <v>1.89</v>
+      </c>
+      <c r="AT58">
+        <v>3.02</v>
+      </c>
+      <c r="AU58">
+        <v>7</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
+        <v>4</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>11</v>
+      </c>
+      <c r="AZ58">
+        <v>7</v>
+      </c>
+      <c r="BA58">
+        <v>5</v>
+      </c>
+      <c r="BB58">
+        <v>2</v>
+      </c>
+      <c r="BC58">
+        <v>7</v>
+      </c>
+      <c r="BD58">
+        <v>2.16</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>1.86</v>
+      </c>
+      <c r="BG58">
+        <v>1.17</v>
+      </c>
+      <c r="BH58">
+        <v>4.5</v>
+      </c>
+      <c r="BI58">
+        <v>1.3</v>
+      </c>
+      <c r="BJ58">
+        <v>3.2</v>
+      </c>
+      <c r="BK58">
+        <v>1.5</v>
+      </c>
+      <c r="BL58">
+        <v>2.4</v>
+      </c>
+      <c r="BM58">
+        <v>1.8</v>
+      </c>
+      <c r="BN58">
+        <v>1.91</v>
+      </c>
+      <c r="BO58">
+        <v>2.25</v>
+      </c>
+      <c r="BP58">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -10345,7 +10345,7 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45559.65625</v>
+        <v>45558.875</v>
       </c>
       <c r="F47">
         <v>9</v>
@@ -10471,31 +10471,31 @@
         <v>2.31</v>
       </c>
       <c r="AU47">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV47">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW47">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX47">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY47">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AZ47">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BA47">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BB47">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BC47">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BD47">
         <v>1.44</v>
@@ -10551,7 +10551,7 @@
         <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45559.65625</v>
+        <v>45558.875</v>
       </c>
       <c r="F48">
         <v>9</v>
@@ -10677,31 +10677,31 @@
         <v>2.81</v>
       </c>
       <c r="AU48">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AV48">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AX48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY48">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AZ48">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BA48">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BB48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BC48">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BD48">
         <v>0</v>
@@ -10757,7 +10757,7 @@
         <v>69</v>
       </c>
       <c r="E49" s="2">
-        <v>45559.65625</v>
+        <v>45558.875</v>
       </c>
       <c r="F49">
         <v>9</v>
@@ -10883,22 +10883,22 @@
         <v>3.27</v>
       </c>
       <c r="AU49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW49">
         <v>3</v>
       </c>
       <c r="AX49">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY49">
+        <v>6</v>
+      </c>
+      <c r="AZ49">
         <v>8</v>
-      </c>
-      <c r="AZ49">
-        <v>14</v>
       </c>
       <c r="BA49">
         <v>10</v>
@@ -10963,7 +10963,7 @@
         <v>69</v>
       </c>
       <c r="E50" s="2">
-        <v>45559.65625</v>
+        <v>45558.875</v>
       </c>
       <c r="F50">
         <v>9</v>
@@ -11089,22 +11089,22 @@
         <v>4.34</v>
       </c>
       <c r="AU50">
+        <v>4</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>5</v>
+      </c>
+      <c r="AX50">
+        <v>2</v>
+      </c>
+      <c r="AY50">
         <v>9</v>
       </c>
-      <c r="AV50">
-        <v>4</v>
-      </c>
-      <c r="AW50">
-        <v>13</v>
-      </c>
-      <c r="AX50">
-        <v>4</v>
-      </c>
-      <c r="AY50">
-        <v>22</v>
-      </c>
       <c r="AZ50">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BA50">
         <v>8</v>
@@ -11169,7 +11169,7 @@
         <v>69</v>
       </c>
       <c r="E51" s="2">
-        <v>45559.66666666666</v>
+        <v>45558.875</v>
       </c>
       <c r="F51">
         <v>9</v>
@@ -11295,31 +11295,31 @@
         <v>2.34</v>
       </c>
       <c r="AU51">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV51">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW51">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX51">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY51">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AZ51">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA51">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BB51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BD51">
         <v>3.9</v>
@@ -11698,13 +11698,13 @@
         <v>2.14</v>
       </c>
       <c r="AR53">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AS53">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AT53">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12525,10 +12525,10 @@
         <v>1.02</v>
       </c>
       <c r="AS57">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AT57">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="AU57">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,66 +361,45 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['21', '56']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['41', '45+3']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['23', '30', '59', '69']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['73', '90+1']</t>
+  </si>
+  <si>
+    <t>['6', '69', '89', '90+4']</t>
+  </si>
+  <si>
+    <t>['43', '45+2', '61', '67', '90+3']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
-    <t>['45+3']</t>
-  </si>
-  <si>
-    <t>['6', '87']</t>
-  </si>
-  <si>
-    <t>['50']</t>
-  </si>
-  <si>
-    <t>['38']</t>
-  </si>
-  <si>
-    <t>['55']</t>
-  </si>
-  <si>
-    <t>['84']</t>
-  </si>
-  <si>
-    <t>['41', '45+2']</t>
-  </si>
-  <si>
-    <t>['18', '45+1', '56']</t>
-  </si>
-  <si>
-    <t>['45+2']</t>
-  </si>
-  <si>
-    <t>['67']</t>
-  </si>
-  <si>
-    <t>['21', '56']</t>
-  </si>
-  <si>
-    <t>['54']</t>
-  </si>
-  <si>
-    <t>['41', '45+3']</t>
-  </si>
-  <si>
-    <t>['23', '30', '59', '69']</t>
-  </si>
-  <si>
-    <t>['66']</t>
-  </si>
-  <si>
-    <t>['73', '90+1']</t>
-  </si>
-  <si>
-    <t>['6', '69', '89', '90+4']</t>
-  </si>
-  <si>
-    <t>['43', '45+2', '61', '67', '90+3']</t>
-  </si>
-  <si>
-    <t>['64']</t>
-  </si>
-  <si>
     <t>['10', '49']</t>
   </si>
   <si>
@@ -466,28 +445,7 @@
     <t>['22']</t>
   </si>
   <si>
-    <t>['45+1']</t>
-  </si>
-  <si>
-    <t>['23']</t>
-  </si>
-  <si>
-    <t>['12', '90+2', '90+8']</t>
-  </si>
-  <si>
-    <t>['22', '54']</t>
-  </si>
-  <si>
-    <t>['4', '86']</t>
-  </si>
-  <si>
-    <t>['10', '40', '63', '69', '80', '87']</t>
-  </si>
-  <si>
     <t>['70']</t>
-  </si>
-  <si>
-    <t>['3', '53']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1066,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1186,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1314,7 +1272,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1392,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1520,7 +1478,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1598,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ4">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1726,7 +1684,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1804,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -1932,7 +1890,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2010,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AQ6">
         <v>2.6</v>
@@ -2219,7 +2177,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2550,7 +2508,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2628,10 +2586,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>1.59</v>
@@ -2834,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2962,7 +2920,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3040,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3168,7 +3126,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3246,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3374,7 +3332,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3452,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>2.12</v>
@@ -3580,7 +3538,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3658,10 +3616,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AQ14">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="AR14">
         <v>0.82</v>
@@ -3864,7 +3822,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>2.6</v>
@@ -4276,7 +4234,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4482,10 +4440,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -4816,7 +4774,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -4894,10 +4852,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5022,7 +4980,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5100,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5228,7 +5186,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5306,10 +5264,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5512,10 +5470,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -5640,7 +5598,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5718,10 +5676,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -5846,7 +5804,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -5924,10 +5882,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>0.89</v>
@@ -6052,7 +6010,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6258,7 +6216,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6336,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6542,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6748,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR29">
         <v>1.93</v>
@@ -6876,7 +6834,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6954,10 +6912,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7082,7 +7040,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7160,7 +7118,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7366,10 +7324,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>2.16</v>
@@ -7494,7 +7452,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7575,7 +7533,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="AR33">
         <v>1.47</v>
@@ -7700,7 +7658,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7778,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8112,7 +8070,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8190,10 +8148,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8318,7 +8276,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8396,10 +8354,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR37">
         <v>1.1</v>
@@ -8602,7 +8560,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8808,7 +8766,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9014,7 +8972,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
         <v>2.6</v>
@@ -9142,7 +9100,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9223,7 +9181,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9348,7 +9306,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9426,10 +9384,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9554,7 +9512,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9632,7 +9590,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -9760,7 +9718,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9841,7 +9799,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR44">
         <v>1.05</v>
@@ -10044,10 +10002,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10172,7 +10130,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10250,7 +10208,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10336,7 +10294,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7469235</v>
+        <v>7469246</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10345,49 +10303,49 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45558.875</v>
+        <v>45562.875</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O47" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="Q47">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="R47">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S47">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="T47">
         <v>1.33</v>
@@ -10396,10 +10354,10 @@
         <v>3.25</v>
       </c>
       <c r="V47">
-        <v>2.52</v>
+        <v>2.63</v>
       </c>
       <c r="W47">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X47">
         <v>6</v>
@@ -10408,2399 +10366,133 @@
         <v>1.11</v>
       </c>
       <c r="Z47">
-        <v>1.7</v>
+        <v>5.07</v>
       </c>
       <c r="AA47">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AB47">
-        <v>4.2</v>
+        <v>1.52</v>
       </c>
       <c r="AC47">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE47">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF47">
         <v>4.33</v>
       </c>
       <c r="AG47">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AH47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI47">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AJ47">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AK47">
-        <v>1.18</v>
+        <v>2.45</v>
       </c>
       <c r="AL47">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AM47">
-        <v>1.97</v>
+        <v>1.12</v>
       </c>
       <c r="AN47">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AO47">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AP47">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="AR47">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="AS47">
-        <v>0.97</v>
+        <v>1.68</v>
       </c>
       <c r="AT47">
-        <v>2.31</v>
+        <v>3.3</v>
       </c>
       <c r="AU47">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV47">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX47">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY47">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ47">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA47">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB47">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC47">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD47">
-        <v>1.44</v>
+        <v>4.1</v>
       </c>
       <c r="BE47">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="BF47">
-        <v>3.68</v>
+        <v>1.39</v>
       </c>
       <c r="BG47">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BH47">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BI47">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="BJ47">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="BK47">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="BL47">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="BM47">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="BN47">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="BO47">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BP47">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:68">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>7469236</v>
-      </c>
-      <c r="C48" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="2">
-        <v>45558.875</v>
-      </c>
-      <c r="F48">
-        <v>9</v>
-      </c>
-      <c r="G48" t="s">
-        <v>80</v>
-      </c>
-      <c r="H48" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>2</v>
-      </c>
-      <c r="O48" t="s">
-        <v>116</v>
-      </c>
-      <c r="P48" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q48">
-        <v>2.5</v>
-      </c>
-      <c r="R48">
-        <v>2.1</v>
-      </c>
-      <c r="S48">
-        <v>4.33</v>
-      </c>
-      <c r="T48">
-        <v>1.4</v>
-      </c>
-      <c r="U48">
-        <v>2.6</v>
-      </c>
-      <c r="V48">
-        <v>2.8</v>
-      </c>
-      <c r="W48">
-        <v>1.35</v>
-      </c>
-      <c r="X48">
-        <v>6.5</v>
-      </c>
-      <c r="Y48">
-        <v>1.07</v>
-      </c>
-      <c r="Z48">
-        <v>1.75</v>
-      </c>
-      <c r="AA48">
-        <v>3.2</v>
-      </c>
-      <c r="AB48">
-        <v>4.5</v>
-      </c>
-      <c r="AC48">
-        <v>1.06</v>
-      </c>
-      <c r="AD48">
-        <v>8.5</v>
-      </c>
-      <c r="AE48">
-        <v>1.33</v>
-      </c>
-      <c r="AF48">
-        <v>3.25</v>
-      </c>
-      <c r="AG48">
-        <v>2</v>
-      </c>
-      <c r="AH48">
-        <v>1.7</v>
-      </c>
-      <c r="AI48">
-        <v>1.8</v>
-      </c>
-      <c r="AJ48">
-        <v>1.91</v>
-      </c>
-      <c r="AK48">
-        <v>1.16</v>
-      </c>
-      <c r="AL48">
-        <v>1.28</v>
-      </c>
-      <c r="AM48">
-        <v>1.77</v>
-      </c>
-      <c r="AN48">
-        <v>1.33</v>
-      </c>
-      <c r="AO48">
-        <v>1</v>
-      </c>
-      <c r="AP48">
-        <v>1.6</v>
-      </c>
-      <c r="AQ48">
-        <v>1</v>
-      </c>
-      <c r="AR48">
-        <v>1.21</v>
-      </c>
-      <c r="AS48">
-        <v>1.6</v>
-      </c>
-      <c r="AT48">
-        <v>2.81</v>
-      </c>
-      <c r="AU48">
-        <v>-1</v>
-      </c>
-      <c r="AV48">
-        <v>-1</v>
-      </c>
-      <c r="AW48">
-        <v>-1</v>
-      </c>
-      <c r="AX48">
-        <v>-1</v>
-      </c>
-      <c r="AY48">
-        <v>-1</v>
-      </c>
-      <c r="AZ48">
-        <v>-1</v>
-      </c>
-      <c r="BA48">
-        <v>-1</v>
-      </c>
-      <c r="BB48">
-        <v>-1</v>
-      </c>
-      <c r="BC48">
-        <v>-1</v>
-      </c>
-      <c r="BD48">
-        <v>0</v>
-      </c>
-      <c r="BE48">
-        <v>0</v>
-      </c>
-      <c r="BF48">
-        <v>0</v>
-      </c>
-      <c r="BG48">
-        <v>1.29</v>
-      </c>
-      <c r="BH48">
-        <v>3.3</v>
-      </c>
-      <c r="BI48">
-        <v>1.5</v>
-      </c>
-      <c r="BJ48">
-        <v>2.4</v>
-      </c>
-      <c r="BK48">
-        <v>1.8</v>
-      </c>
-      <c r="BL48">
-        <v>1.91</v>
-      </c>
-      <c r="BM48">
-        <v>2.25</v>
-      </c>
-      <c r="BN48">
-        <v>1.57</v>
-      </c>
-      <c r="BO48">
-        <v>2.9</v>
-      </c>
-      <c r="BP48">
         <v>1.36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:68">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>7469237</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
-      </c>
-      <c r="D49" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="2">
-        <v>45558.875</v>
-      </c>
-      <c r="F49">
-        <v>9</v>
-      </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s">
-        <v>74</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49" t="s">
-        <v>85</v>
-      </c>
-      <c r="P49" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q49">
-        <v>1.44</v>
-      </c>
-      <c r="R49">
-        <v>3</v>
-      </c>
-      <c r="S49">
-        <v>11</v>
-      </c>
-      <c r="T49">
-        <v>1.22</v>
-      </c>
-      <c r="U49">
-        <v>3.7</v>
-      </c>
-      <c r="V49">
-        <v>2</v>
-      </c>
-      <c r="W49">
-        <v>1.67</v>
-      </c>
-      <c r="X49">
-        <v>4.1</v>
-      </c>
-      <c r="Y49">
-        <v>1.18</v>
-      </c>
-      <c r="Z49">
-        <v>1.12</v>
-      </c>
-      <c r="AA49">
-        <v>7.5</v>
-      </c>
-      <c r="AB49">
-        <v>13</v>
-      </c>
-      <c r="AC49">
-        <v>1.01</v>
-      </c>
-      <c r="AD49">
-        <v>11</v>
-      </c>
-      <c r="AE49">
-        <v>1.1</v>
-      </c>
-      <c r="AF49">
-        <v>6.5</v>
-      </c>
-      <c r="AG49">
-        <v>1.4</v>
-      </c>
-      <c r="AH49">
-        <v>2.75</v>
-      </c>
-      <c r="AI49">
-        <v>2.2</v>
-      </c>
-      <c r="AJ49">
-        <v>1.62</v>
-      </c>
-      <c r="AK49">
-        <v>1.03</v>
-      </c>
-      <c r="AL49">
-        <v>1.05</v>
-      </c>
-      <c r="AM49">
-        <v>6.2</v>
-      </c>
-      <c r="AN49">
-        <v>2.5</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>2</v>
-      </c>
-      <c r="AQ49">
-        <v>0.75</v>
-      </c>
-      <c r="AR49">
-        <v>2.19</v>
-      </c>
-      <c r="AS49">
-        <v>1.08</v>
-      </c>
-      <c r="AT49">
-        <v>3.27</v>
-      </c>
-      <c r="AU49">
-        <v>3</v>
-      </c>
-      <c r="AV49">
-        <v>3</v>
-      </c>
-      <c r="AW49">
-        <v>3</v>
-      </c>
-      <c r="AX49">
-        <v>5</v>
-      </c>
-      <c r="AY49">
-        <v>6</v>
-      </c>
-      <c r="AZ49">
-        <v>8</v>
-      </c>
-      <c r="BA49">
-        <v>10</v>
-      </c>
-      <c r="BB49">
-        <v>3</v>
-      </c>
-      <c r="BC49">
-        <v>13</v>
-      </c>
-      <c r="BD49">
-        <v>1.06</v>
-      </c>
-      <c r="BE49">
-        <v>14</v>
-      </c>
-      <c r="BF49">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BG49">
-        <v>1.31</v>
-      </c>
-      <c r="BH49">
-        <v>3.1</v>
-      </c>
-      <c r="BI49">
-        <v>1.54</v>
-      </c>
-      <c r="BJ49">
-        <v>2.3</v>
-      </c>
-      <c r="BK49">
-        <v>1.9</v>
-      </c>
-      <c r="BL49">
-        <v>1.8</v>
-      </c>
-      <c r="BM49">
-        <v>2.4</v>
-      </c>
-      <c r="BN49">
-        <v>1.5</v>
-      </c>
-      <c r="BO49">
-        <v>3.2</v>
-      </c>
-      <c r="BP49">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:68">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>7469238</v>
-      </c>
-      <c r="C50" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E50" s="2">
-        <v>45558.875</v>
-      </c>
-      <c r="F50">
-        <v>9</v>
-      </c>
-      <c r="G50" t="s">
-        <v>81</v>
-      </c>
-      <c r="H50" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>2</v>
-      </c>
-      <c r="L50">
-        <v>2</v>
-      </c>
-      <c r="M50">
-        <v>3</v>
-      </c>
-      <c r="N50">
-        <v>5</v>
-      </c>
-      <c r="O50" t="s">
-        <v>117</v>
-      </c>
-      <c r="P50" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q50">
-        <v>1.67</v>
-      </c>
-      <c r="R50">
-        <v>2.5</v>
-      </c>
-      <c r="S50">
-        <v>9</v>
-      </c>
-      <c r="T50">
-        <v>1.32</v>
-      </c>
-      <c r="U50">
-        <v>3.2</v>
-      </c>
-      <c r="V50">
-        <v>2.54</v>
-      </c>
-      <c r="W50">
-        <v>1.48</v>
-      </c>
-      <c r="X50">
-        <v>5.5</v>
-      </c>
-      <c r="Y50">
-        <v>1.1</v>
-      </c>
-      <c r="Z50">
-        <v>1.26</v>
-      </c>
-      <c r="AA50">
-        <v>5.49</v>
-      </c>
-      <c r="AB50">
-        <v>9.92</v>
-      </c>
-      <c r="AC50">
-        <v>1.02</v>
-      </c>
-      <c r="AD50">
-        <v>13</v>
-      </c>
-      <c r="AE50">
-        <v>1.22</v>
-      </c>
-      <c r="AF50">
-        <v>4.2</v>
-      </c>
-      <c r="AG50">
-        <v>1.67</v>
-      </c>
-      <c r="AH50">
-        <v>2.05</v>
-      </c>
-      <c r="AI50">
-        <v>2.25</v>
-      </c>
-      <c r="AJ50">
-        <v>1.57</v>
-      </c>
-      <c r="AK50">
-        <v>1.06</v>
-      </c>
-      <c r="AL50">
-        <v>1.07</v>
-      </c>
-      <c r="AM50">
-        <v>3.2</v>
-      </c>
-      <c r="AN50">
-        <v>3</v>
-      </c>
-      <c r="AO50">
-        <v>1</v>
-      </c>
-      <c r="AP50">
-        <v>2</v>
-      </c>
-      <c r="AQ50">
-        <v>1.5</v>
-      </c>
-      <c r="AR50">
-        <v>3.27</v>
-      </c>
-      <c r="AS50">
-        <v>1.07</v>
-      </c>
-      <c r="AT50">
-        <v>4.34</v>
-      </c>
-      <c r="AU50">
-        <v>4</v>
-      </c>
-      <c r="AV50">
-        <v>0</v>
-      </c>
-      <c r="AW50">
-        <v>5</v>
-      </c>
-      <c r="AX50">
-        <v>2</v>
-      </c>
-      <c r="AY50">
-        <v>9</v>
-      </c>
-      <c r="AZ50">
-        <v>2</v>
-      </c>
-      <c r="BA50">
-        <v>8</v>
-      </c>
-      <c r="BB50">
-        <v>1</v>
-      </c>
-      <c r="BC50">
-        <v>9</v>
-      </c>
-      <c r="BD50">
-        <v>1.1</v>
-      </c>
-      <c r="BE50">
-        <v>12</v>
-      </c>
-      <c r="BF50">
-        <v>9.25</v>
-      </c>
-      <c r="BG50">
-        <v>0</v>
-      </c>
-      <c r="BH50">
-        <v>0</v>
-      </c>
-      <c r="BI50">
-        <v>1.43</v>
-      </c>
-      <c r="BJ50">
-        <v>2.6</v>
-      </c>
-      <c r="BK50">
-        <v>1.72</v>
-      </c>
-      <c r="BL50">
-        <v>2</v>
-      </c>
-      <c r="BM50">
-        <v>2.15</v>
-      </c>
-      <c r="BN50">
-        <v>1.62</v>
-      </c>
-      <c r="BO50">
-        <v>2.7</v>
-      </c>
-      <c r="BP50">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:68">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>7469239</v>
-      </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="2">
-        <v>45558.875</v>
-      </c>
-      <c r="F51">
-        <v>9</v>
-      </c>
-      <c r="G51" t="s">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s">
-        <v>76</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>2</v>
-      </c>
-      <c r="N51">
-        <v>3</v>
-      </c>
-      <c r="O51" t="s">
-        <v>118</v>
-      </c>
-      <c r="P51" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q51">
-        <v>6</v>
-      </c>
-      <c r="R51">
-        <v>2.1</v>
-      </c>
-      <c r="S51">
-        <v>2.1</v>
-      </c>
-      <c r="T51">
-        <v>1.37</v>
-      </c>
-      <c r="U51">
-        <v>2.75</v>
-      </c>
-      <c r="V51">
-        <v>2.75</v>
-      </c>
-      <c r="W51">
-        <v>1.37</v>
-      </c>
-      <c r="X51">
-        <v>6.5</v>
-      </c>
-      <c r="Y51">
-        <v>1.07</v>
-      </c>
-      <c r="Z51">
-        <v>5.9</v>
-      </c>
-      <c r="AA51">
-        <v>3.9</v>
-      </c>
-      <c r="AB51">
-        <v>1.44</v>
-      </c>
-      <c r="AC51">
-        <v>1.05</v>
-      </c>
-      <c r="AD51">
-        <v>7.8</v>
-      </c>
-      <c r="AE51">
-        <v>1.28</v>
-      </c>
-      <c r="AF51">
-        <v>3.3</v>
-      </c>
-      <c r="AG51">
-        <v>1.9</v>
-      </c>
-      <c r="AH51">
-        <v>1.8</v>
-      </c>
-      <c r="AI51">
-        <v>2.1</v>
-      </c>
-      <c r="AJ51">
-        <v>1.67</v>
-      </c>
-      <c r="AK51">
-        <v>2.2</v>
-      </c>
-      <c r="AL51">
-        <v>1.22</v>
-      </c>
-      <c r="AM51">
-        <v>1.07</v>
-      </c>
-      <c r="AN51">
-        <v>1</v>
-      </c>
-      <c r="AO51">
-        <v>2.4</v>
-      </c>
-      <c r="AP51">
-        <v>0.8</v>
-      </c>
-      <c r="AQ51">
-        <v>2.14</v>
-      </c>
-      <c r="AR51">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AS51">
-        <v>1.4</v>
-      </c>
-      <c r="AT51">
-        <v>2.34</v>
-      </c>
-      <c r="AU51">
-        <v>-1</v>
-      </c>
-      <c r="AV51">
-        <v>-1</v>
-      </c>
-      <c r="AW51">
-        <v>-1</v>
-      </c>
-      <c r="AX51">
-        <v>-1</v>
-      </c>
-      <c r="AY51">
-        <v>-1</v>
-      </c>
-      <c r="AZ51">
-        <v>-1</v>
-      </c>
-      <c r="BA51">
-        <v>-1</v>
-      </c>
-      <c r="BB51">
-        <v>-1</v>
-      </c>
-      <c r="BC51">
-        <v>-1</v>
-      </c>
-      <c r="BD51">
-        <v>3.9</v>
-      </c>
-      <c r="BE51">
-        <v>9.1</v>
-      </c>
-      <c r="BF51">
-        <v>1.33</v>
-      </c>
-      <c r="BG51">
-        <v>1.36</v>
-      </c>
-      <c r="BH51">
-        <v>2.88</v>
-      </c>
-      <c r="BI51">
-        <v>1.62</v>
-      </c>
-      <c r="BJ51">
-        <v>2.2</v>
-      </c>
-      <c r="BK51">
-        <v>2</v>
-      </c>
-      <c r="BL51">
-        <v>1.73</v>
-      </c>
-      <c r="BM51">
-        <v>2.5</v>
-      </c>
-      <c r="BN51">
-        <v>1.48</v>
-      </c>
-      <c r="BO51">
-        <v>3.3</v>
-      </c>
-      <c r="BP51">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:68">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>7469240</v>
-      </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="2">
-        <v>45560.65625</v>
-      </c>
-      <c r="F52">
-        <v>9</v>
-      </c>
-      <c r="G52" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>2</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>2</v>
-      </c>
-      <c r="N52">
-        <v>3</v>
-      </c>
-      <c r="O52" t="s">
-        <v>119</v>
-      </c>
-      <c r="P52" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q52">
-        <v>3</v>
-      </c>
-      <c r="R52">
-        <v>2.38</v>
-      </c>
-      <c r="S52">
-        <v>2.75</v>
-      </c>
-      <c r="T52">
-        <v>1.25</v>
-      </c>
-      <c r="U52">
-        <v>3.25</v>
-      </c>
-      <c r="V52">
-        <v>2.25</v>
-      </c>
-      <c r="W52">
-        <v>1.57</v>
-      </c>
-      <c r="X52">
-        <v>5.5</v>
-      </c>
-      <c r="Y52">
-        <v>1.13</v>
-      </c>
-      <c r="Z52">
-        <v>2.75</v>
-      </c>
-      <c r="AA52">
-        <v>3.45</v>
-      </c>
-      <c r="AB52">
-        <v>2.2</v>
-      </c>
-      <c r="AC52">
-        <v>1.01</v>
-      </c>
-      <c r="AD52">
-        <v>15</v>
-      </c>
-      <c r="AE52">
-        <v>1.17</v>
-      </c>
-      <c r="AF52">
-        <v>5</v>
-      </c>
-      <c r="AG52">
-        <v>1.55</v>
-      </c>
-      <c r="AH52">
-        <v>2.2</v>
-      </c>
-      <c r="AI52">
-        <v>1.44</v>
-      </c>
-      <c r="AJ52">
-        <v>2.63</v>
-      </c>
-      <c r="AK52">
-        <v>1.57</v>
-      </c>
-      <c r="AL52">
-        <v>1.29</v>
-      </c>
-      <c r="AM52">
-        <v>1.4</v>
-      </c>
-      <c r="AN52">
-        <v>0.75</v>
-      </c>
-      <c r="AO52">
-        <v>1.33</v>
-      </c>
-      <c r="AP52">
-        <v>0.5</v>
-      </c>
-      <c r="AQ52">
-        <v>1.75</v>
-      </c>
-      <c r="AR52">
-        <v>1.62</v>
-      </c>
-      <c r="AS52">
-        <v>1.32</v>
-      </c>
-      <c r="AT52">
-        <v>2.94</v>
-      </c>
-      <c r="AU52">
-        <v>8</v>
-      </c>
-      <c r="AV52">
-        <v>7</v>
-      </c>
-      <c r="AW52">
-        <v>8</v>
-      </c>
-      <c r="AX52">
-        <v>5</v>
-      </c>
-      <c r="AY52">
-        <v>16</v>
-      </c>
-      <c r="AZ52">
-        <v>12</v>
-      </c>
-      <c r="BA52">
-        <v>10</v>
-      </c>
-      <c r="BB52">
-        <v>6</v>
-      </c>
-      <c r="BC52">
-        <v>16</v>
-      </c>
-      <c r="BD52">
-        <v>2.13</v>
-      </c>
-      <c r="BE52">
-        <v>6.8</v>
-      </c>
-      <c r="BF52">
-        <v>2.02</v>
-      </c>
-      <c r="BG52">
-        <v>1.22</v>
-      </c>
-      <c r="BH52">
-        <v>3.8</v>
-      </c>
-      <c r="BI52">
-        <v>1.38</v>
-      </c>
-      <c r="BJ52">
-        <v>2.8</v>
-      </c>
-      <c r="BK52">
-        <v>1.63</v>
-      </c>
-      <c r="BL52">
-        <v>2.16</v>
-      </c>
-      <c r="BM52">
-        <v>2.02</v>
-      </c>
-      <c r="BN52">
-        <v>1.74</v>
-      </c>
-      <c r="BO52">
-        <v>2.5</v>
-      </c>
-      <c r="BP52">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:68">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>7469244</v>
-      </c>
-      <c r="C53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E53" s="2">
-        <v>45562.65625</v>
-      </c>
-      <c r="F53">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" t="s">
-        <v>76</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53" t="s">
-        <v>120</v>
-      </c>
-      <c r="P53" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q53">
-        <v>2.75</v>
-      </c>
-      <c r="R53">
-        <v>2.05</v>
-      </c>
-      <c r="S53">
-        <v>4</v>
-      </c>
-      <c r="T53">
-        <v>1.5</v>
-      </c>
-      <c r="U53">
-        <v>2.5</v>
-      </c>
-      <c r="V53">
-        <v>3.2</v>
-      </c>
-      <c r="W53">
-        <v>1.3</v>
-      </c>
-      <c r="X53">
-        <v>8</v>
-      </c>
-      <c r="Y53">
-        <v>1.06</v>
-      </c>
-      <c r="Z53">
-        <v>2.17</v>
-      </c>
-      <c r="AA53">
-        <v>3.2</v>
-      </c>
-      <c r="AB53">
-        <v>3.23</v>
-      </c>
-      <c r="AC53">
-        <v>1.02</v>
-      </c>
-      <c r="AD53">
-        <v>7.1</v>
-      </c>
-      <c r="AE53">
-        <v>1.38</v>
-      </c>
-      <c r="AF53">
-        <v>2.8</v>
-      </c>
-      <c r="AG53">
-        <v>2.19</v>
-      </c>
-      <c r="AH53">
-        <v>1.6</v>
-      </c>
-      <c r="AI53">
-        <v>1.91</v>
-      </c>
-      <c r="AJ53">
-        <v>1.8</v>
-      </c>
-      <c r="AK53">
-        <v>1.3</v>
-      </c>
-      <c r="AL53">
-        <v>1.3</v>
-      </c>
-      <c r="AM53">
-        <v>1.7</v>
-      </c>
-      <c r="AN53">
-        <v>1.25</v>
-      </c>
-      <c r="AO53">
-        <v>2.5</v>
-      </c>
-      <c r="AP53">
-        <v>1.6</v>
-      </c>
-      <c r="AQ53">
-        <v>2.14</v>
-      </c>
-      <c r="AR53">
-        <v>1.21</v>
-      </c>
-      <c r="AS53">
-        <v>1.4</v>
-      </c>
-      <c r="AT53">
-        <v>2.61</v>
-      </c>
-      <c r="AU53">
-        <v>6</v>
-      </c>
-      <c r="AV53">
-        <v>2</v>
-      </c>
-      <c r="AW53">
-        <v>6</v>
-      </c>
-      <c r="AX53">
-        <v>8</v>
-      </c>
-      <c r="AY53">
-        <v>12</v>
-      </c>
-      <c r="AZ53">
-        <v>10</v>
-      </c>
-      <c r="BA53">
-        <v>4</v>
-      </c>
-      <c r="BB53">
-        <v>4</v>
-      </c>
-      <c r="BC53">
-        <v>8</v>
-      </c>
-      <c r="BD53">
-        <v>0</v>
-      </c>
-      <c r="BE53">
-        <v>0</v>
-      </c>
-      <c r="BF53">
-        <v>0</v>
-      </c>
-      <c r="BG53">
-        <v>1.5</v>
-      </c>
-      <c r="BH53">
-        <v>2.4</v>
-      </c>
-      <c r="BI53">
-        <v>1.85</v>
-      </c>
-      <c r="BJ53">
-        <v>1.85</v>
-      </c>
-      <c r="BK53">
-        <v>2.3</v>
-      </c>
-      <c r="BL53">
-        <v>1.55</v>
-      </c>
-      <c r="BM53">
-        <v>3</v>
-      </c>
-      <c r="BN53">
-        <v>1.33</v>
-      </c>
-      <c r="BO53">
-        <v>4</v>
-      </c>
-      <c r="BP53">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:68">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>7469241</v>
-      </c>
-      <c r="C54" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="2">
-        <v>45562.65625</v>
-      </c>
-      <c r="F54">
-        <v>10</v>
-      </c>
-      <c r="G54" t="s">
-        <v>71</v>
-      </c>
-      <c r="H54" t="s">
-        <v>78</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54" t="s">
-        <v>121</v>
-      </c>
-      <c r="P54" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q54">
-        <v>1.95</v>
-      </c>
-      <c r="R54">
-        <v>2.31</v>
-      </c>
-      <c r="S54">
-        <v>6</v>
-      </c>
-      <c r="T54">
-        <v>1.33</v>
-      </c>
-      <c r="U54">
-        <v>3</v>
-      </c>
-      <c r="V54">
-        <v>2.57</v>
-      </c>
-      <c r="W54">
-        <v>1.47</v>
-      </c>
-      <c r="X54">
-        <v>6</v>
-      </c>
-      <c r="Y54">
-        <v>1.11</v>
-      </c>
-      <c r="Z54">
-        <v>1.48</v>
-      </c>
-      <c r="AA54">
-        <v>4.15</v>
-      </c>
-      <c r="AB54">
-        <v>6.04</v>
-      </c>
-      <c r="AC54">
-        <v>1.03</v>
-      </c>
-      <c r="AD54">
-        <v>9</v>
-      </c>
-      <c r="AE54">
-        <v>1.25</v>
-      </c>
-      <c r="AF54">
-        <v>3.8</v>
-      </c>
-      <c r="AG54">
-        <v>1.65</v>
-      </c>
-      <c r="AH54">
-        <v>2.11</v>
-      </c>
-      <c r="AI54">
-        <v>1.91</v>
-      </c>
-      <c r="AJ54">
-        <v>1.8</v>
-      </c>
-      <c r="AK54">
-        <v>1.14</v>
-      </c>
-      <c r="AL54">
-        <v>1.2</v>
-      </c>
-      <c r="AM54">
-        <v>2.25</v>
-      </c>
-      <c r="AN54">
-        <v>1.25</v>
-      </c>
-      <c r="AO54">
-        <v>0</v>
-      </c>
-      <c r="AP54">
-        <v>1.6</v>
-      </c>
-      <c r="AQ54">
-        <v>0</v>
-      </c>
-      <c r="AR54">
-        <v>1.67</v>
-      </c>
-      <c r="AS54">
-        <v>0.72</v>
-      </c>
-      <c r="AT54">
-        <v>2.39</v>
-      </c>
-      <c r="AU54">
-        <v>8</v>
-      </c>
-      <c r="AV54">
-        <v>3</v>
-      </c>
-      <c r="AW54">
-        <v>8</v>
-      </c>
-      <c r="AX54">
-        <v>1</v>
-      </c>
-      <c r="AY54">
-        <v>16</v>
-      </c>
-      <c r="AZ54">
-        <v>4</v>
-      </c>
-      <c r="BA54">
-        <v>11</v>
-      </c>
-      <c r="BB54">
-        <v>5</v>
-      </c>
-      <c r="BC54">
-        <v>16</v>
-      </c>
-      <c r="BD54">
-        <v>1.24</v>
-      </c>
-      <c r="BE54">
-        <v>8.9</v>
-      </c>
-      <c r="BF54">
-        <v>5.53</v>
-      </c>
-      <c r="BG54">
-        <v>1.2</v>
-      </c>
-      <c r="BH54">
-        <v>4</v>
-      </c>
-      <c r="BI54">
-        <v>1.33</v>
-      </c>
-      <c r="BJ54">
-        <v>3</v>
-      </c>
-      <c r="BK54">
-        <v>1.56</v>
-      </c>
-      <c r="BL54">
-        <v>2.26</v>
-      </c>
-      <c r="BM54">
-        <v>1.9</v>
-      </c>
-      <c r="BN54">
-        <v>1.79</v>
-      </c>
-      <c r="BO54">
-        <v>2.4</v>
-      </c>
-      <c r="BP54">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:68">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>7469243</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="2">
-        <v>45562.65625</v>
-      </c>
-      <c r="F55">
-        <v>10</v>
-      </c>
-      <c r="G55" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" t="s">
-        <v>81</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>2</v>
-      </c>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>6</v>
-      </c>
-      <c r="N55">
-        <v>7</v>
-      </c>
-      <c r="O55" t="s">
-        <v>114</v>
-      </c>
-      <c r="P55" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q55">
-        <v>9.5</v>
-      </c>
-      <c r="R55">
-        <v>2.75</v>
-      </c>
-      <c r="S55">
-        <v>1.53</v>
-      </c>
-      <c r="T55">
-        <v>1.25</v>
-      </c>
-      <c r="U55">
-        <v>3.75</v>
-      </c>
-      <c r="V55">
-        <v>2.1</v>
-      </c>
-      <c r="W55">
-        <v>1.67</v>
-      </c>
-      <c r="X55">
-        <v>4.5</v>
-      </c>
-      <c r="Y55">
-        <v>1.17</v>
-      </c>
-      <c r="Z55">
-        <v>11.49</v>
-      </c>
-      <c r="AA55">
-        <v>6.94</v>
-      </c>
-      <c r="AB55">
-        <v>1.18</v>
-      </c>
-      <c r="AC55">
-        <v>1.01</v>
-      </c>
-      <c r="AD55">
-        <v>17</v>
-      </c>
-      <c r="AE55">
-        <v>1.1</v>
-      </c>
-      <c r="AF55">
-        <v>5.7</v>
-      </c>
-      <c r="AG55">
-        <v>1.5</v>
-      </c>
-      <c r="AH55">
-        <v>2.5</v>
-      </c>
-      <c r="AI55">
-        <v>2.2</v>
-      </c>
-      <c r="AJ55">
-        <v>1.62</v>
-      </c>
-      <c r="AK55">
-        <v>3.7</v>
-      </c>
-      <c r="AL55">
-        <v>1.09</v>
-      </c>
-      <c r="AM55">
-        <v>1.02</v>
-      </c>
-      <c r="AN55">
-        <v>2.25</v>
-      </c>
-      <c r="AO55">
-        <v>2</v>
-      </c>
-      <c r="AP55">
-        <v>1.8</v>
-      </c>
-      <c r="AQ55">
-        <v>2.25</v>
-      </c>
-      <c r="AR55">
-        <v>1.83</v>
-      </c>
-      <c r="AS55">
-        <v>1.88</v>
-      </c>
-      <c r="AT55">
-        <v>3.71</v>
-      </c>
-      <c r="AU55">
-        <v>5</v>
-      </c>
-      <c r="AV55">
-        <v>11</v>
-      </c>
-      <c r="AW55">
-        <v>3</v>
-      </c>
-      <c r="AX55">
-        <v>4</v>
-      </c>
-      <c r="AY55">
-        <v>8</v>
-      </c>
-      <c r="AZ55">
-        <v>15</v>
-      </c>
-      <c r="BA55">
-        <v>3</v>
-      </c>
-      <c r="BB55">
-        <v>6</v>
-      </c>
-      <c r="BC55">
-        <v>9</v>
-      </c>
-      <c r="BD55">
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <v>0</v>
-      </c>
-      <c r="BG55">
-        <v>1.22</v>
-      </c>
-      <c r="BH55">
-        <v>3.8</v>
-      </c>
-      <c r="BI55">
-        <v>1.42</v>
-      </c>
-      <c r="BJ55">
-        <v>2.76</v>
-      </c>
-      <c r="BK55">
-        <v>1.63</v>
-      </c>
-      <c r="BL55">
-        <v>2.15</v>
-      </c>
-      <c r="BM55">
-        <v>1.98</v>
-      </c>
-      <c r="BN55">
-        <v>1.75</v>
-      </c>
-      <c r="BO55">
-        <v>2.86</v>
-      </c>
-      <c r="BP55">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:68">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>7469246</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56" s="2">
-        <v>45563.4375</v>
-      </c>
-      <c r="F56">
-        <v>10</v>
-      </c>
-      <c r="G56" t="s">
-        <v>72</v>
-      </c>
-      <c r="H56" t="s">
-        <v>77</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56" t="s">
-        <v>85</v>
-      </c>
-      <c r="P56" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q56">
-        <v>6.5</v>
-      </c>
-      <c r="R56">
-        <v>2.38</v>
-      </c>
-      <c r="S56">
-        <v>1.91</v>
-      </c>
-      <c r="T56">
-        <v>1.33</v>
-      </c>
-      <c r="U56">
-        <v>3.25</v>
-      </c>
-      <c r="V56">
-        <v>2.63</v>
-      </c>
-      <c r="W56">
-        <v>1.44</v>
-      </c>
-      <c r="X56">
-        <v>6</v>
-      </c>
-      <c r="Y56">
-        <v>1.11</v>
-      </c>
-      <c r="Z56">
-        <v>5.07</v>
-      </c>
-      <c r="AA56">
-        <v>4</v>
-      </c>
-      <c r="AB56">
-        <v>1.52</v>
-      </c>
-      <c r="AC56">
-        <v>1.02</v>
-      </c>
-      <c r="AD56">
-        <v>13</v>
-      </c>
-      <c r="AE56">
-        <v>1.2</v>
-      </c>
-      <c r="AF56">
-        <v>4.33</v>
-      </c>
-      <c r="AG56">
-        <v>1.76</v>
-      </c>
-      <c r="AH56">
-        <v>1.95</v>
-      </c>
-      <c r="AI56">
-        <v>2</v>
-      </c>
-      <c r="AJ56">
-        <v>1.73</v>
-      </c>
-      <c r="AK56">
-        <v>2.45</v>
-      </c>
-      <c r="AL56">
-        <v>1.19</v>
-      </c>
-      <c r="AM56">
-        <v>1.12</v>
-      </c>
-      <c r="AN56">
-        <v>0.6</v>
-      </c>
-      <c r="AO56">
-        <v>2.5</v>
-      </c>
-      <c r="AP56">
-        <v>0.5</v>
-      </c>
-      <c r="AQ56">
-        <v>2.6</v>
-      </c>
-      <c r="AR56">
-        <v>1.7</v>
-      </c>
-      <c r="AS56">
-        <v>1.68</v>
-      </c>
-      <c r="AT56">
-        <v>3.38</v>
-      </c>
-      <c r="AU56">
-        <v>2</v>
-      </c>
-      <c r="AV56">
-        <v>6</v>
-      </c>
-      <c r="AW56">
-        <v>5</v>
-      </c>
-      <c r="AX56">
-        <v>6</v>
-      </c>
-      <c r="AY56">
-        <v>7</v>
-      </c>
-      <c r="AZ56">
-        <v>12</v>
-      </c>
-      <c r="BA56">
-        <v>4</v>
-      </c>
-      <c r="BB56">
-        <v>6</v>
-      </c>
-      <c r="BC56">
-        <v>10</v>
-      </c>
-      <c r="BD56">
-        <v>4.1</v>
-      </c>
-      <c r="BE56">
-        <v>7.3</v>
-      </c>
-      <c r="BF56">
-        <v>1.39</v>
-      </c>
-      <c r="BG56">
-        <v>1.29</v>
-      </c>
-      <c r="BH56">
-        <v>3.3</v>
-      </c>
-      <c r="BI56">
-        <v>1.5</v>
-      </c>
-      <c r="BJ56">
-        <v>2.4</v>
-      </c>
-      <c r="BK56">
-        <v>1.8</v>
-      </c>
-      <c r="BL56">
-        <v>1.91</v>
-      </c>
-      <c r="BM56">
-        <v>2.25</v>
-      </c>
-      <c r="BN56">
-        <v>1.57</v>
-      </c>
-      <c r="BO56">
-        <v>2.9</v>
-      </c>
-      <c r="BP56">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:68">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>7469245</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="2">
-        <v>45563.4375</v>
-      </c>
-      <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="G57" t="s">
-        <v>74</v>
-      </c>
-      <c r="H57" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57">
-        <v>2</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>3</v>
-      </c>
-      <c r="L57">
-        <v>2</v>
-      </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-      <c r="N57">
-        <v>4</v>
-      </c>
-      <c r="O57" t="s">
-        <v>122</v>
-      </c>
-      <c r="P57" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q57">
-        <v>7</v>
-      </c>
-      <c r="R57">
-        <v>2.5</v>
-      </c>
-      <c r="S57">
-        <v>1.73</v>
-      </c>
-      <c r="T57">
-        <v>1.3</v>
-      </c>
-      <c r="U57">
-        <v>3.4</v>
-      </c>
-      <c r="V57">
-        <v>2.38</v>
-      </c>
-      <c r="W57">
-        <v>1.53</v>
-      </c>
-      <c r="X57">
-        <v>5</v>
-      </c>
-      <c r="Y57">
-        <v>1.14</v>
-      </c>
-      <c r="Z57">
-        <v>7.36</v>
-      </c>
-      <c r="AA57">
-        <v>5.5</v>
-      </c>
-      <c r="AB57">
-        <v>1.27</v>
-      </c>
-      <c r="AC57">
-        <v>1.01</v>
-      </c>
-      <c r="AD57">
-        <v>10</v>
-      </c>
-      <c r="AE57">
-        <v>1.2</v>
-      </c>
-      <c r="AF57">
-        <v>4.33</v>
-      </c>
-      <c r="AG57">
-        <v>1.57</v>
-      </c>
-      <c r="AH57">
-        <v>2.25</v>
-      </c>
-      <c r="AI57">
-        <v>2</v>
-      </c>
-      <c r="AJ57">
-        <v>1.73</v>
-      </c>
-      <c r="AK57">
-        <v>3.15</v>
-      </c>
-      <c r="AL57">
-        <v>1.12</v>
-      </c>
-      <c r="AM57">
-        <v>1.06</v>
-      </c>
-      <c r="AN57">
-        <v>0.25</v>
-      </c>
-      <c r="AO57">
-        <v>1.67</v>
-      </c>
-      <c r="AP57">
-        <v>0.4</v>
-      </c>
-      <c r="AQ57">
-        <v>1.5</v>
-      </c>
-      <c r="AR57">
-        <v>1.02</v>
-      </c>
-      <c r="AS57">
-        <v>1.07</v>
-      </c>
-      <c r="AT57">
-        <v>2.09</v>
-      </c>
-      <c r="AU57">
-        <v>4</v>
-      </c>
-      <c r="AV57">
-        <v>7</v>
-      </c>
-      <c r="AW57">
-        <v>4</v>
-      </c>
-      <c r="AX57">
-        <v>2</v>
-      </c>
-      <c r="AY57">
-        <v>8</v>
-      </c>
-      <c r="AZ57">
-        <v>9</v>
-      </c>
-      <c r="BA57">
-        <v>3</v>
-      </c>
-      <c r="BB57">
-        <v>4</v>
-      </c>
-      <c r="BC57">
-        <v>7</v>
-      </c>
-      <c r="BD57">
-        <v>0</v>
-      </c>
-      <c r="BE57">
-        <v>0</v>
-      </c>
-      <c r="BF57">
-        <v>0</v>
-      </c>
-      <c r="BG57">
-        <v>1.47</v>
-      </c>
-      <c r="BH57">
-        <v>2.45</v>
-      </c>
-      <c r="BI57">
-        <v>1.7</v>
-      </c>
-      <c r="BJ57">
-        <v>2.04</v>
-      </c>
-      <c r="BK57">
-        <v>2.05</v>
-      </c>
-      <c r="BL57">
-        <v>1.7</v>
-      </c>
-      <c r="BM57">
-        <v>0</v>
-      </c>
-      <c r="BN57">
-        <v>0</v>
-      </c>
-      <c r="BO57">
-        <v>0</v>
-      </c>
-      <c r="BP57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:68">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>7469242</v>
-      </c>
-      <c r="C58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" t="s">
-        <v>69</v>
-      </c>
-      <c r="E58" s="2">
-        <v>45563.55208333334</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>79</v>
-      </c>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>2</v>
-      </c>
-      <c r="L58">
-        <v>3</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>4</v>
-      </c>
-      <c r="O58" t="s">
-        <v>123</v>
-      </c>
-      <c r="P58" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q58">
-        <v>3.5</v>
-      </c>
-      <c r="R58">
-        <v>2.38</v>
-      </c>
-      <c r="S58">
-        <v>2.5</v>
-      </c>
-      <c r="T58">
-        <v>1.29</v>
-      </c>
-      <c r="U58">
-        <v>3.5</v>
-      </c>
-      <c r="V58">
-        <v>2.38</v>
-      </c>
-      <c r="W58">
-        <v>1.53</v>
-      </c>
-      <c r="X58">
-        <v>5</v>
-      </c>
-      <c r="Y58">
-        <v>1.14</v>
-      </c>
-      <c r="Z58">
-        <v>2.95</v>
-      </c>
-      <c r="AA58">
-        <v>3.5</v>
-      </c>
-      <c r="AB58">
-        <v>2.08</v>
-      </c>
-      <c r="AC58">
-        <v>1.03</v>
-      </c>
-      <c r="AD58">
-        <v>9</v>
-      </c>
-      <c r="AE58">
-        <v>1.18</v>
-      </c>
-      <c r="AF58">
-        <v>4.5</v>
-      </c>
-      <c r="AG58">
-        <v>1.58</v>
-      </c>
-      <c r="AH58">
-        <v>2.23</v>
-      </c>
-      <c r="AI58">
-        <v>1.53</v>
-      </c>
-      <c r="AJ58">
-        <v>2.38</v>
-      </c>
-      <c r="AK58">
-        <v>1.62</v>
-      </c>
-      <c r="AL58">
-        <v>1.22</v>
-      </c>
-      <c r="AM58">
-        <v>1.35</v>
-      </c>
-      <c r="AN58">
-        <v>1</v>
-      </c>
-      <c r="AO58">
-        <v>1.75</v>
-      </c>
-      <c r="AP58">
-        <v>1.4</v>
-      </c>
-      <c r="AQ58">
-        <v>1.4</v>
-      </c>
-      <c r="AR58">
-        <v>1.13</v>
-      </c>
-      <c r="AS58">
-        <v>1.89</v>
-      </c>
-      <c r="AT58">
-        <v>3.02</v>
-      </c>
-      <c r="AU58">
-        <v>7</v>
-      </c>
-      <c r="AV58">
-        <v>4</v>
-      </c>
-      <c r="AW58">
-        <v>4</v>
-      </c>
-      <c r="AX58">
-        <v>3</v>
-      </c>
-      <c r="AY58">
-        <v>11</v>
-      </c>
-      <c r="AZ58">
-        <v>7</v>
-      </c>
-      <c r="BA58">
-        <v>5</v>
-      </c>
-      <c r="BB58">
-        <v>2</v>
-      </c>
-      <c r="BC58">
-        <v>7</v>
-      </c>
-      <c r="BD58">
-        <v>2.16</v>
-      </c>
-      <c r="BE58">
-        <v>8.5</v>
-      </c>
-      <c r="BF58">
-        <v>1.86</v>
-      </c>
-      <c r="BG58">
-        <v>1.17</v>
-      </c>
-      <c r="BH58">
-        <v>4.5</v>
-      </c>
-      <c r="BI58">
-        <v>1.3</v>
-      </c>
-      <c r="BJ58">
-        <v>3.2</v>
-      </c>
-      <c r="BK58">
-        <v>1.5</v>
-      </c>
-      <c r="BL58">
-        <v>2.4</v>
-      </c>
-      <c r="BM58">
-        <v>1.8</v>
-      </c>
-      <c r="BN58">
-        <v>1.91</v>
-      </c>
-      <c r="BO58">
-        <v>2.25</v>
-      </c>
-      <c r="BP58">
-        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,33 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['6', '87']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['41', '45+2']</t>
+  </si>
+  <si>
+    <t>['18', '45+1', '56']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -376,9 +403,6 @@
     <t>['41', '45+3']</t>
   </si>
   <si>
-    <t>['55']</t>
-  </si>
-  <si>
     <t>['23', '30', '59', '69']</t>
   </si>
   <si>
@@ -397,9 +421,6 @@
     <t>['64']</t>
   </si>
   <si>
-    <t>['32']</t>
-  </si>
-  <si>
     <t>['10', '49']</t>
   </si>
   <si>
@@ -445,7 +466,28 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['12', '90+2', '90+8']</t>
+  </si>
+  <si>
+    <t>['22', '54']</t>
+  </si>
+  <si>
+    <t>['4', '86']</t>
+  </si>
+  <si>
+    <t>['10', '40', '63', '69', '80', '87']</t>
+  </si>
+  <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['3', '53']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1108,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1144,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1272,7 +1314,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1350,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1478,7 +1520,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1556,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1684,7 +1726,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1762,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ5">
         <v>2</v>
@@ -1890,7 +1932,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -1968,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ6">
         <v>2.6</v>
@@ -2177,7 +2219,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2508,7 +2550,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2586,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR9">
         <v>1.59</v>
@@ -2792,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2920,7 +2962,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -2998,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3126,7 +3168,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3204,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -3332,7 +3374,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3410,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR13">
         <v>2.12</v>
@@ -3538,7 +3580,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3616,10 +3658,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ14">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AR14">
         <v>0.82</v>
@@ -3822,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
         <v>2.6</v>
@@ -4234,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4440,10 +4482,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -4774,7 +4816,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -4852,10 +4894,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -4980,7 +5022,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -5058,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5186,7 +5228,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5264,10 +5306,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5470,10 +5512,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -5598,7 +5640,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5676,10 +5718,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -5804,7 +5846,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -5882,10 +5924,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.89</v>
@@ -6010,7 +6052,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6216,7 +6258,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6294,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6500,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6706,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR29">
         <v>1.93</v>
@@ -6834,7 +6876,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6912,10 +6954,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AQ30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7040,7 +7082,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7118,7 +7160,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7324,10 +7366,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR32">
         <v>2.16</v>
@@ -7452,7 +7494,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7533,7 +7575,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AR33">
         <v>1.47</v>
@@ -7658,7 +7700,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7736,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8070,7 +8112,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8148,10 +8190,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8276,7 +8318,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8354,10 +8396,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR37">
         <v>1.1</v>
@@ -8560,7 +8602,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ38">
         <v>2</v>
@@ -8766,7 +8808,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8972,7 +9014,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AQ40">
         <v>2.6</v>
@@ -9100,7 +9142,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9181,7 +9223,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9306,7 +9348,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9384,10 +9426,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9512,7 +9554,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9590,7 +9632,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -9718,7 +9760,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9799,7 +9841,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR44">
         <v>1.05</v>
@@ -10002,10 +10044,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10130,7 +10172,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10208,7 +10250,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10294,7 +10336,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7469246</v>
+        <v>7469235</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10303,49 +10345,49 @@
         <v>69</v>
       </c>
       <c r="E47" s="2">
-        <v>45562.875</v>
+        <v>45559.65625</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>1</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q47">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="R47">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S47">
-        <v>1.91</v>
+        <v>4.5</v>
       </c>
       <c r="T47">
         <v>1.33</v>
@@ -10354,10 +10396,10 @@
         <v>3.25</v>
       </c>
       <c r="V47">
-        <v>2.63</v>
+        <v>2.52</v>
       </c>
       <c r="W47">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X47">
         <v>6</v>
@@ -10366,133 +10408,2399 @@
         <v>1.11</v>
       </c>
       <c r="Z47">
-        <v>5.07</v>
+        <v>1.7</v>
       </c>
       <c r="AA47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AB47">
-        <v>1.52</v>
+        <v>4.2</v>
       </c>
       <c r="AC47">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE47">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF47">
         <v>4.33</v>
       </c>
       <c r="AG47">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AH47">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AI47">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AJ47">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AK47">
-        <v>2.45</v>
+        <v>1.18</v>
       </c>
       <c r="AL47">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AM47">
-        <v>1.12</v>
+        <v>1.97</v>
       </c>
       <c r="AN47">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP47">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="AQ47">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="AS47">
-        <v>1.68</v>
+        <v>0.97</v>
       </c>
       <c r="AT47">
-        <v>3.3</v>
+        <v>2.31</v>
       </c>
       <c r="AU47">
         <v>2</v>
       </c>
       <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
         <v>5</v>
       </c>
-      <c r="AW47">
-        <v>3</v>
-      </c>
       <c r="AX47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB47">
         <v>6</v>
       </c>
       <c r="BC47">
+        <v>13</v>
+      </c>
+      <c r="BD47">
+        <v>1.44</v>
+      </c>
+      <c r="BE47">
+        <v>7.5</v>
+      </c>
+      <c r="BF47">
+        <v>3.68</v>
+      </c>
+      <c r="BG47">
+        <v>0</v>
+      </c>
+      <c r="BH47">
+        <v>0</v>
+      </c>
+      <c r="BI47">
+        <v>1.32</v>
+      </c>
+      <c r="BJ47">
+        <v>3.1</v>
+      </c>
+      <c r="BK47">
+        <v>1.55</v>
+      </c>
+      <c r="BL47">
+        <v>2.3</v>
+      </c>
+      <c r="BM47">
+        <v>2.05</v>
+      </c>
+      <c r="BN47">
+        <v>1.7</v>
+      </c>
+      <c r="BO47">
+        <v>2.6</v>
+      </c>
+      <c r="BP47">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7469236</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45559.65625</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>116</v>
+      </c>
+      <c r="P48" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q48">
+        <v>2.5</v>
+      </c>
+      <c r="R48">
+        <v>2.1</v>
+      </c>
+      <c r="S48">
+        <v>4.33</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48">
+        <v>2.6</v>
+      </c>
+      <c r="V48">
+        <v>2.8</v>
+      </c>
+      <c r="W48">
+        <v>1.35</v>
+      </c>
+      <c r="X48">
+        <v>6.5</v>
+      </c>
+      <c r="Y48">
+        <v>1.07</v>
+      </c>
+      <c r="Z48">
+        <v>1.75</v>
+      </c>
+      <c r="AA48">
+        <v>3.2</v>
+      </c>
+      <c r="AB48">
+        <v>4.5</v>
+      </c>
+      <c r="AC48">
+        <v>1.06</v>
+      </c>
+      <c r="AD48">
+        <v>8.5</v>
+      </c>
+      <c r="AE48">
+        <v>1.33</v>
+      </c>
+      <c r="AF48">
+        <v>3.25</v>
+      </c>
+      <c r="AG48">
+        <v>2</v>
+      </c>
+      <c r="AH48">
+        <v>1.7</v>
+      </c>
+      <c r="AI48">
+        <v>1.8</v>
+      </c>
+      <c r="AJ48">
+        <v>1.91</v>
+      </c>
+      <c r="AK48">
+        <v>1.16</v>
+      </c>
+      <c r="AL48">
+        <v>1.28</v>
+      </c>
+      <c r="AM48">
+        <v>1.77</v>
+      </c>
+      <c r="AN48">
+        <v>1.33</v>
+      </c>
+      <c r="AO48">
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>1.6</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1.21</v>
+      </c>
+      <c r="AS48">
+        <v>1.6</v>
+      </c>
+      <c r="AT48">
+        <v>2.81</v>
+      </c>
+      <c r="AU48">
+        <v>2</v>
+      </c>
+      <c r="AV48">
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>2</v>
+      </c>
+      <c r="AZ48">
+        <v>2</v>
+      </c>
+      <c r="BA48">
+        <v>12</v>
+      </c>
+      <c r="BB48">
+        <v>0</v>
+      </c>
+      <c r="BC48">
+        <v>12</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+      <c r="BG48">
+        <v>1.29</v>
+      </c>
+      <c r="BH48">
+        <v>3.3</v>
+      </c>
+      <c r="BI48">
+        <v>1.5</v>
+      </c>
+      <c r="BJ48">
+        <v>2.4</v>
+      </c>
+      <c r="BK48">
+        <v>1.8</v>
+      </c>
+      <c r="BL48">
+        <v>1.91</v>
+      </c>
+      <c r="BM48">
+        <v>2.25</v>
+      </c>
+      <c r="BN48">
+        <v>1.57</v>
+      </c>
+      <c r="BO48">
+        <v>2.9</v>
+      </c>
+      <c r="BP48">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7469237</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45559.65625</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P49" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q49">
+        <v>1.44</v>
+      </c>
+      <c r="R49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>11</v>
+      </c>
+      <c r="T49">
+        <v>1.22</v>
+      </c>
+      <c r="U49">
+        <v>3.7</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>1.67</v>
+      </c>
+      <c r="X49">
+        <v>4.1</v>
+      </c>
+      <c r="Y49">
+        <v>1.18</v>
+      </c>
+      <c r="Z49">
+        <v>1.12</v>
+      </c>
+      <c r="AA49">
+        <v>7.5</v>
+      </c>
+      <c r="AB49">
+        <v>13</v>
+      </c>
+      <c r="AC49">
+        <v>1.01</v>
+      </c>
+      <c r="AD49">
+        <v>11</v>
+      </c>
+      <c r="AE49">
+        <v>1.1</v>
+      </c>
+      <c r="AF49">
+        <v>6.5</v>
+      </c>
+      <c r="AG49">
+        <v>1.4</v>
+      </c>
+      <c r="AH49">
+        <v>2.75</v>
+      </c>
+      <c r="AI49">
+        <v>2.2</v>
+      </c>
+      <c r="AJ49">
+        <v>1.62</v>
+      </c>
+      <c r="AK49">
+        <v>1.03</v>
+      </c>
+      <c r="AL49">
+        <v>1.05</v>
+      </c>
+      <c r="AM49">
+        <v>6.2</v>
+      </c>
+      <c r="AN49">
+        <v>2.5</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>2</v>
+      </c>
+      <c r="AQ49">
+        <v>0.75</v>
+      </c>
+      <c r="AR49">
+        <v>2.19</v>
+      </c>
+      <c r="AS49">
+        <v>1.08</v>
+      </c>
+      <c r="AT49">
+        <v>3.27</v>
+      </c>
+      <c r="AU49">
+        <v>5</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>3</v>
+      </c>
+      <c r="AX49">
+        <v>9</v>
+      </c>
+      <c r="AY49">
+        <v>8</v>
+      </c>
+      <c r="AZ49">
+        <v>14</v>
+      </c>
+      <c r="BA49">
         <v>10</v>
       </c>
-      <c r="BD47">
+      <c r="BB49">
+        <v>3</v>
+      </c>
+      <c r="BC49">
+        <v>13</v>
+      </c>
+      <c r="BD49">
+        <v>1.06</v>
+      </c>
+      <c r="BE49">
+        <v>14</v>
+      </c>
+      <c r="BF49">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BG49">
+        <v>1.31</v>
+      </c>
+      <c r="BH49">
+        <v>3.1</v>
+      </c>
+      <c r="BI49">
+        <v>1.54</v>
+      </c>
+      <c r="BJ49">
+        <v>2.3</v>
+      </c>
+      <c r="BK49">
+        <v>1.9</v>
+      </c>
+      <c r="BL49">
+        <v>1.8</v>
+      </c>
+      <c r="BM49">
+        <v>2.4</v>
+      </c>
+      <c r="BN49">
+        <v>1.5</v>
+      </c>
+      <c r="BO49">
+        <v>3.2</v>
+      </c>
+      <c r="BP49">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7469238</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45559.65625</v>
+      </c>
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q50">
+        <v>1.67</v>
+      </c>
+      <c r="R50">
+        <v>2.5</v>
+      </c>
+      <c r="S50">
+        <v>9</v>
+      </c>
+      <c r="T50">
+        <v>1.32</v>
+      </c>
+      <c r="U50">
+        <v>3.2</v>
+      </c>
+      <c r="V50">
+        <v>2.54</v>
+      </c>
+      <c r="W50">
+        <v>1.48</v>
+      </c>
+      <c r="X50">
+        <v>5.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>1.26</v>
+      </c>
+      <c r="AA50">
+        <v>5.49</v>
+      </c>
+      <c r="AB50">
+        <v>9.92</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>13</v>
+      </c>
+      <c r="AE50">
+        <v>1.22</v>
+      </c>
+      <c r="AF50">
+        <v>4.2</v>
+      </c>
+      <c r="AG50">
+        <v>1.67</v>
+      </c>
+      <c r="AH50">
+        <v>2.05</v>
+      </c>
+      <c r="AI50">
+        <v>2.25</v>
+      </c>
+      <c r="AJ50">
+        <v>1.57</v>
+      </c>
+      <c r="AK50">
+        <v>1.06</v>
+      </c>
+      <c r="AL50">
+        <v>1.07</v>
+      </c>
+      <c r="AM50">
+        <v>3.2</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>1</v>
+      </c>
+      <c r="AP50">
+        <v>2</v>
+      </c>
+      <c r="AQ50">
+        <v>1.5</v>
+      </c>
+      <c r="AR50">
+        <v>3.27</v>
+      </c>
+      <c r="AS50">
+        <v>1.07</v>
+      </c>
+      <c r="AT50">
+        <v>4.34</v>
+      </c>
+      <c r="AU50">
+        <v>9</v>
+      </c>
+      <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>13</v>
+      </c>
+      <c r="AX50">
+        <v>4</v>
+      </c>
+      <c r="AY50">
+        <v>22</v>
+      </c>
+      <c r="AZ50">
+        <v>8</v>
+      </c>
+      <c r="BA50">
+        <v>8</v>
+      </c>
+      <c r="BB50">
+        <v>1</v>
+      </c>
+      <c r="BC50">
+        <v>9</v>
+      </c>
+      <c r="BD50">
+        <v>1.1</v>
+      </c>
+      <c r="BE50">
+        <v>12</v>
+      </c>
+      <c r="BF50">
+        <v>9.25</v>
+      </c>
+      <c r="BG50">
+        <v>0</v>
+      </c>
+      <c r="BH50">
+        <v>0</v>
+      </c>
+      <c r="BI50">
+        <v>1.43</v>
+      </c>
+      <c r="BJ50">
+        <v>2.6</v>
+      </c>
+      <c r="BK50">
+        <v>1.72</v>
+      </c>
+      <c r="BL50">
+        <v>2</v>
+      </c>
+      <c r="BM50">
+        <v>2.15</v>
+      </c>
+      <c r="BN50">
+        <v>1.62</v>
+      </c>
+      <c r="BO50">
+        <v>2.7</v>
+      </c>
+      <c r="BP50">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7469239</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45559.66666666666</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q51">
+        <v>6</v>
+      </c>
+      <c r="R51">
+        <v>2.1</v>
+      </c>
+      <c r="S51">
+        <v>2.1</v>
+      </c>
+      <c r="T51">
+        <v>1.37</v>
+      </c>
+      <c r="U51">
+        <v>2.75</v>
+      </c>
+      <c r="V51">
+        <v>2.75</v>
+      </c>
+      <c r="W51">
+        <v>1.37</v>
+      </c>
+      <c r="X51">
+        <v>6.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.07</v>
+      </c>
+      <c r="Z51">
+        <v>5.9</v>
+      </c>
+      <c r="AA51">
+        <v>3.9</v>
+      </c>
+      <c r="AB51">
+        <v>1.44</v>
+      </c>
+      <c r="AC51">
+        <v>1.05</v>
+      </c>
+      <c r="AD51">
+        <v>7.8</v>
+      </c>
+      <c r="AE51">
+        <v>1.28</v>
+      </c>
+      <c r="AF51">
+        <v>3.3</v>
+      </c>
+      <c r="AG51">
+        <v>1.9</v>
+      </c>
+      <c r="AH51">
+        <v>1.8</v>
+      </c>
+      <c r="AI51">
+        <v>2.1</v>
+      </c>
+      <c r="AJ51">
+        <v>1.67</v>
+      </c>
+      <c r="AK51">
+        <v>2.2</v>
+      </c>
+      <c r="AL51">
+        <v>1.22</v>
+      </c>
+      <c r="AM51">
+        <v>1.07</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>2.4</v>
+      </c>
+      <c r="AP51">
+        <v>0.8</v>
+      </c>
+      <c r="AQ51">
+        <v>2.14</v>
+      </c>
+      <c r="AR51">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS51">
+        <v>1.4</v>
+      </c>
+      <c r="AT51">
+        <v>2.34</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>9</v>
+      </c>
+      <c r="AW51">
+        <v>4</v>
+      </c>
+      <c r="AX51">
+        <v>4</v>
+      </c>
+      <c r="AY51">
+        <v>7</v>
+      </c>
+      <c r="AZ51">
+        <v>13</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>2</v>
+      </c>
+      <c r="BD51">
+        <v>3.9</v>
+      </c>
+      <c r="BE51">
+        <v>9.1</v>
+      </c>
+      <c r="BF51">
+        <v>1.33</v>
+      </c>
+      <c r="BG51">
+        <v>1.36</v>
+      </c>
+      <c r="BH51">
+        <v>2.88</v>
+      </c>
+      <c r="BI51">
+        <v>1.62</v>
+      </c>
+      <c r="BJ51">
+        <v>2.2</v>
+      </c>
+      <c r="BK51">
+        <v>2</v>
+      </c>
+      <c r="BL51">
+        <v>1.73</v>
+      </c>
+      <c r="BM51">
+        <v>2.5</v>
+      </c>
+      <c r="BN51">
+        <v>1.48</v>
+      </c>
+      <c r="BO51">
+        <v>3.3</v>
+      </c>
+      <c r="BP51">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7469240</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45560.65625</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>2.38</v>
+      </c>
+      <c r="S52">
+        <v>2.75</v>
+      </c>
+      <c r="T52">
+        <v>1.25</v>
+      </c>
+      <c r="U52">
+        <v>3.25</v>
+      </c>
+      <c r="V52">
+        <v>2.25</v>
+      </c>
+      <c r="W52">
+        <v>1.57</v>
+      </c>
+      <c r="X52">
+        <v>5.5</v>
+      </c>
+      <c r="Y52">
+        <v>1.13</v>
+      </c>
+      <c r="Z52">
+        <v>2.75</v>
+      </c>
+      <c r="AA52">
+        <v>3.45</v>
+      </c>
+      <c r="AB52">
+        <v>2.2</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>15</v>
+      </c>
+      <c r="AE52">
+        <v>1.17</v>
+      </c>
+      <c r="AF52">
+        <v>5</v>
+      </c>
+      <c r="AG52">
+        <v>1.55</v>
+      </c>
+      <c r="AH52">
+        <v>2.2</v>
+      </c>
+      <c r="AI52">
+        <v>1.44</v>
+      </c>
+      <c r="AJ52">
+        <v>2.63</v>
+      </c>
+      <c r="AK52">
+        <v>1.57</v>
+      </c>
+      <c r="AL52">
+        <v>1.29</v>
+      </c>
+      <c r="AM52">
+        <v>1.4</v>
+      </c>
+      <c r="AN52">
+        <v>0.75</v>
+      </c>
+      <c r="AO52">
+        <v>1.33</v>
+      </c>
+      <c r="AP52">
+        <v>0.5</v>
+      </c>
+      <c r="AQ52">
+        <v>1.75</v>
+      </c>
+      <c r="AR52">
+        <v>1.62</v>
+      </c>
+      <c r="AS52">
+        <v>1.32</v>
+      </c>
+      <c r="AT52">
+        <v>2.94</v>
+      </c>
+      <c r="AU52">
+        <v>8</v>
+      </c>
+      <c r="AV52">
+        <v>7</v>
+      </c>
+      <c r="AW52">
+        <v>8</v>
+      </c>
+      <c r="AX52">
+        <v>5</v>
+      </c>
+      <c r="AY52">
+        <v>16</v>
+      </c>
+      <c r="AZ52">
+        <v>12</v>
+      </c>
+      <c r="BA52">
+        <v>10</v>
+      </c>
+      <c r="BB52">
+        <v>6</v>
+      </c>
+      <c r="BC52">
+        <v>16</v>
+      </c>
+      <c r="BD52">
+        <v>2.13</v>
+      </c>
+      <c r="BE52">
+        <v>6.8</v>
+      </c>
+      <c r="BF52">
+        <v>2.02</v>
+      </c>
+      <c r="BG52">
+        <v>1.22</v>
+      </c>
+      <c r="BH52">
+        <v>3.8</v>
+      </c>
+      <c r="BI52">
+        <v>1.38</v>
+      </c>
+      <c r="BJ52">
+        <v>2.8</v>
+      </c>
+      <c r="BK52">
+        <v>1.63</v>
+      </c>
+      <c r="BL52">
+        <v>2.16</v>
+      </c>
+      <c r="BM52">
+        <v>2.02</v>
+      </c>
+      <c r="BN52">
+        <v>1.74</v>
+      </c>
+      <c r="BO52">
+        <v>2.5</v>
+      </c>
+      <c r="BP52">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7469244</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>120</v>
+      </c>
+      <c r="P53" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q53">
+        <v>2.75</v>
+      </c>
+      <c r="R53">
+        <v>2.05</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>1.5</v>
+      </c>
+      <c r="U53">
+        <v>2.5</v>
+      </c>
+      <c r="V53">
+        <v>3.2</v>
+      </c>
+      <c r="W53">
+        <v>1.3</v>
+      </c>
+      <c r="X53">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>1.06</v>
+      </c>
+      <c r="Z53">
+        <v>2.17</v>
+      </c>
+      <c r="AA53">
+        <v>3.2</v>
+      </c>
+      <c r="AB53">
+        <v>3.23</v>
+      </c>
+      <c r="AC53">
+        <v>1.02</v>
+      </c>
+      <c r="AD53">
+        <v>7.1</v>
+      </c>
+      <c r="AE53">
+        <v>1.38</v>
+      </c>
+      <c r="AF53">
+        <v>2.8</v>
+      </c>
+      <c r="AG53">
+        <v>2.19</v>
+      </c>
+      <c r="AH53">
+        <v>1.6</v>
+      </c>
+      <c r="AI53">
+        <v>1.91</v>
+      </c>
+      <c r="AJ53">
+        <v>1.8</v>
+      </c>
+      <c r="AK53">
+        <v>1.3</v>
+      </c>
+      <c r="AL53">
+        <v>1.3</v>
+      </c>
+      <c r="AM53">
+        <v>1.7</v>
+      </c>
+      <c r="AN53">
+        <v>1.25</v>
+      </c>
+      <c r="AO53">
+        <v>2.5</v>
+      </c>
+      <c r="AP53">
+        <v>1.6</v>
+      </c>
+      <c r="AQ53">
+        <v>2.14</v>
+      </c>
+      <c r="AR53">
+        <v>1.17</v>
+      </c>
+      <c r="AS53">
+        <v>1.49</v>
+      </c>
+      <c r="AT53">
+        <v>2.66</v>
+      </c>
+      <c r="AU53">
+        <v>6</v>
+      </c>
+      <c r="AV53">
+        <v>2</v>
+      </c>
+      <c r="AW53">
+        <v>6</v>
+      </c>
+      <c r="AX53">
+        <v>8</v>
+      </c>
+      <c r="AY53">
+        <v>12</v>
+      </c>
+      <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>4</v>
+      </c>
+      <c r="BB53">
+        <v>4</v>
+      </c>
+      <c r="BC53">
+        <v>8</v>
+      </c>
+      <c r="BD53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>0</v>
+      </c>
+      <c r="BF53">
+        <v>0</v>
+      </c>
+      <c r="BG53">
+        <v>1.5</v>
+      </c>
+      <c r="BH53">
+        <v>2.4</v>
+      </c>
+      <c r="BI53">
+        <v>1.85</v>
+      </c>
+      <c r="BJ53">
+        <v>1.85</v>
+      </c>
+      <c r="BK53">
+        <v>2.3</v>
+      </c>
+      <c r="BL53">
+        <v>1.55</v>
+      </c>
+      <c r="BM53">
+        <v>3</v>
+      </c>
+      <c r="BN53">
+        <v>1.33</v>
+      </c>
+      <c r="BO53">
+        <v>4</v>
+      </c>
+      <c r="BP53">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7469241</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" t="s">
+        <v>78</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P54" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q54">
+        <v>1.95</v>
+      </c>
+      <c r="R54">
+        <v>2.31</v>
+      </c>
+      <c r="S54">
+        <v>6</v>
+      </c>
+      <c r="T54">
+        <v>1.33</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>2.57</v>
+      </c>
+      <c r="W54">
+        <v>1.47</v>
+      </c>
+      <c r="X54">
+        <v>6</v>
+      </c>
+      <c r="Y54">
+        <v>1.11</v>
+      </c>
+      <c r="Z54">
+        <v>1.48</v>
+      </c>
+      <c r="AA54">
+        <v>4.15</v>
+      </c>
+      <c r="AB54">
+        <v>6.04</v>
+      </c>
+      <c r="AC54">
+        <v>1.03</v>
+      </c>
+      <c r="AD54">
+        <v>9</v>
+      </c>
+      <c r="AE54">
+        <v>1.25</v>
+      </c>
+      <c r="AF54">
+        <v>3.8</v>
+      </c>
+      <c r="AG54">
+        <v>1.65</v>
+      </c>
+      <c r="AH54">
+        <v>2.11</v>
+      </c>
+      <c r="AI54">
+        <v>1.91</v>
+      </c>
+      <c r="AJ54">
+        <v>1.8</v>
+      </c>
+      <c r="AK54">
+        <v>1.14</v>
+      </c>
+      <c r="AL54">
+        <v>1.2</v>
+      </c>
+      <c r="AM54">
+        <v>2.25</v>
+      </c>
+      <c r="AN54">
+        <v>1.25</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1.6</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>1.67</v>
+      </c>
+      <c r="AS54">
+        <v>0.72</v>
+      </c>
+      <c r="AT54">
+        <v>2.39</v>
+      </c>
+      <c r="AU54">
+        <v>8</v>
+      </c>
+      <c r="AV54">
+        <v>3</v>
+      </c>
+      <c r="AW54">
+        <v>8</v>
+      </c>
+      <c r="AX54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>16</v>
+      </c>
+      <c r="AZ54">
+        <v>4</v>
+      </c>
+      <c r="BA54">
+        <v>11</v>
+      </c>
+      <c r="BB54">
+        <v>5</v>
+      </c>
+      <c r="BC54">
+        <v>16</v>
+      </c>
+      <c r="BD54">
+        <v>1.24</v>
+      </c>
+      <c r="BE54">
+        <v>8.9</v>
+      </c>
+      <c r="BF54">
+        <v>5.53</v>
+      </c>
+      <c r="BG54">
+        <v>1.2</v>
+      </c>
+      <c r="BH54">
+        <v>4</v>
+      </c>
+      <c r="BI54">
+        <v>1.33</v>
+      </c>
+      <c r="BJ54">
+        <v>3</v>
+      </c>
+      <c r="BK54">
+        <v>1.56</v>
+      </c>
+      <c r="BL54">
+        <v>2.26</v>
+      </c>
+      <c r="BM54">
+        <v>1.9</v>
+      </c>
+      <c r="BN54">
+        <v>1.79</v>
+      </c>
+      <c r="BO54">
+        <v>2.4</v>
+      </c>
+      <c r="BP54">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7469243</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45562.65625</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>7</v>
+      </c>
+      <c r="O55" t="s">
+        <v>114</v>
+      </c>
+      <c r="P55" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q55">
+        <v>9.5</v>
+      </c>
+      <c r="R55">
+        <v>2.75</v>
+      </c>
+      <c r="S55">
+        <v>1.53</v>
+      </c>
+      <c r="T55">
+        <v>1.25</v>
+      </c>
+      <c r="U55">
+        <v>3.75</v>
+      </c>
+      <c r="V55">
+        <v>2.1</v>
+      </c>
+      <c r="W55">
+        <v>1.67</v>
+      </c>
+      <c r="X55">
+        <v>4.5</v>
+      </c>
+      <c r="Y55">
+        <v>1.17</v>
+      </c>
+      <c r="Z55">
+        <v>11.49</v>
+      </c>
+      <c r="AA55">
+        <v>6.94</v>
+      </c>
+      <c r="AB55">
+        <v>1.18</v>
+      </c>
+      <c r="AC55">
+        <v>1.01</v>
+      </c>
+      <c r="AD55">
+        <v>17</v>
+      </c>
+      <c r="AE55">
+        <v>1.1</v>
+      </c>
+      <c r="AF55">
+        <v>5.7</v>
+      </c>
+      <c r="AG55">
+        <v>1.5</v>
+      </c>
+      <c r="AH55">
+        <v>2.5</v>
+      </c>
+      <c r="AI55">
+        <v>2.2</v>
+      </c>
+      <c r="AJ55">
+        <v>1.62</v>
+      </c>
+      <c r="AK55">
+        <v>3.7</v>
+      </c>
+      <c r="AL55">
+        <v>1.09</v>
+      </c>
+      <c r="AM55">
+        <v>1.02</v>
+      </c>
+      <c r="AN55">
+        <v>2.25</v>
+      </c>
+      <c r="AO55">
+        <v>2</v>
+      </c>
+      <c r="AP55">
+        <v>1.8</v>
+      </c>
+      <c r="AQ55">
+        <v>2.25</v>
+      </c>
+      <c r="AR55">
+        <v>1.83</v>
+      </c>
+      <c r="AS55">
+        <v>1.88</v>
+      </c>
+      <c r="AT55">
+        <v>3.71</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AV55">
+        <v>11</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>4</v>
+      </c>
+      <c r="AY55">
+        <v>8</v>
+      </c>
+      <c r="AZ55">
+        <v>15</v>
+      </c>
+      <c r="BA55">
+        <v>3</v>
+      </c>
+      <c r="BB55">
+        <v>6</v>
+      </c>
+      <c r="BC55">
+        <v>9</v>
+      </c>
+      <c r="BD55">
+        <v>0</v>
+      </c>
+      <c r="BE55">
+        <v>0</v>
+      </c>
+      <c r="BF55">
+        <v>0</v>
+      </c>
+      <c r="BG55">
+        <v>1.22</v>
+      </c>
+      <c r="BH55">
+        <v>3.8</v>
+      </c>
+      <c r="BI55">
+        <v>1.42</v>
+      </c>
+      <c r="BJ55">
+        <v>2.76</v>
+      </c>
+      <c r="BK55">
+        <v>1.63</v>
+      </c>
+      <c r="BL55">
+        <v>2.15</v>
+      </c>
+      <c r="BM55">
+        <v>1.98</v>
+      </c>
+      <c r="BN55">
+        <v>1.75</v>
+      </c>
+      <c r="BO55">
+        <v>2.86</v>
+      </c>
+      <c r="BP55">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7469246</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45562.875</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P56" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q56">
+        <v>6.5</v>
+      </c>
+      <c r="R56">
+        <v>2.38</v>
+      </c>
+      <c r="S56">
+        <v>1.91</v>
+      </c>
+      <c r="T56">
+        <v>1.33</v>
+      </c>
+      <c r="U56">
+        <v>3.25</v>
+      </c>
+      <c r="V56">
+        <v>2.63</v>
+      </c>
+      <c r="W56">
+        <v>1.44</v>
+      </c>
+      <c r="X56">
+        <v>6</v>
+      </c>
+      <c r="Y56">
+        <v>1.11</v>
+      </c>
+      <c r="Z56">
+        <v>5.07</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AB56">
+        <v>1.52</v>
+      </c>
+      <c r="AC56">
+        <v>1.02</v>
+      </c>
+      <c r="AD56">
+        <v>13</v>
+      </c>
+      <c r="AE56">
+        <v>1.2</v>
+      </c>
+      <c r="AF56">
+        <v>4.33</v>
+      </c>
+      <c r="AG56">
+        <v>1.76</v>
+      </c>
+      <c r="AH56">
+        <v>1.95</v>
+      </c>
+      <c r="AI56">
+        <v>2</v>
+      </c>
+      <c r="AJ56">
+        <v>1.73</v>
+      </c>
+      <c r="AK56">
+        <v>2.45</v>
+      </c>
+      <c r="AL56">
+        <v>1.19</v>
+      </c>
+      <c r="AM56">
+        <v>1.12</v>
+      </c>
+      <c r="AN56">
+        <v>0.6</v>
+      </c>
+      <c r="AO56">
+        <v>2.5</v>
+      </c>
+      <c r="AP56">
+        <v>0.5</v>
+      </c>
+      <c r="AQ56">
+        <v>2.6</v>
+      </c>
+      <c r="AR56">
+        <v>1.7</v>
+      </c>
+      <c r="AS56">
+        <v>1.68</v>
+      </c>
+      <c r="AT56">
+        <v>3.38</v>
+      </c>
+      <c r="AU56">
+        <v>2</v>
+      </c>
+      <c r="AV56">
+        <v>5</v>
+      </c>
+      <c r="AW56">
+        <v>3</v>
+      </c>
+      <c r="AX56">
+        <v>5</v>
+      </c>
+      <c r="AY56">
+        <v>5</v>
+      </c>
+      <c r="AZ56">
+        <v>10</v>
+      </c>
+      <c r="BA56">
+        <v>4</v>
+      </c>
+      <c r="BB56">
+        <v>6</v>
+      </c>
+      <c r="BC56">
+        <v>10</v>
+      </c>
+      <c r="BD56">
         <v>4.1</v>
       </c>
-      <c r="BE47">
+      <c r="BE56">
         <v>7.3</v>
       </c>
-      <c r="BF47">
+      <c r="BF56">
         <v>1.39</v>
       </c>
-      <c r="BG47">
+      <c r="BG56">
         <v>1.29</v>
       </c>
-      <c r="BH47">
+      <c r="BH56">
         <v>3.3</v>
       </c>
-      <c r="BI47">
+      <c r="BI56">
         <v>1.5</v>
       </c>
-      <c r="BJ47">
+      <c r="BJ56">
         <v>2.4</v>
       </c>
-      <c r="BK47">
+      <c r="BK56">
         <v>1.8</v>
       </c>
-      <c r="BL47">
+      <c r="BL56">
         <v>1.91</v>
       </c>
-      <c r="BM47">
+      <c r="BM56">
         <v>2.25</v>
       </c>
-      <c r="BN47">
+      <c r="BN56">
         <v>1.57</v>
       </c>
-      <c r="BO47">
+      <c r="BO56">
         <v>2.9</v>
       </c>
-      <c r="BP47">
+      <c r="BP56">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7469245</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45563.4375</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>122</v>
+      </c>
+      <c r="P57" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q57">
+        <v>7</v>
+      </c>
+      <c r="R57">
+        <v>2.5</v>
+      </c>
+      <c r="S57">
+        <v>1.73</v>
+      </c>
+      <c r="T57">
+        <v>1.3</v>
+      </c>
+      <c r="U57">
+        <v>3.4</v>
+      </c>
+      <c r="V57">
+        <v>2.38</v>
+      </c>
+      <c r="W57">
+        <v>1.53</v>
+      </c>
+      <c r="X57">
+        <v>5</v>
+      </c>
+      <c r="Y57">
+        <v>1.14</v>
+      </c>
+      <c r="Z57">
+        <v>7.36</v>
+      </c>
+      <c r="AA57">
+        <v>5.5</v>
+      </c>
+      <c r="AB57">
+        <v>1.27</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>10</v>
+      </c>
+      <c r="AE57">
+        <v>1.2</v>
+      </c>
+      <c r="AF57">
+        <v>4.33</v>
+      </c>
+      <c r="AG57">
+        <v>1.57</v>
+      </c>
+      <c r="AH57">
+        <v>2.25</v>
+      </c>
+      <c r="AI57">
+        <v>2</v>
+      </c>
+      <c r="AJ57">
+        <v>1.73</v>
+      </c>
+      <c r="AK57">
+        <v>3.15</v>
+      </c>
+      <c r="AL57">
+        <v>1.12</v>
+      </c>
+      <c r="AM57">
+        <v>1.06</v>
+      </c>
+      <c r="AN57">
+        <v>0.25</v>
+      </c>
+      <c r="AO57">
+        <v>1.67</v>
+      </c>
+      <c r="AP57">
+        <v>0.4</v>
+      </c>
+      <c r="AQ57">
+        <v>1.5</v>
+      </c>
+      <c r="AR57">
+        <v>1.02</v>
+      </c>
+      <c r="AS57">
+        <v>1.11</v>
+      </c>
+      <c r="AT57">
+        <v>2.13</v>
+      </c>
+      <c r="AU57">
+        <v>4</v>
+      </c>
+      <c r="AV57">
+        <v>7</v>
+      </c>
+      <c r="AW57">
+        <v>4</v>
+      </c>
+      <c r="AX57">
+        <v>2</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>3</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>7</v>
+      </c>
+      <c r="BD57">
+        <v>0</v>
+      </c>
+      <c r="BE57">
+        <v>0</v>
+      </c>
+      <c r="BF57">
+        <v>0</v>
+      </c>
+      <c r="BG57">
+        <v>1.47</v>
+      </c>
+      <c r="BH57">
+        <v>2.45</v>
+      </c>
+      <c r="BI57">
+        <v>1.7</v>
+      </c>
+      <c r="BJ57">
+        <v>2.04</v>
+      </c>
+      <c r="BK57">
+        <v>2.05</v>
+      </c>
+      <c r="BL57">
+        <v>1.7</v>
+      </c>
+      <c r="BM57">
+        <v>0</v>
+      </c>
+      <c r="BN57">
+        <v>0</v>
+      </c>
+      <c r="BO57">
+        <v>0</v>
+      </c>
+      <c r="BP57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7469242</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45563.55208333334</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>123</v>
+      </c>
+      <c r="P58" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q58">
+        <v>3.5</v>
+      </c>
+      <c r="R58">
+        <v>2.38</v>
+      </c>
+      <c r="S58">
+        <v>2.5</v>
+      </c>
+      <c r="T58">
+        <v>1.29</v>
+      </c>
+      <c r="U58">
+        <v>3.5</v>
+      </c>
+      <c r="V58">
+        <v>2.38</v>
+      </c>
+      <c r="W58">
+        <v>1.53</v>
+      </c>
+      <c r="X58">
+        <v>5</v>
+      </c>
+      <c r="Y58">
+        <v>1.14</v>
+      </c>
+      <c r="Z58">
+        <v>2.95</v>
+      </c>
+      <c r="AA58">
+        <v>3.5</v>
+      </c>
+      <c r="AB58">
+        <v>2.08</v>
+      </c>
+      <c r="AC58">
+        <v>1.03</v>
+      </c>
+      <c r="AD58">
+        <v>9</v>
+      </c>
+      <c r="AE58">
+        <v>1.18</v>
+      </c>
+      <c r="AF58">
+        <v>4.5</v>
+      </c>
+      <c r="AG58">
+        <v>1.58</v>
+      </c>
+      <c r="AH58">
+        <v>2.23</v>
+      </c>
+      <c r="AI58">
+        <v>1.53</v>
+      </c>
+      <c r="AJ58">
+        <v>2.38</v>
+      </c>
+      <c r="AK58">
+        <v>1.62</v>
+      </c>
+      <c r="AL58">
+        <v>1.22</v>
+      </c>
+      <c r="AM58">
+        <v>1.35</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>1.75</v>
+      </c>
+      <c r="AP58">
+        <v>1.4</v>
+      </c>
+      <c r="AQ58">
+        <v>1.4</v>
+      </c>
+      <c r="AR58">
+        <v>1.13</v>
+      </c>
+      <c r="AS58">
+        <v>1.89</v>
+      </c>
+      <c r="AT58">
+        <v>3.02</v>
+      </c>
+      <c r="AU58">
+        <v>7</v>
+      </c>
+      <c r="AV58">
+        <v>4</v>
+      </c>
+      <c r="AW58">
+        <v>4</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>11</v>
+      </c>
+      <c r="AZ58">
+        <v>7</v>
+      </c>
+      <c r="BA58">
+        <v>5</v>
+      </c>
+      <c r="BB58">
+        <v>2</v>
+      </c>
+      <c r="BC58">
+        <v>7</v>
+      </c>
+      <c r="BD58">
+        <v>2.16</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>1.86</v>
+      </c>
+      <c r="BG58">
+        <v>1.17</v>
+      </c>
+      <c r="BH58">
+        <v>4.5</v>
+      </c>
+      <c r="BI58">
+        <v>1.3</v>
+      </c>
+      <c r="BJ58">
+        <v>3.2</v>
+      </c>
+      <c r="BK58">
+        <v>1.5</v>
+      </c>
+      <c r="BL58">
+        <v>2.4</v>
+      </c>
+      <c r="BM58">
+        <v>1.8</v>
+      </c>
+      <c r="BN58">
+        <v>1.91</v>
+      </c>
+      <c r="BO58">
+        <v>2.25</v>
+      </c>
+      <c r="BP58">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,15 @@
     <t>['18', '45+1', '56']</t>
   </si>
   <si>
+    <t>['33', '44', '83']</t>
+  </si>
+  <si>
+    <t>['43', '77']</t>
+  </si>
+  <si>
+    <t>['52', '78', '82', '85']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -488,6 +497,15 @@
   </si>
   <si>
     <t>['3', '53']</t>
+  </si>
+  <si>
+    <t>['9', '17', '58', '88']</t>
+  </si>
+  <si>
+    <t>['52', '83']</t>
+  </si>
+  <si>
+    <t>['38', '56']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1126,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1186,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1314,7 +1332,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1520,7 +1538,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1726,7 +1744,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1804,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1932,7 +1950,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2216,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7">
         <v>0.75</v>
@@ -2422,10 +2440,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2550,7 +2568,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2834,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10">
         <v>1.2</v>
@@ -2962,7 +2980,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3168,7 +3186,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3249,7 +3267,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3374,7 +3392,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3452,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>2.12</v>
@@ -3580,7 +3598,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4070,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR16">
         <v>1.91</v>
@@ -4279,7 +4297,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR17">
         <v>0.68</v>
@@ -4688,10 +4706,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR19">
         <v>1.34</v>
@@ -4816,7 +4834,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5100,7 +5118,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -5228,7 +5246,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5640,7 +5658,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5846,7 +5864,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6052,7 +6070,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6130,7 +6148,7 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ26">
         <v>2.6</v>
@@ -6258,7 +6276,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6339,7 +6357,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>1.77</v>
@@ -6748,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
         <v>0.75</v>
@@ -6876,7 +6894,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7082,7 +7100,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7160,10 +7178,10 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR31">
         <v>1.41</v>
@@ -7366,10 +7384,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>2.16</v>
@@ -7494,7 +7512,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7572,7 +7590,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33">
         <v>2.14</v>
@@ -7700,7 +7718,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7781,7 +7799,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>0.86</v>
@@ -7984,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ35">
         <v>0</v>
@@ -8112,7 +8130,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8190,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>2.14</v>
@@ -8318,7 +8336,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8605,7 +8623,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ38">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -8811,7 +8829,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR39">
         <v>3.26</v>
@@ -9014,7 +9032,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ40">
         <v>2.6</v>
@@ -9142,7 +9160,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9220,7 +9238,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ41">
         <v>1.2</v>
@@ -9348,7 +9366,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9426,7 +9444,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ42">
         <v>2.25</v>
@@ -9554,7 +9572,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9635,7 +9653,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR43">
         <v>0.99</v>
@@ -9760,7 +9778,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9838,7 +9856,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44">
         <v>1.4</v>
@@ -10047,7 +10065,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10172,7 +10190,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10253,7 +10271,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR46">
         <v>0.8100000000000001</v>
@@ -10378,7 +10396,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10456,7 +10474,7 @@
         <v>1.25</v>
       </c>
       <c r="AP47">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ47">
         <v>1.2</v>
@@ -10584,7 +10602,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10665,7 +10683,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -10868,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ49">
         <v>0.75</v>
@@ -10996,7 +11014,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11202,7 +11220,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11408,7 +11426,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11489,7 +11507,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.62</v>
@@ -12026,7 +12044,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12104,7 +12122,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55">
         <v>2.25</v>
@@ -12232,7 +12250,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12438,7 +12456,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12801,6 +12819,1036 @@
       </c>
       <c r="BP58">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7469249</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45568.875</v>
+      </c>
+      <c r="F59">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>124</v>
+      </c>
+      <c r="P59" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q59">
+        <v>1.73</v>
+      </c>
+      <c r="R59">
+        <v>2.38</v>
+      </c>
+      <c r="S59">
+        <v>9</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>2.63</v>
+      </c>
+      <c r="W59">
+        <v>1.44</v>
+      </c>
+      <c r="X59">
+        <v>6</v>
+      </c>
+      <c r="Y59">
+        <v>1.11</v>
+      </c>
+      <c r="Z59">
+        <v>1.19</v>
+      </c>
+      <c r="AA59">
+        <v>5.4</v>
+      </c>
+      <c r="AB59">
+        <v>8.4</v>
+      </c>
+      <c r="AC59">
+        <v>1.03</v>
+      </c>
+      <c r="AD59">
+        <v>12</v>
+      </c>
+      <c r="AE59">
+        <v>1.25</v>
+      </c>
+      <c r="AF59">
+        <v>3.8</v>
+      </c>
+      <c r="AG59">
+        <v>1.83</v>
+      </c>
+      <c r="AH59">
+        <v>1.88</v>
+      </c>
+      <c r="AI59">
+        <v>2.5</v>
+      </c>
+      <c r="AJ59">
+        <v>1.5</v>
+      </c>
+      <c r="AK59">
+        <v>1.02</v>
+      </c>
+      <c r="AL59">
+        <v>1.13</v>
+      </c>
+      <c r="AM59">
+        <v>3.2</v>
+      </c>
+      <c r="AN59">
+        <v>0.25</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>0.8</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>1.28</v>
+      </c>
+      <c r="AS59">
+        <v>0.7</v>
+      </c>
+      <c r="AT59">
+        <v>1.98</v>
+      </c>
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>0</v>
+      </c>
+      <c r="AW59">
+        <v>5</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>8</v>
+      </c>
+      <c r="AZ59">
+        <v>4</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>0</v>
+      </c>
+      <c r="BC59">
+        <v>4</v>
+      </c>
+      <c r="BD59">
+        <v>1.15</v>
+      </c>
+      <c r="BE59">
+        <v>14.25</v>
+      </c>
+      <c r="BF59">
+        <v>5.5</v>
+      </c>
+      <c r="BG59">
+        <v>0</v>
+      </c>
+      <c r="BH59">
+        <v>0</v>
+      </c>
+      <c r="BI59">
+        <v>0</v>
+      </c>
+      <c r="BJ59">
+        <v>0</v>
+      </c>
+      <c r="BK59">
+        <v>1.43</v>
+      </c>
+      <c r="BL59">
+        <v>2.54</v>
+      </c>
+      <c r="BM59">
+        <v>1.78</v>
+      </c>
+      <c r="BN59">
+        <v>1.99</v>
+      </c>
+      <c r="BO59">
+        <v>2.2</v>
+      </c>
+      <c r="BP59">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7469250</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45568.875</v>
+      </c>
+      <c r="F60">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>6</v>
+      </c>
+      <c r="O60" t="s">
+        <v>125</v>
+      </c>
+      <c r="P60" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q60">
+        <v>2.3</v>
+      </c>
+      <c r="R60">
+        <v>2.25</v>
+      </c>
+      <c r="S60">
+        <v>4.33</v>
+      </c>
+      <c r="T60">
+        <v>1.33</v>
+      </c>
+      <c r="U60">
+        <v>3.25</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>6</v>
+      </c>
+      <c r="Y60">
+        <v>1.11</v>
+      </c>
+      <c r="Z60">
+        <v>1.64</v>
+      </c>
+      <c r="AA60">
+        <v>3.5</v>
+      </c>
+      <c r="AB60">
+        <v>4</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>1.19</v>
+      </c>
+      <c r="AF60">
+        <v>3.62</v>
+      </c>
+      <c r="AG60">
+        <v>1.74</v>
+      </c>
+      <c r="AH60">
+        <v>1.99</v>
+      </c>
+      <c r="AI60">
+        <v>1.73</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>1.18</v>
+      </c>
+      <c r="AL60">
+        <v>1.22</v>
+      </c>
+      <c r="AM60">
+        <v>1.99</v>
+      </c>
+      <c r="AN60">
+        <v>1.8</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>1.5</v>
+      </c>
+      <c r="AQ60">
+        <v>1.4</v>
+      </c>
+      <c r="AR60">
+        <v>1.7</v>
+      </c>
+      <c r="AS60">
+        <v>1.47</v>
+      </c>
+      <c r="AT60">
+        <v>3.17</v>
+      </c>
+      <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>7</v>
+      </c>
+      <c r="AY60">
+        <v>9</v>
+      </c>
+      <c r="AZ60">
+        <v>10</v>
+      </c>
+      <c r="BA60">
+        <v>8</v>
+      </c>
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>12</v>
+      </c>
+      <c r="BD60">
+        <v>0</v>
+      </c>
+      <c r="BE60">
+        <v>0</v>
+      </c>
+      <c r="BF60">
+        <v>0</v>
+      </c>
+      <c r="BG60">
+        <v>0</v>
+      </c>
+      <c r="BH60">
+        <v>0</v>
+      </c>
+      <c r="BI60">
+        <v>0</v>
+      </c>
+      <c r="BJ60">
+        <v>0</v>
+      </c>
+      <c r="BK60">
+        <v>0</v>
+      </c>
+      <c r="BL60">
+        <v>0</v>
+      </c>
+      <c r="BM60">
+        <v>0</v>
+      </c>
+      <c r="BN60">
+        <v>0</v>
+      </c>
+      <c r="BO60">
+        <v>0</v>
+      </c>
+      <c r="BP60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7469251</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45568.875</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61" t="s">
+        <v>126</v>
+      </c>
+      <c r="P61" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q61">
+        <v>1.83</v>
+      </c>
+      <c r="R61">
+        <v>2.3</v>
+      </c>
+      <c r="S61">
+        <v>8</v>
+      </c>
+      <c r="T61">
+        <v>1.4</v>
+      </c>
+      <c r="U61">
+        <v>2.75</v>
+      </c>
+      <c r="V61">
+        <v>2.75</v>
+      </c>
+      <c r="W61">
+        <v>1.4</v>
+      </c>
+      <c r="X61">
+        <v>6.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.1</v>
+      </c>
+      <c r="Z61">
+        <v>1.45</v>
+      </c>
+      <c r="AA61">
+        <v>3.7</v>
+      </c>
+      <c r="AB61">
+        <v>5.4</v>
+      </c>
+      <c r="AC61">
+        <v>1.04</v>
+      </c>
+      <c r="AD61">
+        <v>11</v>
+      </c>
+      <c r="AE61">
+        <v>1.29</v>
+      </c>
+      <c r="AF61">
+        <v>3.5</v>
+      </c>
+      <c r="AG61">
+        <v>1.78</v>
+      </c>
+      <c r="AH61">
+        <v>1.96</v>
+      </c>
+      <c r="AI61">
+        <v>2.5</v>
+      </c>
+      <c r="AJ61">
+        <v>1.5</v>
+      </c>
+      <c r="AK61">
+        <v>1.04</v>
+      </c>
+      <c r="AL61">
+        <v>1.16</v>
+      </c>
+      <c r="AM61">
+        <v>2.83</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>2.17</v>
+      </c>
+      <c r="AQ61">
+        <v>0.83</v>
+      </c>
+      <c r="AR61">
+        <v>2.07</v>
+      </c>
+      <c r="AS61">
+        <v>1.36</v>
+      </c>
+      <c r="AT61">
+        <v>3.43</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>2</v>
+      </c>
+      <c r="AW61">
+        <v>3</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>7</v>
+      </c>
+      <c r="AZ61">
+        <v>4</v>
+      </c>
+      <c r="BA61">
+        <v>4</v>
+      </c>
+      <c r="BB61">
+        <v>1</v>
+      </c>
+      <c r="BC61">
+        <v>5</v>
+      </c>
+      <c r="BD61">
+        <v>1.25</v>
+      </c>
+      <c r="BE61">
+        <v>9.9</v>
+      </c>
+      <c r="BF61">
+        <v>4.6</v>
+      </c>
+      <c r="BG61">
+        <v>0</v>
+      </c>
+      <c r="BH61">
+        <v>0</v>
+      </c>
+      <c r="BI61">
+        <v>0</v>
+      </c>
+      <c r="BJ61">
+        <v>0</v>
+      </c>
+      <c r="BK61">
+        <v>1.52</v>
+      </c>
+      <c r="BL61">
+        <v>2.31</v>
+      </c>
+      <c r="BM61">
+        <v>1.91</v>
+      </c>
+      <c r="BN61">
+        <v>1.85</v>
+      </c>
+      <c r="BO61">
+        <v>2.37</v>
+      </c>
+      <c r="BP61">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7469247</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45568.875</v>
+      </c>
+      <c r="F62">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>85</v>
+      </c>
+      <c r="P62" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q62">
+        <v>2.88</v>
+      </c>
+      <c r="R62">
+        <v>2.1</v>
+      </c>
+      <c r="S62">
+        <v>3.5</v>
+      </c>
+      <c r="T62">
+        <v>1.44</v>
+      </c>
+      <c r="U62">
+        <v>2.63</v>
+      </c>
+      <c r="V62">
+        <v>3</v>
+      </c>
+      <c r="W62">
+        <v>1.36</v>
+      </c>
+      <c r="X62">
+        <v>7</v>
+      </c>
+      <c r="Y62">
+        <v>1.08</v>
+      </c>
+      <c r="Z62">
+        <v>2.6</v>
+      </c>
+      <c r="AA62">
+        <v>2.9</v>
+      </c>
+      <c r="AB62">
+        <v>2.46</v>
+      </c>
+      <c r="AC62">
+        <v>1.02</v>
+      </c>
+      <c r="AD62">
+        <v>8</v>
+      </c>
+      <c r="AE62">
+        <v>1.53</v>
+      </c>
+      <c r="AF62">
+        <v>2.37</v>
+      </c>
+      <c r="AG62">
+        <v>1.85</v>
+      </c>
+      <c r="AH62">
+        <v>1.85</v>
+      </c>
+      <c r="AI62">
+        <v>1.83</v>
+      </c>
+      <c r="AJ62">
+        <v>1.83</v>
+      </c>
+      <c r="AK62">
+        <v>1.32</v>
+      </c>
+      <c r="AL62">
+        <v>1.32</v>
+      </c>
+      <c r="AM62">
+        <v>1.56</v>
+      </c>
+      <c r="AN62">
+        <v>1.67</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>1.43</v>
+      </c>
+      <c r="AQ62">
+        <v>2.17</v>
+      </c>
+      <c r="AR62">
+        <v>1.49</v>
+      </c>
+      <c r="AS62">
+        <v>1.3</v>
+      </c>
+      <c r="AT62">
+        <v>2.79</v>
+      </c>
+      <c r="AU62">
+        <v>-1</v>
+      </c>
+      <c r="AV62">
+        <v>-1</v>
+      </c>
+      <c r="AW62">
+        <v>-1</v>
+      </c>
+      <c r="AX62">
+        <v>-1</v>
+      </c>
+      <c r="AY62">
+        <v>-1</v>
+      </c>
+      <c r="AZ62">
+        <v>-1</v>
+      </c>
+      <c r="BA62">
+        <v>-1</v>
+      </c>
+      <c r="BB62">
+        <v>-1</v>
+      </c>
+      <c r="BC62">
+        <v>-1</v>
+      </c>
+      <c r="BD62">
+        <v>2.2</v>
+      </c>
+      <c r="BE62">
+        <v>6.4</v>
+      </c>
+      <c r="BF62">
+        <v>2</v>
+      </c>
+      <c r="BG62">
+        <v>1.45</v>
+      </c>
+      <c r="BH62">
+        <v>2.49</v>
+      </c>
+      <c r="BI62">
+        <v>1.82</v>
+      </c>
+      <c r="BJ62">
+        <v>1.94</v>
+      </c>
+      <c r="BK62">
+        <v>2.28</v>
+      </c>
+      <c r="BL62">
+        <v>1.55</v>
+      </c>
+      <c r="BM62">
+        <v>0</v>
+      </c>
+      <c r="BN62">
+        <v>0</v>
+      </c>
+      <c r="BO62">
+        <v>0</v>
+      </c>
+      <c r="BP62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7469252</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45570.4375</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>87</v>
+      </c>
+      <c r="P63" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q63">
+        <v>2.63</v>
+      </c>
+      <c r="R63">
+        <v>2.1</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>1.4</v>
+      </c>
+      <c r="U63">
+        <v>2.75</v>
+      </c>
+      <c r="V63">
+        <v>3</v>
+      </c>
+      <c r="W63">
+        <v>1.36</v>
+      </c>
+      <c r="X63">
+        <v>7</v>
+      </c>
+      <c r="Y63">
+        <v>1.08</v>
+      </c>
+      <c r="Z63">
+        <v>2</v>
+      </c>
+      <c r="AA63">
+        <v>3.45</v>
+      </c>
+      <c r="AB63">
+        <v>3.25</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>7.7</v>
+      </c>
+      <c r="AE63">
+        <v>1.28</v>
+      </c>
+      <c r="AF63">
+        <v>2.97</v>
+      </c>
+      <c r="AG63">
+        <v>1.75</v>
+      </c>
+      <c r="AH63">
+        <v>1.95</v>
+      </c>
+      <c r="AI63">
+        <v>1.83</v>
+      </c>
+      <c r="AJ63">
+        <v>1.83</v>
+      </c>
+      <c r="AK63">
+        <v>1.27</v>
+      </c>
+      <c r="AL63">
+        <v>1.27</v>
+      </c>
+      <c r="AM63">
+        <v>1.66</v>
+      </c>
+      <c r="AN63">
+        <v>1.67</v>
+      </c>
+      <c r="AO63">
+        <v>1.75</v>
+      </c>
+      <c r="AP63">
+        <v>1.25</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.21</v>
+      </c>
+      <c r="AS63">
+        <v>1.43</v>
+      </c>
+      <c r="AT63">
+        <v>2.64</v>
+      </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>6</v>
+      </c>
+      <c r="AW63">
+        <v>4</v>
+      </c>
+      <c r="AX63">
+        <v>8</v>
+      </c>
+      <c r="AY63">
+        <v>9</v>
+      </c>
+      <c r="AZ63">
+        <v>14</v>
+      </c>
+      <c r="BA63">
+        <v>3</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>9</v>
+      </c>
+      <c r="BD63">
+        <v>1.8</v>
+      </c>
+      <c r="BE63">
+        <v>8.1</v>
+      </c>
+      <c r="BF63">
+        <v>2.28</v>
+      </c>
+      <c r="BG63">
+        <v>0</v>
+      </c>
+      <c r="BH63">
+        <v>0</v>
+      </c>
+      <c r="BI63">
+        <v>1.41</v>
+      </c>
+      <c r="BJ63">
+        <v>2.45</v>
+      </c>
+      <c r="BK63">
+        <v>1.76</v>
+      </c>
+      <c r="BL63">
+        <v>1.91</v>
+      </c>
+      <c r="BM63">
+        <v>2.2</v>
+      </c>
+      <c r="BN63">
+        <v>1.51</v>
+      </c>
+      <c r="BO63">
+        <v>0</v>
+      </c>
+      <c r="BP63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -12217,7 +12217,7 @@
         <v>69</v>
       </c>
       <c r="E56" s="2">
-        <v>45562.875</v>
+        <v>45563.4375</v>
       </c>
       <c r="F56">
         <v>10</v>
@@ -12346,19 +12346,19 @@
         <v>2</v>
       </c>
       <c r="AV56">
+        <v>6</v>
+      </c>
+      <c r="AW56">
         <v>5</v>
       </c>
-      <c r="AW56">
-        <v>3</v>
-      </c>
       <c r="AX56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ56">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA56">
         <v>4</v>
@@ -12835,7 +12835,7 @@
         <v>69</v>
       </c>
       <c r="E59" s="2">
-        <v>45568.875</v>
+        <v>45569.65625</v>
       </c>
       <c r="F59">
         <v>11</v>
@@ -12961,7 +12961,7 @@
         <v>1.98</v>
       </c>
       <c r="AU59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV59">
         <v>0</v>
@@ -12970,13 +12970,13 @@
         <v>5</v>
       </c>
       <c r="AX59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY59">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -13041,7 +13041,7 @@
         <v>69</v>
       </c>
       <c r="E60" s="2">
-        <v>45568.875</v>
+        <v>45569.65625</v>
       </c>
       <c r="F60">
         <v>11</v>
@@ -13167,22 +13167,22 @@
         <v>3.17</v>
       </c>
       <c r="AU60">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV60">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AW60">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AX60">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY60">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ60">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="BA60">
         <v>8</v>
@@ -13247,10 +13247,10 @@
         <v>69</v>
       </c>
       <c r="E61" s="2">
-        <v>45568.875</v>
+        <v>45569.65625</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
@@ -13373,22 +13373,22 @@
         <v>3.43</v>
       </c>
       <c r="AU61">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV61">
         <v>2</v>
       </c>
       <c r="AW61">
+        <v>1</v>
+      </c>
+      <c r="AX61">
+        <v>1</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
         <v>3</v>
-      </c>
-      <c r="AX61">
-        <v>2</v>
-      </c>
-      <c r="AY61">
-        <v>7</v>
-      </c>
-      <c r="AZ61">
-        <v>4</v>
       </c>
       <c r="BA61">
         <v>4</v>
@@ -13453,7 +13453,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="2">
-        <v>45568.875</v>
+        <v>45569.65625</v>
       </c>
       <c r="F62">
         <v>11</v>
@@ -13579,31 +13579,31 @@
         <v>2.79</v>
       </c>
       <c r="AU62">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV62">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW62">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AX62">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY62">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AZ62">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA62">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB62">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC62">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD62">
         <v>2.2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,9 @@
     <t>['52', '78', '82', '85']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -506,6 +509,9 @@
   </si>
   <si>
     <t>['38', '56']</t>
+  </si>
+  <si>
+    <t>['33', '82']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1132,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1332,7 +1338,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1538,7 +1544,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1744,7 +1750,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1950,7 +1956,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2568,7 +2574,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2980,7 +2986,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3186,7 +3192,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3392,7 +3398,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3473,7 +3479,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR13">
         <v>2.12</v>
@@ -3598,7 +3604,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4834,7 +4840,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5246,7 +5252,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5658,7 +5664,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5864,7 +5870,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6070,7 +6076,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6276,7 +6282,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6560,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6894,7 +6900,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7100,7 +7106,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7387,7 +7393,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR32">
         <v>2.16</v>
@@ -7512,7 +7518,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7718,7 +7724,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8130,7 +8136,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8336,7 +8342,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8826,7 +8832,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39">
         <v>0.83</v>
@@ -9160,7 +9166,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9366,7 +9372,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9572,7 +9578,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9778,7 +9784,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10065,7 +10071,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10190,7 +10196,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10396,7 +10402,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10602,7 +10608,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11014,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11092,7 +11098,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -11220,7 +11226,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11426,7 +11432,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11507,7 +11513,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR52">
         <v>1.62</v>
@@ -12044,7 +12050,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12250,7 +12256,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12456,7 +12462,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -13074,7 +13080,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13486,7 +13492,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13692,7 +13698,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13773,7 +13779,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -13849,6 +13855,212 @@
       </c>
       <c r="BP63">
         <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7469192</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45574.65625</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>127</v>
+      </c>
+      <c r="P64" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q64">
+        <v>1.42</v>
+      </c>
+      <c r="R64">
+        <v>3.35</v>
+      </c>
+      <c r="S64">
+        <v>8.5</v>
+      </c>
+      <c r="T64">
+        <v>1.15</v>
+      </c>
+      <c r="U64">
+        <v>4.75</v>
+      </c>
+      <c r="V64">
+        <v>1.77</v>
+      </c>
+      <c r="W64">
+        <v>1.95</v>
+      </c>
+      <c r="X64">
+        <v>3.1</v>
+      </c>
+      <c r="Y64">
+        <v>1.32</v>
+      </c>
+      <c r="Z64">
+        <v>1.13</v>
+      </c>
+      <c r="AA64">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="AB64">
+        <v>12.79</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>1.02</v>
+      </c>
+      <c r="AF64">
+        <v>7.4</v>
+      </c>
+      <c r="AG64">
+        <v>1.22</v>
+      </c>
+      <c r="AH64">
+        <v>3.85</v>
+      </c>
+      <c r="AI64">
+        <v>1.77</v>
+      </c>
+      <c r="AJ64">
+        <v>1.85</v>
+      </c>
+      <c r="AK64">
+        <v>1.01</v>
+      </c>
+      <c r="AL64">
+        <v>1.03</v>
+      </c>
+      <c r="AM64">
+        <v>4.5</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>2</v>
+      </c>
+      <c r="AP64">
+        <v>1.5</v>
+      </c>
+      <c r="AQ64">
+        <v>2.17</v>
+      </c>
+      <c r="AR64">
+        <v>3.13</v>
+      </c>
+      <c r="AS64">
+        <v>1.5</v>
+      </c>
+      <c r="AT64">
+        <v>4.63</v>
+      </c>
+      <c r="AU64">
+        <v>6</v>
+      </c>
+      <c r="AV64">
+        <v>6</v>
+      </c>
+      <c r="AW64">
+        <v>10</v>
+      </c>
+      <c r="AX64">
+        <v>6</v>
+      </c>
+      <c r="AY64">
+        <v>16</v>
+      </c>
+      <c r="AZ64">
+        <v>12</v>
+      </c>
+      <c r="BA64">
+        <v>6</v>
+      </c>
+      <c r="BB64">
+        <v>3</v>
+      </c>
+      <c r="BC64">
+        <v>9</v>
+      </c>
+      <c r="BD64">
+        <v>1.12</v>
+      </c>
+      <c r="BE64">
+        <v>15.5</v>
+      </c>
+      <c r="BF64">
+        <v>6.35</v>
+      </c>
+      <c r="BG64">
+        <v>1.15</v>
+      </c>
+      <c r="BH64">
+        <v>4.75</v>
+      </c>
+      <c r="BI64">
+        <v>1.29</v>
+      </c>
+      <c r="BJ64">
+        <v>3.3</v>
+      </c>
+      <c r="BK64">
+        <v>1.44</v>
+      </c>
+      <c r="BL64">
+        <v>2.5</v>
+      </c>
+      <c r="BM64">
+        <v>1.77</v>
+      </c>
+      <c r="BN64">
+        <v>1.95</v>
+      </c>
+      <c r="BO64">
+        <v>2.21</v>
+      </c>
+      <c r="BP64">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,18 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['10', '37', '55']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['35', '90+5']</t>
+  </si>
+  <si>
+    <t>['3', '20', '63']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -512,6 +524,15 @@
   </si>
   <si>
     <t>['33', '82']</t>
+  </si>
+  <si>
+    <t>['15', '59']</t>
+  </si>
+  <si>
+    <t>['1', '26', '88']</t>
+  </si>
+  <si>
+    <t>['49', '52']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1153,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1338,7 +1359,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1416,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1544,7 +1565,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1622,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ4">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1750,7 +1771,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1956,7 +1977,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2037,7 +2058,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ6">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2243,7 +2264,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2574,7 +2595,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2652,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ9">
         <v>2.25</v>
@@ -2861,7 +2882,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2986,7 +3007,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3064,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ11">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3192,7 +3213,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3270,7 +3291,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ12">
         <v>2.17</v>
@@ -3398,7 +3419,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3604,7 +3625,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3685,7 +3706,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ14">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR14">
         <v>0.82</v>
@@ -3888,10 +3909,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4300,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ17">
         <v>0.83</v>
@@ -4506,10 +4527,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
+        <v>1.17</v>
+      </c>
+      <c r="AQ18">
         <v>1.4</v>
-      </c>
-      <c r="AQ18">
-        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -4840,7 +4861,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -4918,10 +4939,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5252,7 +5273,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5330,10 +5351,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5536,10 +5557,10 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -5664,7 +5685,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5742,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -5870,7 +5891,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -5951,7 +5972,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0.89</v>
@@ -6076,7 +6097,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6157,7 +6178,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ26">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6282,7 +6303,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6360,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27">
         <v>1.4</v>
@@ -6566,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6775,7 +6796,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR29">
         <v>1.93</v>
@@ -6900,7 +6921,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -6978,7 +6999,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ30">
         <v>2.25</v>
@@ -7106,7 +7127,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7518,7 +7539,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7599,7 +7620,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ33">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR33">
         <v>1.47</v>
@@ -7724,7 +7745,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7802,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ34">
         <v>1.4</v>
@@ -8136,7 +8157,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8217,7 +8238,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8342,7 +8363,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8420,10 +8441,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR37">
         <v>1.1</v>
@@ -8626,7 +8647,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ38">
         <v>2.17</v>
@@ -8832,7 +8853,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>0.83</v>
@@ -9041,7 +9062,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ40">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9166,7 +9187,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9247,7 +9268,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9372,7 +9393,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9578,7 +9599,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9656,7 +9677,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ43">
         <v>2.17</v>
@@ -9784,7 +9805,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9865,7 +9886,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.05</v>
@@ -10068,7 +10089,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ45">
         <v>2.17</v>
@@ -10196,7 +10217,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10402,7 +10423,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10483,7 +10504,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10608,7 +10629,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10686,7 +10707,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>0.83</v>
@@ -10895,7 +10916,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11020,7 +11041,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11098,10 +11119,10 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR50">
         <v>3.27</v>
@@ -11226,7 +11247,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11304,10 +11325,10 @@
         <v>2.4</v>
       </c>
       <c r="AP51">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR51">
         <v>0.9399999999999999</v>
@@ -11432,7 +11453,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11510,7 +11531,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ52">
         <v>2.17</v>
@@ -11716,10 +11737,10 @@
         <v>2.5</v>
       </c>
       <c r="AP53">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -11922,7 +11943,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
         <v>0</v>
@@ -12050,7 +12071,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12256,7 +12277,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12334,10 +12355,10 @@
         <v>2.5</v>
       </c>
       <c r="AP56">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AQ56">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR56">
         <v>1.7</v>
@@ -12462,7 +12483,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12543,7 +12564,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -12746,10 +12767,10 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR58">
         <v>1.13</v>
@@ -13080,7 +13101,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13492,7 +13513,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13698,7 +13719,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13904,7 +13925,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -13982,7 +14003,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ64">
         <v>2.17</v>
@@ -14061,6 +14082,1242 @@
       </c>
       <c r="BP64">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7469254</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45576.875</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>128</v>
+      </c>
+      <c r="P65" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q65">
+        <v>2.4</v>
+      </c>
+      <c r="R65">
+        <v>2.2</v>
+      </c>
+      <c r="S65">
+        <v>4.33</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2.63</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>6.5</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>1.5</v>
+      </c>
+      <c r="AA65">
+        <v>4</v>
+      </c>
+      <c r="AB65">
+        <v>6.5</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>1.73</v>
+      </c>
+      <c r="AH65">
+        <v>1.91</v>
+      </c>
+      <c r="AI65">
+        <v>1.73</v>
+      </c>
+      <c r="AJ65">
+        <v>2</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1.6</v>
+      </c>
+      <c r="AO65">
+        <v>0.75</v>
+      </c>
+      <c r="AP65">
+        <v>1.83</v>
+      </c>
+      <c r="AQ65">
+        <v>0.6</v>
+      </c>
+      <c r="AR65">
+        <v>1.7</v>
+      </c>
+      <c r="AS65">
+        <v>1.22</v>
+      </c>
+      <c r="AT65">
+        <v>2.92</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>6</v>
+      </c>
+      <c r="AW65">
+        <v>5</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>10</v>
+      </c>
+      <c r="AZ65">
+        <v>12</v>
+      </c>
+      <c r="BA65">
+        <v>6</v>
+      </c>
+      <c r="BB65">
+        <v>7</v>
+      </c>
+      <c r="BC65">
+        <v>13</v>
+      </c>
+      <c r="BD65">
+        <v>0</v>
+      </c>
+      <c r="BE65">
+        <v>0</v>
+      </c>
+      <c r="BF65">
+        <v>0</v>
+      </c>
+      <c r="BG65">
+        <v>0</v>
+      </c>
+      <c r="BH65">
+        <v>0</v>
+      </c>
+      <c r="BI65">
+        <v>0</v>
+      </c>
+      <c r="BJ65">
+        <v>0</v>
+      </c>
+      <c r="BK65">
+        <v>0</v>
+      </c>
+      <c r="BL65">
+        <v>0</v>
+      </c>
+      <c r="BM65">
+        <v>0</v>
+      </c>
+      <c r="BN65">
+        <v>0</v>
+      </c>
+      <c r="BO65">
+        <v>0</v>
+      </c>
+      <c r="BP65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7469255</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45576.875</v>
+      </c>
+      <c r="F66">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>79</v>
+      </c>
+      <c r="H66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" t="s">
+        <v>129</v>
+      </c>
+      <c r="P66" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q66">
+        <v>2.5</v>
+      </c>
+      <c r="R66">
+        <v>2.38</v>
+      </c>
+      <c r="S66">
+        <v>3.5</v>
+      </c>
+      <c r="T66">
+        <v>1.29</v>
+      </c>
+      <c r="U66">
+        <v>3.5</v>
+      </c>
+      <c r="V66">
+        <v>2.25</v>
+      </c>
+      <c r="W66">
+        <v>1.57</v>
+      </c>
+      <c r="X66">
+        <v>5</v>
+      </c>
+      <c r="Y66">
+        <v>1.14</v>
+      </c>
+      <c r="Z66">
+        <v>1.95</v>
+      </c>
+      <c r="AA66">
+        <v>3.5</v>
+      </c>
+      <c r="AB66">
+        <v>3.4</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>15</v>
+      </c>
+      <c r="AE66">
+        <v>1.17</v>
+      </c>
+      <c r="AF66">
+        <v>5</v>
+      </c>
+      <c r="AG66">
+        <v>1.53</v>
+      </c>
+      <c r="AH66">
+        <v>2.25</v>
+      </c>
+      <c r="AI66">
+        <v>1.53</v>
+      </c>
+      <c r="AJ66">
+        <v>2.38</v>
+      </c>
+      <c r="AK66">
+        <v>1.32</v>
+      </c>
+      <c r="AL66">
+        <v>1.21</v>
+      </c>
+      <c r="AM66">
+        <v>1.72</v>
+      </c>
+      <c r="AN66">
+        <v>1.4</v>
+      </c>
+      <c r="AO66">
+        <v>1.2</v>
+      </c>
+      <c r="AP66">
+        <v>1.17</v>
+      </c>
+      <c r="AQ66">
+        <v>1.5</v>
+      </c>
+      <c r="AR66">
+        <v>1.2</v>
+      </c>
+      <c r="AS66">
+        <v>1.07</v>
+      </c>
+      <c r="AT66">
+        <v>2.27</v>
+      </c>
+      <c r="AU66">
+        <v>7</v>
+      </c>
+      <c r="AV66">
+        <v>7</v>
+      </c>
+      <c r="AW66">
+        <v>11</v>
+      </c>
+      <c r="AX66">
+        <v>4</v>
+      </c>
+      <c r="AY66">
+        <v>18</v>
+      </c>
+      <c r="AZ66">
+        <v>11</v>
+      </c>
+      <c r="BA66">
+        <v>5</v>
+      </c>
+      <c r="BB66">
+        <v>4</v>
+      </c>
+      <c r="BC66">
+        <v>9</v>
+      </c>
+      <c r="BD66">
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <v>0</v>
+      </c>
+      <c r="BL66">
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7469253</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45577.4375</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>85</v>
+      </c>
+      <c r="P67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q67">
+        <v>9</v>
+      </c>
+      <c r="R67">
+        <v>2.6</v>
+      </c>
+      <c r="S67">
+        <v>1.62</v>
+      </c>
+      <c r="T67">
+        <v>1.3</v>
+      </c>
+      <c r="U67">
+        <v>3.4</v>
+      </c>
+      <c r="V67">
+        <v>2.38</v>
+      </c>
+      <c r="W67">
+        <v>1.53</v>
+      </c>
+      <c r="X67">
+        <v>5</v>
+      </c>
+      <c r="Y67">
+        <v>1.14</v>
+      </c>
+      <c r="Z67">
+        <v>10</v>
+      </c>
+      <c r="AA67">
+        <v>5.25</v>
+      </c>
+      <c r="AB67">
+        <v>1.25</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>15</v>
+      </c>
+      <c r="AE67">
+        <v>1.17</v>
+      </c>
+      <c r="AF67">
+        <v>5</v>
+      </c>
+      <c r="AG67">
+        <v>1.57</v>
+      </c>
+      <c r="AH67">
+        <v>2.25</v>
+      </c>
+      <c r="AI67">
+        <v>2.25</v>
+      </c>
+      <c r="AJ67">
+        <v>1.57</v>
+      </c>
+      <c r="AK67">
+        <v>3.3</v>
+      </c>
+      <c r="AL67">
+        <v>1.12</v>
+      </c>
+      <c r="AM67">
+        <v>1.03</v>
+      </c>
+      <c r="AN67">
+        <v>0.8</v>
+      </c>
+      <c r="AO67">
+        <v>2.6</v>
+      </c>
+      <c r="AP67">
+        <v>0.67</v>
+      </c>
+      <c r="AQ67">
+        <v>2.67</v>
+      </c>
+      <c r="AR67">
+        <v>0.96</v>
+      </c>
+      <c r="AS67">
+        <v>1.65</v>
+      </c>
+      <c r="AT67">
+        <v>2.61</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>7</v>
+      </c>
+      <c r="AW67">
+        <v>2</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>2</v>
+      </c>
+      <c r="AZ67">
+        <v>13</v>
+      </c>
+      <c r="BA67">
+        <v>4</v>
+      </c>
+      <c r="BB67">
+        <v>8</v>
+      </c>
+      <c r="BC67">
+        <v>12</v>
+      </c>
+      <c r="BD67">
+        <v>0</v>
+      </c>
+      <c r="BE67">
+        <v>0</v>
+      </c>
+      <c r="BF67">
+        <v>0</v>
+      </c>
+      <c r="BG67">
+        <v>0</v>
+      </c>
+      <c r="BH67">
+        <v>0</v>
+      </c>
+      <c r="BI67">
+        <v>0</v>
+      </c>
+      <c r="BJ67">
+        <v>0</v>
+      </c>
+      <c r="BK67">
+        <v>0</v>
+      </c>
+      <c r="BL67">
+        <v>0</v>
+      </c>
+      <c r="BM67">
+        <v>0</v>
+      </c>
+      <c r="BN67">
+        <v>0</v>
+      </c>
+      <c r="BO67">
+        <v>0</v>
+      </c>
+      <c r="BP67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7469256</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45577.4375</v>
+      </c>
+      <c r="F68">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s">
+        <v>75</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>130</v>
+      </c>
+      <c r="P68" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q68">
+        <v>4</v>
+      </c>
+      <c r="R68">
+        <v>2.2</v>
+      </c>
+      <c r="S68">
+        <v>2.5</v>
+      </c>
+      <c r="T68">
+        <v>1.36</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68">
+        <v>2.75</v>
+      </c>
+      <c r="W68">
+        <v>1.4</v>
+      </c>
+      <c r="X68">
+        <v>6.5</v>
+      </c>
+      <c r="Y68">
+        <v>1.1</v>
+      </c>
+      <c r="Z68">
+        <v>3.6</v>
+      </c>
+      <c r="AA68">
+        <v>3.5</v>
+      </c>
+      <c r="AB68">
+        <v>1.91</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>1.75</v>
+      </c>
+      <c r="AH68">
+        <v>1.91</v>
+      </c>
+      <c r="AI68">
+        <v>1.73</v>
+      </c>
+      <c r="AJ68">
+        <v>2</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0.5</v>
+      </c>
+      <c r="AO68">
+        <v>1.5</v>
+      </c>
+      <c r="AP68">
+        <v>0.57</v>
+      </c>
+      <c r="AQ68">
+        <v>1.4</v>
+      </c>
+      <c r="AR68">
+        <v>1.56</v>
+      </c>
+      <c r="AS68">
+        <v>1.22</v>
+      </c>
+      <c r="AT68">
+        <v>2.78</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>7</v>
+      </c>
+      <c r="AX68">
+        <v>9</v>
+      </c>
+      <c r="AY68">
+        <v>10</v>
+      </c>
+      <c r="AZ68">
+        <v>12</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>11</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>0</v>
+      </c>
+      <c r="BG68">
+        <v>0</v>
+      </c>
+      <c r="BH68">
+        <v>0</v>
+      </c>
+      <c r="BI68">
+        <v>0</v>
+      </c>
+      <c r="BJ68">
+        <v>0</v>
+      </c>
+      <c r="BK68">
+        <v>0</v>
+      </c>
+      <c r="BL68">
+        <v>0</v>
+      </c>
+      <c r="BM68">
+        <v>0</v>
+      </c>
+      <c r="BN68">
+        <v>0</v>
+      </c>
+      <c r="BO68">
+        <v>0</v>
+      </c>
+      <c r="BP68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7469257</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45577.4375</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" t="s">
+        <v>73</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>85</v>
+      </c>
+      <c r="P69" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q69">
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>3.25</v>
+      </c>
+      <c r="T69">
+        <v>1.4</v>
+      </c>
+      <c r="U69">
+        <v>2.75</v>
+      </c>
+      <c r="V69">
+        <v>3</v>
+      </c>
+      <c r="W69">
+        <v>1.36</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>1.08</v>
+      </c>
+      <c r="Z69">
+        <v>2.3</v>
+      </c>
+      <c r="AA69">
+        <v>3.1</v>
+      </c>
+      <c r="AB69">
+        <v>2.9</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>1.85</v>
+      </c>
+      <c r="AH69">
+        <v>1.75</v>
+      </c>
+      <c r="AI69">
+        <v>1.83</v>
+      </c>
+      <c r="AJ69">
+        <v>1.83</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1.6</v>
+      </c>
+      <c r="AO69">
+        <v>1.4</v>
+      </c>
+      <c r="AP69">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69">
+        <v>1.33</v>
+      </c>
+      <c r="AR69">
+        <v>1.25</v>
+      </c>
+      <c r="AS69">
+        <v>1.72</v>
+      </c>
+      <c r="AT69">
+        <v>2.97</v>
+      </c>
+      <c r="AU69">
+        <v>6</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
+        <v>5</v>
+      </c>
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>11</v>
+      </c>
+      <c r="AZ69">
+        <v>8</v>
+      </c>
+      <c r="BA69">
+        <v>4</v>
+      </c>
+      <c r="BB69">
+        <v>4</v>
+      </c>
+      <c r="BC69">
+        <v>8</v>
+      </c>
+      <c r="BD69">
+        <v>0</v>
+      </c>
+      <c r="BE69">
+        <v>0</v>
+      </c>
+      <c r="BF69">
+        <v>0</v>
+      </c>
+      <c r="BG69">
+        <v>0</v>
+      </c>
+      <c r="BH69">
+        <v>0</v>
+      </c>
+      <c r="BI69">
+        <v>0</v>
+      </c>
+      <c r="BJ69">
+        <v>0</v>
+      </c>
+      <c r="BK69">
+        <v>0</v>
+      </c>
+      <c r="BL69">
+        <v>0</v>
+      </c>
+      <c r="BM69">
+        <v>0</v>
+      </c>
+      <c r="BN69">
+        <v>0</v>
+      </c>
+      <c r="BO69">
+        <v>0</v>
+      </c>
+      <c r="BP69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7469258</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45577.4375</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s">
+        <v>76</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>131</v>
+      </c>
+      <c r="P70" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q70">
+        <v>1.57</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>7.5</v>
+      </c>
+      <c r="T70">
+        <v>1.17</v>
+      </c>
+      <c r="U70">
+        <v>4.5</v>
+      </c>
+      <c r="V70">
+        <v>1.83</v>
+      </c>
+      <c r="W70">
+        <v>1.83</v>
+      </c>
+      <c r="X70">
+        <v>3.75</v>
+      </c>
+      <c r="Y70">
+        <v>1.25</v>
+      </c>
+      <c r="Z70">
+        <v>1.2</v>
+      </c>
+      <c r="AA70">
+        <v>6.5</v>
+      </c>
+      <c r="AB70">
+        <v>9.5</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>1.07</v>
+      </c>
+      <c r="AF70">
+        <v>8</v>
+      </c>
+      <c r="AG70">
+        <v>1.3</v>
+      </c>
+      <c r="AH70">
+        <v>3.4</v>
+      </c>
+      <c r="AI70">
+        <v>1.73</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>1.03</v>
+      </c>
+      <c r="AL70">
+        <v>1.08</v>
+      </c>
+      <c r="AM70">
+        <v>4</v>
+      </c>
+      <c r="AN70">
+        <v>1.5</v>
+      </c>
+      <c r="AO70">
+        <v>2.14</v>
+      </c>
+      <c r="AP70">
+        <v>1.8</v>
+      </c>
+      <c r="AQ70">
+        <v>1.88</v>
+      </c>
+      <c r="AR70">
+        <v>2.85</v>
+      </c>
+      <c r="AS70">
+        <v>1.44</v>
+      </c>
+      <c r="AT70">
+        <v>4.29</v>
+      </c>
+      <c r="AU70">
+        <v>8</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>12</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>20</v>
+      </c>
+      <c r="AZ70">
+        <v>6</v>
+      </c>
+      <c r="BA70">
+        <v>6</v>
+      </c>
+      <c r="BB70">
+        <v>2</v>
+      </c>
+      <c r="BC70">
+        <v>8</v>
+      </c>
+      <c r="BD70">
+        <v>0</v>
+      </c>
+      <c r="BE70">
+        <v>0</v>
+      </c>
+      <c r="BF70">
+        <v>0</v>
+      </c>
+      <c r="BG70">
+        <v>0</v>
+      </c>
+      <c r="BH70">
+        <v>0</v>
+      </c>
+      <c r="BI70">
+        <v>0</v>
+      </c>
+      <c r="BJ70">
+        <v>0</v>
+      </c>
+      <c r="BK70">
+        <v>0</v>
+      </c>
+      <c r="BL70">
+        <v>0</v>
+      </c>
+      <c r="BM70">
+        <v>0</v>
+      </c>
+      <c r="BN70">
+        <v>0</v>
+      </c>
+      <c r="BO70">
+        <v>0</v>
+      </c>
+      <c r="BP70">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -526,13 +526,13 @@
     <t>['33', '82']</t>
   </si>
   <si>
+    <t>['1', '26', '88']</t>
+  </si>
+  <si>
     <t>['15', '59']</t>
   </si>
   <si>
-    <t>['1', '26', '88']</t>
-  </si>
-  <si>
-    <t>['49', '52']</t>
+    <t>['49', '51']</t>
   </si>
 </sst>
 </file>
@@ -14089,7 +14089,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7469254</v>
+        <v>7469253</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14098,157 +14098,157 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45576.875</v>
+        <v>45577.4375</v>
       </c>
       <c r="F65">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
         <v>3</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>3</v>
       </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>4</v>
-      </c>
       <c r="O65" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="Q65">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="R65">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="S65">
-        <v>4.33</v>
+        <v>1.62</v>
       </c>
       <c r="T65">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U65">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V65">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W65">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X65">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y65">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z65">
-        <v>1.5</v>
+        <v>10</v>
       </c>
       <c r="AA65">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="AB65">
-        <v>6.5</v>
+        <v>1.25</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG65">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AH65">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AI65">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="AJ65">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AK65">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL65">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AM65">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AN65">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="AO65">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="AP65">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="AQ65">
-        <v>0.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR65">
-        <v>1.7</v>
+        <v>0.96</v>
       </c>
       <c r="AS65">
-        <v>1.22</v>
+        <v>1.65</v>
       </c>
       <c r="AT65">
-        <v>2.92</v>
+        <v>2.61</v>
       </c>
       <c r="AU65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX65">
         <v>6</v>
       </c>
       <c r="AY65">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AZ65">
+        <v>13</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>8</v>
+      </c>
+      <c r="BC65">
         <v>12</v>
-      </c>
-      <c r="BA65">
-        <v>6</v>
-      </c>
-      <c r="BB65">
-        <v>7</v>
-      </c>
-      <c r="BC65">
-        <v>13</v>
       </c>
       <c r="BD65">
         <v>0</v>
@@ -14295,7 +14295,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7469255</v>
+        <v>7469254</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14304,157 +14304,157 @@
         <v>69</v>
       </c>
       <c r="E66" s="2">
-        <v>45576.875</v>
+        <v>45577.4375</v>
       </c>
       <c r="F66">
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>1</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>128</v>
+      </c>
+      <c r="P66" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q66">
+        <v>2.4</v>
+      </c>
+      <c r="R66">
+        <v>2.2</v>
+      </c>
+      <c r="S66">
+        <v>4.33</v>
+      </c>
+      <c r="T66">
+        <v>1.36</v>
+      </c>
+      <c r="U66">
         <v>3</v>
       </c>
-      <c r="O66" t="s">
-        <v>129</v>
-      </c>
-      <c r="P66" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q66">
-        <v>2.5</v>
-      </c>
-      <c r="R66">
-        <v>2.38</v>
-      </c>
-      <c r="S66">
-        <v>3.5</v>
-      </c>
-      <c r="T66">
-        <v>1.29</v>
-      </c>
-      <c r="U66">
-        <v>3.5</v>
-      </c>
       <c r="V66">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W66">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X66">
+        <v>6.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.1</v>
+      </c>
+      <c r="Z66">
+        <v>1.5</v>
+      </c>
+      <c r="AA66">
+        <v>4</v>
+      </c>
+      <c r="AB66">
+        <v>6.5</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>1.73</v>
+      </c>
+      <c r="AH66">
+        <v>1.91</v>
+      </c>
+      <c r="AI66">
+        <v>1.73</v>
+      </c>
+      <c r="AJ66">
+        <v>2</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1.6</v>
+      </c>
+      <c r="AO66">
+        <v>0.75</v>
+      </c>
+      <c r="AP66">
+        <v>1.83</v>
+      </c>
+      <c r="AQ66">
+        <v>0.6</v>
+      </c>
+      <c r="AR66">
+        <v>1.7</v>
+      </c>
+      <c r="AS66">
+        <v>1.22</v>
+      </c>
+      <c r="AT66">
+        <v>2.92</v>
+      </c>
+      <c r="AU66">
         <v>5</v>
       </c>
-      <c r="Y66">
-        <v>1.14</v>
-      </c>
-      <c r="Z66">
-        <v>1.95</v>
-      </c>
-      <c r="AA66">
-        <v>3.5</v>
-      </c>
-      <c r="AB66">
-        <v>3.4</v>
-      </c>
-      <c r="AC66">
-        <v>1.01</v>
-      </c>
-      <c r="AD66">
-        <v>15</v>
-      </c>
-      <c r="AE66">
-        <v>1.17</v>
-      </c>
-      <c r="AF66">
+      <c r="AV66">
+        <v>6</v>
+      </c>
+      <c r="AW66">
         <v>5</v>
       </c>
-      <c r="AG66">
-        <v>1.53</v>
-      </c>
-      <c r="AH66">
-        <v>2.25</v>
-      </c>
-      <c r="AI66">
-        <v>1.53</v>
-      </c>
-      <c r="AJ66">
-        <v>2.38</v>
-      </c>
-      <c r="AK66">
-        <v>1.32</v>
-      </c>
-      <c r="AL66">
-        <v>1.21</v>
-      </c>
-      <c r="AM66">
-        <v>1.72</v>
-      </c>
-      <c r="AN66">
-        <v>1.4</v>
-      </c>
-      <c r="AO66">
-        <v>1.2</v>
-      </c>
-      <c r="AP66">
-        <v>1.17</v>
-      </c>
-      <c r="AQ66">
-        <v>1.5</v>
-      </c>
-      <c r="AR66">
-        <v>1.2</v>
-      </c>
-      <c r="AS66">
-        <v>1.07</v>
-      </c>
-      <c r="AT66">
-        <v>2.27</v>
-      </c>
-      <c r="AU66">
+      <c r="AX66">
+        <v>6</v>
+      </c>
+      <c r="AY66">
+        <v>10</v>
+      </c>
+      <c r="AZ66">
+        <v>12</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
         <v>7</v>
       </c>
-      <c r="AV66">
-        <v>7</v>
-      </c>
-      <c r="AW66">
-        <v>11</v>
-      </c>
-      <c r="AX66">
-        <v>4</v>
-      </c>
-      <c r="AY66">
-        <v>18</v>
-      </c>
-      <c r="AZ66">
-        <v>11</v>
-      </c>
-      <c r="BA66">
-        <v>5</v>
-      </c>
-      <c r="BB66">
-        <v>4</v>
-      </c>
       <c r="BC66">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD66">
         <v>0</v>
@@ -14501,7 +14501,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7469253</v>
+        <v>7469255</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14516,55 +14516,55 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N67">
         <v>3</v>
       </c>
       <c r="O67" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="P67" t="s">
         <v>171</v>
       </c>
       <c r="Q67">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="R67">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="S67">
-        <v>1.62</v>
+        <v>3.5</v>
       </c>
       <c r="T67">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U67">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V67">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W67">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X67">
         <v>5</v>
@@ -14573,13 +14573,13 @@
         <v>1.14</v>
       </c>
       <c r="Z67">
-        <v>10</v>
+        <v>1.95</v>
       </c>
       <c r="AA67">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="AB67">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="AC67">
         <v>1.01</v>
@@ -14594,73 +14594,73 @@
         <v>5</v>
       </c>
       <c r="AG67">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AH67">
         <v>2.25</v>
       </c>
       <c r="AI67">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="AJ67">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="AK67">
-        <v>3.3</v>
+        <v>1.32</v>
       </c>
       <c r="AL67">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AM67">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="AN67">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO67">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AQ67">
-        <v>2.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
       <c r="AS67">
-        <v>1.65</v>
+        <v>1.07</v>
       </c>
       <c r="AT67">
-        <v>2.61</v>
+        <v>2.27</v>
       </c>
       <c r="AU67">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV67">
         <v>7</v>
       </c>
       <c r="AW67">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AX67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY67">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AZ67">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
         <v>4</v>
       </c>
-      <c r="BB67">
-        <v>8</v>
-      </c>
       <c r="BC67">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD67">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="180">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,21 @@
     <t>['3', '20', '63']</t>
   </si>
   <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['6', '14', '42', '58', '72']</t>
+  </si>
+  <si>
+    <t>['11', '45']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -472,9 +487,6 @@
     <t>['35', '51']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
     <t>['38', '89']</t>
   </si>
   <si>
@@ -533,6 +545,15 @@
   </si>
   <si>
     <t>['49', '51']</t>
+  </si>
+  <si>
+    <t>['11', '55']</t>
+  </si>
+  <si>
+    <t>['53', '58', '69', '80']</t>
+  </si>
+  <si>
+    <t>['23', '29', '34', '82']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP70"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1153,7 +1174,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1231,10 +1252,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1359,7 +1380,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1565,7 +1586,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1771,7 +1792,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1852,7 +1873,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ5">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1977,7 +1998,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2055,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ6">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2261,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ7">
         <v>0.6</v>
@@ -2467,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ8">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2595,7 +2616,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3007,7 +3028,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3088,7 +3109,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3213,7 +3234,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3291,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3419,7 +3440,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3497,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13">
         <v>2.17</v>
@@ -3625,7 +3646,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3703,7 +3724,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14">
         <v>1.88</v>
@@ -3912,7 +3933,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4115,10 +4136,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
         <v>1.91</v>
@@ -4324,7 +4345,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ17">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>0.68</v>
@@ -4527,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -4733,10 +4754,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ19">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR19">
         <v>1.34</v>
@@ -4861,7 +4882,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -4942,7 +4963,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5148,7 +5169,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR21">
         <v>1.58</v>
@@ -5273,7 +5294,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5685,7 +5706,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5763,7 +5784,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
         <v>1.88</v>
@@ -5891,7 +5912,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -5969,10 +5990,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR25">
         <v>0.89</v>
@@ -6097,7 +6118,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6175,10 +6196,10 @@
         <v>2</v>
       </c>
       <c r="AP26">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6303,7 +6324,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6384,7 +6405,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ27">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR27">
         <v>1.77</v>
@@ -6587,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6793,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ29">
         <v>0.6</v>
@@ -6921,7 +6942,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7127,7 +7148,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7208,7 +7229,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR31">
         <v>1.41</v>
@@ -7539,7 +7560,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7617,7 +7638,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
         <v>1.88</v>
@@ -7745,7 +7766,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7826,7 +7847,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR34">
         <v>0.86</v>
@@ -8029,10 +8050,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR35">
         <v>1.37</v>
@@ -8157,7 +8178,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -8235,7 +8256,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ36">
         <v>1.88</v>
@@ -8363,7 +8384,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8441,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>0.6</v>
@@ -8650,7 +8671,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ38">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -8853,10 +8874,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR39">
         <v>3.26</v>
@@ -9062,7 +9083,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ40">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9187,7 +9208,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9265,7 +9286,7 @@
         <v>1.33</v>
       </c>
       <c r="AP41">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9393,7 +9414,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9599,7 +9620,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9680,7 +9701,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ43">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR43">
         <v>0.99</v>
@@ -9805,7 +9826,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9883,10 +9904,10 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>1.05</v>
@@ -10217,7 +10238,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10295,10 +10316,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ46">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>0.8100000000000001</v>
@@ -10423,7 +10444,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10629,7 +10650,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10710,7 +10731,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -11041,7 +11062,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11119,7 +11140,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1.4</v>
@@ -11247,7 +11268,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11453,7 +11474,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11946,7 +11967,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR54">
         <v>1.67</v>
@@ -12071,7 +12092,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12149,7 +12170,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
         <v>2.25</v>
@@ -12277,7 +12298,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12358,7 +12379,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ56">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR56">
         <v>1.7</v>
@@ -12483,7 +12504,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12561,7 +12582,7 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -12767,10 +12788,10 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
         <v>1.13</v>
@@ -12976,7 +12997,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ59">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AR59">
         <v>1.28</v>
@@ -13101,7 +13122,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13179,10 +13200,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
         <v>1.7</v>
@@ -13388,7 +13409,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ61">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR61">
         <v>2.07</v>
@@ -13513,7 +13534,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13591,10 +13612,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13719,7 +13740,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13797,7 +13818,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ63">
         <v>2.17</v>
@@ -13925,7 +13946,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14003,7 +14024,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>2.17</v>
@@ -14131,7 +14152,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14212,7 +14233,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ65">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AR65">
         <v>0.96</v>
@@ -14543,7 +14564,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14621,7 +14642,7 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -14749,7 +14770,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15036,7 +15057,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15239,7 +15260,7 @@
         <v>2.14</v>
       </c>
       <c r="AP70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>1.88</v>
@@ -15317,6 +15338,1242 @@
         <v>0</v>
       </c>
       <c r="BP70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7469260</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45580.65625</v>
+      </c>
+      <c r="F71">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>74</v>
+      </c>
+      <c r="H71" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>132</v>
+      </c>
+      <c r="P71" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q71">
+        <v>7</v>
+      </c>
+      <c r="R71">
+        <v>2.3</v>
+      </c>
+      <c r="S71">
+        <v>1.91</v>
+      </c>
+      <c r="T71">
+        <v>1.36</v>
+      </c>
+      <c r="U71">
+        <v>3</v>
+      </c>
+      <c r="V71">
+        <v>2.63</v>
+      </c>
+      <c r="W71">
+        <v>1.44</v>
+      </c>
+      <c r="X71">
+        <v>6</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>6</v>
+      </c>
+      <c r="AA71">
+        <v>4.4</v>
+      </c>
+      <c r="AB71">
+        <v>1.38</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>1.76</v>
+      </c>
+      <c r="AH71">
+        <v>2</v>
+      </c>
+      <c r="AI71">
+        <v>2.1</v>
+      </c>
+      <c r="AJ71">
+        <v>1.67</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0.4</v>
+      </c>
+      <c r="AO71">
+        <v>2.17</v>
+      </c>
+      <c r="AP71">
+        <v>0.33</v>
+      </c>
+      <c r="AQ71">
+        <v>2.29</v>
+      </c>
+      <c r="AR71">
+        <v>1.05</v>
+      </c>
+      <c r="AS71">
+        <v>1.33</v>
+      </c>
+      <c r="AT71">
+        <v>2.38</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>9</v>
+      </c>
+      <c r="AW71">
+        <v>5</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>9</v>
+      </c>
+      <c r="AZ71">
+        <v>13</v>
+      </c>
+      <c r="BA71">
+        <v>8</v>
+      </c>
+      <c r="BB71">
+        <v>10</v>
+      </c>
+      <c r="BC71">
+        <v>18</v>
+      </c>
+      <c r="BD71">
+        <v>0</v>
+      </c>
+      <c r="BE71">
+        <v>0</v>
+      </c>
+      <c r="BF71">
+        <v>0</v>
+      </c>
+      <c r="BG71">
+        <v>0</v>
+      </c>
+      <c r="BH71">
+        <v>0</v>
+      </c>
+      <c r="BI71">
+        <v>0</v>
+      </c>
+      <c r="BJ71">
+        <v>0</v>
+      </c>
+      <c r="BK71">
+        <v>0</v>
+      </c>
+      <c r="BL71">
+        <v>0</v>
+      </c>
+      <c r="BM71">
+        <v>0</v>
+      </c>
+      <c r="BN71">
+        <v>0</v>
+      </c>
+      <c r="BO71">
+        <v>0</v>
+      </c>
+      <c r="BP71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7469264</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45580.65625</v>
+      </c>
+      <c r="F72">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>133</v>
+      </c>
+      <c r="P72" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q72">
+        <v>1.25</v>
+      </c>
+      <c r="R72">
+        <v>4</v>
+      </c>
+      <c r="S72">
+        <v>17</v>
+      </c>
+      <c r="T72">
+        <v>1.13</v>
+      </c>
+      <c r="U72">
+        <v>5.5</v>
+      </c>
+      <c r="V72">
+        <v>1.62</v>
+      </c>
+      <c r="W72">
+        <v>2.2</v>
+      </c>
+      <c r="X72">
+        <v>3</v>
+      </c>
+      <c r="Y72">
+        <v>1.36</v>
+      </c>
+      <c r="Z72">
+        <v>1.05</v>
+      </c>
+      <c r="AA72">
+        <v>14.46</v>
+      </c>
+      <c r="AB72">
+        <v>21.57</v>
+      </c>
+      <c r="AC72">
+        <v>0</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>1.2</v>
+      </c>
+      <c r="AH72">
+        <v>4.33</v>
+      </c>
+      <c r="AI72">
+        <v>2.5</v>
+      </c>
+      <c r="AJ72">
+        <v>1.5</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1.8</v>
+      </c>
+      <c r="AO72">
+        <v>1.4</v>
+      </c>
+      <c r="AP72">
+        <v>2</v>
+      </c>
+      <c r="AQ72">
+        <v>1.17</v>
+      </c>
+      <c r="AR72">
+        <v>2.71</v>
+      </c>
+      <c r="AS72">
+        <v>1.67</v>
+      </c>
+      <c r="AT72">
+        <v>4.38</v>
+      </c>
+      <c r="AU72">
+        <v>12</v>
+      </c>
+      <c r="AV72">
+        <v>3</v>
+      </c>
+      <c r="AW72">
+        <v>14</v>
+      </c>
+      <c r="AX72">
+        <v>2</v>
+      </c>
+      <c r="AY72">
+        <v>26</v>
+      </c>
+      <c r="AZ72">
+        <v>5</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>3</v>
+      </c>
+      <c r="BC72">
+        <v>8</v>
+      </c>
+      <c r="BD72">
+        <v>0</v>
+      </c>
+      <c r="BE72">
+        <v>0</v>
+      </c>
+      <c r="BF72">
+        <v>0</v>
+      </c>
+      <c r="BG72">
+        <v>0</v>
+      </c>
+      <c r="BH72">
+        <v>0</v>
+      </c>
+      <c r="BI72">
+        <v>0</v>
+      </c>
+      <c r="BJ72">
+        <v>0</v>
+      </c>
+      <c r="BK72">
+        <v>1.91</v>
+      </c>
+      <c r="BL72">
+        <v>0</v>
+      </c>
+      <c r="BM72">
+        <v>0</v>
+      </c>
+      <c r="BN72">
+        <v>0</v>
+      </c>
+      <c r="BO72">
+        <v>0</v>
+      </c>
+      <c r="BP72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7469259</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45580.65625</v>
+      </c>
+      <c r="F73">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s">
+        <v>73</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>85</v>
+      </c>
+      <c r="P73" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q73">
+        <v>3</v>
+      </c>
+      <c r="R73">
+        <v>2.1</v>
+      </c>
+      <c r="S73">
+        <v>3.4</v>
+      </c>
+      <c r="T73">
+        <v>1.4</v>
+      </c>
+      <c r="U73">
+        <v>2.75</v>
+      </c>
+      <c r="V73">
+        <v>3</v>
+      </c>
+      <c r="W73">
+        <v>1.36</v>
+      </c>
+      <c r="X73">
+        <v>7</v>
+      </c>
+      <c r="Y73">
+        <v>1.08</v>
+      </c>
+      <c r="Z73">
+        <v>2.24</v>
+      </c>
+      <c r="AA73">
+        <v>3.15</v>
+      </c>
+      <c r="AB73">
+        <v>2.8</v>
+      </c>
+      <c r="AC73">
+        <v>4.5</v>
+      </c>
+      <c r="AD73">
+        <v>1.14</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>1.95</v>
+      </c>
+      <c r="AH73">
+        <v>1.81</v>
+      </c>
+      <c r="AI73">
+        <v>1.8</v>
+      </c>
+      <c r="AJ73">
+        <v>1.91</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1.43</v>
+      </c>
+      <c r="AO73">
+        <v>1.33</v>
+      </c>
+      <c r="AP73">
+        <v>1.38</v>
+      </c>
+      <c r="AQ73">
+        <v>1.29</v>
+      </c>
+      <c r="AR73">
+        <v>1.39</v>
+      </c>
+      <c r="AS73">
+        <v>1.6</v>
+      </c>
+      <c r="AT73">
+        <v>2.99</v>
+      </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>3</v>
+      </c>
+      <c r="AW73">
+        <v>5</v>
+      </c>
+      <c r="AX73">
+        <v>2</v>
+      </c>
+      <c r="AY73">
+        <v>5</v>
+      </c>
+      <c r="AZ73">
+        <v>5</v>
+      </c>
+      <c r="BA73">
+        <v>7</v>
+      </c>
+      <c r="BB73">
+        <v>3</v>
+      </c>
+      <c r="BC73">
+        <v>10</v>
+      </c>
+      <c r="BD73">
+        <v>0</v>
+      </c>
+      <c r="BE73">
+        <v>0</v>
+      </c>
+      <c r="BF73">
+        <v>0</v>
+      </c>
+      <c r="BG73">
+        <v>0</v>
+      </c>
+      <c r="BH73">
+        <v>0</v>
+      </c>
+      <c r="BI73">
+        <v>0</v>
+      </c>
+      <c r="BJ73">
+        <v>0</v>
+      </c>
+      <c r="BK73">
+        <v>0</v>
+      </c>
+      <c r="BL73">
+        <v>0</v>
+      </c>
+      <c r="BM73">
+        <v>0</v>
+      </c>
+      <c r="BN73">
+        <v>0</v>
+      </c>
+      <c r="BO73">
+        <v>0</v>
+      </c>
+      <c r="BP73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7469263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45580.65625</v>
+      </c>
+      <c r="F74">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>6</v>
+      </c>
+      <c r="O74" t="s">
+        <v>134</v>
+      </c>
+      <c r="P74" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q74">
+        <v>2.88</v>
+      </c>
+      <c r="R74">
+        <v>2.2</v>
+      </c>
+      <c r="S74">
+        <v>3.25</v>
+      </c>
+      <c r="T74">
+        <v>1.33</v>
+      </c>
+      <c r="U74">
+        <v>3.25</v>
+      </c>
+      <c r="V74">
+        <v>2.63</v>
+      </c>
+      <c r="W74">
+        <v>1.44</v>
+      </c>
+      <c r="X74">
+        <v>6</v>
+      </c>
+      <c r="Y74">
+        <v>1.11</v>
+      </c>
+      <c r="Z74">
+        <v>2.15</v>
+      </c>
+      <c r="AA74">
+        <v>3.35</v>
+      </c>
+      <c r="AB74">
+        <v>2.79</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>1.75</v>
+      </c>
+      <c r="AH74">
+        <v>1.95</v>
+      </c>
+      <c r="AI74">
+        <v>1.62</v>
+      </c>
+      <c r="AJ74">
+        <v>2.2</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1.5</v>
+      </c>
+      <c r="AO74">
+        <v>0.83</v>
+      </c>
+      <c r="AP74">
+        <v>1.29</v>
+      </c>
+      <c r="AQ74">
+        <v>1.14</v>
+      </c>
+      <c r="AR74">
+        <v>1.8</v>
+      </c>
+      <c r="AS74">
+        <v>1.23</v>
+      </c>
+      <c r="AT74">
+        <v>3.03</v>
+      </c>
+      <c r="AU74">
+        <v>7</v>
+      </c>
+      <c r="AV74">
+        <v>6</v>
+      </c>
+      <c r="AW74">
+        <v>10</v>
+      </c>
+      <c r="AX74">
+        <v>7</v>
+      </c>
+      <c r="AY74">
+        <v>17</v>
+      </c>
+      <c r="AZ74">
+        <v>13</v>
+      </c>
+      <c r="BA74">
+        <v>8</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>12</v>
+      </c>
+      <c r="BD74">
+        <v>0</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>0</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>0</v>
+      </c>
+      <c r="BI74">
+        <v>0</v>
+      </c>
+      <c r="BJ74">
+        <v>0</v>
+      </c>
+      <c r="BK74">
+        <v>1.91</v>
+      </c>
+      <c r="BL74">
+        <v>0</v>
+      </c>
+      <c r="BM74">
+        <v>0</v>
+      </c>
+      <c r="BN74">
+        <v>0</v>
+      </c>
+      <c r="BO74">
+        <v>0</v>
+      </c>
+      <c r="BP74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7469261</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45580.65625</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s">
+        <v>78</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>5</v>
+      </c>
+      <c r="O75" t="s">
+        <v>135</v>
+      </c>
+      <c r="P75" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q75">
+        <v>1.73</v>
+      </c>
+      <c r="R75">
+        <v>2.6</v>
+      </c>
+      <c r="S75">
+        <v>7</v>
+      </c>
+      <c r="T75">
+        <v>1.25</v>
+      </c>
+      <c r="U75">
+        <v>3.75</v>
+      </c>
+      <c r="V75">
+        <v>2.2</v>
+      </c>
+      <c r="W75">
+        <v>1.62</v>
+      </c>
+      <c r="X75">
+        <v>4.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.17</v>
+      </c>
+      <c r="Z75">
+        <v>1.3</v>
+      </c>
+      <c r="AA75">
+        <v>5</v>
+      </c>
+      <c r="AB75">
+        <v>6.6</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>1.45</v>
+      </c>
+      <c r="AH75">
+        <v>2.55</v>
+      </c>
+      <c r="AI75">
+        <v>1.83</v>
+      </c>
+      <c r="AJ75">
+        <v>1.83</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1.17</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>0.43</v>
+      </c>
+      <c r="AR75">
+        <v>1.35</v>
+      </c>
+      <c r="AS75">
+        <v>0.72</v>
+      </c>
+      <c r="AT75">
+        <v>2.07</v>
+      </c>
+      <c r="AU75">
+        <v>6</v>
+      </c>
+      <c r="AV75">
+        <v>8</v>
+      </c>
+      <c r="AW75">
+        <v>8</v>
+      </c>
+      <c r="AX75">
+        <v>4</v>
+      </c>
+      <c r="AY75">
+        <v>14</v>
+      </c>
+      <c r="AZ75">
+        <v>12</v>
+      </c>
+      <c r="BA75">
+        <v>9</v>
+      </c>
+      <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
+        <v>11</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>0</v>
+      </c>
+      <c r="BG75">
+        <v>0</v>
+      </c>
+      <c r="BH75">
+        <v>0</v>
+      </c>
+      <c r="BI75">
+        <v>0</v>
+      </c>
+      <c r="BJ75">
+        <v>0</v>
+      </c>
+      <c r="BK75">
+        <v>0</v>
+      </c>
+      <c r="BL75">
+        <v>0</v>
+      </c>
+      <c r="BM75">
+        <v>0</v>
+      </c>
+      <c r="BN75">
+        <v>0</v>
+      </c>
+      <c r="BO75">
+        <v>0</v>
+      </c>
+      <c r="BP75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7469262</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45580.65625</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s">
+        <v>77</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>136</v>
+      </c>
+      <c r="P76" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q76">
+        <v>4.5</v>
+      </c>
+      <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>2.5</v>
+      </c>
+      <c r="T76">
+        <v>1.44</v>
+      </c>
+      <c r="U76">
+        <v>2.63</v>
+      </c>
+      <c r="V76">
+        <v>3.25</v>
+      </c>
+      <c r="W76">
+        <v>1.33</v>
+      </c>
+      <c r="X76">
+        <v>7.5</v>
+      </c>
+      <c r="Y76">
+        <v>1.07</v>
+      </c>
+      <c r="Z76">
+        <v>3.7</v>
+      </c>
+      <c r="AA76">
+        <v>3.35</v>
+      </c>
+      <c r="AB76">
+        <v>1.82</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>2.74</v>
+      </c>
+      <c r="AF76">
+        <v>1.43</v>
+      </c>
+      <c r="AG76">
+        <v>2</v>
+      </c>
+      <c r="AH76">
+        <v>1.7</v>
+      </c>
+      <c r="AI76">
+        <v>2</v>
+      </c>
+      <c r="AJ76">
+        <v>1.73</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1.25</v>
+      </c>
+      <c r="AO76">
+        <v>2.67</v>
+      </c>
+      <c r="AP76">
+        <v>1.2</v>
+      </c>
+      <c r="AQ76">
+        <v>2.43</v>
+      </c>
+      <c r="AR76">
+        <v>1.22</v>
+      </c>
+      <c r="AS76">
+        <v>1.67</v>
+      </c>
+      <c r="AT76">
+        <v>2.89</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>6</v>
+      </c>
+      <c r="AW76">
+        <v>9</v>
+      </c>
+      <c r="AX76">
+        <v>6</v>
+      </c>
+      <c r="AY76">
+        <v>14</v>
+      </c>
+      <c r="AZ76">
+        <v>12</v>
+      </c>
+      <c r="BA76">
+        <v>6</v>
+      </c>
+      <c r="BB76">
+        <v>6</v>
+      </c>
+      <c r="BC76">
+        <v>12</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>0</v>
+      </c>
+      <c r="BH76">
+        <v>0</v>
+      </c>
+      <c r="BI76">
+        <v>0</v>
+      </c>
+      <c r="BJ76">
+        <v>0</v>
+      </c>
+      <c r="BK76">
+        <v>0</v>
+      </c>
+      <c r="BL76">
+        <v>0</v>
+      </c>
+      <c r="BM76">
+        <v>0</v>
+      </c>
+      <c r="BN76">
+        <v>0</v>
+      </c>
+      <c r="BO76">
+        <v>0</v>
+      </c>
+      <c r="BP76">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -415,10 +415,10 @@
     <t>['31']</t>
   </si>
   <si>
-    <t>['6', '14', '42', '58', '72']</t>
-  </si>
-  <si>
-    <t>['11', '45']</t>
+    <t>['5', '14', '41', '55', '72']</t>
+  </si>
+  <si>
+    <t>['11', '44']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -547,10 +547,10 @@
     <t>['49', '51']</t>
   </si>
   <si>
-    <t>['11', '55']</t>
-  </si>
-  <si>
-    <t>['53', '58', '69', '80']</t>
+    <t>['11', '57']</t>
+  </si>
+  <si>
+    <t>['53', '57', '69', '80']</t>
   </si>
   <si>
     <t>['23', '29', '34', '82']</t>
@@ -15355,7 +15355,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45580.65625</v>
+        <v>45579.875</v>
       </c>
       <c r="F71">
         <v>13</v>
@@ -15561,7 +15561,7 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45580.65625</v>
+        <v>45579.875</v>
       </c>
       <c r="F72">
         <v>13</v>
@@ -15767,7 +15767,7 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45580.65625</v>
+        <v>45579.875</v>
       </c>
       <c r="F73">
         <v>13</v>
@@ -15973,7 +15973,7 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45580.65625</v>
+        <v>45579.875</v>
       </c>
       <c r="F74">
         <v>13</v>
@@ -16179,7 +16179,7 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45580.65625</v>
+        <v>45579.875</v>
       </c>
       <c r="F75">
         <v>13</v>
@@ -16385,7 +16385,7 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45580.65625</v>
+        <v>45579.875</v>
       </c>
       <c r="F76">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -418,15 +418,15 @@
     <t>['5', '14', '41', '55', '72']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
     <t>['11', '44']</t>
   </si>
   <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
-    <t>['87']</t>
-  </si>
-  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -550,10 +550,10 @@
     <t>['11', '57']</t>
   </si>
   <si>
+    <t>['23', '29', '34', '82']</t>
+  </si>
+  <si>
     <t>['53', '57', '69', '80']</t>
-  </si>
-  <si>
-    <t>['23', '29', '34', '82']</t>
   </si>
 </sst>
 </file>
@@ -8178,7 +8178,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q36">
         <v>2.63</v>
@@ -15355,7 +15355,7 @@
         <v>69</v>
       </c>
       <c r="E71" s="2">
-        <v>45579.875</v>
+        <v>45580.65625</v>
       </c>
       <c r="F71">
         <v>13</v>
@@ -15481,22 +15481,22 @@
         <v>2.38</v>
       </c>
       <c r="AU71">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV71">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW71">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AX71">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY71">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AZ71">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA71">
         <v>8</v>
@@ -15552,7 +15552,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7469264</v>
+        <v>7469259</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15561,82 +15561,82 @@
         <v>69</v>
       </c>
       <c r="E72" s="2">
-        <v>45579.875</v>
+        <v>45580.65625</v>
       </c>
       <c r="F72">
         <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="P72" t="s">
         <v>85</v>
       </c>
       <c r="Q72">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="R72">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="S72">
-        <v>17</v>
+        <v>3.4</v>
       </c>
       <c r="T72">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="U72">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="V72">
-        <v>1.62</v>
+        <v>3</v>
       </c>
       <c r="W72">
-        <v>2.2</v>
+        <v>1.36</v>
       </c>
       <c r="X72">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Y72">
-        <v>1.36</v>
+        <v>1.08</v>
       </c>
       <c r="Z72">
-        <v>1.05</v>
+        <v>2.24</v>
       </c>
       <c r="AA72">
-        <v>14.46</v>
+        <v>3.15</v>
       </c>
       <c r="AB72">
-        <v>21.57</v>
+        <v>2.8</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE72">
         <v>0</v>
@@ -15645,16 +15645,16 @@
         <v>0</v>
       </c>
       <c r="AG72">
-        <v>1.2</v>
+        <v>1.95</v>
       </c>
       <c r="AH72">
-        <v>4.33</v>
+        <v>1.81</v>
       </c>
       <c r="AI72">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AJ72">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="AK72">
         <v>0</v>
@@ -15666,52 +15666,52 @@
         <v>0</v>
       </c>
       <c r="AN72">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AO72">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR72">
-        <v>2.71</v>
+        <v>1.39</v>
       </c>
       <c r="AS72">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT72">
-        <v>4.38</v>
+        <v>2.99</v>
       </c>
       <c r="AU72">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AV72">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW72">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AX72">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY72">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="AZ72">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB72">
         <v>3</v>
       </c>
       <c r="BC72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD72">
         <v>0</v>
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="BK72">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BL72">
         <v>0</v>
@@ -15758,7 +15758,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7469259</v>
+        <v>7469264</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15767,157 +15767,157 @@
         <v>69</v>
       </c>
       <c r="E73" s="2">
-        <v>45579.875</v>
+        <v>45580.65625</v>
       </c>
       <c r="F73">
         <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O73" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="P73" t="s">
         <v>85</v>
       </c>
       <c r="Q73">
+        <v>1.25</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="S73">
+        <v>17</v>
+      </c>
+      <c r="T73">
+        <v>1.13</v>
+      </c>
+      <c r="U73">
+        <v>5.5</v>
+      </c>
+      <c r="V73">
+        <v>1.62</v>
+      </c>
+      <c r="W73">
+        <v>2.2</v>
+      </c>
+      <c r="X73">
         <v>3</v>
       </c>
-      <c r="R73">
-        <v>2.1</v>
-      </c>
-      <c r="S73">
-        <v>3.4</v>
-      </c>
-      <c r="T73">
+      <c r="Y73">
+        <v>1.36</v>
+      </c>
+      <c r="Z73">
+        <v>1.05</v>
+      </c>
+      <c r="AA73">
+        <v>14.46</v>
+      </c>
+      <c r="AB73">
+        <v>21.57</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>1.2</v>
+      </c>
+      <c r="AH73">
+        <v>4.33</v>
+      </c>
+      <c r="AI73">
+        <v>2.5</v>
+      </c>
+      <c r="AJ73">
+        <v>1.5</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1.8</v>
+      </c>
+      <c r="AO73">
         <v>1.4</v>
       </c>
-      <c r="U73">
-        <v>2.75</v>
-      </c>
-      <c r="V73">
-        <v>3</v>
-      </c>
-      <c r="W73">
-        <v>1.36</v>
-      </c>
-      <c r="X73">
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>1.17</v>
+      </c>
+      <c r="AR73">
+        <v>2.71</v>
+      </c>
+      <c r="AS73">
+        <v>1.67</v>
+      </c>
+      <c r="AT73">
+        <v>4.38</v>
+      </c>
+      <c r="AU73">
         <v>7</v>
-      </c>
-      <c r="Y73">
-        <v>1.08</v>
-      </c>
-      <c r="Z73">
-        <v>2.24</v>
-      </c>
-      <c r="AA73">
-        <v>3.15</v>
-      </c>
-      <c r="AB73">
-        <v>2.8</v>
-      </c>
-      <c r="AC73">
-        <v>4.5</v>
-      </c>
-      <c r="AD73">
-        <v>1.14</v>
-      </c>
-      <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73">
-        <v>0</v>
-      </c>
-      <c r="AG73">
-        <v>1.95</v>
-      </c>
-      <c r="AH73">
-        <v>1.81</v>
-      </c>
-      <c r="AI73">
-        <v>1.8</v>
-      </c>
-      <c r="AJ73">
-        <v>1.91</v>
-      </c>
-      <c r="AK73">
-        <v>0</v>
-      </c>
-      <c r="AL73">
-        <v>0</v>
-      </c>
-      <c r="AM73">
-        <v>0</v>
-      </c>
-      <c r="AN73">
-        <v>1.43</v>
-      </c>
-      <c r="AO73">
-        <v>1.33</v>
-      </c>
-      <c r="AP73">
-        <v>1.38</v>
-      </c>
-      <c r="AQ73">
-        <v>1.29</v>
-      </c>
-      <c r="AR73">
-        <v>1.39</v>
-      </c>
-      <c r="AS73">
-        <v>1.6</v>
-      </c>
-      <c r="AT73">
-        <v>2.99</v>
-      </c>
-      <c r="AU73">
-        <v>0</v>
       </c>
       <c r="AV73">
         <v>3</v>
       </c>
       <c r="AW73">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AX73">
         <v>2</v>
       </c>
       <c r="AY73">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="AZ73">
         <v>5</v>
       </c>
       <c r="BA73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB73">
         <v>3</v>
       </c>
       <c r="BC73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD73">
         <v>0</v>
@@ -15941,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="BK73">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BL73">
         <v>0</v>
@@ -15964,7 +15964,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7469263</v>
+        <v>7469261</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -15973,34 +15973,34 @@
         <v>69</v>
       </c>
       <c r="E74" s="2">
-        <v>45579.875</v>
+        <v>45580.65625</v>
       </c>
       <c r="F74">
         <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M74">
         <v>4</v>
       </c>
       <c r="N74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O74" t="s">
         <v>134</v>
@@ -16009,40 +16009,40 @@
         <v>178</v>
       </c>
       <c r="Q74">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="R74">
+        <v>2.6</v>
+      </c>
+      <c r="S74">
+        <v>7</v>
+      </c>
+      <c r="T74">
+        <v>1.25</v>
+      </c>
+      <c r="U74">
+        <v>3.75</v>
+      </c>
+      <c r="V74">
         <v>2.2</v>
       </c>
-      <c r="S74">
-        <v>3.25</v>
-      </c>
-      <c r="T74">
-        <v>1.33</v>
-      </c>
-      <c r="U74">
-        <v>3.25</v>
-      </c>
-      <c r="V74">
-        <v>2.63</v>
-      </c>
       <c r="W74">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="X74">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Y74">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="Z74">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="AA74">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="AB74">
-        <v>2.79</v>
+        <v>6.6</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -16057,16 +16057,16 @@
         <v>0</v>
       </c>
       <c r="AG74">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AH74">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="AI74">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AJ74">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AK74">
         <v>0</v>
@@ -16078,52 +16078,52 @@
         <v>0</v>
       </c>
       <c r="AN74">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO74">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AP74">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.14</v>
+        <v>0.43</v>
       </c>
       <c r="AR74">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="AS74">
-        <v>1.23</v>
+        <v>0.72</v>
       </c>
       <c r="AT74">
-        <v>3.03</v>
+        <v>2.07</v>
       </c>
       <c r="AU74">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV74">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW74">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="AX74">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AY74">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="AZ74">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA74">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC74">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD74">
         <v>0</v>
@@ -16147,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="BK74">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="BL74">
         <v>0</v>
@@ -16170,7 +16170,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7469261</v>
+        <v>7469262</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16179,157 +16179,157 @@
         <v>69</v>
       </c>
       <c r="E75" s="2">
-        <v>45579.875</v>
+        <v>45580.65625</v>
       </c>
       <c r="F75">
         <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L75">
         <v>1</v>
       </c>
       <c r="M75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O75" t="s">
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="Q75">
+        <v>4.5</v>
+      </c>
+      <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>2.5</v>
+      </c>
+      <c r="T75">
+        <v>1.44</v>
+      </c>
+      <c r="U75">
+        <v>2.63</v>
+      </c>
+      <c r="V75">
+        <v>3.25</v>
+      </c>
+      <c r="W75">
+        <v>1.33</v>
+      </c>
+      <c r="X75">
+        <v>7.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.07</v>
+      </c>
+      <c r="Z75">
+        <v>3.7</v>
+      </c>
+      <c r="AA75">
+        <v>3.35</v>
+      </c>
+      <c r="AB75">
+        <v>1.82</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>2.74</v>
+      </c>
+      <c r="AF75">
+        <v>1.43</v>
+      </c>
+      <c r="AG75">
+        <v>2</v>
+      </c>
+      <c r="AH75">
+        <v>1.7</v>
+      </c>
+      <c r="AI75">
+        <v>2</v>
+      </c>
+      <c r="AJ75">
         <v>1.73</v>
       </c>
-      <c r="R75">
-        <v>2.6</v>
-      </c>
-      <c r="S75">
-        <v>7</v>
-      </c>
-      <c r="T75">
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
         <v>1.25</v>
       </c>
-      <c r="U75">
-        <v>3.75</v>
-      </c>
-      <c r="V75">
-        <v>2.2</v>
-      </c>
-      <c r="W75">
-        <v>1.62</v>
-      </c>
-      <c r="X75">
-        <v>4.5</v>
-      </c>
-      <c r="Y75">
-        <v>1.17</v>
-      </c>
-      <c r="Z75">
-        <v>1.3</v>
-      </c>
-      <c r="AA75">
-        <v>5</v>
-      </c>
-      <c r="AB75">
-        <v>6.6</v>
-      </c>
-      <c r="AC75">
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
-        <v>0</v>
-      </c>
-      <c r="AG75">
-        <v>1.45</v>
-      </c>
-      <c r="AH75">
-        <v>2.55</v>
-      </c>
-      <c r="AI75">
-        <v>1.83</v>
-      </c>
-      <c r="AJ75">
-        <v>1.83</v>
-      </c>
-      <c r="AK75">
-        <v>0</v>
-      </c>
-      <c r="AL75">
-        <v>0</v>
-      </c>
-      <c r="AM75">
-        <v>0</v>
-      </c>
-      <c r="AN75">
-        <v>1.17</v>
-      </c>
       <c r="AO75">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ75">
-        <v>0.43</v>
+        <v>2.43</v>
       </c>
       <c r="AR75">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AS75">
-        <v>0.72</v>
+        <v>1.67</v>
       </c>
       <c r="AT75">
-        <v>2.07</v>
+        <v>2.89</v>
       </c>
       <c r="AU75">
         <v>6</v>
       </c>
       <c r="AV75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW75">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY75">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ75">
         <v>12</v>
       </c>
       <c r="BA75">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD75">
         <v>0</v>
@@ -16376,7 +16376,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7469262</v>
+        <v>7469263</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16385,76 +16385,76 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45579.875</v>
+        <v>45580.65625</v>
       </c>
       <c r="F76">
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H76" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O76" t="s">
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="Q76">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="R76">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S76">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T76">
+        <v>1.33</v>
+      </c>
+      <c r="U76">
+        <v>3.25</v>
+      </c>
+      <c r="V76">
+        <v>2.63</v>
+      </c>
+      <c r="W76">
         <v>1.44</v>
       </c>
-      <c r="U76">
-        <v>2.63</v>
-      </c>
-      <c r="V76">
-        <v>3.25</v>
-      </c>
-      <c r="W76">
-        <v>1.33</v>
-      </c>
       <c r="X76">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Y76">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z76">
-        <v>3.7</v>
+        <v>2.15</v>
       </c>
       <c r="AA76">
         <v>3.35</v>
       </c>
       <c r="AB76">
-        <v>1.82</v>
+        <v>2.79</v>
       </c>
       <c r="AC76">
         <v>0</v>
@@ -16463,22 +16463,22 @@
         <v>0</v>
       </c>
       <c r="AE76">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="AF76">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AG76">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AH76">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AI76">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="AJ76">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="AK76">
         <v>0</v>
@@ -16490,49 +16490,49 @@
         <v>0</v>
       </c>
       <c r="AN76">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO76">
-        <v>2.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>2.43</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="AS76">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="AT76">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="AU76">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV76">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AW76">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AX76">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY76">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ76">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BA76">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC76">
         <v>12</v>
@@ -16559,7 +16559,7 @@
         <v>0</v>
       </c>
       <c r="BK76">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="BL76">
         <v>0</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -15481,22 +15481,22 @@
         <v>2.38</v>
       </c>
       <c r="AU71">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV71">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW71">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX71">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY71">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ71">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA71">
         <v>8</v>
@@ -15687,22 +15687,22 @@
         <v>2.99</v>
       </c>
       <c r="AU72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV72">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW72">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX72">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY72">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ72">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA72">
         <v>7</v>
@@ -16099,22 +16099,22 @@
         <v>2.07</v>
       </c>
       <c r="AU74">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV74">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW74">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX74">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY74">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ74">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA74">
         <v>9</v>
@@ -16511,22 +16511,22 @@
         <v>3.03</v>
       </c>
       <c r="AU76">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV76">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW76">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX76">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY76">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AZ76">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA76">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>['11', '44']</t>
+  </si>
+  <si>
+    <t>['6', '50']</t>
   </si>
   <si>
     <t>['45+2']</t>
@@ -915,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1177,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1380,7 +1383,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1586,7 +1589,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1792,7 +1795,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1998,7 +2001,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2488,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>1.14</v>
@@ -2616,7 +2619,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2903,7 +2906,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3028,7 +3031,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3234,7 +3237,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3440,7 +3443,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3646,7 +3649,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4754,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
         <v>2.29</v>
@@ -4882,7 +4885,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5294,7 +5297,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5375,7 +5378,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5581,7 +5584,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -5706,7 +5709,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5912,7 +5915,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6118,7 +6121,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6324,7 +6327,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6942,7 +6945,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7148,7 +7151,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7560,7 +7563,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7766,7 +7769,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8384,7 +8387,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -9208,7 +9211,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9289,7 +9292,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9414,7 +9417,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9620,7 +9623,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9826,7 +9829,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9904,7 +9907,7 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>1.29</v>
@@ -10238,7 +10241,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10444,7 +10447,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10525,7 +10528,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10650,7 +10653,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11062,7 +11065,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11268,7 +11271,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11474,7 +11477,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12092,7 +12095,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12298,7 +12301,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12504,7 +12507,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -13122,7 +13125,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13534,7 +13537,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13740,7 +13743,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13818,7 +13821,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ63">
         <v>2.17</v>
@@ -13946,7 +13949,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14152,7 +14155,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14564,7 +14567,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14645,7 +14648,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.2</v>
@@ -14770,7 +14773,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15388,7 +15391,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16006,7 +16009,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16290,7 +16293,7 @@
         <v>2.67</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ75">
         <v>2.43</v>
@@ -16418,7 +16421,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16574,6 +16577,212 @@
         <v>0</v>
       </c>
       <c r="BP76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7727576</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45590.65625</v>
+      </c>
+      <c r="F77">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>137</v>
+      </c>
+      <c r="P77" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q77">
+        <v>2.5</v>
+      </c>
+      <c r="R77">
+        <v>2.2</v>
+      </c>
+      <c r="S77">
+        <v>3.75</v>
+      </c>
+      <c r="T77">
+        <v>1.36</v>
+      </c>
+      <c r="U77">
+        <v>3</v>
+      </c>
+      <c r="V77">
+        <v>2.63</v>
+      </c>
+      <c r="W77">
+        <v>1.44</v>
+      </c>
+      <c r="X77">
+        <v>6.5</v>
+      </c>
+      <c r="Y77">
+        <v>1.1</v>
+      </c>
+      <c r="Z77">
+        <v>1.91</v>
+      </c>
+      <c r="AA77">
+        <v>3.21</v>
+      </c>
+      <c r="AB77">
+        <v>3</v>
+      </c>
+      <c r="AC77">
+        <v>1.04</v>
+      </c>
+      <c r="AD77">
+        <v>11</v>
+      </c>
+      <c r="AE77">
+        <v>1.16</v>
+      </c>
+      <c r="AF77">
+        <v>3.94</v>
+      </c>
+      <c r="AG77">
+        <v>1.7</v>
+      </c>
+      <c r="AH77">
+        <v>2.05</v>
+      </c>
+      <c r="AI77">
+        <v>1.73</v>
+      </c>
+      <c r="AJ77">
+        <v>2</v>
+      </c>
+      <c r="AK77">
+        <v>1.28</v>
+      </c>
+      <c r="AL77">
+        <v>1.25</v>
+      </c>
+      <c r="AM77">
+        <v>1.7</v>
+      </c>
+      <c r="AN77">
+        <v>1.2</v>
+      </c>
+      <c r="AO77">
+        <v>1.5</v>
+      </c>
+      <c r="AP77">
+        <v>1.5</v>
+      </c>
+      <c r="AQ77">
+        <v>1.29</v>
+      </c>
+      <c r="AR77">
+        <v>1.29</v>
+      </c>
+      <c r="AS77">
+        <v>1.12</v>
+      </c>
+      <c r="AT77">
+        <v>2.41</v>
+      </c>
+      <c r="AU77">
+        <v>4</v>
+      </c>
+      <c r="AV77">
+        <v>9</v>
+      </c>
+      <c r="AW77">
+        <v>2</v>
+      </c>
+      <c r="AX77">
+        <v>10</v>
+      </c>
+      <c r="AY77">
+        <v>6</v>
+      </c>
+      <c r="AZ77">
+        <v>19</v>
+      </c>
+      <c r="BA77">
+        <v>4</v>
+      </c>
+      <c r="BB77">
+        <v>17</v>
+      </c>
+      <c r="BC77">
+        <v>21</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>0</v>
+      </c>
+      <c r="BG77">
+        <v>0</v>
+      </c>
+      <c r="BH77">
+        <v>0</v>
+      </c>
+      <c r="BI77">
+        <v>0</v>
+      </c>
+      <c r="BJ77">
+        <v>0</v>
+      </c>
+      <c r="BK77">
+        <v>0</v>
+      </c>
+      <c r="BL77">
+        <v>0</v>
+      </c>
+      <c r="BM77">
+        <v>0</v>
+      </c>
+      <c r="BN77">
+        <v>0</v>
+      </c>
+      <c r="BO77">
+        <v>0</v>
+      </c>
+      <c r="BP77">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,12 @@
     <t>['6', '50']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -557,6 +563,12 @@
   </si>
   <si>
     <t>['53', '57', '69', '80']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['21', '29']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1177,7 +1189,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1383,7 +1395,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1464,7 +1476,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1589,7 +1601,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1667,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ4">
         <v>1.88</v>
@@ -1795,7 +1807,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2001,7 +2013,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2494,7 +2506,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2619,7 +2631,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2697,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>2.25</v>
@@ -2903,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>1.29</v>
@@ -3031,7 +3043,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3237,7 +3249,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3443,7 +3455,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3649,7 +3661,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4348,7 +4360,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>0.68</v>
@@ -4554,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -4885,7 +4897,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -4963,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
         <v>1.29</v>
@@ -5169,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
         <v>0.43</v>
@@ -5297,7 +5309,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5709,7 +5721,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5915,7 +5927,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6121,7 +6133,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6327,7 +6339,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6945,7 +6957,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7151,7 +7163,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7232,7 +7244,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ31">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR31">
         <v>1.41</v>
@@ -7435,7 +7447,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>2.17</v>
@@ -7563,7 +7575,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7769,7 +7781,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8387,7 +8399,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8671,7 +8683,7 @@
         <v>2.33</v>
       </c>
       <c r="AP38">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ38">
         <v>2.29</v>
@@ -8880,7 +8892,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR39">
         <v>3.26</v>
@@ -9211,7 +9223,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9417,7 +9429,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9495,7 +9507,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>2.25</v>
@@ -9623,7 +9635,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9829,7 +9841,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10241,7 +10253,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10447,7 +10459,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10653,7 +10665,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10734,7 +10746,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -10937,7 +10949,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>0.6</v>
@@ -11065,7 +11077,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11146,7 +11158,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>3.27</v>
@@ -11271,7 +11283,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11477,7 +11489,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11555,7 +11567,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ52">
         <v>2.17</v>
@@ -12095,7 +12107,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12301,7 +12313,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12379,7 +12391,7 @@
         <v>2.5</v>
       </c>
       <c r="AP56">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ56">
         <v>2.43</v>
@@ -12507,7 +12519,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12588,7 +12600,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -13125,7 +13137,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13409,10 +13421,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR61">
         <v>2.07</v>
@@ -13537,7 +13549,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13743,7 +13755,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13949,7 +13961,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14155,7 +14167,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14567,7 +14579,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14773,7 +14785,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14851,10 +14863,10 @@
         <v>1.5</v>
       </c>
       <c r="AP68">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ68">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.56</v>
@@ -15391,7 +15403,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16009,7 +16021,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16421,7 +16433,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16502,7 +16514,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR76">
         <v>1.8</v>
@@ -16783,6 +16795,418 @@
         <v>0</v>
       </c>
       <c r="BP77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7727578</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45591.4375</v>
+      </c>
+      <c r="F78">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s">
+        <v>75</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>138</v>
+      </c>
+      <c r="P78" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q78">
+        <v>2.75</v>
+      </c>
+      <c r="R78">
+        <v>2.1</v>
+      </c>
+      <c r="S78">
+        <v>3.75</v>
+      </c>
+      <c r="T78">
+        <v>1.4</v>
+      </c>
+      <c r="U78">
+        <v>2.75</v>
+      </c>
+      <c r="V78">
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <v>1.36</v>
+      </c>
+      <c r="X78">
+        <v>7</v>
+      </c>
+      <c r="Y78">
+        <v>1.08</v>
+      </c>
+      <c r="Z78">
+        <v>1.65</v>
+      </c>
+      <c r="AA78">
+        <v>3.4</v>
+      </c>
+      <c r="AB78">
+        <v>4.6</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>8</v>
+      </c>
+      <c r="AE78">
+        <v>1.27</v>
+      </c>
+      <c r="AF78">
+        <v>3.04</v>
+      </c>
+      <c r="AG78">
+        <v>2.05</v>
+      </c>
+      <c r="AH78">
+        <v>1.66</v>
+      </c>
+      <c r="AI78">
+        <v>1.83</v>
+      </c>
+      <c r="AJ78">
+        <v>1.83</v>
+      </c>
+      <c r="AK78">
+        <v>1.28</v>
+      </c>
+      <c r="AL78">
+        <v>1.28</v>
+      </c>
+      <c r="AM78">
+        <v>1.65</v>
+      </c>
+      <c r="AN78">
+        <v>2.17</v>
+      </c>
+      <c r="AO78">
+        <v>1.4</v>
+      </c>
+      <c r="AP78">
+        <v>2</v>
+      </c>
+      <c r="AQ78">
+        <v>1.33</v>
+      </c>
+      <c r="AR78">
+        <v>1.99</v>
+      </c>
+      <c r="AS78">
+        <v>1.28</v>
+      </c>
+      <c r="AT78">
+        <v>3.27</v>
+      </c>
+      <c r="AU78">
+        <v>4</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>10</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>14</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
+        <v>6</v>
+      </c>
+      <c r="BB78">
+        <v>6</v>
+      </c>
+      <c r="BC78">
+        <v>12</v>
+      </c>
+      <c r="BD78">
+        <v>0</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>0</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>0</v>
+      </c>
+      <c r="BI78">
+        <v>0</v>
+      </c>
+      <c r="BJ78">
+        <v>0</v>
+      </c>
+      <c r="BK78">
+        <v>0</v>
+      </c>
+      <c r="BL78">
+        <v>0</v>
+      </c>
+      <c r="BM78">
+        <v>0</v>
+      </c>
+      <c r="BN78">
+        <v>0</v>
+      </c>
+      <c r="BO78">
+        <v>0</v>
+      </c>
+      <c r="BP78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7727577</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45591.4375</v>
+      </c>
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" t="s">
+        <v>139</v>
+      </c>
+      <c r="P79" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q79">
+        <v>3.1</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>2.88</v>
+      </c>
+      <c r="T79">
+        <v>1.33</v>
+      </c>
+      <c r="U79">
+        <v>3.25</v>
+      </c>
+      <c r="V79">
+        <v>2.5</v>
+      </c>
+      <c r="W79">
+        <v>1.5</v>
+      </c>
+      <c r="X79">
+        <v>5.5</v>
+      </c>
+      <c r="Y79">
+        <v>1.13</v>
+      </c>
+      <c r="Z79">
+        <v>2.35</v>
+      </c>
+      <c r="AA79">
+        <v>3.5</v>
+      </c>
+      <c r="AB79">
+        <v>2.45</v>
+      </c>
+      <c r="AC79">
+        <v>1.03</v>
+      </c>
+      <c r="AD79">
+        <v>12</v>
+      </c>
+      <c r="AE79">
+        <v>1.16</v>
+      </c>
+      <c r="AF79">
+        <v>3.88</v>
+      </c>
+      <c r="AG79">
+        <v>1.58</v>
+      </c>
+      <c r="AH79">
+        <v>2.2</v>
+      </c>
+      <c r="AI79">
+        <v>1.57</v>
+      </c>
+      <c r="AJ79">
+        <v>2.25</v>
+      </c>
+      <c r="AK79">
+        <v>1.51</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.42</v>
+      </c>
+      <c r="AN79">
+        <v>0.57</v>
+      </c>
+      <c r="AO79">
+        <v>1.14</v>
+      </c>
+      <c r="AP79">
+        <v>0.5</v>
+      </c>
+      <c r="AQ79">
+        <v>1.38</v>
+      </c>
+      <c r="AR79">
+        <v>1.54</v>
+      </c>
+      <c r="AS79">
+        <v>1.29</v>
+      </c>
+      <c r="AT79">
+        <v>2.83</v>
+      </c>
+      <c r="AU79">
+        <v>9</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>13</v>
+      </c>
+      <c r="AX79">
+        <v>6</v>
+      </c>
+      <c r="AY79">
+        <v>22</v>
+      </c>
+      <c r="AZ79">
+        <v>10</v>
+      </c>
+      <c r="BA79">
+        <v>10</v>
+      </c>
+      <c r="BB79">
+        <v>4</v>
+      </c>
+      <c r="BC79">
+        <v>14</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>0</v>
+      </c>
+      <c r="BG79">
+        <v>0</v>
+      </c>
+      <c r="BH79">
+        <v>0</v>
+      </c>
+      <c r="BI79">
+        <v>0</v>
+      </c>
+      <c r="BJ79">
+        <v>0</v>
+      </c>
+      <c r="BK79">
+        <v>0</v>
+      </c>
+      <c r="BL79">
+        <v>0</v>
+      </c>
+      <c r="BM79">
+        <v>0</v>
+      </c>
+      <c r="BN79">
+        <v>0</v>
+      </c>
+      <c r="BO79">
+        <v>0</v>
+      </c>
+      <c r="BP79">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="186">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>['53', '57', '69', '80']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
   <si>
     <t>['90+4']</t>
@@ -930,7 +933,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3536,7 +3539,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ13">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>2.12</v>
@@ -3945,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ15">
         <v>2.43</v>
@@ -5593,7 +5596,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ23">
         <v>1.29</v>
@@ -7035,7 +7038,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ30">
         <v>2.25</v>
@@ -7450,7 +7453,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>2.16</v>
@@ -10128,7 +10131,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ45">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10743,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48">
         <v>1.38</v>
@@ -11570,7 +11573,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR52">
         <v>1.62</v>
@@ -11773,7 +11776,7 @@
         <v>2.5</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ53">
         <v>1.88</v>
@@ -13836,7 +13839,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ63">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -14042,7 +14045,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR64">
         <v>3.13</v>
@@ -15069,7 +15072,7 @@
         <v>1.4</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ69">
         <v>1.29</v>
@@ -16606,7 +16609,7 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45590.65625</v>
+        <v>45589.875</v>
       </c>
       <c r="F77">
         <v>14</v>
@@ -16639,7 +16642,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16845,7 +16848,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17051,7 +17054,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17207,6 +17210,212 @@
         <v>0</v>
       </c>
       <c r="BP79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7727579</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45591.55208333334</v>
+      </c>
+      <c r="F80">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s">
+        <v>79</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80" t="s">
+        <v>85</v>
+      </c>
+      <c r="P80" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q80">
+        <v>2.75</v>
+      </c>
+      <c r="R80">
+        <v>2.2</v>
+      </c>
+      <c r="S80">
+        <v>3.6</v>
+      </c>
+      <c r="T80">
+        <v>1.36</v>
+      </c>
+      <c r="U80">
+        <v>3</v>
+      </c>
+      <c r="V80">
+        <v>2.63</v>
+      </c>
+      <c r="W80">
+        <v>1.44</v>
+      </c>
+      <c r="X80">
+        <v>6.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.1</v>
+      </c>
+      <c r="Z80">
+        <v>1.75</v>
+      </c>
+      <c r="AA80">
+        <v>3.25</v>
+      </c>
+      <c r="AB80">
+        <v>3.82</v>
+      </c>
+      <c r="AC80">
+        <v>1.06</v>
+      </c>
+      <c r="AD80">
+        <v>9</v>
+      </c>
+      <c r="AE80">
+        <v>1.24</v>
+      </c>
+      <c r="AF80">
+        <v>3.22</v>
+      </c>
+      <c r="AG80">
+        <v>1.86</v>
+      </c>
+      <c r="AH80">
+        <v>1.94</v>
+      </c>
+      <c r="AI80">
+        <v>1.67</v>
+      </c>
+      <c r="AJ80">
+        <v>2.1</v>
+      </c>
+      <c r="AK80">
+        <v>1.31</v>
+      </c>
+      <c r="AL80">
+        <v>1.27</v>
+      </c>
+      <c r="AM80">
+        <v>1.62</v>
+      </c>
+      <c r="AN80">
+        <v>1.5</v>
+      </c>
+      <c r="AO80">
+        <v>2.17</v>
+      </c>
+      <c r="AP80">
+        <v>1.43</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>1.28</v>
+      </c>
+      <c r="AS80">
+        <v>1.49</v>
+      </c>
+      <c r="AT80">
+        <v>2.77</v>
+      </c>
+      <c r="AU80">
+        <v>3</v>
+      </c>
+      <c r="AV80">
+        <v>2</v>
+      </c>
+      <c r="AW80">
+        <v>12</v>
+      </c>
+      <c r="AX80">
+        <v>2</v>
+      </c>
+      <c r="AY80">
+        <v>15</v>
+      </c>
+      <c r="AZ80">
+        <v>4</v>
+      </c>
+      <c r="BA80">
+        <v>7</v>
+      </c>
+      <c r="BB80">
+        <v>1</v>
+      </c>
+      <c r="BC80">
+        <v>8</v>
+      </c>
+      <c r="BD80">
+        <v>1.37</v>
+      </c>
+      <c r="BE80">
+        <v>7.3</v>
+      </c>
+      <c r="BF80">
+        <v>3.98</v>
+      </c>
+      <c r="BG80">
+        <v>0</v>
+      </c>
+      <c r="BH80">
+        <v>0</v>
+      </c>
+      <c r="BI80">
+        <v>1.46</v>
+      </c>
+      <c r="BJ80">
+        <v>2.44</v>
+      </c>
+      <c r="BK80">
+        <v>1.83</v>
+      </c>
+      <c r="BL80">
+        <v>1.94</v>
+      </c>
+      <c r="BM80">
+        <v>2.27</v>
+      </c>
+      <c r="BN80">
+        <v>1.54</v>
+      </c>
+      <c r="BO80">
+        <v>0</v>
+      </c>
+      <c r="BP80">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,12 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['22', '72']</t>
+  </si>
+  <si>
+    <t>['34', '37']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -572,6 +578,12 @@
   </si>
   <si>
     <t>['21', '29']</t>
+  </si>
+  <si>
+    <t>['2', '42', '45', '90+6']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -933,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1204,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1398,7 +1410,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1604,7 +1616,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1810,7 +1822,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1888,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ5">
         <v>2.29</v>
@@ -2016,7 +2028,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2303,7 +2315,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2634,7 +2646,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2715,7 +2727,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR9">
         <v>1.59</v>
@@ -3046,7 +3058,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3124,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ11">
         <v>1.29</v>
@@ -3252,7 +3264,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3458,7 +3470,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3664,7 +3676,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4360,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -4900,7 +4912,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5312,7 +5324,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5724,7 +5736,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5930,7 +5942,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6136,7 +6148,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6342,7 +6354,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6835,7 +6847,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.93</v>
@@ -6960,7 +6972,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7041,7 +7053,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ30">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7166,7 +7178,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7244,7 +7256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -7578,7 +7590,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7784,7 +7796,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7862,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ34">
         <v>1.17</v>
@@ -8402,7 +8414,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8483,7 +8495,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.1</v>
@@ -9098,7 +9110,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ40">
         <v>2.43</v>
@@ -9226,7 +9238,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9432,7 +9444,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9513,7 +9525,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9638,7 +9650,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9716,7 +9728,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ43">
         <v>2.29</v>
@@ -9844,7 +9856,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10256,7 +10268,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10462,7 +10474,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10540,7 +10552,7 @@
         <v>1.25</v>
       </c>
       <c r="AP47">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
         <v>1.29</v>
@@ -10668,7 +10680,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10955,7 +10967,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR49">
         <v>2.19</v>
@@ -11080,7 +11092,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11286,7 +11298,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11364,7 +11376,7 @@
         <v>2.4</v>
       </c>
       <c r="AP51">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ51">
         <v>1.88</v>
@@ -11492,7 +11504,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12110,7 +12122,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12191,7 +12203,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ55">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR55">
         <v>1.83</v>
@@ -12316,7 +12328,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12522,7 +12534,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -13012,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ59">
         <v>0.43</v>
@@ -13140,7 +13152,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13552,7 +13564,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13758,7 +13770,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13964,7 +13976,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14170,7 +14182,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14248,7 +14260,7 @@
         <v>2.6</v>
       </c>
       <c r="AP65">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ65">
         <v>2.43</v>
@@ -14457,7 +14469,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.7</v>
@@ -14582,7 +14594,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14788,7 +14800,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15406,7 +15418,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16024,7 +16036,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16436,7 +16448,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16609,7 +16621,7 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45589.875</v>
+        <v>45590.65625</v>
       </c>
       <c r="F77">
         <v>14</v>
@@ -16642,7 +16654,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16735,22 +16747,22 @@
         <v>2.41</v>
       </c>
       <c r="AU77">
+        <v>2</v>
+      </c>
+      <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>2</v>
+      </c>
+      <c r="AX77">
+        <v>6</v>
+      </c>
+      <c r="AY77">
         <v>4</v>
       </c>
-      <c r="AV77">
-        <v>9</v>
-      </c>
-      <c r="AW77">
-        <v>2</v>
-      </c>
-      <c r="AX77">
-        <v>10</v>
-      </c>
-      <c r="AY77">
-        <v>6</v>
-      </c>
       <c r="AZ77">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BA77">
         <v>4</v>
@@ -16848,7 +16860,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17054,7 +17066,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17417,6 +17429,418 @@
       </c>
       <c r="BP80">
         <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7727580</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45592.41666666666</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81" t="s">
+        <v>140</v>
+      </c>
+      <c r="P81" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q81">
+        <v>19</v>
+      </c>
+      <c r="R81">
+        <v>3.75</v>
+      </c>
+      <c r="S81">
+        <v>1.25</v>
+      </c>
+      <c r="T81">
+        <v>1.17</v>
+      </c>
+      <c r="U81">
+        <v>4.5</v>
+      </c>
+      <c r="V81">
+        <v>1.73</v>
+      </c>
+      <c r="W81">
+        <v>2</v>
+      </c>
+      <c r="X81">
+        <v>3.4</v>
+      </c>
+      <c r="Y81">
+        <v>1.3</v>
+      </c>
+      <c r="Z81">
+        <v>34</v>
+      </c>
+      <c r="AA81">
+        <v>12</v>
+      </c>
+      <c r="AB81">
+        <v>1.05</v>
+      </c>
+      <c r="AC81">
+        <v>1.01</v>
+      </c>
+      <c r="AD81">
+        <v>11</v>
+      </c>
+      <c r="AE81">
+        <v>1.03</v>
+      </c>
+      <c r="AF81">
+        <v>6.9</v>
+      </c>
+      <c r="AG81">
+        <v>1.25</v>
+      </c>
+      <c r="AH81">
+        <v>3.75</v>
+      </c>
+      <c r="AI81">
+        <v>2.75</v>
+      </c>
+      <c r="AJ81">
+        <v>1.4</v>
+      </c>
+      <c r="AK81">
+        <v>10.5</v>
+      </c>
+      <c r="AL81">
+        <v>1.01</v>
+      </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0.67</v>
+      </c>
+      <c r="AO81">
+        <v>2.25</v>
+      </c>
+      <c r="AP81">
+        <v>0.57</v>
+      </c>
+      <c r="AQ81">
+        <v>2.4</v>
+      </c>
+      <c r="AR81">
+        <v>0.87</v>
+      </c>
+      <c r="AS81">
+        <v>2.01</v>
+      </c>
+      <c r="AT81">
+        <v>2.88</v>
+      </c>
+      <c r="AU81">
+        <v>3</v>
+      </c>
+      <c r="AV81">
+        <v>11</v>
+      </c>
+      <c r="AW81">
+        <v>2</v>
+      </c>
+      <c r="AX81">
+        <v>10</v>
+      </c>
+      <c r="AY81">
+        <v>5</v>
+      </c>
+      <c r="AZ81">
+        <v>21</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>10</v>
+      </c>
+      <c r="BC81">
+        <v>15</v>
+      </c>
+      <c r="BD81">
+        <v>15.5</v>
+      </c>
+      <c r="BE81">
+        <v>22</v>
+      </c>
+      <c r="BF81">
+        <v>1.01</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
+        <v>1.31</v>
+      </c>
+      <c r="BJ81">
+        <v>3.1</v>
+      </c>
+      <c r="BK81">
+        <v>1.53</v>
+      </c>
+      <c r="BL81">
+        <v>2.28</v>
+      </c>
+      <c r="BM81">
+        <v>1.91</v>
+      </c>
+      <c r="BN81">
+        <v>1.86</v>
+      </c>
+      <c r="BO81">
+        <v>2.29</v>
+      </c>
+      <c r="BP81">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7727581</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45592.47916666666</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s">
+        <v>74</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>141</v>
+      </c>
+      <c r="P82" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q82">
+        <v>1.5</v>
+      </c>
+      <c r="R82">
+        <v>3</v>
+      </c>
+      <c r="S82">
+        <v>10</v>
+      </c>
+      <c r="T82">
+        <v>1.2</v>
+      </c>
+      <c r="U82">
+        <v>4.33</v>
+      </c>
+      <c r="V82">
+        <v>1.91</v>
+      </c>
+      <c r="W82">
+        <v>1.8</v>
+      </c>
+      <c r="X82">
+        <v>4</v>
+      </c>
+      <c r="Y82">
+        <v>1.22</v>
+      </c>
+      <c r="Z82">
+        <v>1.23</v>
+      </c>
+      <c r="AA82">
+        <v>5.11</v>
+      </c>
+      <c r="AB82">
+        <v>14.53</v>
+      </c>
+      <c r="AC82">
+        <v>1.01</v>
+      </c>
+      <c r="AD82">
+        <v>17</v>
+      </c>
+      <c r="AE82">
+        <v>1.08</v>
+      </c>
+      <c r="AF82">
+        <v>5.2</v>
+      </c>
+      <c r="AG82">
+        <v>1.33</v>
+      </c>
+      <c r="AH82">
+        <v>3</v>
+      </c>
+      <c r="AI82">
+        <v>2.1</v>
+      </c>
+      <c r="AJ82">
+        <v>1.67</v>
+      </c>
+      <c r="AK82">
+        <v>1.01</v>
+      </c>
+      <c r="AL82">
+        <v>1.06</v>
+      </c>
+      <c r="AM82">
+        <v>3.85</v>
+      </c>
+      <c r="AN82">
+        <v>0.8</v>
+      </c>
+      <c r="AO82">
+        <v>0.6</v>
+      </c>
+      <c r="AP82">
+        <v>1.17</v>
+      </c>
+      <c r="AQ82">
+        <v>0.5</v>
+      </c>
+      <c r="AR82">
+        <v>1.39</v>
+      </c>
+      <c r="AS82">
+        <v>1.31</v>
+      </c>
+      <c r="AT82">
+        <v>2.7</v>
+      </c>
+      <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
+        <v>6</v>
+      </c>
+      <c r="AW82">
+        <v>11</v>
+      </c>
+      <c r="AX82">
+        <v>3</v>
+      </c>
+      <c r="AY82">
+        <v>15</v>
+      </c>
+      <c r="AZ82">
+        <v>9</v>
+      </c>
+      <c r="BA82">
+        <v>8</v>
+      </c>
+      <c r="BB82">
+        <v>6</v>
+      </c>
+      <c r="BC82">
+        <v>14</v>
+      </c>
+      <c r="BD82">
+        <v>1.17</v>
+      </c>
+      <c r="BE82">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF82">
+        <v>6.45</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
+        <v>1.38</v>
+      </c>
+      <c r="BJ82">
+        <v>2.8</v>
+      </c>
+      <c r="BK82">
+        <v>1.66</v>
+      </c>
+      <c r="BL82">
+        <v>2.1</v>
+      </c>
+      <c r="BM82">
+        <v>2.08</v>
+      </c>
+      <c r="BN82">
+        <v>1.68</v>
+      </c>
+      <c r="BO82">
+        <v>2.61</v>
+      </c>
+      <c r="BP82">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,12 +436,12 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['34', '37']</t>
+  </si>
+  <si>
     <t>['22', '72']</t>
   </si>
   <si>
-    <t>['34', '37']</t>
-  </si>
-  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -581,9 +581,6 @@
   </si>
   <si>
     <t>['2', '42', '45', '90+6']</t>
-  </si>
-  <si>
-    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -17436,7 +17433,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7727580</v>
+        <v>7727581</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17445,166 +17442,166 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45592.41666666666</v>
+        <v>45591.875</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H81" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L81">
         <v>2</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O81" t="s">
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="Q81">
-        <v>19</v>
+        <v>1.5</v>
       </c>
       <c r="R81">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="S81">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="T81">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U81">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V81">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W81">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X81">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Y81">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Z81">
-        <v>34</v>
+        <v>1.23</v>
       </c>
       <c r="AA81">
-        <v>12</v>
+        <v>5.11</v>
       </c>
       <c r="AB81">
-        <v>1.05</v>
+        <v>14.53</v>
       </c>
       <c r="AC81">
         <v>1.01</v>
       </c>
       <c r="AD81">
+        <v>17</v>
+      </c>
+      <c r="AE81">
+        <v>1.08</v>
+      </c>
+      <c r="AF81">
+        <v>5.2</v>
+      </c>
+      <c r="AG81">
+        <v>1.33</v>
+      </c>
+      <c r="AH81">
+        <v>3</v>
+      </c>
+      <c r="AI81">
+        <v>2.1</v>
+      </c>
+      <c r="AJ81">
+        <v>1.67</v>
+      </c>
+      <c r="AK81">
+        <v>1.01</v>
+      </c>
+      <c r="AL81">
+        <v>1.06</v>
+      </c>
+      <c r="AM81">
+        <v>3.85</v>
+      </c>
+      <c r="AN81">
+        <v>0.8</v>
+      </c>
+      <c r="AO81">
+        <v>0.6</v>
+      </c>
+      <c r="AP81">
+        <v>1.17</v>
+      </c>
+      <c r="AQ81">
+        <v>0.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.39</v>
+      </c>
+      <c r="AS81">
+        <v>1.31</v>
+      </c>
+      <c r="AT81">
+        <v>2.7</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>6</v>
+      </c>
+      <c r="AW81">
         <v>11</v>
       </c>
-      <c r="AE81">
-        <v>1.03</v>
-      </c>
-      <c r="AF81">
-        <v>6.9</v>
-      </c>
-      <c r="AG81">
-        <v>1.25</v>
-      </c>
-      <c r="AH81">
-        <v>3.75</v>
-      </c>
-      <c r="AI81">
-        <v>2.75</v>
-      </c>
-      <c r="AJ81">
-        <v>1.4</v>
-      </c>
-      <c r="AK81">
-        <v>10.5</v>
-      </c>
-      <c r="AL81">
-        <v>1.01</v>
-      </c>
-      <c r="AM81">
-        <v>0</v>
-      </c>
-      <c r="AN81">
-        <v>0.67</v>
-      </c>
-      <c r="AO81">
-        <v>2.25</v>
-      </c>
-      <c r="AP81">
-        <v>0.57</v>
-      </c>
-      <c r="AQ81">
-        <v>2.4</v>
-      </c>
-      <c r="AR81">
-        <v>0.87</v>
-      </c>
-      <c r="AS81">
-        <v>2.01</v>
-      </c>
-      <c r="AT81">
-        <v>2.88</v>
-      </c>
-      <c r="AU81">
-        <v>3</v>
-      </c>
-      <c r="AV81">
-        <v>11</v>
-      </c>
-      <c r="AW81">
-        <v>2</v>
-      </c>
       <c r="AX81">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AY81">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AZ81">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BA81">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB81">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC81">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD81">
-        <v>15.5</v>
+        <v>1.17</v>
       </c>
       <c r="BE81">
-        <v>22</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF81">
-        <v>1.01</v>
+        <v>6.45</v>
       </c>
       <c r="BG81">
         <v>0</v>
@@ -17613,28 +17610,28 @@
         <v>0</v>
       </c>
       <c r="BI81">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="BJ81">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BK81">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="BL81">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="BM81">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="BN81">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="BO81">
-        <v>2.29</v>
+        <v>2.61</v>
       </c>
       <c r="BP81">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17642,7 +17639,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7727581</v>
+        <v>7727580</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17651,196 +17648,196 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45592.47916666666</v>
+        <v>45592.41666666666</v>
       </c>
       <c r="F82">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L82">
         <v>2</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O82" t="s">
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q82">
-        <v>1.5</v>
+        <v>19</v>
       </c>
       <c r="R82">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="S82">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="T82">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U82">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V82">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X82">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Y82">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Z82">
-        <v>1.23</v>
+        <v>34</v>
       </c>
       <c r="AA82">
-        <v>5.11</v>
+        <v>12</v>
       </c>
       <c r="AB82">
-        <v>14.53</v>
+        <v>1.05</v>
       </c>
       <c r="AC82">
         <v>1.01</v>
       </c>
       <c r="AD82">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE82">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AF82">
-        <v>5.2</v>
+        <v>6.9</v>
       </c>
       <c r="AG82">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AH82">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AI82">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AJ82">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AK82">
+        <v>10.5</v>
+      </c>
+      <c r="AL82">
         <v>1.01</v>
       </c>
-      <c r="AL82">
-        <v>1.06</v>
-      </c>
       <c r="AM82">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="AN82">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AO82">
-        <v>0.6</v>
+        <v>2.25</v>
       </c>
       <c r="AP82">
-        <v>1.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="AR82">
-        <v>1.39</v>
+        <v>0.87</v>
       </c>
       <c r="AS82">
+        <v>2.01</v>
+      </c>
+      <c r="AT82">
+        <v>2.88</v>
+      </c>
+      <c r="AU82">
+        <v>3</v>
+      </c>
+      <c r="AV82">
+        <v>11</v>
+      </c>
+      <c r="AW82">
+        <v>2</v>
+      </c>
+      <c r="AX82">
+        <v>10</v>
+      </c>
+      <c r="AY82">
+        <v>5</v>
+      </c>
+      <c r="AZ82">
+        <v>21</v>
+      </c>
+      <c r="BA82">
+        <v>5</v>
+      </c>
+      <c r="BB82">
+        <v>10</v>
+      </c>
+      <c r="BC82">
+        <v>15</v>
+      </c>
+      <c r="BD82">
+        <v>15.5</v>
+      </c>
+      <c r="BE82">
+        <v>22</v>
+      </c>
+      <c r="BF82">
+        <v>1.01</v>
+      </c>
+      <c r="BG82">
+        <v>0</v>
+      </c>
+      <c r="BH82">
+        <v>0</v>
+      </c>
+      <c r="BI82">
         <v>1.31</v>
       </c>
-      <c r="AT82">
-        <v>2.7</v>
-      </c>
-      <c r="AU82">
-        <v>4</v>
-      </c>
-      <c r="AV82">
-        <v>6</v>
-      </c>
-      <c r="AW82">
-        <v>11</v>
-      </c>
-      <c r="AX82">
-        <v>3</v>
-      </c>
-      <c r="AY82">
-        <v>15</v>
-      </c>
-      <c r="AZ82">
-        <v>9</v>
-      </c>
-      <c r="BA82">
-        <v>8</v>
-      </c>
-      <c r="BB82">
-        <v>6</v>
-      </c>
-      <c r="BC82">
-        <v>14</v>
-      </c>
-      <c r="BD82">
-        <v>1.17</v>
-      </c>
-      <c r="BE82">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF82">
-        <v>6.45</v>
-      </c>
-      <c r="BG82">
-        <v>0</v>
-      </c>
-      <c r="BH82">
-        <v>0</v>
-      </c>
-      <c r="BI82">
-        <v>1.38</v>
-      </c>
       <c r="BJ82">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BK82">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="BL82">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="BM82">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="BN82">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="BO82">
-        <v>2.61</v>
+        <v>2.29</v>
       </c>
       <c r="BP82">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -436,10 +436,10 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['22', '72']</t>
+  </si>
+  <si>
     <t>['34', '37']</t>
-  </si>
-  <si>
-    <t>['22', '72']</t>
   </si>
   <si>
     <t>['45+2']</t>
@@ -17433,7 +17433,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7727581</v>
+        <v>7727580</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17442,196 +17442,196 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45591.875</v>
+        <v>45592.41666666666</v>
       </c>
       <c r="F81">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L81">
         <v>2</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O81" t="s">
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="Q81">
-        <v>1.5</v>
+        <v>19</v>
       </c>
       <c r="R81">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="S81">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="T81">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U81">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V81">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W81">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X81">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Y81">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Z81">
-        <v>1.23</v>
+        <v>34</v>
       </c>
       <c r="AA81">
-        <v>5.11</v>
+        <v>12</v>
       </c>
       <c r="AB81">
-        <v>14.53</v>
+        <v>1.05</v>
       </c>
       <c r="AC81">
         <v>1.01</v>
       </c>
       <c r="AD81">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE81">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="AF81">
-        <v>5.2</v>
+        <v>6.9</v>
       </c>
       <c r="AG81">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AH81">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AI81">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="AJ81">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AK81">
+        <v>10.5</v>
+      </c>
+      <c r="AL81">
         <v>1.01</v>
       </c>
-      <c r="AL81">
-        <v>1.06</v>
-      </c>
       <c r="AM81">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="AN81">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AO81">
-        <v>0.6</v>
+        <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.17</v>
+        <v>0.57</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="AR81">
-        <v>1.39</v>
+        <v>0.87</v>
       </c>
       <c r="AS81">
+        <v>2.01</v>
+      </c>
+      <c r="AT81">
+        <v>2.88</v>
+      </c>
+      <c r="AU81">
+        <v>3</v>
+      </c>
+      <c r="AV81">
+        <v>11</v>
+      </c>
+      <c r="AW81">
+        <v>2</v>
+      </c>
+      <c r="AX81">
+        <v>10</v>
+      </c>
+      <c r="AY81">
+        <v>5</v>
+      </c>
+      <c r="AZ81">
+        <v>21</v>
+      </c>
+      <c r="BA81">
+        <v>5</v>
+      </c>
+      <c r="BB81">
+        <v>10</v>
+      </c>
+      <c r="BC81">
+        <v>15</v>
+      </c>
+      <c r="BD81">
+        <v>15.5</v>
+      </c>
+      <c r="BE81">
+        <v>22</v>
+      </c>
+      <c r="BF81">
+        <v>1.01</v>
+      </c>
+      <c r="BG81">
+        <v>0</v>
+      </c>
+      <c r="BH81">
+        <v>0</v>
+      </c>
+      <c r="BI81">
         <v>1.31</v>
       </c>
-      <c r="AT81">
-        <v>2.7</v>
-      </c>
-      <c r="AU81">
-        <v>4</v>
-      </c>
-      <c r="AV81">
-        <v>6</v>
-      </c>
-      <c r="AW81">
-        <v>11</v>
-      </c>
-      <c r="AX81">
-        <v>3</v>
-      </c>
-      <c r="AY81">
-        <v>15</v>
-      </c>
-      <c r="AZ81">
-        <v>9</v>
-      </c>
-      <c r="BA81">
-        <v>8</v>
-      </c>
-      <c r="BB81">
-        <v>6</v>
-      </c>
-      <c r="BC81">
-        <v>14</v>
-      </c>
-      <c r="BD81">
-        <v>1.17</v>
-      </c>
-      <c r="BE81">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="BF81">
-        <v>6.45</v>
-      </c>
-      <c r="BG81">
-        <v>0</v>
-      </c>
-      <c r="BH81">
-        <v>0</v>
-      </c>
-      <c r="BI81">
-        <v>1.38</v>
-      </c>
       <c r="BJ81">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BK81">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="BL81">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="BM81">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="BN81">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="BO81">
-        <v>2.61</v>
+        <v>2.29</v>
       </c>
       <c r="BP81">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17639,7 +17639,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7727580</v>
+        <v>7727581</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17648,166 +17648,166 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45592.41666666666</v>
+        <v>45592.47916666666</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H82" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L82">
         <v>2</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O82" t="s">
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="Q82">
-        <v>19</v>
+        <v>1.5</v>
       </c>
       <c r="R82">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="S82">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="T82">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U82">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V82">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W82">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X82">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Y82">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="Z82">
-        <v>34</v>
+        <v>1.23</v>
       </c>
       <c r="AA82">
-        <v>12</v>
+        <v>5.11</v>
       </c>
       <c r="AB82">
-        <v>1.05</v>
+        <v>14.53</v>
       </c>
       <c r="AC82">
         <v>1.01</v>
       </c>
       <c r="AD82">
+        <v>17</v>
+      </c>
+      <c r="AE82">
+        <v>1.08</v>
+      </c>
+      <c r="AF82">
+        <v>5.2</v>
+      </c>
+      <c r="AG82">
+        <v>1.33</v>
+      </c>
+      <c r="AH82">
+        <v>3</v>
+      </c>
+      <c r="AI82">
+        <v>2.1</v>
+      </c>
+      <c r="AJ82">
+        <v>1.67</v>
+      </c>
+      <c r="AK82">
+        <v>1.01</v>
+      </c>
+      <c r="AL82">
+        <v>1.06</v>
+      </c>
+      <c r="AM82">
+        <v>3.85</v>
+      </c>
+      <c r="AN82">
+        <v>0.8</v>
+      </c>
+      <c r="AO82">
+        <v>0.6</v>
+      </c>
+      <c r="AP82">
+        <v>1.17</v>
+      </c>
+      <c r="AQ82">
+        <v>0.5</v>
+      </c>
+      <c r="AR82">
+        <v>1.39</v>
+      </c>
+      <c r="AS82">
+        <v>1.31</v>
+      </c>
+      <c r="AT82">
+        <v>2.7</v>
+      </c>
+      <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
+        <v>6</v>
+      </c>
+      <c r="AW82">
         <v>11</v>
       </c>
-      <c r="AE82">
-        <v>1.03</v>
-      </c>
-      <c r="AF82">
-        <v>6.9</v>
-      </c>
-      <c r="AG82">
-        <v>1.25</v>
-      </c>
-      <c r="AH82">
-        <v>3.75</v>
-      </c>
-      <c r="AI82">
-        <v>2.75</v>
-      </c>
-      <c r="AJ82">
-        <v>1.4</v>
-      </c>
-      <c r="AK82">
-        <v>10.5</v>
-      </c>
-      <c r="AL82">
-        <v>1.01</v>
-      </c>
-      <c r="AM82">
-        <v>0</v>
-      </c>
-      <c r="AN82">
-        <v>0.67</v>
-      </c>
-      <c r="AO82">
-        <v>2.25</v>
-      </c>
-      <c r="AP82">
-        <v>0.57</v>
-      </c>
-      <c r="AQ82">
-        <v>2.4</v>
-      </c>
-      <c r="AR82">
-        <v>0.87</v>
-      </c>
-      <c r="AS82">
-        <v>2.01</v>
-      </c>
-      <c r="AT82">
-        <v>2.88</v>
-      </c>
-      <c r="AU82">
-        <v>3</v>
-      </c>
-      <c r="AV82">
-        <v>11</v>
-      </c>
-      <c r="AW82">
-        <v>2</v>
-      </c>
       <c r="AX82">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AY82">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AZ82">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BA82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB82">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC82">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD82">
-        <v>15.5</v>
+        <v>1.17</v>
       </c>
       <c r="BE82">
-        <v>22</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="BF82">
-        <v>1.01</v>
+        <v>6.45</v>
       </c>
       <c r="BG82">
         <v>0</v>
@@ -17816,28 +17816,28 @@
         <v>0</v>
       </c>
       <c r="BI82">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="BJ82">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BK82">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="BL82">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="BM82">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="BN82">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="BO82">
-        <v>2.29</v>
+        <v>2.61</v>
       </c>
       <c r="BP82">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,9 @@
     <t>['34', '37']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -451,9 +454,6 @@
     <t>['21', '56']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['41', '45+3']</t>
   </si>
   <si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>['2', '42', '45', '90+6']</t>
+  </si>
+  <si>
+    <t>['86', '87']</t>
   </si>
 </sst>
 </file>
@@ -942,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1201,7 +1204,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1407,7 +1410,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1613,7 +1616,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1819,7 +1822,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -1897,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>2.29</v>
@@ -2724,7 +2727,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR9">
         <v>1.59</v>
@@ -7050,7 +7053,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ30">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7253,7 +7256,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -9107,7 +9110,7 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>2.43</v>
@@ -9522,7 +9525,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -10265,7 +10268,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10549,7 +10552,7 @@
         <v>1.25</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1.29</v>
@@ -12200,7 +12203,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ55">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR55">
         <v>1.83</v>
@@ -13021,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>0.43</v>
@@ -17556,7 +17559,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ81">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR81">
         <v>0.87</v>
@@ -17681,7 +17684,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17759,7 +17762,7 @@
         <v>0.6</v>
       </c>
       <c r="AP82">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
@@ -17838,6 +17841,212 @@
       </c>
       <c r="BP82">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7469201</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45595.69791666666</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s">
+        <v>81</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>142</v>
+      </c>
+      <c r="P83" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q83">
+        <v>4.33</v>
+      </c>
+      <c r="R83">
+        <v>2.38</v>
+      </c>
+      <c r="S83">
+        <v>2.2</v>
+      </c>
+      <c r="T83">
+        <v>1.29</v>
+      </c>
+      <c r="U83">
+        <v>3.5</v>
+      </c>
+      <c r="V83">
+        <v>2.25</v>
+      </c>
+      <c r="W83">
+        <v>1.57</v>
+      </c>
+      <c r="X83">
+        <v>5</v>
+      </c>
+      <c r="Y83">
+        <v>1.14</v>
+      </c>
+      <c r="Z83">
+        <v>4.33</v>
+      </c>
+      <c r="AA83">
+        <v>3.6</v>
+      </c>
+      <c r="AB83">
+        <v>1.67</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>1.57</v>
+      </c>
+      <c r="AH83">
+        <v>2.35</v>
+      </c>
+      <c r="AI83">
+        <v>1.57</v>
+      </c>
+      <c r="AJ83">
+        <v>2.25</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>1.17</v>
+      </c>
+      <c r="AO83">
+        <v>2.4</v>
+      </c>
+      <c r="AP83">
+        <v>1</v>
+      </c>
+      <c r="AQ83">
+        <v>2.5</v>
+      </c>
+      <c r="AR83">
+        <v>1.47</v>
+      </c>
+      <c r="AS83">
+        <v>2.15</v>
+      </c>
+      <c r="AT83">
+        <v>3.62</v>
+      </c>
+      <c r="AU83">
+        <v>2</v>
+      </c>
+      <c r="AV83">
+        <v>8</v>
+      </c>
+      <c r="AW83">
+        <v>4</v>
+      </c>
+      <c r="AX83">
+        <v>15</v>
+      </c>
+      <c r="AY83">
+        <v>6</v>
+      </c>
+      <c r="AZ83">
+        <v>23</v>
+      </c>
+      <c r="BA83">
+        <v>1</v>
+      </c>
+      <c r="BB83">
+        <v>11</v>
+      </c>
+      <c r="BC83">
+        <v>12</v>
+      </c>
+      <c r="BD83">
+        <v>0</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>0</v>
+      </c>
+      <c r="BG83">
+        <v>0</v>
+      </c>
+      <c r="BH83">
+        <v>0</v>
+      </c>
+      <c r="BI83">
+        <v>0</v>
+      </c>
+      <c r="BJ83">
+        <v>0</v>
+      </c>
+      <c r="BK83">
+        <v>0</v>
+      </c>
+      <c r="BL83">
+        <v>0</v>
+      </c>
+      <c r="BM83">
+        <v>0</v>
+      </c>
+      <c r="BN83">
+        <v>0</v>
+      </c>
+      <c r="BO83">
+        <v>0</v>
+      </c>
+      <c r="BP83">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="197">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,21 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['5', '16', '64', '87']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['21', '42', '88', '90+3']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -584,6 +599,12 @@
   </si>
   <si>
     <t>['86', '87']</t>
+  </si>
+  <si>
+    <t>['31', '31', '45+2', '66']</t>
+  </si>
+  <si>
+    <t>['22', '45+1', '65', '72', '82']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1204,7 +1225,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1282,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1410,7 +1431,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1488,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1616,7 +1637,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1697,7 +1718,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ4">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1900,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ5">
         <v>2.29</v>
@@ -2028,7 +2049,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2106,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ6">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2646,7 +2667,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2727,7 +2748,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR9">
         <v>1.59</v>
@@ -3058,7 +3079,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3264,7 +3285,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3342,7 +3363,7 @@
         <v>3</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ12">
         <v>2.29</v>
@@ -3470,7 +3491,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3548,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3676,7 +3697,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3754,10 +3775,10 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ14">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
         <v>0.82</v>
@@ -3960,10 +3981,10 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ15">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4169,7 +4190,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.91</v>
@@ -4578,10 +4599,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -4912,7 +4933,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5199,7 +5220,7 @@
         <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR21">
         <v>1.58</v>
@@ -5324,7 +5345,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5402,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ22">
         <v>1.29</v>
@@ -5608,7 +5629,7 @@
         <v>2</v>
       </c>
       <c r="AP23">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ23">
         <v>1.29</v>
@@ -5736,7 +5757,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5814,10 +5835,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ24">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.08</v>
@@ -5942,7 +5963,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6020,7 +6041,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ25">
         <v>1.29</v>
@@ -6148,7 +6169,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6229,7 +6250,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ26">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR26">
         <v>1.81</v>
@@ -6354,7 +6375,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6432,10 +6453,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.77</v>
@@ -6641,7 +6662,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6844,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
         <v>0.5</v>
@@ -6972,7 +6993,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7050,10 +7071,10 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ30">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR30">
         <v>1.46</v>
@@ -7178,7 +7199,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7256,7 +7277,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
         <v>1.38</v>
@@ -7590,7 +7611,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7671,7 +7692,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ33">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
         <v>1.47</v>
@@ -7796,7 +7817,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7877,7 +7898,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ34">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>0.86</v>
@@ -8083,7 +8104,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR35">
         <v>1.37</v>
@@ -8286,10 +8307,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR36">
         <v>1.94</v>
@@ -8414,7 +8435,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8492,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -9110,10 +9131,10 @@
         <v>2.33</v>
       </c>
       <c r="AP40">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR40">
         <v>1.48</v>
@@ -9238,7 +9259,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9444,7 +9465,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9525,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR42">
         <v>2.47</v>
@@ -9650,7 +9671,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9856,7 +9877,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10140,7 +10161,7 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10268,7 +10289,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10346,10 +10367,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>0.8100000000000001</v>
@@ -10474,7 +10495,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10552,7 +10573,7 @@
         <v>1.25</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47">
         <v>1.29</v>
@@ -10680,7 +10701,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10758,7 +10779,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
         <v>1.38</v>
@@ -11092,7 +11113,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11173,7 +11194,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR50">
         <v>3.27</v>
@@ -11298,7 +11319,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11379,7 +11400,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ51">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR51">
         <v>0.9399999999999999</v>
@@ -11504,7 +11525,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11788,10 +11809,10 @@
         <v>2.5</v>
       </c>
       <c r="AP53">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ53">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR53">
         <v>1.17</v>
@@ -11994,10 +12015,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR54">
         <v>1.67</v>
@@ -12122,7 +12143,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12200,10 +12221,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR55">
         <v>1.83</v>
@@ -12328,7 +12349,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12409,7 +12430,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ56">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR56">
         <v>1.7</v>
@@ -12534,7 +12555,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12612,10 +12633,10 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -12818,7 +12839,7 @@
         <v>1.75</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ58">
         <v>1.29</v>
@@ -13024,10 +13045,10 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ59">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR59">
         <v>1.28</v>
@@ -13152,7 +13173,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13230,10 +13251,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.7</v>
@@ -13564,7 +13585,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13770,7 +13791,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13976,7 +13997,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14182,7 +14203,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14263,7 +14284,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ65">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR65">
         <v>0.96</v>
@@ -14466,7 +14487,7 @@
         <v>0.75</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -14594,7 +14615,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14672,7 +14693,7 @@
         <v>1.2</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67">
         <v>1.29</v>
@@ -14800,7 +14821,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14881,7 +14902,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR68">
         <v>1.56</v>
@@ -15084,7 +15105,7 @@
         <v>1.4</v>
       </c>
       <c r="AP69">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69">
         <v>1.29</v>
@@ -15293,7 +15314,7 @@
         <v>2</v>
       </c>
       <c r="AQ70">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>2.85</v>
@@ -15418,7 +15439,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15496,7 +15517,7 @@
         <v>2.17</v>
       </c>
       <c r="AP71">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AQ71">
         <v>2.29</v>
@@ -15911,7 +15932,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>2.71</v>
@@ -16036,7 +16057,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16114,10 +16135,10 @@
         <v>0</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ74">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR74">
         <v>1.35</v>
@@ -16323,7 +16344,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR75">
         <v>1.22</v>
@@ -16448,7 +16469,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16526,7 +16547,7 @@
         <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76">
         <v>1.38</v>
@@ -16654,7 +16675,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16860,7 +16881,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -16941,7 +16962,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
         <v>1.99</v>
@@ -17066,7 +17087,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17350,7 +17371,7 @@
         <v>2.17</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -17478,7 +17499,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17559,7 +17580,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ81">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR81">
         <v>0.87</v>
@@ -17684,7 +17705,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17762,7 +17783,7 @@
         <v>0.6</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
@@ -17890,7 +17911,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -17968,10 +17989,10 @@
         <v>2.4</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AR83">
         <v>1.47</v>
@@ -18047,6 +18068,1242 @@
       </c>
       <c r="BP83">
         <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7727582</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45598.41666666666</v>
+      </c>
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s">
+        <v>81</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84" t="s">
+        <v>143</v>
+      </c>
+      <c r="P84" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q84">
+        <v>11</v>
+      </c>
+      <c r="R84">
+        <v>2.88</v>
+      </c>
+      <c r="S84">
+        <v>1.5</v>
+      </c>
+      <c r="T84">
+        <v>1.22</v>
+      </c>
+      <c r="U84">
+        <v>4</v>
+      </c>
+      <c r="V84">
+        <v>2.1</v>
+      </c>
+      <c r="W84">
+        <v>1.67</v>
+      </c>
+      <c r="X84">
+        <v>4.33</v>
+      </c>
+      <c r="Y84">
+        <v>1.2</v>
+      </c>
+      <c r="Z84">
+        <v>10</v>
+      </c>
+      <c r="AA84">
+        <v>9</v>
+      </c>
+      <c r="AB84">
+        <v>1.14</v>
+      </c>
+      <c r="AC84">
+        <v>1.01</v>
+      </c>
+      <c r="AD84">
+        <v>17</v>
+      </c>
+      <c r="AE84">
+        <v>1.16</v>
+      </c>
+      <c r="AF84">
+        <v>4.75</v>
+      </c>
+      <c r="AG84">
+        <v>1.4</v>
+      </c>
+      <c r="AH84">
+        <v>2.75</v>
+      </c>
+      <c r="AI84">
+        <v>2.25</v>
+      </c>
+      <c r="AJ84">
+        <v>1.57</v>
+      </c>
+      <c r="AK84">
+        <v>4</v>
+      </c>
+      <c r="AL84">
+        <v>1.05</v>
+      </c>
+      <c r="AM84">
+        <v>1.01</v>
+      </c>
+      <c r="AN84">
+        <v>1.83</v>
+      </c>
+      <c r="AO84">
+        <v>2.5</v>
+      </c>
+      <c r="AP84">
+        <v>1.57</v>
+      </c>
+      <c r="AQ84">
+        <v>2.57</v>
+      </c>
+      <c r="AR84">
+        <v>1.66</v>
+      </c>
+      <c r="AS84">
+        <v>2.26</v>
+      </c>
+      <c r="AT84">
+        <v>3.92</v>
+      </c>
+      <c r="AU84">
+        <v>4</v>
+      </c>
+      <c r="AV84">
+        <v>7</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>7</v>
+      </c>
+      <c r="AY84">
+        <v>9</v>
+      </c>
+      <c r="AZ84">
+        <v>14</v>
+      </c>
+      <c r="BA84">
+        <v>2</v>
+      </c>
+      <c r="BB84">
+        <v>10</v>
+      </c>
+      <c r="BC84">
+        <v>12</v>
+      </c>
+      <c r="BD84">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BE84">
+        <v>13.75</v>
+      </c>
+      <c r="BF84">
+        <v>1.08</v>
+      </c>
+      <c r="BG84">
+        <v>0</v>
+      </c>
+      <c r="BH84">
+        <v>0</v>
+      </c>
+      <c r="BI84">
+        <v>1.31</v>
+      </c>
+      <c r="BJ84">
+        <v>3.2</v>
+      </c>
+      <c r="BK84">
+        <v>1.44</v>
+      </c>
+      <c r="BL84">
+        <v>2.36</v>
+      </c>
+      <c r="BM84">
+        <v>1.8</v>
+      </c>
+      <c r="BN84">
+        <v>1.91</v>
+      </c>
+      <c r="BO84">
+        <v>2.2</v>
+      </c>
+      <c r="BP84">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7727586</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45598.47916666666</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" t="s">
+        <v>75</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>85</v>
+      </c>
+      <c r="P85" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q85">
+        <v>3.1</v>
+      </c>
+      <c r="R85">
+        <v>2.3</v>
+      </c>
+      <c r="S85">
+        <v>2.88</v>
+      </c>
+      <c r="T85">
+        <v>1.29</v>
+      </c>
+      <c r="U85">
+        <v>3.5</v>
+      </c>
+      <c r="V85">
+        <v>2.38</v>
+      </c>
+      <c r="W85">
+        <v>1.53</v>
+      </c>
+      <c r="X85">
+        <v>5</v>
+      </c>
+      <c r="Y85">
+        <v>1.14</v>
+      </c>
+      <c r="Z85">
+        <v>2.5</v>
+      </c>
+      <c r="AA85">
+        <v>3.55</v>
+      </c>
+      <c r="AB85">
+        <v>2.34</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>10</v>
+      </c>
+      <c r="AE85">
+        <v>1.28</v>
+      </c>
+      <c r="AF85">
+        <v>3.5</v>
+      </c>
+      <c r="AG85">
+        <v>1.55</v>
+      </c>
+      <c r="AH85">
+        <v>2.31</v>
+      </c>
+      <c r="AI85">
+        <v>1.5</v>
+      </c>
+      <c r="AJ85">
+        <v>2.5</v>
+      </c>
+      <c r="AK85">
+        <v>1.52</v>
+      </c>
+      <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
+        <v>1.42</v>
+      </c>
+      <c r="AN85">
+        <v>1.29</v>
+      </c>
+      <c r="AO85">
+        <v>1.33</v>
+      </c>
+      <c r="AP85">
+        <v>1.25</v>
+      </c>
+      <c r="AQ85">
+        <v>1.29</v>
+      </c>
+      <c r="AR85">
+        <v>1.83</v>
+      </c>
+      <c r="AS85">
+        <v>1.25</v>
+      </c>
+      <c r="AT85">
+        <v>3.08</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>4</v>
+      </c>
+      <c r="AW85">
+        <v>7</v>
+      </c>
+      <c r="AX85">
+        <v>6</v>
+      </c>
+      <c r="AY85">
+        <v>11</v>
+      </c>
+      <c r="AZ85">
+        <v>10</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>8</v>
+      </c>
+      <c r="BC85">
+        <v>11</v>
+      </c>
+      <c r="BD85">
+        <v>2.05</v>
+      </c>
+      <c r="BE85">
+        <v>6.8</v>
+      </c>
+      <c r="BF85">
+        <v>2.07</v>
+      </c>
+      <c r="BG85">
+        <v>1.26</v>
+      </c>
+      <c r="BH85">
+        <v>3.45</v>
+      </c>
+      <c r="BI85">
+        <v>1.4</v>
+      </c>
+      <c r="BJ85">
+        <v>2.48</v>
+      </c>
+      <c r="BK85">
+        <v>1.77</v>
+      </c>
+      <c r="BL85">
+        <v>1.95</v>
+      </c>
+      <c r="BM85">
+        <v>2.18</v>
+      </c>
+      <c r="BN85">
+        <v>1.52</v>
+      </c>
+      <c r="BO85">
+        <v>3</v>
+      </c>
+      <c r="BP85">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7727584</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45598.47916666666</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>144</v>
+      </c>
+      <c r="P86" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q86">
+        <v>2.63</v>
+      </c>
+      <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>4</v>
+      </c>
+      <c r="T86">
+        <v>1.44</v>
+      </c>
+      <c r="U86">
+        <v>2.63</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>1.36</v>
+      </c>
+      <c r="X86">
+        <v>7.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.07</v>
+      </c>
+      <c r="Z86">
+        <v>2.12</v>
+      </c>
+      <c r="AA86">
+        <v>3.2</v>
+      </c>
+      <c r="AB86">
+        <v>3.05</v>
+      </c>
+      <c r="AC86">
+        <v>1.05</v>
+      </c>
+      <c r="AD86">
+        <v>9</v>
+      </c>
+      <c r="AE86">
+        <v>1.3</v>
+      </c>
+      <c r="AF86">
+        <v>3.3</v>
+      </c>
+      <c r="AG86">
+        <v>2</v>
+      </c>
+      <c r="AH86">
+        <v>1.73</v>
+      </c>
+      <c r="AI86">
+        <v>1.91</v>
+      </c>
+      <c r="AJ86">
+        <v>1.8</v>
+      </c>
+      <c r="AK86">
+        <v>1.25</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.8</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>1.88</v>
+      </c>
+      <c r="AP86">
+        <v>1.25</v>
+      </c>
+      <c r="AQ86">
+        <v>1.67</v>
+      </c>
+      <c r="AR86">
+        <v>1.39</v>
+      </c>
+      <c r="AS86">
+        <v>1.36</v>
+      </c>
+      <c r="AT86">
+        <v>2.75</v>
+      </c>
+      <c r="AU86">
+        <v>6</v>
+      </c>
+      <c r="AV86">
+        <v>4</v>
+      </c>
+      <c r="AW86">
+        <v>9</v>
+      </c>
+      <c r="AX86">
+        <v>4</v>
+      </c>
+      <c r="AY86">
+        <v>15</v>
+      </c>
+      <c r="AZ86">
+        <v>8</v>
+      </c>
+      <c r="BA86">
+        <v>8</v>
+      </c>
+      <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
+        <v>10</v>
+      </c>
+      <c r="BD86">
+        <v>1.52</v>
+      </c>
+      <c r="BE86">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF86">
+        <v>2.94</v>
+      </c>
+      <c r="BG86">
+        <v>1.26</v>
+      </c>
+      <c r="BH86">
+        <v>3.48</v>
+      </c>
+      <c r="BI86">
+        <v>1.4</v>
+      </c>
+      <c r="BJ86">
+        <v>2.48</v>
+      </c>
+      <c r="BK86">
+        <v>1.77</v>
+      </c>
+      <c r="BL86">
+        <v>1.95</v>
+      </c>
+      <c r="BM86">
+        <v>2.18</v>
+      </c>
+      <c r="BN86">
+        <v>1.52</v>
+      </c>
+      <c r="BO86">
+        <v>2.97</v>
+      </c>
+      <c r="BP86">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7727585</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45598.47916666666</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>80</v>
+      </c>
+      <c r="H87" t="s">
+        <v>72</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87" t="s">
+        <v>145</v>
+      </c>
+      <c r="P87" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q87">
+        <v>1.91</v>
+      </c>
+      <c r="R87">
+        <v>2.3</v>
+      </c>
+      <c r="S87">
+        <v>7</v>
+      </c>
+      <c r="T87">
+        <v>1.36</v>
+      </c>
+      <c r="U87">
+        <v>3</v>
+      </c>
+      <c r="V87">
+        <v>2.63</v>
+      </c>
+      <c r="W87">
+        <v>1.44</v>
+      </c>
+      <c r="X87">
+        <v>6.5</v>
+      </c>
+      <c r="Y87">
+        <v>1.1</v>
+      </c>
+      <c r="Z87">
+        <v>1.37</v>
+      </c>
+      <c r="AA87">
+        <v>4.23</v>
+      </c>
+      <c r="AB87">
+        <v>6.8</v>
+      </c>
+      <c r="AC87">
+        <v>1.04</v>
+      </c>
+      <c r="AD87">
+        <v>11</v>
+      </c>
+      <c r="AE87">
+        <v>1.25</v>
+      </c>
+      <c r="AF87">
+        <v>3.75</v>
+      </c>
+      <c r="AG87">
+        <v>1.81</v>
+      </c>
+      <c r="AH87">
+        <v>1.9</v>
+      </c>
+      <c r="AI87">
+        <v>2.2</v>
+      </c>
+      <c r="AJ87">
+        <v>1.62</v>
+      </c>
+      <c r="AK87">
+        <v>1.06</v>
+      </c>
+      <c r="AL87">
+        <v>1.16</v>
+      </c>
+      <c r="AM87">
+        <v>2.7</v>
+      </c>
+      <c r="AN87">
+        <v>1.43</v>
+      </c>
+      <c r="AO87">
+        <v>1.17</v>
+      </c>
+      <c r="AP87">
+        <v>1.63</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1.32</v>
+      </c>
+      <c r="AS87">
+        <v>1.67</v>
+      </c>
+      <c r="AT87">
+        <v>2.99</v>
+      </c>
+      <c r="AU87">
+        <v>9</v>
+      </c>
+      <c r="AV87">
+        <v>2</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
+        <v>15</v>
+      </c>
+      <c r="AZ87">
+        <v>5</v>
+      </c>
+      <c r="BA87">
+        <v>5</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
+        <v>8</v>
+      </c>
+      <c r="BD87">
+        <v>1.37</v>
+      </c>
+      <c r="BE87">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF87">
+        <v>3.65</v>
+      </c>
+      <c r="BG87">
+        <v>1.29</v>
+      </c>
+      <c r="BH87">
+        <v>3.3</v>
+      </c>
+      <c r="BI87">
+        <v>1.45</v>
+      </c>
+      <c r="BJ87">
+        <v>2.34</v>
+      </c>
+      <c r="BK87">
+        <v>1.85</v>
+      </c>
+      <c r="BL87">
+        <v>1.85</v>
+      </c>
+      <c r="BM87">
+        <v>2.29</v>
+      </c>
+      <c r="BN87">
+        <v>1.47</v>
+      </c>
+      <c r="BO87">
+        <v>3</v>
+      </c>
+      <c r="BP87">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7727583</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45598.47916666666</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s">
+        <v>77</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88">
+        <v>6</v>
+      </c>
+      <c r="O88" t="s">
+        <v>146</v>
+      </c>
+      <c r="P88" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q88">
+        <v>4.75</v>
+      </c>
+      <c r="R88">
+        <v>2.2</v>
+      </c>
+      <c r="S88">
+        <v>2.25</v>
+      </c>
+      <c r="T88">
+        <v>1.4</v>
+      </c>
+      <c r="U88">
+        <v>2.75</v>
+      </c>
+      <c r="V88">
+        <v>2.75</v>
+      </c>
+      <c r="W88">
+        <v>1.4</v>
+      </c>
+      <c r="X88">
+        <v>6.5</v>
+      </c>
+      <c r="Y88">
+        <v>1.1</v>
+      </c>
+      <c r="Z88">
+        <v>4.52</v>
+      </c>
+      <c r="AA88">
+        <v>3.63</v>
+      </c>
+      <c r="AB88">
+        <v>1.63</v>
+      </c>
+      <c r="AC88">
+        <v>1</v>
+      </c>
+      <c r="AD88">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE88">
+        <v>1.28</v>
+      </c>
+      <c r="AF88">
+        <v>3.5</v>
+      </c>
+      <c r="AG88">
+        <v>1.85</v>
+      </c>
+      <c r="AH88">
+        <v>1.85</v>
+      </c>
+      <c r="AI88">
+        <v>1.91</v>
+      </c>
+      <c r="AJ88">
+        <v>1.8</v>
+      </c>
+      <c r="AK88">
+        <v>1.83</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.2</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
+        <v>2.43</v>
+      </c>
+      <c r="AP88">
+        <v>0.88</v>
+      </c>
+      <c r="AQ88">
+        <v>2.5</v>
+      </c>
+      <c r="AR88">
+        <v>1.4</v>
+      </c>
+      <c r="AS88">
+        <v>1.68</v>
+      </c>
+      <c r="AT88">
+        <v>3.08</v>
+      </c>
+      <c r="AU88">
+        <v>4</v>
+      </c>
+      <c r="AV88">
+        <v>10</v>
+      </c>
+      <c r="AW88">
+        <v>1</v>
+      </c>
+      <c r="AX88">
+        <v>4</v>
+      </c>
+      <c r="AY88">
+        <v>5</v>
+      </c>
+      <c r="AZ88">
+        <v>14</v>
+      </c>
+      <c r="BA88">
+        <v>2</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>5</v>
+      </c>
+      <c r="BD88">
+        <v>2.71</v>
+      </c>
+      <c r="BE88">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF88">
+        <v>1.59</v>
+      </c>
+      <c r="BG88">
+        <v>0</v>
+      </c>
+      <c r="BH88">
+        <v>0</v>
+      </c>
+      <c r="BI88">
+        <v>1.4</v>
+      </c>
+      <c r="BJ88">
+        <v>2.75</v>
+      </c>
+      <c r="BK88">
+        <v>1.6</v>
+      </c>
+      <c r="BL88">
+        <v>2.03</v>
+      </c>
+      <c r="BM88">
+        <v>2.05</v>
+      </c>
+      <c r="BN88">
+        <v>1.7</v>
+      </c>
+      <c r="BO88">
+        <v>2.61</v>
+      </c>
+      <c r="BP88">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7727587</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45598.59375</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89" t="s">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s">
+        <v>78</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>147</v>
+      </c>
+      <c r="P89" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q89">
+        <v>2.75</v>
+      </c>
+      <c r="R89">
+        <v>2.38</v>
+      </c>
+      <c r="S89">
+        <v>3.1</v>
+      </c>
+      <c r="T89">
+        <v>1.29</v>
+      </c>
+      <c r="U89">
+        <v>3.5</v>
+      </c>
+      <c r="V89">
+        <v>2.25</v>
+      </c>
+      <c r="W89">
+        <v>1.57</v>
+      </c>
+      <c r="X89">
+        <v>5</v>
+      </c>
+      <c r="Y89">
+        <v>1.14</v>
+      </c>
+      <c r="Z89">
+        <v>2.2</v>
+      </c>
+      <c r="AA89">
+        <v>3.32</v>
+      </c>
+      <c r="AB89">
+        <v>2.41</v>
+      </c>
+      <c r="AC89">
+        <v>1.03</v>
+      </c>
+      <c r="AD89">
+        <v>12</v>
+      </c>
+      <c r="AE89">
+        <v>1.22</v>
+      </c>
+      <c r="AF89">
+        <v>4</v>
+      </c>
+      <c r="AG89">
+        <v>1.69</v>
+      </c>
+      <c r="AH89">
+        <v>2.05</v>
+      </c>
+      <c r="AI89">
+        <v>1.5</v>
+      </c>
+      <c r="AJ89">
+        <v>2.5</v>
+      </c>
+      <c r="AK89">
+        <v>1.35</v>
+      </c>
+      <c r="AL89">
+        <v>1.25</v>
+      </c>
+      <c r="AM89">
+        <v>1.68</v>
+      </c>
+      <c r="AN89">
+        <v>0.33</v>
+      </c>
+      <c r="AO89">
+        <v>0.43</v>
+      </c>
+      <c r="AP89">
+        <v>0.71</v>
+      </c>
+      <c r="AQ89">
+        <v>0.38</v>
+      </c>
+      <c r="AR89">
+        <v>1.09</v>
+      </c>
+      <c r="AS89">
+        <v>0.84</v>
+      </c>
+      <c r="AT89">
+        <v>1.93</v>
+      </c>
+      <c r="AU89">
+        <v>8</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>10</v>
+      </c>
+      <c r="AX89">
+        <v>6</v>
+      </c>
+      <c r="AY89">
+        <v>18</v>
+      </c>
+      <c r="AZ89">
+        <v>10</v>
+      </c>
+      <c r="BA89">
+        <v>3</v>
+      </c>
+      <c r="BB89">
+        <v>5</v>
+      </c>
+      <c r="BC89">
+        <v>8</v>
+      </c>
+      <c r="BD89">
+        <v>1.37</v>
+      </c>
+      <c r="BE89">
+        <v>7.3</v>
+      </c>
+      <c r="BF89">
+        <v>3.98</v>
+      </c>
+      <c r="BG89">
+        <v>1.27</v>
+      </c>
+      <c r="BH89">
+        <v>3.4</v>
+      </c>
+      <c r="BI89">
+        <v>1.42</v>
+      </c>
+      <c r="BJ89">
+        <v>2.42</v>
+      </c>
+      <c r="BK89">
+        <v>1.8</v>
+      </c>
+      <c r="BL89">
+        <v>1.91</v>
+      </c>
+      <c r="BM89">
+        <v>2.22</v>
+      </c>
+      <c r="BN89">
+        <v>1.5</v>
+      </c>
+      <c r="BO89">
+        <v>2.9</v>
+      </c>
+      <c r="BP89">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>['21', '42', '88', '90+3']</t>
+  </si>
+  <si>
+    <t>['13', '29', '83']</t>
   </si>
   <si>
     <t>['45+2']</t>
@@ -966,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,7 +1228,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1431,7 +1434,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1637,7 +1640,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2049,7 +2052,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2667,7 +2670,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2954,7 +2957,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3079,7 +3082,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3157,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11">
         <v>1.29</v>
@@ -3285,7 +3288,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3491,7 +3494,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3697,7 +3700,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4393,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ17">
         <v>1.38</v>
@@ -4933,7 +4936,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5345,7 +5348,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5426,7 +5429,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ22">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5632,7 +5635,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ23">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
         <v>1.19</v>
@@ -5757,7 +5760,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5963,7 +5966,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6169,7 +6172,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6375,7 +6378,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6993,7 +6996,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7199,7 +7202,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7611,7 +7614,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7817,7 +7820,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7895,7 +7898,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8435,7 +8438,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -9259,7 +9262,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9340,7 +9343,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -9465,7 +9468,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9671,7 +9674,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9749,7 +9752,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ43">
         <v>2.29</v>
@@ -9877,7 +9880,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10289,7 +10292,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10495,7 +10498,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10576,7 +10579,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR47">
         <v>1.34</v>
@@ -10701,7 +10704,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11113,7 +11116,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11319,7 +11322,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11397,7 +11400,7 @@
         <v>2.4</v>
       </c>
       <c r="AP51">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ51">
         <v>1.67</v>
@@ -11525,7 +11528,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12143,7 +12146,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12349,7 +12352,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12555,7 +12558,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -13173,7 +13176,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13585,7 +13588,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13791,7 +13794,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13997,7 +14000,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14203,7 +14206,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14281,7 +14284,7 @@
         <v>2.6</v>
       </c>
       <c r="AP65">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65">
         <v>2.5</v>
@@ -14615,7 +14618,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14696,7 +14699,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ67">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR67">
         <v>1.2</v>
@@ -14821,7 +14824,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15439,7 +15442,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -16057,7 +16060,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16469,7 +16472,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16675,7 +16678,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16756,7 +16759,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -16881,7 +16884,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17087,7 +17090,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17499,7 +17502,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17577,7 +17580,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ81">
         <v>2.57</v>
@@ -17705,7 +17708,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17911,7 +17914,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18117,7 +18120,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18941,7 +18944,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19304,6 +19307,212 @@
       </c>
       <c r="BP89">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7727588</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45604.69791666666</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s">
+        <v>70</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <v>4</v>
+      </c>
+      <c r="O90" t="s">
+        <v>148</v>
+      </c>
+      <c r="P90" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q90">
+        <v>4.75</v>
+      </c>
+      <c r="R90">
+        <v>2.4</v>
+      </c>
+      <c r="S90">
+        <v>2.05</v>
+      </c>
+      <c r="T90">
+        <v>1.29</v>
+      </c>
+      <c r="U90">
+        <v>3.5</v>
+      </c>
+      <c r="V90">
+        <v>2.25</v>
+      </c>
+      <c r="W90">
+        <v>1.57</v>
+      </c>
+      <c r="X90">
+        <v>5</v>
+      </c>
+      <c r="Y90">
+        <v>1.14</v>
+      </c>
+      <c r="Z90">
+        <v>4.6</v>
+      </c>
+      <c r="AA90">
+        <v>3.9</v>
+      </c>
+      <c r="AB90">
+        <v>1.6</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>15</v>
+      </c>
+      <c r="AE90">
+        <v>1.1</v>
+      </c>
+      <c r="AF90">
+        <v>4.9</v>
+      </c>
+      <c r="AG90">
+        <v>1.6</v>
+      </c>
+      <c r="AH90">
+        <v>2.2</v>
+      </c>
+      <c r="AI90">
+        <v>1.62</v>
+      </c>
+      <c r="AJ90">
+        <v>2.2</v>
+      </c>
+      <c r="AK90">
+        <v>2.38</v>
+      </c>
+      <c r="AL90">
+        <v>1.16</v>
+      </c>
+      <c r="AM90">
+        <v>1.12</v>
+      </c>
+      <c r="AN90">
+        <v>0.57</v>
+      </c>
+      <c r="AO90">
+        <v>1.29</v>
+      </c>
+      <c r="AP90">
+        <v>0.88</v>
+      </c>
+      <c r="AQ90">
+        <v>1.13</v>
+      </c>
+      <c r="AR90">
+        <v>0.87</v>
+      </c>
+      <c r="AS90">
+        <v>1.23</v>
+      </c>
+      <c r="AT90">
+        <v>2.1</v>
+      </c>
+      <c r="AU90">
+        <v>7</v>
+      </c>
+      <c r="AV90">
+        <v>3</v>
+      </c>
+      <c r="AW90">
+        <v>6</v>
+      </c>
+      <c r="AX90">
+        <v>10</v>
+      </c>
+      <c r="AY90">
+        <v>13</v>
+      </c>
+      <c r="AZ90">
+        <v>13</v>
+      </c>
+      <c r="BA90">
+        <v>2</v>
+      </c>
+      <c r="BB90">
+        <v>9</v>
+      </c>
+      <c r="BC90">
+        <v>11</v>
+      </c>
+      <c r="BD90">
+        <v>4.2</v>
+      </c>
+      <c r="BE90">
+        <v>7.5</v>
+      </c>
+      <c r="BF90">
+        <v>1.34</v>
+      </c>
+      <c r="BG90">
+        <v>0</v>
+      </c>
+      <c r="BH90">
+        <v>0</v>
+      </c>
+      <c r="BI90">
+        <v>1.31</v>
+      </c>
+      <c r="BJ90">
+        <v>2.82</v>
+      </c>
+      <c r="BK90">
+        <v>1.57</v>
+      </c>
+      <c r="BL90">
+        <v>2.08</v>
+      </c>
+      <c r="BM90">
+        <v>1.95</v>
+      </c>
+      <c r="BN90">
+        <v>1.77</v>
+      </c>
+      <c r="BO90">
+        <v>2.54</v>
+      </c>
+      <c r="BP90">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,15 @@
     <t>['13', '29', '83']</t>
   </si>
   <si>
+    <t>['23', '74', '88']</t>
+  </si>
+  <si>
+    <t>['28', '45+1', '45+2']</t>
+  </si>
+  <si>
+    <t>['4', '62', '69']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -608,6 +617,15 @@
   </si>
   <si>
     <t>['22', '45+1', '65', '72', '82']</t>
+  </si>
+  <si>
+    <t>['58', '85']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['35', '47', '49']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1246,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1434,7 +1452,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1512,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1640,7 +1658,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2052,7 +2070,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2130,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ6">
         <v>2.5</v>
@@ -2542,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -2670,7 +2688,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2954,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ10">
         <v>1.13</v>
@@ -3082,7 +3100,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3163,7 +3181,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3288,7 +3306,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3494,7 +3512,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3575,7 +3593,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR13">
         <v>2.12</v>
@@ -3700,7 +3718,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -3778,7 +3796,7 @@
         <v>3</v>
       </c>
       <c r="AP14">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ14">
         <v>1.67</v>
@@ -4193,7 +4211,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR16">
         <v>1.91</v>
@@ -4605,7 +4623,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>1.22</v>
@@ -4808,7 +4826,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19">
         <v>2.29</v>
@@ -4936,7 +4954,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5017,7 +5035,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR20">
         <v>1.46</v>
@@ -5220,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ21">
         <v>0.38</v>
@@ -5348,7 +5366,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5426,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -5760,7 +5778,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5966,7 +5984,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6044,10 +6062,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ25">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR25">
         <v>0.89</v>
@@ -6172,7 +6190,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6378,7 +6396,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6456,10 +6474,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
         <v>1.77</v>
@@ -6996,7 +7014,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7202,7 +7220,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7486,10 +7504,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR32">
         <v>2.16</v>
@@ -7614,7 +7632,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7820,7 +7838,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -7901,7 +7919,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR34">
         <v>0.86</v>
@@ -8438,7 +8456,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -9262,7 +9280,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9468,7 +9486,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9546,7 +9564,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ42">
         <v>2.57</v>
@@ -9674,7 +9692,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9880,7 +9898,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -9958,10 +9976,10 @@
         <v>2.33</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR44">
         <v>1.05</v>
@@ -10164,10 +10182,10 @@
         <v>1.5</v>
       </c>
       <c r="AP45">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR45">
         <v>1.74</v>
@@ -10292,7 +10310,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10370,10 +10388,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR46">
         <v>0.8100000000000001</v>
@@ -10498,7 +10516,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10704,7 +10722,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -10988,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49">
         <v>0.5</v>
@@ -11116,7 +11134,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11197,7 +11215,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>3.27</v>
@@ -11322,7 +11340,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11528,7 +11546,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11609,7 +11627,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ52">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR52">
         <v>1.62</v>
@@ -12018,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
         <v>0.38</v>
@@ -12146,7 +12164,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12352,7 +12370,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12558,7 +12576,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -12636,10 +12654,10 @@
         <v>1.67</v>
       </c>
       <c r="AP57">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ57">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1.02</v>
@@ -12845,7 +12863,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR58">
         <v>1.13</v>
@@ -13176,7 +13194,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13257,7 +13275,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>1.7</v>
@@ -13460,7 +13478,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ61">
         <v>1.38</v>
@@ -13588,7 +13606,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13794,7 +13812,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -13872,10 +13890,10 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR63">
         <v>1.21</v>
@@ -14000,7 +14018,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14081,7 +14099,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR64">
         <v>3.13</v>
@@ -14206,7 +14224,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14490,7 +14508,7 @@
         <v>0.75</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -14618,7 +14636,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14824,7 +14842,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14905,7 +14923,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ68">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR68">
         <v>1.56</v>
@@ -15111,7 +15129,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ69">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR69">
         <v>1.25</v>
@@ -15442,7 +15460,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15520,7 +15538,7 @@
         <v>2.17</v>
       </c>
       <c r="AP71">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ71">
         <v>2.29</v>
@@ -15729,7 +15747,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.39</v>
@@ -15935,7 +15953,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
         <v>2.71</v>
@@ -16060,7 +16078,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16344,7 +16362,7 @@
         <v>2.67</v>
       </c>
       <c r="AP75">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ75">
         <v>2.5</v>
@@ -16472,7 +16490,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16678,7 +16696,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16756,7 +16774,7 @@
         <v>1.5</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ77">
         <v>1.13</v>
@@ -16884,7 +16902,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -16962,10 +16980,10 @@
         <v>1.4</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ78">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
         <v>1.99</v>
@@ -17090,7 +17108,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17377,7 +17395,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR80">
         <v>1.28</v>
@@ -17502,7 +17520,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17708,7 +17726,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17914,7 +17932,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18120,7 +18138,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18198,7 +18216,7 @@
         <v>2.5</v>
       </c>
       <c r="AP84">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ84">
         <v>2.57</v>
@@ -18407,7 +18425,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR85">
         <v>1.83</v>
@@ -18819,7 +18837,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR87">
         <v>1.32</v>
@@ -18944,7 +18962,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19228,7 +19246,7 @@
         <v>0.43</v>
       </c>
       <c r="AP89">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ89">
         <v>0.38</v>
@@ -19323,7 +19341,7 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45604.69791666666</v>
+        <v>45603.875</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -19356,7 +19374,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19513,6 +19531,830 @@
       </c>
       <c r="BP90">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7727589</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45605.47916666666</v>
+      </c>
+      <c r="F91">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" t="s">
+        <v>73</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>5</v>
+      </c>
+      <c r="O91" t="s">
+        <v>149</v>
+      </c>
+      <c r="P91" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q91">
+        <v>2.88</v>
+      </c>
+      <c r="R91">
+        <v>2.25</v>
+      </c>
+      <c r="S91">
+        <v>3.1</v>
+      </c>
+      <c r="T91">
+        <v>1.33</v>
+      </c>
+      <c r="U91">
+        <v>3.25</v>
+      </c>
+      <c r="V91">
+        <v>2.5</v>
+      </c>
+      <c r="W91">
+        <v>1.5</v>
+      </c>
+      <c r="X91">
+        <v>5.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.13</v>
+      </c>
+      <c r="Z91">
+        <v>2.2</v>
+      </c>
+      <c r="AA91">
+        <v>3.75</v>
+      </c>
+      <c r="AB91">
+        <v>2.6</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>11</v>
+      </c>
+      <c r="AE91">
+        <v>1.17</v>
+      </c>
+      <c r="AF91">
+        <v>3.78</v>
+      </c>
+      <c r="AG91">
+        <v>1.7</v>
+      </c>
+      <c r="AH91">
+        <v>2.03</v>
+      </c>
+      <c r="AI91">
+        <v>1.62</v>
+      </c>
+      <c r="AJ91">
+        <v>2.2</v>
+      </c>
+      <c r="AK91">
+        <v>1.41</v>
+      </c>
+      <c r="AL91">
+        <v>1.25</v>
+      </c>
+      <c r="AM91">
+        <v>1.52</v>
+      </c>
+      <c r="AN91">
+        <v>1.57</v>
+      </c>
+      <c r="AO91">
+        <v>1.29</v>
+      </c>
+      <c r="AP91">
+        <v>1.75</v>
+      </c>
+      <c r="AQ91">
+        <v>1.13</v>
+      </c>
+      <c r="AR91">
+        <v>1.58</v>
+      </c>
+      <c r="AS91">
+        <v>1.51</v>
+      </c>
+      <c r="AT91">
+        <v>3.09</v>
+      </c>
+      <c r="AU91">
+        <v>6</v>
+      </c>
+      <c r="AV91">
+        <v>7</v>
+      </c>
+      <c r="AW91">
+        <v>4</v>
+      </c>
+      <c r="AX91">
+        <v>6</v>
+      </c>
+      <c r="AY91">
+        <v>10</v>
+      </c>
+      <c r="AZ91">
+        <v>13</v>
+      </c>
+      <c r="BA91">
+        <v>1</v>
+      </c>
+      <c r="BB91">
+        <v>5</v>
+      </c>
+      <c r="BC91">
+        <v>6</v>
+      </c>
+      <c r="BD91">
+        <v>2.33</v>
+      </c>
+      <c r="BE91">
+        <v>6.5</v>
+      </c>
+      <c r="BF91">
+        <v>1.87</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>1.27</v>
+      </c>
+      <c r="BJ91">
+        <v>3.04</v>
+      </c>
+      <c r="BK91">
+        <v>1.5</v>
+      </c>
+      <c r="BL91">
+        <v>2.22</v>
+      </c>
+      <c r="BM91">
+        <v>1.85</v>
+      </c>
+      <c r="BN91">
+        <v>1.85</v>
+      </c>
+      <c r="BO91">
+        <v>2.36</v>
+      </c>
+      <c r="BP91">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7727590</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45605.47916666666</v>
+      </c>
+      <c r="F92">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s">
+        <v>79</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92" t="s">
+        <v>85</v>
+      </c>
+      <c r="P92" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q92">
+        <v>3.5</v>
+      </c>
+      <c r="R92">
+        <v>2.5</v>
+      </c>
+      <c r="S92">
+        <v>2.38</v>
+      </c>
+      <c r="T92">
+        <v>1.25</v>
+      </c>
+      <c r="U92">
+        <v>3.75</v>
+      </c>
+      <c r="V92">
+        <v>2.1</v>
+      </c>
+      <c r="W92">
+        <v>1.67</v>
+      </c>
+      <c r="X92">
+        <v>4.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.17</v>
+      </c>
+      <c r="Z92">
+        <v>3.4</v>
+      </c>
+      <c r="AA92">
+        <v>3.75</v>
+      </c>
+      <c r="AB92">
+        <v>1.85</v>
+      </c>
+      <c r="AC92">
+        <v>1.01</v>
+      </c>
+      <c r="AD92">
+        <v>17</v>
+      </c>
+      <c r="AE92">
+        <v>1.07</v>
+      </c>
+      <c r="AF92">
+        <v>5.55</v>
+      </c>
+      <c r="AG92">
+        <v>1.43</v>
+      </c>
+      <c r="AH92">
+        <v>2.63</v>
+      </c>
+      <c r="AI92">
+        <v>1.44</v>
+      </c>
+      <c r="AJ92">
+        <v>2.63</v>
+      </c>
+      <c r="AK92">
+        <v>1.67</v>
+      </c>
+      <c r="AL92">
+        <v>1.21</v>
+      </c>
+      <c r="AM92">
+        <v>1.34</v>
+      </c>
+      <c r="AN92">
+        <v>0.71</v>
+      </c>
+      <c r="AO92">
+        <v>2</v>
+      </c>
+      <c r="AP92">
+        <v>0.63</v>
+      </c>
+      <c r="AQ92">
+        <v>2.13</v>
+      </c>
+      <c r="AR92">
+        <v>1.26</v>
+      </c>
+      <c r="AS92">
+        <v>1.37</v>
+      </c>
+      <c r="AT92">
+        <v>2.63</v>
+      </c>
+      <c r="AU92">
+        <v>7</v>
+      </c>
+      <c r="AV92">
+        <v>4</v>
+      </c>
+      <c r="AW92">
+        <v>8</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>15</v>
+      </c>
+      <c r="AZ92">
+        <v>9</v>
+      </c>
+      <c r="BA92">
+        <v>5</v>
+      </c>
+      <c r="BB92">
+        <v>7</v>
+      </c>
+      <c r="BC92">
+        <v>12</v>
+      </c>
+      <c r="BD92">
+        <v>2.73</v>
+      </c>
+      <c r="BE92">
+        <v>6.6</v>
+      </c>
+      <c r="BF92">
+        <v>1.67</v>
+      </c>
+      <c r="BG92">
+        <v>1.17</v>
+      </c>
+      <c r="BH92">
+        <v>3.78</v>
+      </c>
+      <c r="BI92">
+        <v>1.36</v>
+      </c>
+      <c r="BJ92">
+        <v>2.61</v>
+      </c>
+      <c r="BK92">
+        <v>1.7</v>
+      </c>
+      <c r="BL92">
+        <v>2.05</v>
+      </c>
+      <c r="BM92">
+        <v>2.06</v>
+      </c>
+      <c r="BN92">
+        <v>1.58</v>
+      </c>
+      <c r="BO92">
+        <v>2.73</v>
+      </c>
+      <c r="BP92">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7727591</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45605.47916666666</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>77</v>
+      </c>
+      <c r="H93" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>150</v>
+      </c>
+      <c r="P93" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q93">
+        <v>1.57</v>
+      </c>
+      <c r="R93">
+        <v>2.75</v>
+      </c>
+      <c r="S93">
+        <v>9.5</v>
+      </c>
+      <c r="T93">
+        <v>1.25</v>
+      </c>
+      <c r="U93">
+        <v>3.75</v>
+      </c>
+      <c r="V93">
+        <v>2.2</v>
+      </c>
+      <c r="W93">
+        <v>1.62</v>
+      </c>
+      <c r="X93">
+        <v>4.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.17</v>
+      </c>
+      <c r="Z93">
+        <v>1.11</v>
+      </c>
+      <c r="AA93">
+        <v>7</v>
+      </c>
+      <c r="AB93">
+        <v>14</v>
+      </c>
+      <c r="AC93">
+        <v>1.01</v>
+      </c>
+      <c r="AD93">
+        <v>17</v>
+      </c>
+      <c r="AE93">
+        <v>1.1</v>
+      </c>
+      <c r="AF93">
+        <v>4.8</v>
+      </c>
+      <c r="AG93">
+        <v>1.52</v>
+      </c>
+      <c r="AH93">
+        <v>2.36</v>
+      </c>
+      <c r="AI93">
+        <v>2.25</v>
+      </c>
+      <c r="AJ93">
+        <v>1.57</v>
+      </c>
+      <c r="AK93">
+        <v>1.04</v>
+      </c>
+      <c r="AL93">
+        <v>1.07</v>
+      </c>
+      <c r="AM93">
+        <v>4.45</v>
+      </c>
+      <c r="AN93">
+        <v>2</v>
+      </c>
+      <c r="AO93">
+        <v>1</v>
+      </c>
+      <c r="AP93">
+        <v>2.13</v>
+      </c>
+      <c r="AQ93">
+        <v>0.88</v>
+      </c>
+      <c r="AR93">
+        <v>1.97</v>
+      </c>
+      <c r="AS93">
+        <v>1.52</v>
+      </c>
+      <c r="AT93">
+        <v>3.49</v>
+      </c>
+      <c r="AU93">
+        <v>7</v>
+      </c>
+      <c r="AV93">
+        <v>2</v>
+      </c>
+      <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>7</v>
+      </c>
+      <c r="AY93">
+        <v>12</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>9</v>
+      </c>
+      <c r="BB93">
+        <v>3</v>
+      </c>
+      <c r="BC93">
+        <v>12</v>
+      </c>
+      <c r="BD93">
+        <v>1.12</v>
+      </c>
+      <c r="BE93">
+        <v>10.5</v>
+      </c>
+      <c r="BF93">
+        <v>7.7</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>1.33</v>
+      </c>
+      <c r="BJ93">
+        <v>2.73</v>
+      </c>
+      <c r="BK93">
+        <v>1.59</v>
+      </c>
+      <c r="BL93">
+        <v>2.05</v>
+      </c>
+      <c r="BM93">
+        <v>2.05</v>
+      </c>
+      <c r="BN93">
+        <v>1.7</v>
+      </c>
+      <c r="BO93">
+        <v>2.6</v>
+      </c>
+      <c r="BP93">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7727592</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45605.59375</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>76</v>
+      </c>
+      <c r="H94" t="s">
+        <v>75</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>6</v>
+      </c>
+      <c r="O94" t="s">
+        <v>151</v>
+      </c>
+      <c r="P94" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q94">
+        <v>2.88</v>
+      </c>
+      <c r="R94">
+        <v>2.2</v>
+      </c>
+      <c r="S94">
+        <v>3.25</v>
+      </c>
+      <c r="T94">
+        <v>1.36</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.63</v>
+      </c>
+      <c r="W94">
+        <v>1.44</v>
+      </c>
+      <c r="X94">
+        <v>6.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>2.31</v>
+      </c>
+      <c r="AA94">
+        <v>3.42</v>
+      </c>
+      <c r="AB94">
+        <v>2.8</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>10</v>
+      </c>
+      <c r="AE94">
+        <v>1.2</v>
+      </c>
+      <c r="AF94">
+        <v>3.52</v>
+      </c>
+      <c r="AG94">
+        <v>2</v>
+      </c>
+      <c r="AH94">
+        <v>1.75</v>
+      </c>
+      <c r="AI94">
+        <v>1.67</v>
+      </c>
+      <c r="AJ94">
+        <v>2.1</v>
+      </c>
+      <c r="AK94">
+        <v>1.38</v>
+      </c>
+      <c r="AL94">
+        <v>1.26</v>
+      </c>
+      <c r="AM94">
+        <v>1.53</v>
+      </c>
+      <c r="AN94">
+        <v>1.5</v>
+      </c>
+      <c r="AO94">
+        <v>1.29</v>
+      </c>
+      <c r="AP94">
+        <v>1.43</v>
+      </c>
+      <c r="AQ94">
+        <v>1.25</v>
+      </c>
+      <c r="AR94">
+        <v>1.18</v>
+      </c>
+      <c r="AS94">
+        <v>1.27</v>
+      </c>
+      <c r="AT94">
+        <v>2.45</v>
+      </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
+      <c r="AV94">
+        <v>7</v>
+      </c>
+      <c r="AW94">
+        <v>7</v>
+      </c>
+      <c r="AX94">
+        <v>8</v>
+      </c>
+      <c r="AY94">
+        <v>12</v>
+      </c>
+      <c r="AZ94">
+        <v>15</v>
+      </c>
+      <c r="BA94">
+        <v>7</v>
+      </c>
+      <c r="BB94">
+        <v>10</v>
+      </c>
+      <c r="BC94">
+        <v>17</v>
+      </c>
+      <c r="BD94">
+        <v>2.43</v>
+      </c>
+      <c r="BE94">
+        <v>6.2</v>
+      </c>
+      <c r="BF94">
+        <v>1.83</v>
+      </c>
+      <c r="BG94">
+        <v>1.29</v>
+      </c>
+      <c r="BH94">
+        <v>2.92</v>
+      </c>
+      <c r="BI94">
+        <v>1.55</v>
+      </c>
+      <c r="BJ94">
+        <v>2.12</v>
+      </c>
+      <c r="BK94">
+        <v>2.05</v>
+      </c>
+      <c r="BL94">
+        <v>1.7</v>
+      </c>
+      <c r="BM94">
+        <v>2.58</v>
+      </c>
+      <c r="BN94">
+        <v>1.37</v>
+      </c>
+      <c r="BO94">
+        <v>3.55</v>
+      </c>
+      <c r="BP94">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,9 @@
     <t>['4', '62', '69']</t>
   </si>
   <si>
+    <t>['36', '53']</t>
+  </si>
+  <si>
     <t>['45+2']</t>
   </si>
   <si>
@@ -620,9 +623,6 @@
   </si>
   <si>
     <t>['58', '85']</t>
-  </si>
-  <si>
-    <t>['47']</t>
   </si>
   <si>
     <t>['35', '47', '49']</t>
@@ -987,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1246,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>1.83</v>
@@ -1452,7 +1452,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q3">
         <v>3.75</v>
@@ -1658,7 +1658,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1945,7 +1945,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ5">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2688,7 +2688,7 @@
         <v>88</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3100,7 +3100,7 @@
         <v>89</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3306,7 +3306,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>2.9</v>
@@ -3387,7 +3387,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ12">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>2.63</v>
@@ -3718,7 +3718,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q14">
         <v>4.33</v>
@@ -4829,7 +4829,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ19">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>1.34</v>
@@ -4954,7 +4954,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>4.75</v>
@@ -5366,7 +5366,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5778,7 +5778,7 @@
         <v>97</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -5984,7 +5984,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>5.5</v>
@@ -6190,7 +6190,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>3.2</v>
@@ -6396,7 +6396,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>2.38</v>
@@ -6680,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ28">
         <v>0.38</v>
@@ -7014,7 +7014,7 @@
         <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>13</v>
@@ -7220,7 +7220,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>1.83</v>
@@ -7632,7 +7632,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7838,7 +7838,7 @@
         <v>85</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -8456,7 +8456,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>1.83</v>
@@ -8743,7 +8743,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ38">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -8946,7 +8946,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ39">
         <v>1.38</v>
@@ -9280,7 +9280,7 @@
         <v>110</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2.6</v>
@@ -9486,7 +9486,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9692,7 +9692,7 @@
         <v>85</v>
       </c>
       <c r="P43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9773,7 +9773,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ43">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>0.99</v>
@@ -9898,7 +9898,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>2.88</v>
@@ -10310,7 +10310,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>3.4</v>
@@ -10516,7 +10516,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q47">
         <v>2.25</v>
@@ -10722,7 +10722,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>2.5</v>
@@ -11134,7 +11134,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>1.67</v>
@@ -11212,7 +11212,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11340,7 +11340,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11546,7 +11546,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -12164,7 +12164,7 @@
         <v>114</v>
       </c>
       <c r="P55" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>9.5</v>
@@ -12370,7 +12370,7 @@
         <v>85</v>
       </c>
       <c r="P56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>6.5</v>
@@ -12576,7 +12576,7 @@
         <v>122</v>
       </c>
       <c r="P57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -13194,7 +13194,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60">
         <v>2.3</v>
@@ -13606,7 +13606,7 @@
         <v>85</v>
       </c>
       <c r="P62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -13687,7 +13687,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>1.49</v>
@@ -13812,7 +13812,7 @@
         <v>87</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>2.63</v>
@@ -14018,7 +14018,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>1.42</v>
@@ -14096,7 +14096,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ64">
         <v>2.13</v>
@@ -14224,7 +14224,7 @@
         <v>85</v>
       </c>
       <c r="P65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q65">
         <v>9</v>
@@ -14636,7 +14636,7 @@
         <v>129</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>2.5</v>
@@ -14842,7 +14842,7 @@
         <v>130</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -15332,7 +15332,7 @@
         <v>2.14</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ70">
         <v>1.67</v>
@@ -15460,7 +15460,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -15541,7 +15541,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ71">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.05</v>
@@ -15950,7 +15950,7 @@
         <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -16078,7 +16078,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>1.73</v>
@@ -16490,7 +16490,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16696,7 +16696,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>2.5</v>
@@ -16902,7 +16902,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>2.75</v>
@@ -17108,7 +17108,7 @@
         <v>139</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>3.1</v>
@@ -17520,7 +17520,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>19</v>
@@ -17726,7 +17726,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q82">
         <v>1.5</v>
@@ -17932,7 +17932,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>4.33</v>
@@ -18138,7 +18138,7 @@
         <v>143</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>11</v>
@@ -18962,7 +18962,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>4.75</v>
@@ -19341,10 +19341,10 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45603.875</v>
+        <v>45604.69791666666</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G90" t="s">
         <v>78</v>
@@ -19374,7 +19374,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q90">
         <v>4.75</v>
@@ -19580,7 +19580,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19992,7 +19992,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="Q93">
         <v>1.57</v>
@@ -20355,6 +20355,212 @@
       </c>
       <c r="BP94">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7727593</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45605.875</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>2</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" t="s">
+        <v>152</v>
+      </c>
+      <c r="P95" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q95">
+        <v>1.62</v>
+      </c>
+      <c r="R95">
+        <v>2.63</v>
+      </c>
+      <c r="S95">
+        <v>9</v>
+      </c>
+      <c r="T95">
+        <v>1.29</v>
+      </c>
+      <c r="U95">
+        <v>3.5</v>
+      </c>
+      <c r="V95">
+        <v>2.25</v>
+      </c>
+      <c r="W95">
+        <v>1.57</v>
+      </c>
+      <c r="X95">
+        <v>5</v>
+      </c>
+      <c r="Y95">
+        <v>1.14</v>
+      </c>
+      <c r="Z95">
+        <v>1.2</v>
+      </c>
+      <c r="AA95">
+        <v>6.5</v>
+      </c>
+      <c r="AB95">
+        <v>8</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>17</v>
+      </c>
+      <c r="AE95">
+        <v>1.13</v>
+      </c>
+      <c r="AF95">
+        <v>4.33</v>
+      </c>
+      <c r="AG95">
+        <v>1.57</v>
+      </c>
+      <c r="AH95">
+        <v>2.35</v>
+      </c>
+      <c r="AI95">
+        <v>2.25</v>
+      </c>
+      <c r="AJ95">
+        <v>1.57</v>
+      </c>
+      <c r="AK95">
+        <v>1</v>
+      </c>
+      <c r="AL95">
+        <v>1.08</v>
+      </c>
+      <c r="AM95">
+        <v>4.05</v>
+      </c>
+      <c r="AN95">
+        <v>2</v>
+      </c>
+      <c r="AO95">
+        <v>2.29</v>
+      </c>
+      <c r="AP95">
+        <v>2.14</v>
+      </c>
+      <c r="AQ95">
+        <v>2</v>
+      </c>
+      <c r="AR95">
+        <v>2.71</v>
+      </c>
+      <c r="AS95">
+        <v>1.4</v>
+      </c>
+      <c r="AT95">
+        <v>4.11</v>
+      </c>
+      <c r="AU95">
+        <v>6</v>
+      </c>
+      <c r="AV95">
+        <v>3</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>7</v>
+      </c>
+      <c r="AY95">
+        <v>13</v>
+      </c>
+      <c r="AZ95">
+        <v>10</v>
+      </c>
+      <c r="BA95">
+        <v>1</v>
+      </c>
+      <c r="BB95">
+        <v>3</v>
+      </c>
+      <c r="BC95">
+        <v>4</v>
+      </c>
+      <c r="BD95">
+        <v>1.12</v>
+      </c>
+      <c r="BE95">
+        <v>9.9</v>
+      </c>
+      <c r="BF95">
+        <v>7.8</v>
+      </c>
+      <c r="BG95">
+        <v>1.24</v>
+      </c>
+      <c r="BH95">
+        <v>3.22</v>
+      </c>
+      <c r="BI95">
+        <v>1.47</v>
+      </c>
+      <c r="BJ95">
+        <v>2.29</v>
+      </c>
+      <c r="BK95">
+        <v>1.85</v>
+      </c>
+      <c r="BL95">
+        <v>1.81</v>
+      </c>
+      <c r="BM95">
+        <v>2.36</v>
+      </c>
+      <c r="BN95">
+        <v>1.44</v>
+      </c>
+      <c r="BO95">
+        <v>3.22</v>
+      </c>
+      <c r="BP95">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Wales Welsh Premier League_20242025.xlsx
@@ -20371,7 +20371,7 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45605.875</v>
+        <v>45606.47916666666</v>
       </c>
       <c r="F95">
         <v>16</v>
